--- a/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
+++ b/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -3887,8 +3887,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6110,9 +6110,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+      <selection pane="topRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7064,14 +7064,16 @@
         <f>CONCATENATE(REGISTRATION!C11," ",REGISTRATION!D11," ",REGISTRATION!E11)</f>
         <v>Ambulo Anne Jelica R</v>
       </c>
-      <c r="D10" s="107"/>
+      <c r="D10" s="107">
+        <v>35</v>
+      </c>
       <c r="E10" s="92">
         <f>(D10/$D$9)*100</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F10" s="95">
         <f t="shared" ref="F10:F41" si="0">IFERROR((E10*$F$7), " ")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="107"/>
       <c r="H10" s="92" t="e">
@@ -7176,11 +7178,11 @@
       </c>
       <c r="BC10" s="98">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="BD10" s="98">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="BE10" s="107"/>
       <c r="BF10" s="92" t="str">
@@ -7290,7 +7292,7 @@
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>5.2</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7314,14 +7316,16 @@
         <f>CONCATENATE(REGISTRATION!C12," ",REGISTRATION!D12," ",REGISTRATION!E12)</f>
         <v>Amon Bryan Eriz C</v>
       </c>
-      <c r="D11" s="108"/>
+      <c r="D11" s="108">
+        <v>33</v>
+      </c>
       <c r="E11" s="92">
         <f>(D11/$D$9)*100</f>
-        <v>0</v>
+        <v>47.142857142857139</v>
       </c>
       <c r="F11" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.142857142857141</v>
       </c>
       <c r="G11" s="108"/>
       <c r="H11" s="92" t="e">
@@ -7426,11 +7430,11 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>13</v>
+        <v>27.142857142857139</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>13</v>
+        <v>27.14</v>
       </c>
       <c r="BE11" s="108"/>
       <c r="BF11" s="92" t="str">
@@ -7540,7 +7544,7 @@
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>5.2</v>
+        <v>10.856000000000002</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7564,14 +7568,16 @@
         <f>CONCATENATE(REGISTRATION!C13," ",REGISTRATION!D13," ",REGISTRATION!E13)</f>
         <v>Amutan Annalyn R</v>
       </c>
-      <c r="D12" s="108"/>
+      <c r="D12" s="108">
+        <v>58</v>
+      </c>
       <c r="E12" s="92">
         <f t="shared" ref="E12:E70" si="43">(D12/$D$9)*100</f>
-        <v>0</v>
+        <v>82.857142857142861</v>
       </c>
       <c r="F12" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24.857142857142858</v>
       </c>
       <c r="G12" s="108"/>
       <c r="H12" s="92" t="e">
@@ -7676,11 +7682,11 @@
       </c>
       <c r="BC12" s="98">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>39.857142857142861</v>
       </c>
       <c r="BD12" s="98">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>39.86</v>
       </c>
       <c r="BE12" s="108"/>
       <c r="BF12" s="92" t="str">
@@ -7790,7 +7796,7 @@
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>6</v>
+        <v>15.944000000000001</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7814,14 +7820,16 @@
         <f>CONCATENATE(REGISTRATION!C14," ",REGISTRATION!D14," ",REGISTRATION!E14)</f>
         <v>Arevalo Jethro V</v>
       </c>
-      <c r="D13" s="108"/>
+      <c r="D13" s="108">
+        <v>44</v>
+      </c>
       <c r="E13" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="F13" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="G13" s="108"/>
       <c r="H13" s="92" t="e">
@@ -7926,11 +7934,11 @@
       </c>
       <c r="BC13" s="98">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>28.857142857142854</v>
       </c>
       <c r="BD13" s="98">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>28.86</v>
       </c>
       <c r="BE13" s="108"/>
       <c r="BF13" s="92" t="str">
@@ -8040,7 +8048,7 @@
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>4</v>
+        <v>11.544</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8064,14 +8072,16 @@
         <f>CONCATENATE(REGISTRATION!C15," ",REGISTRATION!D15," ",REGISTRATION!E15)</f>
         <v>Baptista Jeffrey DC</v>
       </c>
-      <c r="D14" s="108"/>
+      <c r="D14" s="108">
+        <v>32</v>
+      </c>
       <c r="E14" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="F14" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="G14" s="108"/>
       <c r="H14" s="92" t="e">
@@ -8176,11 +8186,11 @@
       </c>
       <c r="BC14" s="98">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="BD14" s="98">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>27.71</v>
       </c>
       <c r="BE14" s="108"/>
       <c r="BF14" s="92" t="str">
@@ -8290,7 +8300,7 @@
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>5.6000000000000005</v>
+        <v>11.084000000000001</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8314,14 +8324,16 @@
         <f>CONCATENATE(REGISTRATION!C16," ",REGISTRATION!D16," ",REGISTRATION!E16)</f>
         <v>Baterna Kenneth M</v>
       </c>
-      <c r="D15" s="108"/>
+      <c r="D15" s="108">
+        <v>44</v>
+      </c>
       <c r="E15" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>62.857142857142854</v>
       </c>
       <c r="F15" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="G15" s="108"/>
       <c r="H15" s="92" t="e">
@@ -8426,11 +8438,11 @@
       </c>
       <c r="BC15" s="98">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>33.857142857142854</v>
       </c>
       <c r="BD15" s="98">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>33.86</v>
       </c>
       <c r="BE15" s="108"/>
       <c r="BF15" s="92" t="str">
@@ -8540,7 +8552,7 @@
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>6</v>
+        <v>13.544</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8564,14 +8576,16 @@
         <f>CONCATENATE(REGISTRATION!C17," ",REGISTRATION!D17," ",REGISTRATION!E17)</f>
         <v>Borja Ken G</v>
       </c>
-      <c r="D16" s="108"/>
+      <c r="D16" s="108">
+        <v>63</v>
+      </c>
       <c r="E16" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F16" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G16" s="108"/>
       <c r="H16" s="92" t="e">
@@ -8676,11 +8690,11 @@
       </c>
       <c r="BC16" s="98">
         <f t="shared" si="18"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="BD16" s="98">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="BE16" s="108"/>
       <c r="BF16" s="92" t="str">
@@ -8790,7 +8804,7 @@
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>6.8000000000000007</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9064,14 +9078,16 @@
         <f>CONCATENATE(REGISTRATION!C19," ",REGISTRATION!D19," ",REGISTRATION!E19)</f>
         <v>Buklatin Joseph Andrews A</v>
       </c>
-      <c r="D18" s="108"/>
+      <c r="D18" s="108">
+        <v>32</v>
+      </c>
       <c r="E18" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="F18" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="G18" s="108"/>
       <c r="H18" s="92" t="e">
@@ -9176,11 +9192,11 @@
       </c>
       <c r="BC18" s="98">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="BD18" s="98">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>13.71</v>
       </c>
       <c r="BE18" s="108"/>
       <c r="BF18" s="92" t="str">
@@ -9290,7 +9306,7 @@
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5.4840000000000009</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9314,14 +9330,16 @@
         <f>CONCATENATE(REGISTRATION!C20," ",REGISTRATION!D20," ",REGISTRATION!E20)</f>
         <v>Camitoc Anna Katrina A</v>
       </c>
-      <c r="D19" s="108"/>
+      <c r="D19" s="108">
+        <v>40</v>
+      </c>
       <c r="E19" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="F19" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="G19" s="108"/>
       <c r="H19" s="92" t="e">
@@ -9426,11 +9444,11 @@
       </c>
       <c r="BC19" s="98">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="BD19" s="98">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="BE19" s="108"/>
       <c r="BF19" s="92" t="str">
@@ -9540,7 +9558,7 @@
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>6.8560000000000008</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9564,14 +9582,16 @@
         <f>CONCATENATE(REGISTRATION!C21," ",REGISTRATION!D21," ",REGISTRATION!E21)</f>
         <v>Costelo Tyrone Jay A</v>
       </c>
-      <c r="D20" s="108"/>
+      <c r="D20" s="108">
+        <v>38</v>
+      </c>
       <c r="E20" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F20" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="92" t="e">
@@ -9676,11 +9696,11 @@
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>26.285714285714285</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>26.29</v>
       </c>
       <c r="BE20" s="108"/>
       <c r="BF20" s="92" t="str">
@@ -9790,7 +9810,7 @@
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>4</v>
+        <v>10.516</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9814,14 +9834,16 @@
         <f>CONCATENATE(REGISTRATION!C22," ",REGISTRATION!D22," ",REGISTRATION!E22)</f>
         <v>Creus Rondel Ian L</v>
       </c>
-      <c r="D21" s="108"/>
+      <c r="D21" s="108">
+        <v>39</v>
+      </c>
       <c r="E21" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>55.714285714285715</v>
       </c>
       <c r="F21" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="G21" s="108"/>
       <c r="H21" s="92" t="e">
@@ -9926,11 +9948,11 @@
       </c>
       <c r="BC21" s="98">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>29.714285714285715</v>
       </c>
       <c r="BD21" s="98">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>29.71</v>
       </c>
       <c r="BE21" s="108"/>
       <c r="BF21" s="92" t="str">
@@ -10040,7 +10062,7 @@
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>5.2</v>
+        <v>11.884</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10064,14 +10086,16 @@
         <f>CONCATENATE(REGISTRATION!C23," ",REGISTRATION!D23," ",REGISTRATION!E23)</f>
         <v>Cruz Jovanni P</v>
       </c>
-      <c r="D22" s="108"/>
+      <c r="D22" s="108">
+        <v>38</v>
+      </c>
       <c r="E22" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F22" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="G22" s="108"/>
       <c r="H22" s="92" t="e">
@@ -10176,11 +10200,11 @@
       </c>
       <c r="BC22" s="98">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>30.285714285714285</v>
       </c>
       <c r="BD22" s="98">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>30.29</v>
       </c>
       <c r="BE22" s="108"/>
       <c r="BF22" s="92" t="str">
@@ -10290,7 +10314,7 @@
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>5.6000000000000005</v>
+        <v>12.116</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10314,14 +10338,16 @@
         <f>CONCATENATE(REGISTRATION!C24," ",REGISTRATION!D24," ",REGISTRATION!E24)</f>
         <v>Cruz Tom Russell D</v>
       </c>
-      <c r="D23" s="108"/>
+      <c r="D23" s="108">
+        <v>38</v>
+      </c>
       <c r="E23" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F23" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="G23" s="108"/>
       <c r="H23" s="92" t="e">
@@ -10426,11 +10452,11 @@
       </c>
       <c r="BC23" s="98">
         <f t="shared" si="18"/>
-        <v>16</v>
+        <v>32.285714285714285</v>
       </c>
       <c r="BD23" s="98">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>32.29</v>
       </c>
       <c r="BE23" s="108"/>
       <c r="BF23" s="92" t="str">
@@ -10540,7 +10566,7 @@
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>6.4</v>
+        <v>12.916</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10564,14 +10590,16 @@
         <f>CONCATENATE(REGISTRATION!C25," ",REGISTRATION!D25," ",REGISTRATION!E25)</f>
         <v>Cuison Jayson E</v>
       </c>
-      <c r="D24" s="108"/>
+      <c r="D24" s="108">
+        <v>47</v>
+      </c>
       <c r="E24" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>67.142857142857139</v>
       </c>
       <c r="F24" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.142857142857142</v>
       </c>
       <c r="G24" s="108"/>
       <c r="H24" s="92" t="e">
@@ -10676,11 +10704,11 @@
       </c>
       <c r="BC24" s="98">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>20.142857142857142</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>20.14</v>
       </c>
       <c r="BE24" s="108"/>
       <c r="BF24" s="92" t="str">
@@ -10790,7 +10818,7 @@
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>8.0560000000000009</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10814,14 +10842,16 @@
         <f>CONCATENATE(REGISTRATION!C26," ",REGISTRATION!D26," ",REGISTRATION!E26)</f>
         <v>Espiritu Rasa Lila Dasi R</v>
       </c>
-      <c r="D25" s="108"/>
+      <c r="D25" s="108">
+        <v>50</v>
+      </c>
       <c r="E25" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="F25" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="G25" s="108"/>
       <c r="H25" s="92" t="e">
@@ -10926,11 +10956,11 @@
       </c>
       <c r="BC25" s="98">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>34.428571428571431</v>
       </c>
       <c r="BD25" s="98">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>34.43</v>
       </c>
       <c r="BE25" s="108"/>
       <c r="BF25" s="92" t="str">
@@ -11040,7 +11070,7 @@
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>5.2</v>
+        <v>13.772</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11314,14 +11344,16 @@
         <f>CONCATENATE(REGISTRATION!C28," ",REGISTRATION!D28," ",REGISTRATION!E28)</f>
         <v>Jose Carl Russel M</v>
       </c>
-      <c r="D27" s="108"/>
+      <c r="D27" s="108">
+        <v>39</v>
+      </c>
       <c r="E27" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>55.714285714285715</v>
       </c>
       <c r="F27" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="G27" s="108"/>
       <c r="H27" s="92" t="e">
@@ -11426,11 +11458,11 @@
       </c>
       <c r="BC27" s="98">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>31.714285714285715</v>
       </c>
       <c r="BD27" s="98">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>31.71</v>
       </c>
       <c r="BE27" s="108"/>
       <c r="BF27" s="92" t="str">
@@ -11540,7 +11572,7 @@
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>6</v>
+        <v>12.684000000000001</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11564,14 +11596,16 @@
         <f>CONCATENATE(REGISTRATION!C29," ",REGISTRATION!D29," ",REGISTRATION!E29)</f>
         <v>Jose Ralph Rholwen M</v>
       </c>
-      <c r="D28" s="108"/>
+      <c r="D28" s="108">
+        <v>38</v>
+      </c>
       <c r="E28" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F28" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="G28" s="108"/>
       <c r="H28" s="92" t="e">
@@ -11676,11 +11710,11 @@
       </c>
       <c r="BC28" s="98">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>26.285714285714285</v>
       </c>
       <c r="BD28" s="98">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>26.29</v>
       </c>
       <c r="BE28" s="108"/>
       <c r="BF28" s="92" t="str">
@@ -11790,7 +11824,7 @@
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>4</v>
+        <v>10.516</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12064,14 +12098,16 @@
         <f>CONCATENATE(REGISTRATION!C31," ",REGISTRATION!D31," ",REGISTRATION!E31)</f>
         <v>Masinas Karl Angelo B</v>
       </c>
-      <c r="D30" s="108"/>
+      <c r="D30" s="108">
+        <v>23</v>
+      </c>
       <c r="E30" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>32.857142857142854</v>
       </c>
       <c r="F30" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.8571428571428559</v>
       </c>
       <c r="G30" s="108"/>
       <c r="H30" s="92" t="e">
@@ -12176,11 +12212,11 @@
       </c>
       <c r="BC30" s="98">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>9.8571428571428559</v>
       </c>
       <c r="BD30" s="98">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>9.86</v>
       </c>
       <c r="BE30" s="108"/>
       <c r="BF30" s="92" t="str">
@@ -12290,7 +12326,7 @@
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3.944</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12314,14 +12350,16 @@
         <f>CONCATENATE(REGISTRATION!C32," ",REGISTRATION!D32," ",REGISTRATION!E32)</f>
         <v>Monzon Almer Ivan C</v>
       </c>
-      <c r="D31" s="108"/>
+      <c r="D31" s="108">
+        <v>38</v>
+      </c>
       <c r="E31" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F31" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="G31" s="108"/>
       <c r="H31" s="92" t="e">
@@ -12426,11 +12464,11 @@
       </c>
       <c r="BC31" s="98">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="BD31" s="98">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="BE31" s="108"/>
       <c r="BF31" s="92" t="str">
@@ -12540,7 +12578,7 @@
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12564,14 +12602,16 @@
         <f>CONCATENATE(REGISTRATION!C33," ",REGISTRATION!D33," ",REGISTRATION!E33)</f>
         <v>Mulitas Jarred R</v>
       </c>
-      <c r="D32" s="108"/>
+      <c r="D32" s="108">
+        <v>41</v>
+      </c>
       <c r="E32" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>58.571428571428577</v>
       </c>
       <c r="F32" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="G32" s="108"/>
       <c r="H32" s="92" t="e">
@@ -12676,11 +12716,11 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>11.000000000000002</v>
+        <v>28.571428571428577</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>28.57</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92" t="str">
@@ -12790,7 +12830,7 @@
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>4.4000000000000004</v>
+        <v>11.428000000000001</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12814,14 +12854,16 @@
         <f>CONCATENATE(REGISTRATION!C34," ",REGISTRATION!D34," ",REGISTRATION!E34)</f>
         <v>Mullanida Mark Angel B</v>
       </c>
-      <c r="D33" s="108"/>
+      <c r="D33" s="108">
+        <v>60</v>
+      </c>
       <c r="E33" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="F33" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="G33" s="108"/>
       <c r="H33" s="92" t="e">
@@ -12926,11 +12968,11 @@
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>18</v>
+        <v>43.714285714285708</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>18</v>
+        <v>43.71</v>
       </c>
       <c r="BE33" s="108"/>
       <c r="BF33" s="92" t="str">
@@ -13040,7 +13082,7 @@
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>7.2</v>
+        <v>17.484000000000002</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13064,14 +13106,16 @@
         <f>CONCATENATE(REGISTRATION!C35," ",REGISTRATION!D35," ",REGISTRATION!E35)</f>
         <v>Noynoyan Bryan Kentt B</v>
       </c>
-      <c r="D34" s="108"/>
+      <c r="D34" s="108">
+        <v>66</v>
+      </c>
       <c r="E34" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>94.285714285714278</v>
       </c>
       <c r="F34" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28.285714285714281</v>
       </c>
       <c r="G34" s="108"/>
       <c r="H34" s="92" t="e">
@@ -13176,11 +13220,11 @@
       </c>
       <c r="BC34" s="98">
         <f t="shared" si="18"/>
-        <v>17</v>
+        <v>45.285714285714278</v>
       </c>
       <c r="BD34" s="98">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>45.29</v>
       </c>
       <c r="BE34" s="108"/>
       <c r="BF34" s="92" t="str">
@@ -13290,7 +13334,7 @@
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>6.8000000000000007</v>
+        <v>18.116</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13314,14 +13358,16 @@
         <f>CONCATENATE(REGISTRATION!C36," ",REGISTRATION!D36," ",REGISTRATION!E36)</f>
         <v>Ocampo Ryan Daniel V</v>
       </c>
-      <c r="D35" s="108"/>
+      <c r="D35" s="108">
+        <v>28</v>
+      </c>
       <c r="E35" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F35" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G35" s="108"/>
       <c r="H35" s="92" t="e">
@@ -13426,11 +13472,11 @@
       </c>
       <c r="BC35" s="98">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="BD35" s="98">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="BE35" s="108"/>
       <c r="BF35" s="92" t="str">
@@ -13540,7 +13586,7 @@
       </c>
       <c r="CS35" s="104">
         <f t="shared" si="45"/>
-        <v>5.6000000000000005</v>
+        <v>10.4</v>
       </c>
       <c r="CT35" s="104">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13564,14 +13610,16 @@
         <f>CONCATENATE(REGISTRATION!C37," ",REGISTRATION!D37," ",REGISTRATION!E37)</f>
         <v>Parianes Kenneth V</v>
       </c>
-      <c r="D36" s="108"/>
+      <c r="D36" s="108">
+        <v>51</v>
+      </c>
       <c r="E36" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>72.857142857142847</v>
       </c>
       <c r="F36" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="G36" s="108"/>
       <c r="H36" s="92" t="e">
@@ -13676,11 +13724,11 @@
       </c>
       <c r="BC36" s="98">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>35.857142857142854</v>
       </c>
       <c r="BD36" s="98">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>35.86</v>
       </c>
       <c r="BE36" s="108"/>
       <c r="BF36" s="92" t="str">
@@ -13790,7 +13838,7 @@
       </c>
       <c r="CS36" s="104">
         <f t="shared" si="45"/>
-        <v>5.6000000000000005</v>
+        <v>14.344000000000001</v>
       </c>
       <c r="CT36" s="104">
         <f>IFERROR(VLOOKUP(CS36,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13814,14 +13862,16 @@
         <f>CONCATENATE(REGISTRATION!C38," ",REGISTRATION!D38," ",REGISTRATION!E38)</f>
         <v>Ramos Shaine Marie R</v>
       </c>
-      <c r="D37" s="108"/>
+      <c r="D37" s="108">
+        <v>48</v>
+      </c>
       <c r="E37" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>68.571428571428569</v>
       </c>
       <c r="F37" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="G37" s="108"/>
       <c r="H37" s="92" t="e">
@@ -13926,11 +13976,11 @@
       </c>
       <c r="BC37" s="98">
         <f t="shared" si="18"/>
-        <v>11.000000000000002</v>
+        <v>31.571428571428569</v>
       </c>
       <c r="BD37" s="98">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>31.57</v>
       </c>
       <c r="BE37" s="108"/>
       <c r="BF37" s="92" t="str">
@@ -14040,7 +14090,7 @@
       </c>
       <c r="CS37" s="104">
         <f t="shared" si="45"/>
-        <v>4.4000000000000004</v>
+        <v>12.628</v>
       </c>
       <c r="CT37" s="104">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14064,14 +14114,16 @@
         <f>CONCATENATE(REGISTRATION!C39," ",REGISTRATION!D39," ",REGISTRATION!E39)</f>
         <v>Ravelo John Dyron B</v>
       </c>
-      <c r="D38" s="108"/>
+      <c r="D38" s="108">
+        <v>38</v>
+      </c>
       <c r="E38" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F38" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="G38" s="108"/>
       <c r="H38" s="92" t="e">
@@ -14176,11 +14228,11 @@
       </c>
       <c r="BC38" s="98">
         <f t="shared" si="18"/>
-        <v>16</v>
+        <v>32.285714285714285</v>
       </c>
       <c r="BD38" s="98">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>32.29</v>
       </c>
       <c r="BE38" s="108"/>
       <c r="BF38" s="92" t="str">
@@ -14290,7 +14342,7 @@
       </c>
       <c r="CS38" s="104">
         <f t="shared" si="45"/>
-        <v>6.4</v>
+        <v>12.916</v>
       </c>
       <c r="CT38" s="104">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14314,14 +14366,16 @@
         <f>CONCATENATE(REGISTRATION!C40," ",REGISTRATION!D40," ",REGISTRATION!E40)</f>
         <v xml:space="preserve">Santos Ariel </v>
       </c>
-      <c r="D39" s="108"/>
+      <c r="D39" s="108">
+        <v>57</v>
+      </c>
       <c r="E39" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>81.428571428571431</v>
       </c>
       <c r="F39" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24.428571428571427</v>
       </c>
       <c r="G39" s="108"/>
       <c r="H39" s="92" t="e">
@@ -14426,11 +14480,11 @@
       </c>
       <c r="BC39" s="98">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>39.428571428571431</v>
       </c>
       <c r="BD39" s="98">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>39.43</v>
       </c>
       <c r="BE39" s="108"/>
       <c r="BF39" s="92" t="str">
@@ -14540,7 +14594,7 @@
       </c>
       <c r="CS39" s="104">
         <f t="shared" si="45"/>
-        <v>6</v>
+        <v>15.772</v>
       </c>
       <c r="CT39" s="104">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14564,14 +14618,16 @@
         <f>CONCATENATE(REGISTRATION!C41," ",REGISTRATION!D41," ",REGISTRATION!E41)</f>
         <v>Sibul Mark Anthony B</v>
       </c>
-      <c r="D40" s="108"/>
+      <c r="D40" s="108">
+        <v>35</v>
+      </c>
       <c r="E40" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F40" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G40" s="108"/>
       <c r="H40" s="92" t="e">
@@ -14676,11 +14732,11 @@
       </c>
       <c r="BC40" s="98">
         <f t="shared" si="18"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="BD40" s="98">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="BE40" s="108"/>
       <c r="BF40" s="92" t="str">
@@ -14790,7 +14846,7 @@
       </c>
       <c r="CS40" s="104">
         <f t="shared" si="45"/>
-        <v>6.4</v>
+        <v>12.4</v>
       </c>
       <c r="CT40" s="104">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14814,14 +14870,16 @@
         <f>CONCATENATE(REGISTRATION!C42," ",REGISTRATION!D42," ",REGISTRATION!E42)</f>
         <v>Videña Cheryl R</v>
       </c>
-      <c r="D41" s="108"/>
+      <c r="D41" s="108">
+        <v>36</v>
+      </c>
       <c r="E41" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>51.428571428571423</v>
       </c>
       <c r="F41" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.428571428571427</v>
       </c>
       <c r="G41" s="108"/>
       <c r="H41" s="92" t="e">
@@ -14926,11 +14984,11 @@
       </c>
       <c r="BC41" s="98">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>22.428571428571427</v>
       </c>
       <c r="BD41" s="98">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>22.43</v>
       </c>
       <c r="BE41" s="108"/>
       <c r="BF41" s="92" t="str">
@@ -15040,7 +15098,7 @@
       </c>
       <c r="CS41" s="104">
         <f t="shared" si="45"/>
-        <v>2.8000000000000003</v>
+        <v>8.9719999999999995</v>
       </c>
       <c r="CT41" s="104">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15064,14 +15122,16 @@
         <f>CONCATENATE(REGISTRATION!C43," ",REGISTRATION!D43," ",REGISTRATION!E43)</f>
         <v>Villamar Raynald M</v>
       </c>
-      <c r="D42" s="108"/>
+      <c r="D42" s="108">
+        <v>39</v>
+      </c>
       <c r="E42" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>55.714285714285715</v>
       </c>
       <c r="F42" s="95">
         <f t="shared" ref="F42:F70" si="46">IFERROR((E42*$F$7), " ")</f>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="G42" s="108"/>
       <c r="H42" s="92" t="e">
@@ -15176,11 +15236,11 @@
       </c>
       <c r="BC42" s="98">
         <f t="shared" si="18"/>
-        <v>8</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="BD42" s="98">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>24.71</v>
       </c>
       <c r="BE42" s="108"/>
       <c r="BF42" s="92" t="str">
@@ -15290,7 +15350,7 @@
       </c>
       <c r="CS42" s="104">
         <f t="shared" si="45"/>
-        <v>3.2</v>
+        <v>9.8840000000000003</v>
       </c>
       <c r="CT42" s="104">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22549,7 +22609,7 @@
       </c>
       <c r="C8" s="51">
         <f>'RAW GRADES'!F10</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D8" s="89" t="str">
         <f>'RAW GRADES'!I10</f>
@@ -22569,11 +22629,11 @@
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J8" s="52" t="str">
         <f>'RAW GRADES'!BK10</f>
@@ -22593,7 +22653,7 @@
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>5.2</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -22614,7 +22674,7 @@
       </c>
       <c r="C9" s="57">
         <f>'RAW GRADES'!F11</f>
-        <v>0</v>
+        <v>14.142857142857141</v>
       </c>
       <c r="D9" s="89" t="str">
         <f>'RAW GRADES'!I11</f>
@@ -22634,11 +22694,11 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>13</v>
+        <v>27.142857142857139</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>13</v>
+        <v>27.14</v>
       </c>
       <c r="J9" s="52" t="str">
         <f>'RAW GRADES'!BK11</f>
@@ -22658,7 +22718,7 @@
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>5.2</v>
+        <v>10.856000000000002</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -22679,7 +22739,7 @@
       </c>
       <c r="C10" s="57">
         <f>'RAW GRADES'!F12</f>
-        <v>0</v>
+        <v>24.857142857142858</v>
       </c>
       <c r="D10" s="89" t="str">
         <f>'RAW GRADES'!I12</f>
@@ -22699,11 +22759,11 @@
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>15</v>
+        <v>39.857142857142861</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>15</v>
+        <v>39.86</v>
       </c>
       <c r="J10" s="52" t="str">
         <f>'RAW GRADES'!BK12</f>
@@ -22723,7 +22783,7 @@
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>6</v>
+        <v>15.944000000000001</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -22744,7 +22804,7 @@
       </c>
       <c r="C11" s="57">
         <f>'RAW GRADES'!F13</f>
-        <v>0</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="D11" s="89" t="str">
         <f>'RAW GRADES'!I13</f>
@@ -22764,11 +22824,11 @@
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>10</v>
+        <v>28.857142857142854</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>10</v>
+        <v>28.86</v>
       </c>
       <c r="J11" s="52" t="str">
         <f>'RAW GRADES'!BK13</f>
@@ -22788,7 +22848,7 @@
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>4</v>
+        <v>11.544</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -22809,7 +22869,7 @@
       </c>
       <c r="C12" s="57">
         <f>'RAW GRADES'!F14</f>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="D12" s="89" t="str">
         <f>'RAW GRADES'!I14</f>
@@ -22829,11 +22889,11 @@
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>14</v>
+        <v>27.714285714285715</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>14</v>
+        <v>27.71</v>
       </c>
       <c r="J12" s="52" t="str">
         <f>'RAW GRADES'!BK14</f>
@@ -22853,7 +22913,7 @@
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>5.6000000000000005</v>
+        <v>11.084000000000001</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -22874,7 +22934,7 @@
       </c>
       <c r="C13" s="57">
         <f>'RAW GRADES'!F15</f>
-        <v>0</v>
+        <v>18.857142857142854</v>
       </c>
       <c r="D13" s="89" t="str">
         <f>'RAW GRADES'!I15</f>
@@ -22894,11 +22954,11 @@
       </c>
       <c r="H13" s="53">
         <f>'RAW GRADES'!BC15</f>
-        <v>15</v>
+        <v>33.857142857142854</v>
       </c>
       <c r="I13" s="53">
         <f>'RAW GRADES'!BD15</f>
-        <v>15</v>
+        <v>33.86</v>
       </c>
       <c r="J13" s="52" t="str">
         <f>'RAW GRADES'!BK15</f>
@@ -22918,7 +22978,7 @@
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>6</v>
+        <v>13.544</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -22939,7 +22999,7 @@
       </c>
       <c r="C14" s="57">
         <f>'RAW GRADES'!F16</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D14" s="89" t="str">
         <f>'RAW GRADES'!I16</f>
@@ -22959,11 +23019,11 @@
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J14" s="52" t="str">
         <f>'RAW GRADES'!BK16</f>
@@ -22983,7 +23043,7 @@
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>6.8000000000000007</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23069,7 +23129,7 @@
       </c>
       <c r="C16" s="57">
         <f>'RAW GRADES'!F18</f>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="D16" s="89" t="str">
         <f>'RAW GRADES'!I18</f>
@@ -23089,11 +23149,11 @@
       </c>
       <c r="H16" s="53">
         <f>'RAW GRADES'!BC18</f>
-        <v>0</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="I16" s="53">
         <f>'RAW GRADES'!BD18</f>
-        <v>0</v>
+        <v>13.71</v>
       </c>
       <c r="J16" s="52" t="str">
         <f>'RAW GRADES'!BK18</f>
@@ -23113,7 +23173,7 @@
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>0</v>
+        <v>5.4840000000000009</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23134,7 +23194,7 @@
       </c>
       <c r="C17" s="57">
         <f>'RAW GRADES'!F19</f>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="D17" s="89" t="str">
         <f>'RAW GRADES'!I19</f>
@@ -23154,11 +23214,11 @@
       </c>
       <c r="H17" s="53">
         <f>'RAW GRADES'!BC19</f>
-        <v>0</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="I17" s="53">
         <f>'RAW GRADES'!BD19</f>
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="J17" s="52" t="str">
         <f>'RAW GRADES'!BK19</f>
@@ -23178,7 +23238,7 @@
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>0</v>
+        <v>6.8560000000000008</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23199,7 +23259,7 @@
       </c>
       <c r="C18" s="57">
         <f>'RAW GRADES'!F20</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="D18" s="89" t="str">
         <f>'RAW GRADES'!I20</f>
@@ -23219,11 +23279,11 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>10</v>
+        <v>26.285714285714285</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>10</v>
+        <v>26.29</v>
       </c>
       <c r="J18" s="52" t="str">
         <f>'RAW GRADES'!BK20</f>
@@ -23243,7 +23303,7 @@
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>4</v>
+        <v>10.516</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23264,7 +23324,7 @@
       </c>
       <c r="C19" s="57">
         <f>'RAW GRADES'!F21</f>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="D19" s="89" t="str">
         <f>'RAW GRADES'!I21</f>
@@ -23284,11 +23344,11 @@
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>13</v>
+        <v>29.714285714285715</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>13</v>
+        <v>29.71</v>
       </c>
       <c r="J19" s="52" t="str">
         <f>'RAW GRADES'!BK21</f>
@@ -23308,7 +23368,7 @@
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>5.2</v>
+        <v>11.884</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23329,7 +23389,7 @@
       </c>
       <c r="C20" s="57">
         <f>'RAW GRADES'!F22</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="D20" s="89" t="str">
         <f>'RAW GRADES'!I22</f>
@@ -23349,11 +23409,11 @@
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>14</v>
+        <v>30.285714285714285</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>14</v>
+        <v>30.29</v>
       </c>
       <c r="J20" s="52" t="str">
         <f>'RAW GRADES'!BK22</f>
@@ -23373,7 +23433,7 @@
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>5.6000000000000005</v>
+        <v>12.116</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23394,7 +23454,7 @@
       </c>
       <c r="C21" s="57">
         <f>'RAW GRADES'!F23</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="D21" s="89" t="str">
         <f>'RAW GRADES'!I23</f>
@@ -23414,11 +23474,11 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>16</v>
+        <v>32.285714285714285</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>16</v>
+        <v>32.29</v>
       </c>
       <c r="J21" s="52" t="str">
         <f>'RAW GRADES'!BK23</f>
@@ -23438,7 +23498,7 @@
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>6.4</v>
+        <v>12.916</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23459,7 +23519,7 @@
       </c>
       <c r="C22" s="57">
         <f>'RAW GRADES'!F24</f>
-        <v>0</v>
+        <v>20.142857142857142</v>
       </c>
       <c r="D22" s="89" t="str">
         <f>'RAW GRADES'!I24</f>
@@ -23479,11 +23539,11 @@
       </c>
       <c r="H22" s="53">
         <f>'RAW GRADES'!BC24</f>
-        <v>0</v>
+        <v>20.142857142857142</v>
       </c>
       <c r="I22" s="53">
         <f>'RAW GRADES'!BD24</f>
-        <v>0</v>
+        <v>20.14</v>
       </c>
       <c r="J22" s="52" t="str">
         <f>'RAW GRADES'!BK24</f>
@@ -23503,7 +23563,7 @@
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>0</v>
+        <v>8.0560000000000009</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -23524,7 +23584,7 @@
       </c>
       <c r="C23" s="57">
         <f>'RAW GRADES'!F25</f>
-        <v>0</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="D23" s="89" t="str">
         <f>'RAW GRADES'!I25</f>
@@ -23544,11 +23604,11 @@
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>13</v>
+        <v>34.428571428571431</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>13</v>
+        <v>34.43</v>
       </c>
       <c r="J23" s="52" t="str">
         <f>'RAW GRADES'!BK25</f>
@@ -23568,7 +23628,7 @@
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>5.2</v>
+        <v>13.772</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -23654,7 +23714,7 @@
       </c>
       <c r="C25" s="57">
         <f>'RAW GRADES'!F27</f>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="D25" s="89" t="str">
         <f>'RAW GRADES'!I27</f>
@@ -23674,11 +23734,11 @@
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>15</v>
+        <v>31.714285714285715</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>15</v>
+        <v>31.71</v>
       </c>
       <c r="J25" s="52" t="str">
         <f>'RAW GRADES'!BK27</f>
@@ -23698,7 +23758,7 @@
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>6</v>
+        <v>12.684000000000001</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -23719,7 +23779,7 @@
       </c>
       <c r="C26" s="57">
         <f>'RAW GRADES'!F28</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="D26" s="89" t="str">
         <f>'RAW GRADES'!I28</f>
@@ -23739,11 +23799,11 @@
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>10</v>
+        <v>26.285714285714285</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>10</v>
+        <v>26.29</v>
       </c>
       <c r="J26" s="52" t="str">
         <f>'RAW GRADES'!BK28</f>
@@ -23763,7 +23823,7 @@
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>4</v>
+        <v>10.516</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -23849,7 +23909,7 @@
       </c>
       <c r="C28" s="57">
         <f>'RAW GRADES'!F30</f>
-        <v>0</v>
+        <v>9.8571428571428559</v>
       </c>
       <c r="D28" s="89" t="str">
         <f>'RAW GRADES'!I30</f>
@@ -23869,11 +23929,11 @@
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>0</v>
+        <v>9.8571428571428559</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>0</v>
+        <v>9.86</v>
       </c>
       <c r="J28" s="52" t="str">
         <f>'RAW GRADES'!BK30</f>
@@ -23893,7 +23953,7 @@
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>0</v>
+        <v>3.944</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -23914,7 +23974,7 @@
       </c>
       <c r="C29" s="57">
         <f>'RAW GRADES'!F31</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="D29" s="89" t="str">
         <f>'RAW GRADES'!I31</f>
@@ -23934,11 +23994,11 @@
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="J29" s="52" t="str">
         <f>'RAW GRADES'!BK31</f>
@@ -23958,7 +24018,7 @@
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>0</v>
+        <v>6.516</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -23979,7 +24039,7 @@
       </c>
       <c r="C30" s="57">
         <f>'RAW GRADES'!F32</f>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="D30" s="89" t="str">
         <f>'RAW GRADES'!I32</f>
@@ -23999,11 +24059,11 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>11.000000000000002</v>
+        <v>28.571428571428577</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>11</v>
+        <v>28.57</v>
       </c>
       <c r="J30" s="52" t="str">
         <f>'RAW GRADES'!BK32</f>
@@ -24023,7 +24083,7 @@
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>4.4000000000000004</v>
+        <v>11.428000000000001</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24044,7 +24104,7 @@
       </c>
       <c r="C31" s="57">
         <f>'RAW GRADES'!F33</f>
-        <v>0</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="D31" s="89" t="str">
         <f>'RAW GRADES'!I33</f>
@@ -24064,11 +24124,11 @@
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>18</v>
+        <v>43.714285714285708</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>18</v>
+        <v>43.71</v>
       </c>
       <c r="J31" s="52" t="str">
         <f>'RAW GRADES'!BK33</f>
@@ -24088,7 +24148,7 @@
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>7.2</v>
+        <v>17.484000000000002</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24109,7 +24169,7 @@
       </c>
       <c r="C32" s="57">
         <f>'RAW GRADES'!F34</f>
-        <v>0</v>
+        <v>28.285714285714281</v>
       </c>
       <c r="D32" s="89" t="str">
         <f>'RAW GRADES'!I34</f>
@@ -24129,11 +24189,11 @@
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>17</v>
+        <v>45.285714285714278</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>17</v>
+        <v>45.29</v>
       </c>
       <c r="J32" s="52" t="str">
         <f>'RAW GRADES'!BK34</f>
@@ -24153,7 +24213,7 @@
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>6.8000000000000007</v>
+        <v>18.116</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -24174,7 +24234,7 @@
       </c>
       <c r="C33" s="57">
         <f>'RAW GRADES'!F35</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D33" s="89" t="str">
         <f>'RAW GRADES'!I35</f>
@@ -24194,11 +24254,11 @@
       </c>
       <c r="H33" s="53">
         <f>'RAW GRADES'!BC35</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I33" s="53">
         <f>'RAW GRADES'!BD35</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J33" s="52" t="str">
         <f>'RAW GRADES'!BK35</f>
@@ -24218,7 +24278,7 @@
       </c>
       <c r="N33" s="58">
         <f>'RAW GRADES'!CS35</f>
-        <v>5.6000000000000005</v>
+        <v>10.4</v>
       </c>
       <c r="O33" s="56">
         <f>'RAW GRADES'!CT35</f>
@@ -24239,7 +24299,7 @@
       </c>
       <c r="C34" s="57">
         <f>'RAW GRADES'!F36</f>
-        <v>0</v>
+        <v>21.857142857142854</v>
       </c>
       <c r="D34" s="89" t="str">
         <f>'RAW GRADES'!I36</f>
@@ -24259,11 +24319,11 @@
       </c>
       <c r="H34" s="53">
         <f>'RAW GRADES'!BC36</f>
-        <v>14</v>
+        <v>35.857142857142854</v>
       </c>
       <c r="I34" s="53">
         <f>'RAW GRADES'!BD36</f>
-        <v>14</v>
+        <v>35.86</v>
       </c>
       <c r="J34" s="52" t="str">
         <f>'RAW GRADES'!BK36</f>
@@ -24283,7 +24343,7 @@
       </c>
       <c r="N34" s="58">
         <f>'RAW GRADES'!CS36</f>
-        <v>5.6000000000000005</v>
+        <v>14.344000000000001</v>
       </c>
       <c r="O34" s="56">
         <f>'RAW GRADES'!CT36</f>
@@ -24304,7 +24364,7 @@
       </c>
       <c r="C35" s="57">
         <f>'RAW GRADES'!F37</f>
-        <v>0</v>
+        <v>20.571428571428569</v>
       </c>
       <c r="D35" s="89" t="str">
         <f>'RAW GRADES'!I37</f>
@@ -24324,11 +24384,11 @@
       </c>
       <c r="H35" s="53">
         <f>'RAW GRADES'!BC37</f>
-        <v>11.000000000000002</v>
+        <v>31.571428571428569</v>
       </c>
       <c r="I35" s="53">
         <f>'RAW GRADES'!BD37</f>
-        <v>11</v>
+        <v>31.57</v>
       </c>
       <c r="J35" s="52" t="str">
         <f>'RAW GRADES'!BK37</f>
@@ -24348,7 +24408,7 @@
       </c>
       <c r="N35" s="58">
         <f>'RAW GRADES'!CS37</f>
-        <v>4.4000000000000004</v>
+        <v>12.628</v>
       </c>
       <c r="O35" s="56">
         <f>'RAW GRADES'!CT37</f>
@@ -24369,7 +24429,7 @@
       </c>
       <c r="C36" s="57">
         <f>'RAW GRADES'!F38</f>
-        <v>0</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="D36" s="89" t="str">
         <f>'RAW GRADES'!I38</f>
@@ -24389,11 +24449,11 @@
       </c>
       <c r="H36" s="53">
         <f>'RAW GRADES'!BC38</f>
-        <v>16</v>
+        <v>32.285714285714285</v>
       </c>
       <c r="I36" s="53">
         <f>'RAW GRADES'!BD38</f>
-        <v>16</v>
+        <v>32.29</v>
       </c>
       <c r="J36" s="52" t="str">
         <f>'RAW GRADES'!BK38</f>
@@ -24413,7 +24473,7 @@
       </c>
       <c r="N36" s="58">
         <f>'RAW GRADES'!CS38</f>
-        <v>6.4</v>
+        <v>12.916</v>
       </c>
       <c r="O36" s="56">
         <f>'RAW GRADES'!CT38</f>
@@ -24434,7 +24494,7 @@
       </c>
       <c r="C37" s="57">
         <f>'RAW GRADES'!F39</f>
-        <v>0</v>
+        <v>24.428571428571427</v>
       </c>
       <c r="D37" s="89" t="str">
         <f>'RAW GRADES'!I39</f>
@@ -24454,11 +24514,11 @@
       </c>
       <c r="H37" s="53">
         <f>'RAW GRADES'!BC39</f>
-        <v>15</v>
+        <v>39.428571428571431</v>
       </c>
       <c r="I37" s="53">
         <f>'RAW GRADES'!BD39</f>
-        <v>15</v>
+        <v>39.43</v>
       </c>
       <c r="J37" s="52" t="str">
         <f>'RAW GRADES'!BK39</f>
@@ -24478,7 +24538,7 @@
       </c>
       <c r="N37" s="58">
         <f>'RAW GRADES'!CS39</f>
-        <v>6</v>
+        <v>15.772</v>
       </c>
       <c r="O37" s="56">
         <f>'RAW GRADES'!CT39</f>
@@ -24499,7 +24559,7 @@
       </c>
       <c r="C38" s="57">
         <f>'RAW GRADES'!F40</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D38" s="89" t="str">
         <f>'RAW GRADES'!I40</f>
@@ -24519,11 +24579,11 @@
       </c>
       <c r="H38" s="53">
         <f>'RAW GRADES'!BC40</f>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I38" s="53">
         <f>'RAW GRADES'!BD40</f>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J38" s="52" t="str">
         <f>'RAW GRADES'!BK40</f>
@@ -24543,7 +24603,7 @@
       </c>
       <c r="N38" s="58">
         <f>'RAW GRADES'!CS40</f>
-        <v>6.4</v>
+        <v>12.4</v>
       </c>
       <c r="O38" s="56">
         <f>'RAW GRADES'!CT40</f>
@@ -24564,7 +24624,7 @@
       </c>
       <c r="C39" s="57">
         <f>'RAW GRADES'!F41</f>
-        <v>0</v>
+        <v>15.428571428571427</v>
       </c>
       <c r="D39" s="89" t="str">
         <f>'RAW GRADES'!I41</f>
@@ -24584,11 +24644,11 @@
       </c>
       <c r="H39" s="53">
         <f>'RAW GRADES'!BC41</f>
-        <v>7</v>
+        <v>22.428571428571427</v>
       </c>
       <c r="I39" s="53">
         <f>'RAW GRADES'!BD41</f>
-        <v>7</v>
+        <v>22.43</v>
       </c>
       <c r="J39" s="52" t="str">
         <f>'RAW GRADES'!BK41</f>
@@ -24608,7 +24668,7 @@
       </c>
       <c r="N39" s="58">
         <f>'RAW GRADES'!CS41</f>
-        <v>2.8000000000000003</v>
+        <v>8.9719999999999995</v>
       </c>
       <c r="O39" s="56">
         <f>'RAW GRADES'!CT41</f>
@@ -24629,7 +24689,7 @@
       </c>
       <c r="C40" s="57">
         <f>'RAW GRADES'!F42</f>
-        <v>0</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="D40" s="89" t="str">
         <f>'RAW GRADES'!I42</f>
@@ -24649,11 +24709,11 @@
       </c>
       <c r="H40" s="53">
         <f>'RAW GRADES'!BC42</f>
-        <v>8</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="I40" s="53">
         <f>'RAW GRADES'!BD42</f>
-        <v>8</v>
+        <v>24.71</v>
       </c>
       <c r="J40" s="52" t="str">
         <f>'RAW GRADES'!BK42</f>
@@ -24673,7 +24733,7 @@
       </c>
       <c r="N40" s="58">
         <f>'RAW GRADES'!CS42</f>
-        <v>3.2</v>
+        <v>9.8840000000000003</v>
       </c>
       <c r="O40" s="56">
         <f>'RAW GRADES'!CT42</f>
@@ -28313,7 +28373,7 @@
       <c r="D87" s="60"/>
       <c r="E87" s="246">
         <f ca="1">NOW()</f>
-        <v>43011.57723599537</v>
+        <v>43014.518733449077</v>
       </c>
       <c r="F87" s="246"/>
     </row>

--- a/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
+++ b/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
@@ -2359,37 +2359,91 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2429,96 +2483,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2559,93 +2646,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2704,102 +2704,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2873,6 +2777,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3876,7 +3876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3909,82 +3909,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="128" t="s">
+      <c r="A6" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="129"/>
+      <c r="F6" s="165"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3992,28 +3992,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="3" t="s">
         <v>275</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="134"/>
+      <c r="F7" s="170"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4021,28 +4021,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="134" t="s">
+      <c r="J7" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="8" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4050,45 +4050,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145" t="s">
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="148" t="s">
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="149"/>
-      <c r="L9" s="148" t="s">
+      <c r="K9" s="143"/>
+      <c r="L9" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="149"/>
+      <c r="M9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="141"/>
-      <c r="B10" s="143"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4098,14 +4098,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4126,19 +4126,19 @@
       <c r="F11" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="154"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="156"/>
-      <c r="O11" s="166" t="s">
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="147"/>
+      <c r="O11" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="168"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="138"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4159,21 +4159,21 @@
       <c r="F12" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="164" t="s">
+      <c r="P12" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4194,21 +4194,21 @@
       <c r="F13" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="164" t="s">
+      <c r="P13" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4229,21 +4229,21 @@
       <c r="F14" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="161" t="s">
+      <c r="P14" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="163"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="130"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4264,21 +4264,21 @@
       <c r="F15" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="161" t="s">
+      <c r="P15" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="163"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="130"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4299,21 +4299,21 @@
       <c r="F16" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="169" t="s">
+      <c r="P16" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="171"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="141"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4334,21 +4334,21 @@
       <c r="F17" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="161" t="s">
+      <c r="P17" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="163"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4369,13 +4369,13 @@
       <c r="F18" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4396,13 +4396,13 @@
       <c r="F19" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4423,13 +4423,13 @@
       <c r="F20" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4450,13 +4450,13 @@
       <c r="F21" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4480,13 +4480,13 @@
       <c r="F22" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4513,13 +4513,13 @@
       <c r="F23" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4546,13 +4546,13 @@
       <c r="F24" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4579,13 +4579,13 @@
       <c r="F25" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4612,13 +4612,13 @@
       <c r="F26" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4645,13 +4645,13 @@
       <c r="F27" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4678,13 +4678,13 @@
       <c r="F28" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4711,13 +4711,13 @@
       <c r="F29" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4744,13 +4744,13 @@
       <c r="F30" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4777,13 +4777,13 @@
       <c r="F31" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4806,13 +4806,13 @@
       <c r="F32" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4839,13 +4839,13 @@
       <c r="F33" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4866,13 +4866,13 @@
       <c r="F34" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4893,13 +4893,13 @@
       <c r="F35" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4920,13 +4920,13 @@
       <c r="F36" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4947,13 +4947,13 @@
       <c r="F37" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4974,13 +4974,13 @@
       <c r="F38" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="152"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -5001,13 +5001,13 @@
       <c r="F39" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5026,13 +5026,13 @@
       <c r="F40" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="152"/>
-      <c r="K40" s="152"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5053,13 +5053,13 @@
       <c r="F41" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="152"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5080,13 +5080,13 @@
       <c r="F42" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="152"/>
-      <c r="K42" s="152"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5107,13 +5107,13 @@
       <c r="F43" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5124,13 +5124,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="152"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5141,13 +5141,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="152"/>
-      <c r="K45" s="152"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5158,13 +5158,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5175,13 +5175,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="152"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="134"/>
+      <c r="M47" s="134"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5192,13 +5192,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="153"/>
-      <c r="M48" s="153"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5209,13 +5209,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="152"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5226,13 +5226,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="152"/>
-      <c r="L50" s="153"/>
-      <c r="M50" s="153"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5243,13 +5243,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="152"/>
-      <c r="K51" s="152"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="153"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5260,13 +5260,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="152"/>
-      <c r="K52" s="152"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5277,13 +5277,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="152"/>
-      <c r="K53" s="152"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="153"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5294,13 +5294,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="152"/>
-      <c r="K54" s="152"/>
-      <c r="L54" s="153"/>
-      <c r="M54" s="153"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5311,13 +5311,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="151"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
-      <c r="J55" s="152"/>
-      <c r="K55" s="152"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="153"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="133"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="134"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5328,13 +5328,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="152"/>
-      <c r="K56" s="152"/>
-      <c r="L56" s="153"/>
-      <c r="M56" s="153"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5345,13 +5345,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="152"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="153"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5362,13 +5362,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="152"/>
-      <c r="L58" s="153"/>
-      <c r="M58" s="153"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5379,13 +5379,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="151"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
-      <c r="J59" s="152"/>
-      <c r="K59" s="152"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="153"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="133"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5396,13 +5396,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="151"/>
-      <c r="H60" s="151"/>
-      <c r="I60" s="151"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="152"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="132"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5413,13 +5413,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="151"/>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
-      <c r="J61" s="152"/>
-      <c r="K61" s="152"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="133"/>
+      <c r="L61" s="134"/>
+      <c r="M61" s="134"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5430,13 +5430,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="151"/>
-      <c r="H62" s="151"/>
-      <c r="I62" s="151"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="152"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="153"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5447,13 +5447,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="151"/>
-      <c r="H63" s="151"/>
-      <c r="I63" s="151"/>
-      <c r="J63" s="152"/>
-      <c r="K63" s="152"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="153"/>
+      <c r="G63" s="132"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="133"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5464,13 +5464,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="151"/>
-      <c r="H64" s="151"/>
-      <c r="I64" s="151"/>
-      <c r="J64" s="152"/>
-      <c r="K64" s="152"/>
-      <c r="L64" s="153"/>
-      <c r="M64" s="153"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="133"/>
+      <c r="K64" s="133"/>
+      <c r="L64" s="134"/>
+      <c r="M64" s="134"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5481,13 +5481,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="151"/>
-      <c r="H65" s="151"/>
-      <c r="I65" s="151"/>
-      <c r="J65" s="152"/>
-      <c r="K65" s="152"/>
-      <c r="L65" s="153"/>
-      <c r="M65" s="153"/>
+      <c r="G65" s="132"/>
+      <c r="H65" s="132"/>
+      <c r="I65" s="132"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="133"/>
+      <c r="L65" s="134"/>
+      <c r="M65" s="134"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5498,13 +5498,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="151"/>
-      <c r="H66" s="151"/>
-      <c r="I66" s="151"/>
-      <c r="J66" s="152"/>
-      <c r="K66" s="152"/>
-      <c r="L66" s="153"/>
-      <c r="M66" s="153"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="133"/>
+      <c r="K66" s="133"/>
+      <c r="L66" s="134"/>
+      <c r="M66" s="134"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5515,13 +5515,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="151"/>
-      <c r="H67" s="151"/>
-      <c r="I67" s="151"/>
-      <c r="J67" s="152"/>
-      <c r="K67" s="152"/>
-      <c r="L67" s="153"/>
-      <c r="M67" s="153"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="134"/>
+      <c r="M67" s="134"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5532,13 +5532,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="151"/>
-      <c r="H68" s="151"/>
-      <c r="I68" s="151"/>
-      <c r="J68" s="152"/>
-      <c r="K68" s="152"/>
-      <c r="L68" s="153"/>
-      <c r="M68" s="153"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="133"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5549,13 +5549,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="151"/>
-      <c r="H69" s="151"/>
-      <c r="I69" s="151"/>
-      <c r="J69" s="152"/>
-      <c r="K69" s="152"/>
-      <c r="L69" s="153"/>
-      <c r="M69" s="153"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="133"/>
+      <c r="L69" s="134"/>
+      <c r="M69" s="134"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5566,13 +5566,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="151"/>
-      <c r="H70" s="151"/>
-      <c r="I70" s="151"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="152"/>
-      <c r="L70" s="153"/>
-      <c r="M70" s="153"/>
+      <c r="G70" s="132"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="132"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="134"/>
+      <c r="M70" s="134"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5583,13 +5583,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="151"/>
-      <c r="I71" s="151"/>
-      <c r="J71" s="152"/>
-      <c r="K71" s="152"/>
-      <c r="L71" s="153"/>
-      <c r="M71" s="153"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="133"/>
+      <c r="L71" s="134"/>
+      <c r="M71" s="134"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5597,6 +5597,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5621,195 +5810,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="equal">
@@ -6110,9 +6110,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K23" sqref="K23"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6126,452 +6126,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="165"/>
-      <c r="AJ2" s="165"/>
-      <c r="AK2" s="165"/>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="165"/>
-      <c r="AN2" s="165"/>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="165"/>
-      <c r="AQ2" s="165"/>
-      <c r="AR2" s="165"/>
-      <c r="AS2" s="165"/>
-      <c r="AT2" s="165"/>
-      <c r="AU2" s="165"/>
-      <c r="AV2" s="165"/>
-      <c r="AW2" s="165"/>
-      <c r="AX2" s="165"/>
-      <c r="AY2" s="165"/>
-      <c r="AZ2" s="165"/>
-      <c r="BA2" s="165"/>
-      <c r="BB2" s="165"/>
-      <c r="BC2" s="165"/>
-      <c r="BD2" s="165"/>
-      <c r="BE2" s="165"/>
-      <c r="BF2" s="165"/>
-      <c r="BG2" s="165"/>
-      <c r="BH2" s="165"/>
-      <c r="BI2" s="165"/>
-      <c r="BJ2" s="165"/>
-      <c r="BK2" s="165"/>
-      <c r="BL2" s="165"/>
-      <c r="BM2" s="165"/>
-      <c r="BN2" s="165"/>
-      <c r="BO2" s="165"/>
-      <c r="BP2" s="165"/>
-      <c r="BQ2" s="165"/>
-      <c r="BR2" s="165"/>
-      <c r="BS2" s="165"/>
-      <c r="BT2" s="165"/>
-      <c r="BU2" s="165"/>
-      <c r="BV2" s="165"/>
-      <c r="BW2" s="165"/>
-      <c r="BX2" s="165"/>
-      <c r="BY2" s="165"/>
-      <c r="BZ2" s="165"/>
-      <c r="CA2" s="165"/>
-      <c r="CB2" s="165"/>
-      <c r="CC2" s="165"/>
-      <c r="CD2" s="165"/>
-      <c r="CE2" s="165"/>
-      <c r="CF2" s="165"/>
-      <c r="CG2" s="165"/>
-      <c r="CH2" s="165"/>
-      <c r="CI2" s="165"/>
-      <c r="CJ2" s="165"/>
-      <c r="CK2" s="165"/>
-      <c r="CL2" s="165"/>
-      <c r="CM2" s="165"/>
-      <c r="CN2" s="165"/>
-      <c r="CO2" s="165"/>
-      <c r="CP2" s="165"/>
-      <c r="CQ2" s="165"/>
-      <c r="CR2" s="165"/>
-      <c r="CS2" s="165"/>
-      <c r="CT2" s="165"/>
-      <c r="CU2" s="165"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="135"/>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="135"/>
+      <c r="BR2" s="135"/>
+      <c r="BS2" s="135"/>
+      <c r="BT2" s="135"/>
+      <c r="BU2" s="135"/>
+      <c r="BV2" s="135"/>
+      <c r="BW2" s="135"/>
+      <c r="BX2" s="135"/>
+      <c r="BY2" s="135"/>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135"/>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135"/>
+      <c r="CF2" s="135"/>
+      <c r="CG2" s="135"/>
+      <c r="CH2" s="135"/>
+      <c r="CI2" s="135"/>
+      <c r="CJ2" s="135"/>
+      <c r="CK2" s="135"/>
+      <c r="CL2" s="135"/>
+      <c r="CM2" s="135"/>
+      <c r="CN2" s="135"/>
+      <c r="CO2" s="135"/>
+      <c r="CP2" s="135"/>
+      <c r="CQ2" s="135"/>
+      <c r="CR2" s="135"/>
+      <c r="CS2" s="135"/>
+      <c r="CT2" s="135"/>
+      <c r="CU2" s="135"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="165"/>
-      <c r="AL3" s="165"/>
-      <c r="AM3" s="165"/>
-      <c r="AN3" s="165"/>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="165"/>
-      <c r="AQ3" s="165"/>
-      <c r="AR3" s="165"/>
-      <c r="AS3" s="165"/>
-      <c r="AT3" s="165"/>
-      <c r="AU3" s="165"/>
-      <c r="AV3" s="165"/>
-      <c r="AW3" s="165"/>
-      <c r="AX3" s="165"/>
-      <c r="AY3" s="165"/>
-      <c r="AZ3" s="165"/>
-      <c r="BA3" s="165"/>
-      <c r="BB3" s="165"/>
-      <c r="BC3" s="165"/>
-      <c r="BD3" s="165"/>
-      <c r="BE3" s="165"/>
-      <c r="BF3" s="165"/>
-      <c r="BG3" s="165"/>
-      <c r="BH3" s="165"/>
-      <c r="BI3" s="165"/>
-      <c r="BJ3" s="165"/>
-      <c r="BK3" s="165"/>
-      <c r="BL3" s="165"/>
-      <c r="BM3" s="165"/>
-      <c r="BN3" s="165"/>
-      <c r="BO3" s="165"/>
-      <c r="BP3" s="165"/>
-      <c r="BQ3" s="165"/>
-      <c r="BR3" s="165"/>
-      <c r="BS3" s="165"/>
-      <c r="BT3" s="165"/>
-      <c r="BU3" s="165"/>
-      <c r="BV3" s="165"/>
-      <c r="BW3" s="165"/>
-      <c r="BX3" s="165"/>
-      <c r="BY3" s="165"/>
-      <c r="BZ3" s="165"/>
-      <c r="CA3" s="165"/>
-      <c r="CB3" s="165"/>
-      <c r="CC3" s="165"/>
-      <c r="CD3" s="165"/>
-      <c r="CE3" s="165"/>
-      <c r="CF3" s="165"/>
-      <c r="CG3" s="165"/>
-      <c r="CH3" s="165"/>
-      <c r="CI3" s="165"/>
-      <c r="CJ3" s="165"/>
-      <c r="CK3" s="165"/>
-      <c r="CL3" s="165"/>
-      <c r="CM3" s="165"/>
-      <c r="CN3" s="165"/>
-      <c r="CO3" s="165"/>
-      <c r="CP3" s="165"/>
-      <c r="CQ3" s="165"/>
-      <c r="CR3" s="165"/>
-      <c r="CS3" s="165"/>
-      <c r="CT3" s="165"/>
-      <c r="CU3" s="165"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="135"/>
+      <c r="AR3" s="135"/>
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="135"/>
+      <c r="BC3" s="135"/>
+      <c r="BD3" s="135"/>
+      <c r="BE3" s="135"/>
+      <c r="BF3" s="135"/>
+      <c r="BG3" s="135"/>
+      <c r="BH3" s="135"/>
+      <c r="BI3" s="135"/>
+      <c r="BJ3" s="135"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="135"/>
+      <c r="BM3" s="135"/>
+      <c r="BN3" s="135"/>
+      <c r="BO3" s="135"/>
+      <c r="BP3" s="135"/>
+      <c r="BQ3" s="135"/>
+      <c r="BR3" s="135"/>
+      <c r="BS3" s="135"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="135"/>
+      <c r="BX3" s="135"/>
+      <c r="BY3" s="135"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="135"/>
+      <c r="CB3" s="135"/>
+      <c r="CC3" s="135"/>
+      <c r="CD3" s="135"/>
+      <c r="CE3" s="135"/>
+      <c r="CF3" s="135"/>
+      <c r="CG3" s="135"/>
+      <c r="CH3" s="135"/>
+      <c r="CI3" s="135"/>
+      <c r="CJ3" s="135"/>
+      <c r="CK3" s="135"/>
+      <c r="CL3" s="135"/>
+      <c r="CM3" s="135"/>
+      <c r="CN3" s="135"/>
+      <c r="CO3" s="135"/>
+      <c r="CP3" s="135"/>
+      <c r="CQ3" s="135"/>
+      <c r="CR3" s="135"/>
+      <c r="CS3" s="135"/>
+      <c r="CT3" s="135"/>
+      <c r="CU3" s="135"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="177" t="s">
+      <c r="D5" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="178"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="178"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="178"/>
-      <c r="V5" s="178"/>
-      <c r="W5" s="178"/>
-      <c r="X5" s="178"/>
-      <c r="Y5" s="178"/>
-      <c r="Z5" s="178"/>
-      <c r="AA5" s="178"/>
-      <c r="AB5" s="178"/>
-      <c r="AC5" s="178"/>
-      <c r="AD5" s="178"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="178"/>
-      <c r="AG5" s="178"/>
-      <c r="AH5" s="178"/>
-      <c r="AI5" s="178"/>
-      <c r="AJ5" s="178"/>
-      <c r="AK5" s="178"/>
-      <c r="AL5" s="178"/>
-      <c r="AM5" s="178"/>
-      <c r="AN5" s="178"/>
-      <c r="AO5" s="178"/>
-      <c r="AP5" s="178"/>
-      <c r="AQ5" s="178"/>
-      <c r="AR5" s="178"/>
-      <c r="AS5" s="178"/>
-      <c r="AT5" s="178"/>
-      <c r="AU5" s="178"/>
-      <c r="AV5" s="178"/>
-      <c r="AW5" s="178"/>
-      <c r="AX5" s="178"/>
-      <c r="AY5" s="178"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="178"/>
-      <c r="BB5" s="178"/>
-      <c r="BC5" s="178"/>
-      <c r="BD5" s="179"/>
-      <c r="BE5" s="180" t="s">
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="203"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="203"/>
+      <c r="X5" s="203"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203"/>
+      <c r="AA5" s="203"/>
+      <c r="AB5" s="203"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="203"/>
+      <c r="AI5" s="203"/>
+      <c r="AJ5" s="203"/>
+      <c r="AK5" s="203"/>
+      <c r="AL5" s="203"/>
+      <c r="AM5" s="203"/>
+      <c r="AN5" s="203"/>
+      <c r="AO5" s="203"/>
+      <c r="AP5" s="203"/>
+      <c r="AQ5" s="203"/>
+      <c r="AR5" s="203"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="203"/>
+      <c r="AU5" s="203"/>
+      <c r="AV5" s="203"/>
+      <c r="AW5" s="203"/>
+      <c r="AX5" s="203"/>
+      <c r="AY5" s="203"/>
+      <c r="AZ5" s="203"/>
+      <c r="BA5" s="203"/>
+      <c r="BB5" s="203"/>
+      <c r="BC5" s="203"/>
+      <c r="BD5" s="204"/>
+      <c r="BE5" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="181"/>
-      <c r="BH5" s="181"/>
-      <c r="BI5" s="181"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="181"/>
-      <c r="BO5" s="181"/>
-      <c r="BP5" s="181"/>
-      <c r="BQ5" s="181"/>
-      <c r="BR5" s="181"/>
-      <c r="BS5" s="181"/>
-      <c r="BT5" s="181"/>
-      <c r="BU5" s="181"/>
-      <c r="BV5" s="181"/>
-      <c r="BW5" s="181"/>
-      <c r="BX5" s="181"/>
-      <c r="BY5" s="181"/>
-      <c r="BZ5" s="181"/>
-      <c r="CA5" s="181"/>
-      <c r="CB5" s="181"/>
-      <c r="CC5" s="181"/>
-      <c r="CD5" s="181"/>
-      <c r="CE5" s="181"/>
-      <c r="CF5" s="181"/>
-      <c r="CG5" s="181"/>
-      <c r="CH5" s="181"/>
-      <c r="CI5" s="181"/>
-      <c r="CJ5" s="181"/>
-      <c r="CK5" s="181"/>
-      <c r="CL5" s="181"/>
-      <c r="CM5" s="181"/>
-      <c r="CN5" s="181"/>
-      <c r="CO5" s="181"/>
-      <c r="CP5" s="181"/>
-      <c r="CQ5" s="181"/>
-      <c r="CR5" s="182"/>
-      <c r="CS5" s="187" t="s">
+      <c r="BF5" s="206"/>
+      <c r="BG5" s="206"/>
+      <c r="BH5" s="206"/>
+      <c r="BI5" s="206"/>
+      <c r="BJ5" s="206"/>
+      <c r="BK5" s="206"/>
+      <c r="BL5" s="206"/>
+      <c r="BM5" s="206"/>
+      <c r="BN5" s="206"/>
+      <c r="BO5" s="206"/>
+      <c r="BP5" s="206"/>
+      <c r="BQ5" s="206"/>
+      <c r="BR5" s="206"/>
+      <c r="BS5" s="206"/>
+      <c r="BT5" s="206"/>
+      <c r="BU5" s="206"/>
+      <c r="BV5" s="206"/>
+      <c r="BW5" s="206"/>
+      <c r="BX5" s="206"/>
+      <c r="BY5" s="206"/>
+      <c r="BZ5" s="206"/>
+      <c r="CA5" s="206"/>
+      <c r="CB5" s="206"/>
+      <c r="CC5" s="206"/>
+      <c r="CD5" s="206"/>
+      <c r="CE5" s="206"/>
+      <c r="CF5" s="206"/>
+      <c r="CG5" s="206"/>
+      <c r="CH5" s="206"/>
+      <c r="CI5" s="206"/>
+      <c r="CJ5" s="206"/>
+      <c r="CK5" s="206"/>
+      <c r="CL5" s="206"/>
+      <c r="CM5" s="206"/>
+      <c r="CN5" s="206"/>
+      <c r="CO5" s="206"/>
+      <c r="CP5" s="206"/>
+      <c r="CQ5" s="206"/>
+      <c r="CR5" s="207"/>
+      <c r="CS5" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="188"/>
-      <c r="CU5" s="189"/>
+      <c r="CT5" s="195"/>
+      <c r="CU5" s="196"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="174"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="207" t="s">
+      <c r="A6" s="199"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="193" t="s">
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="193"/>
-      <c r="AA6" s="193"/>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="193"/>
-      <c r="AD6" s="193"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193"/>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="193"/>
-      <c r="AJ6" s="193"/>
-      <c r="AK6" s="193"/>
-      <c r="AL6" s="193"/>
-      <c r="AM6" s="193"/>
-      <c r="AN6" s="193"/>
-      <c r="AO6" s="193" t="s">
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="180"/>
+      <c r="U6" s="180"/>
+      <c r="V6" s="180"/>
+      <c r="W6" s="180"/>
+      <c r="X6" s="180"/>
+      <c r="Y6" s="180"/>
+      <c r="Z6" s="180"/>
+      <c r="AA6" s="180"/>
+      <c r="AB6" s="180"/>
+      <c r="AC6" s="180"/>
+      <c r="AD6" s="180"/>
+      <c r="AE6" s="180"/>
+      <c r="AF6" s="180"/>
+      <c r="AG6" s="180"/>
+      <c r="AH6" s="180"/>
+      <c r="AI6" s="180"/>
+      <c r="AJ6" s="180"/>
+      <c r="AK6" s="180"/>
+      <c r="AL6" s="180"/>
+      <c r="AM6" s="180"/>
+      <c r="AN6" s="180"/>
+      <c r="AO6" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="193"/>
-      <c r="AQ6" s="193"/>
-      <c r="AR6" s="193"/>
-      <c r="AS6" s="193" t="s">
+      <c r="AP6" s="180"/>
+      <c r="AQ6" s="180"/>
+      <c r="AR6" s="180"/>
+      <c r="AS6" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="193"/>
-      <c r="AU6" s="193"/>
-      <c r="AV6" s="193" t="s">
+      <c r="AT6" s="180"/>
+      <c r="AU6" s="180"/>
+      <c r="AV6" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="193"/>
-      <c r="AX6" s="193"/>
-      <c r="AY6" s="193"/>
-      <c r="AZ6" s="193"/>
-      <c r="BA6" s="193"/>
-      <c r="BB6" s="193"/>
-      <c r="BC6" s="197" t="s">
+      <c r="AW6" s="180"/>
+      <c r="AX6" s="180"/>
+      <c r="AY6" s="180"/>
+      <c r="AZ6" s="180"/>
+      <c r="BA6" s="180"/>
+      <c r="BB6" s="180"/>
+      <c r="BC6" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="198"/>
-      <c r="BE6" s="199" t="s">
+      <c r="BD6" s="188"/>
+      <c r="BE6" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="200"/>
-      <c r="BG6" s="200"/>
-      <c r="BH6" s="200"/>
-      <c r="BI6" s="200"/>
-      <c r="BJ6" s="200"/>
-      <c r="BK6" s="201"/>
-      <c r="BL6" s="202" t="s">
+      <c r="BF6" s="190"/>
+      <c r="BG6" s="190"/>
+      <c r="BH6" s="190"/>
+      <c r="BI6" s="190"/>
+      <c r="BJ6" s="190"/>
+      <c r="BK6" s="191"/>
+      <c r="BL6" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="200"/>
-      <c r="BN6" s="200"/>
-      <c r="BO6" s="200"/>
-      <c r="BP6" s="200"/>
-      <c r="BQ6" s="200"/>
-      <c r="BR6" s="200"/>
-      <c r="BS6" s="200"/>
-      <c r="BT6" s="200"/>
-      <c r="BU6" s="200"/>
-      <c r="BV6" s="200"/>
-      <c r="BW6" s="200"/>
-      <c r="BX6" s="200"/>
-      <c r="BY6" s="200"/>
-      <c r="BZ6" s="200"/>
-      <c r="CA6" s="200"/>
-      <c r="CB6" s="200"/>
-      <c r="CC6" s="200"/>
-      <c r="CD6" s="200"/>
-      <c r="CE6" s="200"/>
-      <c r="CF6" s="200"/>
-      <c r="CG6" s="200"/>
-      <c r="CH6" s="200"/>
-      <c r="CI6" s="200"/>
-      <c r="CJ6" s="200"/>
-      <c r="CK6" s="200"/>
-      <c r="CL6" s="200"/>
-      <c r="CM6" s="200"/>
-      <c r="CN6" s="200"/>
-      <c r="CO6" s="200"/>
-      <c r="CP6" s="200"/>
-      <c r="CQ6" s="190" t="s">
+      <c r="BM6" s="190"/>
+      <c r="BN6" s="190"/>
+      <c r="BO6" s="190"/>
+      <c r="BP6" s="190"/>
+      <c r="BQ6" s="190"/>
+      <c r="BR6" s="190"/>
+      <c r="BS6" s="190"/>
+      <c r="BT6" s="190"/>
+      <c r="BU6" s="190"/>
+      <c r="BV6" s="190"/>
+      <c r="BW6" s="190"/>
+      <c r="BX6" s="190"/>
+      <c r="BY6" s="190"/>
+      <c r="BZ6" s="190"/>
+      <c r="CA6" s="190"/>
+      <c r="CB6" s="190"/>
+      <c r="CC6" s="190"/>
+      <c r="CD6" s="190"/>
+      <c r="CE6" s="190"/>
+      <c r="CF6" s="190"/>
+      <c r="CG6" s="190"/>
+      <c r="CH6" s="190"/>
+      <c r="CI6" s="190"/>
+      <c r="CJ6" s="190"/>
+      <c r="CK6" s="190"/>
+      <c r="CL6" s="190"/>
+      <c r="CM6" s="190"/>
+      <c r="CN6" s="190"/>
+      <c r="CO6" s="190"/>
+      <c r="CP6" s="190"/>
+      <c r="CQ6" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="190"/>
-      <c r="CS6" s="172" t="s">
+      <c r="CR6" s="197"/>
+      <c r="CS6" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="172" t="s">
+      <c r="CT6" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="194" t="s">
+      <c r="CU6" s="184" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="201"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6580,318 +6580,318 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="185" t="s">
+      <c r="J7" s="179" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="186">
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="183">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="186"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="185"/>
-      <c r="X7" s="185"/>
-      <c r="Y7" s="185"/>
-      <c r="Z7" s="185"/>
-      <c r="AA7" s="185"/>
-      <c r="AB7" s="185"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="185"/>
-      <c r="AF7" s="185"/>
-      <c r="AG7" s="185"/>
-      <c r="AH7" s="185"/>
-      <c r="AI7" s="185"/>
-      <c r="AJ7" s="185"/>
-      <c r="AK7" s="185"/>
-      <c r="AL7" s="185"/>
-      <c r="AM7" s="185"/>
+      <c r="U7" s="183"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="179"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="179"/>
+      <c r="AI7" s="179"/>
+      <c r="AJ7" s="179"/>
+      <c r="AK7" s="179"/>
+      <c r="AL7" s="179"/>
+      <c r="AM7" s="179"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="185"/>
-      <c r="AP7" s="185"/>
-      <c r="AQ7" s="185"/>
-      <c r="AR7" s="185"/>
-      <c r="AS7" s="186">
+      <c r="AO7" s="179"/>
+      <c r="AP7" s="179"/>
+      <c r="AQ7" s="179"/>
+      <c r="AR7" s="179"/>
+      <c r="AS7" s="183">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="186"/>
+      <c r="AT7" s="183"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="185"/>
-      <c r="AW7" s="185"/>
-      <c r="AX7" s="185"/>
-      <c r="AY7" s="185"/>
-      <c r="AZ7" s="186">
+      <c r="AV7" s="179"/>
+      <c r="AW7" s="179"/>
+      <c r="AX7" s="179"/>
+      <c r="AY7" s="179"/>
+      <c r="AZ7" s="183">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="186"/>
+      <c r="BA7" s="183"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="197"/>
-      <c r="BD7" s="198"/>
-      <c r="BE7" s="185"/>
-      <c r="BF7" s="185"/>
-      <c r="BG7" s="185"/>
-      <c r="BH7" s="185"/>
-      <c r="BI7" s="186">
+      <c r="BC7" s="187"/>
+      <c r="BD7" s="188"/>
+      <c r="BE7" s="179"/>
+      <c r="BF7" s="179"/>
+      <c r="BG7" s="179"/>
+      <c r="BH7" s="179"/>
+      <c r="BI7" s="183">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="186"/>
+      <c r="BJ7" s="183"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="185"/>
-      <c r="BM7" s="185"/>
-      <c r="BN7" s="185"/>
-      <c r="BO7" s="185"/>
-      <c r="BP7" s="185"/>
-      <c r="BQ7" s="185"/>
-      <c r="BR7" s="185"/>
-      <c r="BS7" s="185"/>
-      <c r="BT7" s="185"/>
-      <c r="BU7" s="185"/>
-      <c r="BV7" s="185"/>
-      <c r="BW7" s="185"/>
-      <c r="BX7" s="185"/>
-      <c r="BY7" s="185"/>
-      <c r="BZ7" s="185"/>
-      <c r="CA7" s="185"/>
-      <c r="CB7" s="185"/>
-      <c r="CC7" s="185"/>
-      <c r="CD7" s="185"/>
-      <c r="CE7" s="185"/>
-      <c r="CF7" s="185"/>
-      <c r="CG7" s="185"/>
-      <c r="CH7" s="185"/>
-      <c r="CI7" s="185"/>
-      <c r="CJ7" s="185"/>
-      <c r="CK7" s="185"/>
-      <c r="CL7" s="185"/>
-      <c r="CM7" s="185"/>
-      <c r="CN7" s="186"/>
-      <c r="CO7" s="186"/>
+      <c r="BL7" s="179"/>
+      <c r="BM7" s="179"/>
+      <c r="BN7" s="179"/>
+      <c r="BO7" s="179"/>
+      <c r="BP7" s="179"/>
+      <c r="BQ7" s="179"/>
+      <c r="BR7" s="179"/>
+      <c r="BS7" s="179"/>
+      <c r="BT7" s="179"/>
+      <c r="BU7" s="179"/>
+      <c r="BV7" s="179"/>
+      <c r="BW7" s="179"/>
+      <c r="BX7" s="179"/>
+      <c r="BY7" s="179"/>
+      <c r="BZ7" s="179"/>
+      <c r="CA7" s="179"/>
+      <c r="CB7" s="179"/>
+      <c r="CC7" s="179"/>
+      <c r="CD7" s="179"/>
+      <c r="CE7" s="179"/>
+      <c r="CF7" s="179"/>
+      <c r="CG7" s="179"/>
+      <c r="CH7" s="179"/>
+      <c r="CI7" s="179"/>
+      <c r="CJ7" s="179"/>
+      <c r="CK7" s="179"/>
+      <c r="CL7" s="179"/>
+      <c r="CM7" s="179"/>
+      <c r="CN7" s="183"/>
+      <c r="CO7" s="183"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="190"/>
-      <c r="CR7" s="190"/>
-      <c r="CS7" s="172"/>
-      <c r="CT7" s="172"/>
-      <c r="CU7" s="195"/>
+      <c r="CQ7" s="197"/>
+      <c r="CR7" s="197"/>
+      <c r="CS7" s="193"/>
+      <c r="CT7" s="193"/>
+      <c r="CU7" s="185"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="174"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="183" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="208" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183" t="s">
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184" t="s">
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184" t="s">
+      <c r="K8" s="172"/>
+      <c r="L8" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184" t="s">
+      <c r="M8" s="172"/>
+      <c r="N8" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184" t="s">
+      <c r="O8" s="172"/>
+      <c r="P8" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184" t="s">
+      <c r="Q8" s="172"/>
+      <c r="R8" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184" t="s">
+      <c r="S8" s="172"/>
+      <c r="T8" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184" t="s">
+      <c r="U8" s="172"/>
+      <c r="V8" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184" t="s">
+      <c r="W8" s="172"/>
+      <c r="X8" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184" t="s">
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184" t="s">
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184" t="s">
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="184"/>
-      <c r="AF8" s="184" t="s">
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="184" t="s">
+      <c r="AG8" s="172"/>
+      <c r="AH8" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="184"/>
-      <c r="AJ8" s="184" t="s">
+      <c r="AI8" s="172"/>
+      <c r="AJ8" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="184"/>
-      <c r="AL8" s="184" t="s">
+      <c r="AK8" s="172"/>
+      <c r="AL8" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="184"/>
+      <c r="AM8" s="172"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="184" t="s">
+      <c r="AO8" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="184"/>
-      <c r="AQ8" s="184" t="s">
+      <c r="AP8" s="172"/>
+      <c r="AQ8" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="184"/>
-      <c r="AS8" s="184" t="s">
+      <c r="AR8" s="172"/>
+      <c r="AS8" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="184"/>
+      <c r="AT8" s="172"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="184" t="s">
+      <c r="AV8" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="184"/>
-      <c r="AX8" s="184" t="s">
+      <c r="AW8" s="172"/>
+      <c r="AX8" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="184"/>
-      <c r="AZ8" s="184" t="s">
+      <c r="AY8" s="172"/>
+      <c r="AZ8" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="184"/>
+      <c r="BA8" s="172"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="197"/>
-      <c r="BD8" s="198"/>
-      <c r="BE8" s="206" t="s">
+      <c r="BC8" s="187"/>
+      <c r="BD8" s="188"/>
+      <c r="BE8" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="203"/>
-      <c r="BG8" s="203" t="s">
+      <c r="BF8" s="181"/>
+      <c r="BG8" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="203"/>
-      <c r="BI8" s="203" t="s">
+      <c r="BH8" s="181"/>
+      <c r="BI8" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="203"/>
+      <c r="BJ8" s="181"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="204" t="s">
+      <c r="BL8" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="205"/>
-      <c r="BN8" s="204" t="s">
+      <c r="BM8" s="176"/>
+      <c r="BN8" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="205"/>
-      <c r="BP8" s="204" t="s">
+      <c r="BO8" s="176"/>
+      <c r="BP8" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="205"/>
-      <c r="BR8" s="204" t="s">
+      <c r="BQ8" s="176"/>
+      <c r="BR8" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="205"/>
-      <c r="BT8" s="204" t="s">
+      <c r="BS8" s="176"/>
+      <c r="BT8" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="205"/>
-      <c r="BV8" s="191" t="s">
+      <c r="BU8" s="176"/>
+      <c r="BV8" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="192"/>
-      <c r="BX8" s="191" t="s">
+      <c r="BW8" s="174"/>
+      <c r="BX8" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="192"/>
-      <c r="BZ8" s="191" t="s">
+      <c r="BY8" s="174"/>
+      <c r="BZ8" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="192"/>
-      <c r="CB8" s="191" t="s">
+      <c r="CA8" s="174"/>
+      <c r="CB8" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="192"/>
-      <c r="CD8" s="191" t="s">
+      <c r="CC8" s="174"/>
+      <c r="CD8" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="192"/>
-      <c r="CF8" s="191" t="s">
+      <c r="CE8" s="174"/>
+      <c r="CF8" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="192"/>
-      <c r="CH8" s="191" t="s">
+      <c r="CG8" s="174"/>
+      <c r="CH8" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="192"/>
-      <c r="CJ8" s="191" t="s">
+      <c r="CI8" s="174"/>
+      <c r="CJ8" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="192"/>
-      <c r="CL8" s="191" t="s">
+      <c r="CK8" s="174"/>
+      <c r="CL8" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="192"/>
-      <c r="CN8" s="191" t="s">
+      <c r="CM8" s="174"/>
+      <c r="CN8" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="192"/>
+      <c r="CO8" s="174"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="190"/>
-      <c r="CR8" s="190"/>
-      <c r="CS8" s="172"/>
-      <c r="CT8" s="172"/>
-      <c r="CU8" s="195"/>
+      <c r="CQ8" s="197"/>
+      <c r="CR8" s="197"/>
+      <c r="CS8" s="193"/>
+      <c r="CT8" s="193"/>
+      <c r="CU8" s="185"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="175"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="27">
         <v>70</v>
       </c>
@@ -6978,15 +6978,21 @@
       <c r="BK9" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="BL9" s="27"/>
+      <c r="BL9" s="27">
+        <v>100</v>
+      </c>
       <c r="BM9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BN9" s="27"/>
+      <c r="BN9" s="27">
+        <v>100</v>
+      </c>
       <c r="BO9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BP9" s="27"/>
+      <c r="BP9" s="27">
+        <v>100</v>
+      </c>
       <c r="BQ9" s="30" t="s">
         <v>87</v>
       </c>
@@ -7047,9 +7053,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="172"/>
-      <c r="CT9" s="172"/>
-      <c r="CU9" s="196"/>
+      <c r="CS9" s="193"/>
+      <c r="CT9" s="193"/>
+      <c r="CU9" s="186"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7204,19 +7210,19 @@
         <v/>
       </c>
       <c r="BL10" s="107"/>
-      <c r="BM10" s="92" t="str">
+      <c r="BM10" s="92">
         <f>IFERROR(((BL10/$BL$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN10" s="107"/>
-      <c r="BO10" s="92" t="str">
+      <c r="BO10" s="92">
         <f>IFERROR(((BN10/$BN$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP10" s="107"/>
-      <c r="BQ10" s="92" t="str">
+      <c r="BQ10" s="92">
         <f>IFERROR(((BP10/$BP$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR10" s="107"/>
       <c r="BS10" s="92" t="str">
@@ -7456,19 +7462,19 @@
         <v/>
       </c>
       <c r="BL11" s="108"/>
-      <c r="BM11" s="92" t="str">
+      <c r="BM11" s="92">
         <f t="shared" ref="BM11:BM70" si="23">IFERROR(((BL11/$BL$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN11" s="108"/>
-      <c r="BO11" s="92" t="str">
+      <c r="BO11" s="92">
         <f t="shared" ref="BO11:BO70" si="24">IFERROR(((BN11/$BN$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP11" s="108"/>
-      <c r="BQ11" s="92" t="str">
+      <c r="BQ11" s="92">
         <f t="shared" ref="BQ11:BQ70" si="25">IFERROR(((BP11/$BP$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR11" s="108"/>
       <c r="BS11" s="92" t="str">
@@ -7708,19 +7714,19 @@
         <v/>
       </c>
       <c r="BL12" s="108"/>
-      <c r="BM12" s="92" t="str">
+      <c r="BM12" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN12" s="108"/>
-      <c r="BO12" s="92" t="str">
+      <c r="BO12" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP12" s="108"/>
-      <c r="BQ12" s="92" t="str">
+      <c r="BQ12" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR12" s="108"/>
       <c r="BS12" s="92" t="str">
@@ -7960,19 +7966,19 @@
         <v/>
       </c>
       <c r="BL13" s="108"/>
-      <c r="BM13" s="92" t="str">
+      <c r="BM13" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN13" s="108"/>
-      <c r="BO13" s="92" t="str">
+      <c r="BO13" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP13" s="108"/>
-      <c r="BQ13" s="92" t="str">
+      <c r="BQ13" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR13" s="108"/>
       <c r="BS13" s="92" t="str">
@@ -8212,19 +8218,19 @@
         <v/>
       </c>
       <c r="BL14" s="108"/>
-      <c r="BM14" s="92" t="str">
+      <c r="BM14" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN14" s="108"/>
-      <c r="BO14" s="92" t="str">
+      <c r="BO14" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP14" s="108"/>
-      <c r="BQ14" s="92" t="str">
+      <c r="BQ14" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR14" s="108"/>
       <c r="BS14" s="92" t="str">
@@ -8464,19 +8470,19 @@
         <v/>
       </c>
       <c r="BL15" s="108"/>
-      <c r="BM15" s="92" t="str">
+      <c r="BM15" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN15" s="108"/>
-      <c r="BO15" s="92" t="str">
+      <c r="BO15" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP15" s="108"/>
-      <c r="BQ15" s="92" t="str">
+      <c r="BQ15" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR15" s="108"/>
       <c r="BS15" s="92" t="str">
@@ -8716,19 +8722,19 @@
         <v/>
       </c>
       <c r="BL16" s="108"/>
-      <c r="BM16" s="92" t="str">
+      <c r="BM16" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN16" s="108"/>
-      <c r="BO16" s="92" t="str">
+      <c r="BO16" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP16" s="108"/>
-      <c r="BQ16" s="92" t="str">
+      <c r="BQ16" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR16" s="108"/>
       <c r="BS16" s="92" t="str">
@@ -8828,7 +8834,9 @@
         <f>CONCATENATE(REGISTRATION!C18," ",REGISTRATION!D18," ",REGISTRATION!E18)</f>
         <v>Buenafe Naomi Carmel E</v>
       </c>
-      <c r="D17" s="108"/>
+      <c r="D17" s="108">
+        <v>0</v>
+      </c>
       <c r="E17" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
@@ -8966,19 +8974,19 @@
         <v/>
       </c>
       <c r="BL17" s="108"/>
-      <c r="BM17" s="92" t="str">
+      <c r="BM17" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN17" s="108"/>
-      <c r="BO17" s="92" t="str">
+      <c r="BO17" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP17" s="108"/>
-      <c r="BQ17" s="92" t="str">
+      <c r="BQ17" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR17" s="108"/>
       <c r="BS17" s="92" t="str">
@@ -9218,19 +9226,19 @@
         <v/>
       </c>
       <c r="BL18" s="108"/>
-      <c r="BM18" s="92" t="str">
+      <c r="BM18" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN18" s="108"/>
-      <c r="BO18" s="92" t="str">
+      <c r="BO18" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP18" s="108"/>
-      <c r="BQ18" s="92" t="str">
+      <c r="BQ18" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR18" s="108"/>
       <c r="BS18" s="92" t="str">
@@ -9470,19 +9478,19 @@
         <v/>
       </c>
       <c r="BL19" s="108"/>
-      <c r="BM19" s="92" t="str">
+      <c r="BM19" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN19" s="108"/>
-      <c r="BO19" s="92" t="str">
+      <c r="BO19" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP19" s="108"/>
-      <c r="BQ19" s="92" t="str">
+      <c r="BQ19" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR19" s="108"/>
       <c r="BS19" s="92" t="str">
@@ -9722,19 +9730,19 @@
         <v/>
       </c>
       <c r="BL20" s="108"/>
-      <c r="BM20" s="92" t="str">
+      <c r="BM20" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN20" s="108"/>
-      <c r="BO20" s="92" t="str">
+      <c r="BO20" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP20" s="108"/>
-      <c r="BQ20" s="92" t="str">
+      <c r="BQ20" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR20" s="108"/>
       <c r="BS20" s="92" t="str">
@@ -9974,19 +9982,19 @@
         <v/>
       </c>
       <c r="BL21" s="108"/>
-      <c r="BM21" s="92" t="str">
+      <c r="BM21" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN21" s="108"/>
-      <c r="BO21" s="92" t="str">
+      <c r="BO21" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP21" s="108"/>
-      <c r="BQ21" s="92" t="str">
+      <c r="BQ21" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR21" s="108"/>
       <c r="BS21" s="92" t="str">
@@ -10226,19 +10234,19 @@
         <v/>
       </c>
       <c r="BL22" s="108"/>
-      <c r="BM22" s="92" t="str">
+      <c r="BM22" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN22" s="108"/>
-      <c r="BO22" s="92" t="str">
+      <c r="BO22" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP22" s="108"/>
-      <c r="BQ22" s="92" t="str">
+      <c r="BQ22" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR22" s="108"/>
       <c r="BS22" s="92" t="str">
@@ -10478,19 +10486,19 @@
         <v/>
       </c>
       <c r="BL23" s="108"/>
-      <c r="BM23" s="92" t="str">
+      <c r="BM23" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN23" s="108"/>
-      <c r="BO23" s="92" t="str">
+      <c r="BO23" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP23" s="108"/>
-      <c r="BQ23" s="92" t="str">
+      <c r="BQ23" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR23" s="108"/>
       <c r="BS23" s="92" t="str">
@@ -10730,19 +10738,19 @@
         <v/>
       </c>
       <c r="BL24" s="108"/>
-      <c r="BM24" s="92" t="str">
+      <c r="BM24" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN24" s="108"/>
-      <c r="BO24" s="92" t="str">
+      <c r="BO24" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP24" s="108"/>
-      <c r="BQ24" s="92" t="str">
+      <c r="BQ24" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR24" s="108"/>
       <c r="BS24" s="92" t="str">
@@ -10982,19 +10990,19 @@
         <v/>
       </c>
       <c r="BL25" s="108"/>
-      <c r="BM25" s="92" t="str">
+      <c r="BM25" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN25" s="108"/>
-      <c r="BO25" s="92" t="str">
+      <c r="BO25" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP25" s="108"/>
-      <c r="BQ25" s="92" t="str">
+      <c r="BQ25" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR25" s="108"/>
       <c r="BS25" s="92" t="str">
@@ -11094,7 +11102,9 @@
         <f>CONCATENATE(REGISTRATION!C27," ",REGISTRATION!D27," ",REGISTRATION!E27)</f>
         <v>Estilloso Norvie C</v>
       </c>
-      <c r="D26" s="108"/>
+      <c r="D26" s="108">
+        <v>0</v>
+      </c>
       <c r="E26" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
@@ -11232,19 +11242,19 @@
         <v/>
       </c>
       <c r="BL26" s="108"/>
-      <c r="BM26" s="92" t="str">
+      <c r="BM26" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN26" s="108"/>
-      <c r="BO26" s="92" t="str">
+      <c r="BO26" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP26" s="108"/>
-      <c r="BQ26" s="92" t="str">
+      <c r="BQ26" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR26" s="108"/>
       <c r="BS26" s="92" t="str">
@@ -11484,19 +11494,19 @@
         <v/>
       </c>
       <c r="BL27" s="108"/>
-      <c r="BM27" s="92" t="str">
+      <c r="BM27" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN27" s="108"/>
-      <c r="BO27" s="92" t="str">
+      <c r="BO27" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP27" s="108"/>
-      <c r="BQ27" s="92" t="str">
+      <c r="BQ27" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR27" s="108"/>
       <c r="BS27" s="92" t="str">
@@ -11736,19 +11746,19 @@
         <v/>
       </c>
       <c r="BL28" s="108"/>
-      <c r="BM28" s="92" t="str">
+      <c r="BM28" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN28" s="108"/>
-      <c r="BO28" s="92" t="str">
+      <c r="BO28" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP28" s="108"/>
-      <c r="BQ28" s="92" t="str">
+      <c r="BQ28" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR28" s="108"/>
       <c r="BS28" s="92" t="str">
@@ -11848,7 +11858,9 @@
         <f>CONCATENATE(REGISTRATION!C30," ",REGISTRATION!D30," ",REGISTRATION!E30)</f>
         <v>Maala Mark Justine C</v>
       </c>
-      <c r="D29" s="108"/>
+      <c r="D29" s="108">
+        <v>0</v>
+      </c>
       <c r="E29" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
@@ -11986,19 +11998,19 @@
         <v/>
       </c>
       <c r="BL29" s="108"/>
-      <c r="BM29" s="92" t="str">
+      <c r="BM29" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN29" s="108"/>
-      <c r="BO29" s="92" t="str">
+      <c r="BO29" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP29" s="108"/>
-      <c r="BQ29" s="92" t="str">
+      <c r="BQ29" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR29" s="108"/>
       <c r="BS29" s="92" t="str">
@@ -12238,19 +12250,19 @@
         <v/>
       </c>
       <c r="BL30" s="108"/>
-      <c r="BM30" s="92" t="str">
+      <c r="BM30" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN30" s="108"/>
-      <c r="BO30" s="92" t="str">
+      <c r="BO30" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP30" s="108"/>
-      <c r="BQ30" s="92" t="str">
+      <c r="BQ30" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR30" s="108"/>
       <c r="BS30" s="92" t="str">
@@ -12490,19 +12502,19 @@
         <v/>
       </c>
       <c r="BL31" s="108"/>
-      <c r="BM31" s="92" t="str">
+      <c r="BM31" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN31" s="108"/>
-      <c r="BO31" s="92" t="str">
+      <c r="BO31" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP31" s="108"/>
-      <c r="BQ31" s="92" t="str">
+      <c r="BQ31" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR31" s="108"/>
       <c r="BS31" s="92" t="str">
@@ -12742,19 +12754,19 @@
         <v/>
       </c>
       <c r="BL32" s="108"/>
-      <c r="BM32" s="92" t="str">
+      <c r="BM32" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN32" s="108"/>
-      <c r="BO32" s="92" t="str">
+      <c r="BO32" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP32" s="108"/>
-      <c r="BQ32" s="92" t="str">
+      <c r="BQ32" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR32" s="108"/>
       <c r="BS32" s="92" t="str">
@@ -12994,19 +13006,19 @@
         <v/>
       </c>
       <c r="BL33" s="108"/>
-      <c r="BM33" s="92" t="str">
+      <c r="BM33" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN33" s="108"/>
-      <c r="BO33" s="92" t="str">
+      <c r="BO33" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP33" s="108"/>
-      <c r="BQ33" s="92" t="str">
+      <c r="BQ33" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR33" s="108"/>
       <c r="BS33" s="92" t="str">
@@ -13245,20 +13257,26 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BL34" s="108"/>
-      <c r="BM34" s="92" t="str">
+      <c r="BL34" s="108">
+        <v>100</v>
+      </c>
+      <c r="BM34" s="92">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BN34" s="108"/>
-      <c r="BO34" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BN34" s="108">
+        <v>100</v>
+      </c>
+      <c r="BO34" s="92">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="BP34" s="108"/>
-      <c r="BQ34" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BP34" s="108">
+        <v>100</v>
+      </c>
+      <c r="BQ34" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BR34" s="108"/>
       <c r="BS34" s="92" t="str">
@@ -13498,19 +13516,19 @@
         <v/>
       </c>
       <c r="BL35" s="108"/>
-      <c r="BM35" s="92" t="str">
+      <c r="BM35" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN35" s="108"/>
-      <c r="BO35" s="92" t="str">
+      <c r="BO35" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP35" s="108"/>
-      <c r="BQ35" s="92" t="str">
+      <c r="BQ35" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR35" s="108"/>
       <c r="BS35" s="92" t="str">
@@ -13750,19 +13768,19 @@
         <v/>
       </c>
       <c r="BL36" s="108"/>
-      <c r="BM36" s="92" t="str">
+      <c r="BM36" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN36" s="108"/>
-      <c r="BO36" s="92" t="str">
+      <c r="BO36" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP36" s="108"/>
-      <c r="BQ36" s="92" t="str">
+      <c r="BQ36" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR36" s="108"/>
       <c r="BS36" s="92" t="str">
@@ -14002,19 +14020,19 @@
         <v/>
       </c>
       <c r="BL37" s="108"/>
-      <c r="BM37" s="92" t="str">
+      <c r="BM37" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN37" s="108"/>
-      <c r="BO37" s="92" t="str">
+      <c r="BO37" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP37" s="108"/>
-      <c r="BQ37" s="92" t="str">
+      <c r="BQ37" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR37" s="108"/>
       <c r="BS37" s="92" t="str">
@@ -14254,19 +14272,19 @@
         <v/>
       </c>
       <c r="BL38" s="108"/>
-      <c r="BM38" s="92" t="str">
+      <c r="BM38" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN38" s="108"/>
-      <c r="BO38" s="92" t="str">
+      <c r="BO38" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP38" s="108"/>
-      <c r="BQ38" s="92" t="str">
+      <c r="BQ38" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR38" s="108"/>
       <c r="BS38" s="92" t="str">
@@ -14506,19 +14524,19 @@
         <v/>
       </c>
       <c r="BL39" s="108"/>
-      <c r="BM39" s="92" t="str">
+      <c r="BM39" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN39" s="108"/>
-      <c r="BO39" s="92" t="str">
+      <c r="BO39" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP39" s="108"/>
-      <c r="BQ39" s="92" t="str">
+      <c r="BQ39" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR39" s="108"/>
       <c r="BS39" s="92" t="str">
@@ -14758,19 +14776,19 @@
         <v/>
       </c>
       <c r="BL40" s="108"/>
-      <c r="BM40" s="92" t="str">
+      <c r="BM40" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN40" s="108"/>
-      <c r="BO40" s="92" t="str">
+      <c r="BO40" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP40" s="108"/>
-      <c r="BQ40" s="92" t="str">
+      <c r="BQ40" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR40" s="108"/>
       <c r="BS40" s="92" t="str">
@@ -15010,19 +15028,19 @@
         <v/>
       </c>
       <c r="BL41" s="108"/>
-      <c r="BM41" s="92" t="str">
+      <c r="BM41" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN41" s="108"/>
-      <c r="BO41" s="92" t="str">
+      <c r="BO41" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP41" s="108"/>
-      <c r="BQ41" s="92" t="str">
+      <c r="BQ41" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR41" s="108"/>
       <c r="BS41" s="92" t="str">
@@ -15262,19 +15280,19 @@
         <v/>
       </c>
       <c r="BL42" s="108"/>
-      <c r="BM42" s="92" t="str">
+      <c r="BM42" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN42" s="108"/>
-      <c r="BO42" s="92" t="str">
+      <c r="BO42" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP42" s="108"/>
-      <c r="BQ42" s="92" t="str">
+      <c r="BQ42" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR42" s="108"/>
       <c r="BS42" s="92" t="str">
@@ -15510,19 +15528,19 @@
         <v/>
       </c>
       <c r="BL43" s="108"/>
-      <c r="BM43" s="92" t="str">
+      <c r="BM43" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN43" s="108"/>
-      <c r="BO43" s="92" t="str">
+      <c r="BO43" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP43" s="108"/>
-      <c r="BQ43" s="92" t="str">
+      <c r="BQ43" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR43" s="108"/>
       <c r="BS43" s="92" t="str">
@@ -15758,19 +15776,19 @@
         <v/>
       </c>
       <c r="BL44" s="108"/>
-      <c r="BM44" s="92" t="str">
+      <c r="BM44" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN44" s="108"/>
-      <c r="BO44" s="92" t="str">
+      <c r="BO44" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP44" s="108"/>
-      <c r="BQ44" s="92" t="str">
+      <c r="BQ44" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR44" s="108"/>
       <c r="BS44" s="92" t="str">
@@ -16006,19 +16024,19 @@
         <v/>
       </c>
       <c r="BL45" s="108"/>
-      <c r="BM45" s="92" t="str">
+      <c r="BM45" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN45" s="108"/>
-      <c r="BO45" s="92" t="str">
+      <c r="BO45" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP45" s="108"/>
-      <c r="BQ45" s="92" t="str">
+      <c r="BQ45" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR45" s="108"/>
       <c r="BS45" s="92" t="str">
@@ -16254,19 +16272,19 @@
         <v/>
       </c>
       <c r="BL46" s="108"/>
-      <c r="BM46" s="92" t="str">
+      <c r="BM46" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN46" s="108"/>
-      <c r="BO46" s="92" t="str">
+      <c r="BO46" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP46" s="108"/>
-      <c r="BQ46" s="92" t="str">
+      <c r="BQ46" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR46" s="108"/>
       <c r="BS46" s="92" t="str">
@@ -16502,19 +16520,19 @@
         <v/>
       </c>
       <c r="BL47" s="108"/>
-      <c r="BM47" s="92" t="str">
+      <c r="BM47" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN47" s="108"/>
-      <c r="BO47" s="92" t="str">
+      <c r="BO47" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP47" s="108"/>
-      <c r="BQ47" s="92" t="str">
+      <c r="BQ47" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR47" s="108"/>
       <c r="BS47" s="92" t="str">
@@ -16750,19 +16768,19 @@
         <v/>
       </c>
       <c r="BL48" s="108"/>
-      <c r="BM48" s="92" t="str">
+      <c r="BM48" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN48" s="108"/>
-      <c r="BO48" s="92" t="str">
+      <c r="BO48" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP48" s="108"/>
-      <c r="BQ48" s="92" t="str">
+      <c r="BQ48" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR48" s="108"/>
       <c r="BS48" s="92" t="str">
@@ -16998,19 +17016,19 @@
         <v/>
       </c>
       <c r="BL49" s="108"/>
-      <c r="BM49" s="92" t="str">
+      <c r="BM49" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN49" s="108"/>
-      <c r="BO49" s="92" t="str">
+      <c r="BO49" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP49" s="108"/>
-      <c r="BQ49" s="92" t="str">
+      <c r="BQ49" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR49" s="108"/>
       <c r="BS49" s="92" t="str">
@@ -17246,19 +17264,19 @@
         <v/>
       </c>
       <c r="BL50" s="108"/>
-      <c r="BM50" s="92" t="str">
+      <c r="BM50" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN50" s="108"/>
-      <c r="BO50" s="92" t="str">
+      <c r="BO50" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP50" s="108"/>
-      <c r="BQ50" s="92" t="str">
+      <c r="BQ50" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR50" s="108"/>
       <c r="BS50" s="92" t="str">
@@ -17494,19 +17512,19 @@
         <v/>
       </c>
       <c r="BL51" s="108"/>
-      <c r="BM51" s="92" t="str">
+      <c r="BM51" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN51" s="108"/>
-      <c r="BO51" s="92" t="str">
+      <c r="BO51" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP51" s="108"/>
-      <c r="BQ51" s="92" t="str">
+      <c r="BQ51" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR51" s="108"/>
       <c r="BS51" s="92" t="str">
@@ -17742,19 +17760,19 @@
         <v/>
       </c>
       <c r="BL52" s="108"/>
-      <c r="BM52" s="92" t="str">
+      <c r="BM52" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN52" s="108"/>
-      <c r="BO52" s="92" t="str">
+      <c r="BO52" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP52" s="108"/>
-      <c r="BQ52" s="92" t="str">
+      <c r="BQ52" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR52" s="108"/>
       <c r="BS52" s="92" t="str">
@@ -17990,19 +18008,19 @@
         <v/>
       </c>
       <c r="BL53" s="108"/>
-      <c r="BM53" s="92" t="str">
+      <c r="BM53" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN53" s="108"/>
-      <c r="BO53" s="92" t="str">
+      <c r="BO53" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP53" s="108"/>
-      <c r="BQ53" s="92" t="str">
+      <c r="BQ53" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR53" s="108"/>
       <c r="BS53" s="92" t="str">
@@ -18238,19 +18256,19 @@
         <v/>
       </c>
       <c r="BL54" s="108"/>
-      <c r="BM54" s="92" t="str">
+      <c r="BM54" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN54" s="108"/>
-      <c r="BO54" s="92" t="str">
+      <c r="BO54" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP54" s="108"/>
-      <c r="BQ54" s="92" t="str">
+      <c r="BQ54" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR54" s="108"/>
       <c r="BS54" s="92" t="str">
@@ -18486,19 +18504,19 @@
         <v/>
       </c>
       <c r="BL55" s="108"/>
-      <c r="BM55" s="92" t="str">
+      <c r="BM55" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN55" s="108"/>
-      <c r="BO55" s="92" t="str">
+      <c r="BO55" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP55" s="108"/>
-      <c r="BQ55" s="92" t="str">
+      <c r="BQ55" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR55" s="108"/>
       <c r="BS55" s="92" t="str">
@@ -18734,19 +18752,19 @@
         <v/>
       </c>
       <c r="BL56" s="108"/>
-      <c r="BM56" s="92" t="str">
+      <c r="BM56" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN56" s="108"/>
-      <c r="BO56" s="92" t="str">
+      <c r="BO56" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP56" s="108"/>
-      <c r="BQ56" s="92" t="str">
+      <c r="BQ56" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR56" s="108"/>
       <c r="BS56" s="92" t="str">
@@ -18982,19 +19000,19 @@
         <v/>
       </c>
       <c r="BL57" s="108"/>
-      <c r="BM57" s="92" t="str">
+      <c r="BM57" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN57" s="108"/>
-      <c r="BO57" s="92" t="str">
+      <c r="BO57" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP57" s="108"/>
-      <c r="BQ57" s="92" t="str">
+      <c r="BQ57" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR57" s="108"/>
       <c r="BS57" s="92" t="str">
@@ -19230,19 +19248,19 @@
         <v/>
       </c>
       <c r="BL58" s="108"/>
-      <c r="BM58" s="92" t="str">
+      <c r="BM58" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN58" s="108"/>
-      <c r="BO58" s="92" t="str">
+      <c r="BO58" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP58" s="108"/>
-      <c r="BQ58" s="92" t="str">
+      <c r="BQ58" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR58" s="108"/>
       <c r="BS58" s="92" t="str">
@@ -19478,19 +19496,19 @@
         <v/>
       </c>
       <c r="BL59" s="108"/>
-      <c r="BM59" s="92" t="str">
+      <c r="BM59" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN59" s="108"/>
-      <c r="BO59" s="92" t="str">
+      <c r="BO59" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP59" s="108"/>
-      <c r="BQ59" s="92" t="str">
+      <c r="BQ59" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR59" s="108"/>
       <c r="BS59" s="92" t="str">
@@ -19726,19 +19744,19 @@
         <v/>
       </c>
       <c r="BL60" s="108"/>
-      <c r="BM60" s="92" t="str">
+      <c r="BM60" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN60" s="108"/>
-      <c r="BO60" s="92" t="str">
+      <c r="BO60" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP60" s="108"/>
-      <c r="BQ60" s="92" t="str">
+      <c r="BQ60" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR60" s="108"/>
       <c r="BS60" s="92" t="str">
@@ -19974,19 +19992,19 @@
         <v/>
       </c>
       <c r="BL61" s="108"/>
-      <c r="BM61" s="92" t="str">
+      <c r="BM61" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN61" s="108"/>
-      <c r="BO61" s="92" t="str">
+      <c r="BO61" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP61" s="108"/>
-      <c r="BQ61" s="92" t="str">
+      <c r="BQ61" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR61" s="108"/>
       <c r="BS61" s="92" t="str">
@@ -20222,19 +20240,19 @@
         <v/>
       </c>
       <c r="BL62" s="108"/>
-      <c r="BM62" s="92" t="str">
+      <c r="BM62" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN62" s="108"/>
-      <c r="BO62" s="92" t="str">
+      <c r="BO62" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP62" s="108"/>
-      <c r="BQ62" s="92" t="str">
+      <c r="BQ62" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR62" s="108"/>
       <c r="BS62" s="92" t="str">
@@ -20470,19 +20488,19 @@
         <v/>
       </c>
       <c r="BL63" s="108"/>
-      <c r="BM63" s="92" t="str">
+      <c r="BM63" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN63" s="108"/>
-      <c r="BO63" s="92" t="str">
+      <c r="BO63" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP63" s="108"/>
-      <c r="BQ63" s="92" t="str">
+      <c r="BQ63" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR63" s="108"/>
       <c r="BS63" s="92" t="str">
@@ -20718,19 +20736,19 @@
         <v/>
       </c>
       <c r="BL64" s="108"/>
-      <c r="BM64" s="92" t="str">
+      <c r="BM64" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN64" s="108"/>
-      <c r="BO64" s="92" t="str">
+      <c r="BO64" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP64" s="108"/>
-      <c r="BQ64" s="92" t="str">
+      <c r="BQ64" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR64" s="108"/>
       <c r="BS64" s="92" t="str">
@@ -20966,19 +20984,19 @@
         <v/>
       </c>
       <c r="BL65" s="108"/>
-      <c r="BM65" s="92" t="str">
+      <c r="BM65" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN65" s="108"/>
-      <c r="BO65" s="92" t="str">
+      <c r="BO65" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP65" s="108"/>
-      <c r="BQ65" s="92" t="str">
+      <c r="BQ65" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR65" s="108"/>
       <c r="BS65" s="92" t="str">
@@ -21214,19 +21232,19 @@
         <v/>
       </c>
       <c r="BL66" s="108"/>
-      <c r="BM66" s="92" t="str">
+      <c r="BM66" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN66" s="108"/>
-      <c r="BO66" s="92" t="str">
+      <c r="BO66" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP66" s="108"/>
-      <c r="BQ66" s="92" t="str">
+      <c r="BQ66" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR66" s="108"/>
       <c r="BS66" s="92" t="str">
@@ -21462,19 +21480,19 @@
         <v/>
       </c>
       <c r="BL67" s="108"/>
-      <c r="BM67" s="92" t="str">
+      <c r="BM67" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN67" s="108"/>
-      <c r="BO67" s="92" t="str">
+      <c r="BO67" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP67" s="108"/>
-      <c r="BQ67" s="92" t="str">
+      <c r="BQ67" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR67" s="108"/>
       <c r="BS67" s="92" t="str">
@@ -21710,19 +21728,19 @@
         <v/>
       </c>
       <c r="BL68" s="108"/>
-      <c r="BM68" s="92" t="str">
+      <c r="BM68" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN68" s="108"/>
-      <c r="BO68" s="92" t="str">
+      <c r="BO68" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP68" s="108"/>
-      <c r="BQ68" s="92" t="str">
+      <c r="BQ68" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR68" s="108"/>
       <c r="BS68" s="92" t="str">
@@ -21958,19 +21976,19 @@
         <v/>
       </c>
       <c r="BL69" s="108"/>
-      <c r="BM69" s="92" t="str">
+      <c r="BM69" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN69" s="108"/>
-      <c r="BO69" s="92" t="str">
+      <c r="BO69" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP69" s="108"/>
-      <c r="BQ69" s="92" t="str">
+      <c r="BQ69" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR69" s="108"/>
       <c r="BS69" s="92" t="str">
@@ -22206,19 +22224,19 @@
         <v/>
       </c>
       <c r="BL70" s="108"/>
-      <c r="BM70" s="92" t="str">
+      <c r="BM70" s="92">
         <f t="shared" si="23"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BN70" s="108"/>
-      <c r="BO70" s="92" t="str">
+      <c r="BO70" s="92">
         <f t="shared" si="24"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BP70" s="108"/>
-      <c r="BQ70" s="92" t="str">
+      <c r="BQ70" s="92">
         <f t="shared" si="25"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BR70" s="108"/>
       <c r="BS70" s="92" t="str">
@@ -22308,6 +22326,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -22324,88 +22424,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -26620,106 +26638,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="225"/>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
+      <c r="A3" s="256"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="259" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
+      <c r="B4" s="259"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="261" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="229"/>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
+      <c r="A8" s="262"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="225"/>
-      <c r="B9" s="225"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
+      <c r="A9" s="256"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="230"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
+      <c r="A10" s="263"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="264" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="264"/>
+      <c r="F11" s="264"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="229"/>
-      <c r="B12" s="229"/>
-      <c r="C12" s="229"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="229"/>
+      <c r="A12" s="262"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="262"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="232" t="str">
+      <c r="C13" s="265" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="232"/>
-      <c r="E13" s="232"/>
+      <c r="D13" s="265"/>
+      <c r="E13" s="265"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -26727,12 +26745,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="224" t="str">
+      <c r="C14" s="258" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="258"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -26740,12 +26758,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="235" t="str">
+      <c r="C15" s="244" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -26753,12 +26771,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="235" t="str">
+      <c r="C16" s="244" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT 1C</v>
       </c>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -26766,12 +26784,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="235" t="str">
+      <c r="C17" s="244" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="235"/>
-      <c r="E17" s="235"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26783,42 +26801,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="236" t="s">
+      <c r="A19" s="245" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="248" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="236" t="s">
+      <c r="C19" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="236" t="s">
+      <c r="D19" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="241" t="s">
+      <c r="E19" s="250" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="236" t="s">
+      <c r="F19" s="245" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="237"/>
-      <c r="B20" s="240"/>
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="244"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="249"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="253"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="238"/>
+      <c r="A21" s="247"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="245"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="254"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28331,14 +28349,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="252" t="s">
+      <c r="A83" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="253"/>
-      <c r="C83" s="253"/>
-      <c r="D83" s="253"/>
-      <c r="E83" s="253"/>
-      <c r="F83" s="254"/>
+      <c r="B83" s="229"/>
+      <c r="C83" s="229"/>
+      <c r="D83" s="229"/>
+      <c r="E83" s="229"/>
+      <c r="F83" s="230"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28371,11 +28389,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="246">
+      <c r="E87" s="255">
         <f ca="1">NOW()</f>
-        <v>43014.518733449077</v>
-      </c>
-      <c r="F87" s="246"/>
+        <v>43019.469391435188</v>
+      </c>
+      <c r="F87" s="255"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28385,10 +28403,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="225" t="s">
+      <c r="E88" s="256" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="225"/>
+      <c r="F88" s="256"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28405,8 +28423,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="225"/>
-      <c r="F90" s="225"/>
+      <c r="E90" s="256"/>
+      <c r="F90" s="256"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28522,14 +28540,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="247" t="s">
+      <c r="A105" s="257" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="247"/>
-      <c r="C105" s="247"/>
-      <c r="D105" s="247"/>
-      <c r="E105" s="247"/>
-      <c r="F105" s="247"/>
+      <c r="B105" s="257"/>
+      <c r="C105" s="257"/>
+      <c r="D105" s="257"/>
+      <c r="E105" s="257"/>
+      <c r="F105" s="257"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28544,124 +28562,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="265" t="s">
+      <c r="C107" s="241" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="234"/>
-      <c r="E107" s="233" t="s">
+      <c r="D107" s="242"/>
+      <c r="E107" s="243" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="234"/>
+      <c r="F107" s="242"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="261">
+      <c r="C108" s="237">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="262"/>
-      <c r="E108" s="263">
+      <c r="D108" s="238"/>
+      <c r="E108" s="239">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="264"/>
+      <c r="F108" s="240"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="255">
+      <c r="C109" s="231">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="256"/>
-      <c r="E109" s="257">
+      <c r="D109" s="232"/>
+      <c r="E109" s="233">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="258"/>
+      <c r="F109" s="234"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="255">
+      <c r="C110" s="231">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="256"/>
-      <c r="E110" s="257">
+      <c r="D110" s="232"/>
+      <c r="E110" s="233">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="258"/>
+      <c r="F110" s="234"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="255">
+      <c r="C111" s="231">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="256"/>
-      <c r="E111" s="257">
+      <c r="D111" s="232"/>
+      <c r="E111" s="233">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="258"/>
+      <c r="F111" s="234"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="259">
-        <v>0</v>
-      </c>
-      <c r="D112" s="260"/>
-      <c r="E112" s="257">
+      <c r="C112" s="235">
+        <v>0</v>
+      </c>
+      <c r="D112" s="236"/>
+      <c r="E112" s="233">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="258"/>
+      <c r="F112" s="234"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="259">
-        <v>0</v>
-      </c>
-      <c r="D113" s="260"/>
-      <c r="E113" s="257">
+      <c r="C113" s="235">
+        <v>0</v>
+      </c>
+      <c r="D113" s="236"/>
+      <c r="E113" s="233">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="258"/>
+      <c r="F113" s="234"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="248">
+      <c r="C114" s="224">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="249"/>
-      <c r="E114" s="250">
+      <c r="D114" s="225"/>
+      <c r="E114" s="226">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="251"/>
+      <c r="F114" s="227"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -28829,6 +28847,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28845,32 +28889,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
+++ b/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
@@ -2359,91 +2359,37 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2483,129 +2429,96 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2646,6 +2559,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2704,6 +2704,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2777,102 +2873,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3876,7 +3876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3909,82 +3909,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164" t="s">
+      <c r="A6" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="165" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="165"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3992,28 +3992,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="166" t="s">
+      <c r="J6" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="166"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="169"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="3" t="s">
         <v>275</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="170" t="s">
+      <c r="E7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="170"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4021,28 +4021,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="170" t="s">
+      <c r="J7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="151"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="8" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="152" t="s">
+      <c r="E8" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="152"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4050,45 +4050,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="152" t="s">
+      <c r="J8" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="152"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159" t="s">
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="142" t="s">
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="142" t="s">
+      <c r="K9" s="149"/>
+      <c r="L9" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="143"/>
+      <c r="M9" s="149"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="155"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4098,14 +4098,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4126,19 +4126,19 @@
       <c r="F11" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="147"/>
-      <c r="O11" s="136" t="s">
+      <c r="G11" s="154"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="156"/>
+      <c r="O11" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="168"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4159,21 +4159,21 @@
       <c r="F12" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="131" t="s">
+      <c r="P12" s="164" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4194,21 +4194,21 @@
       <c r="F13" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="131" t="s">
+      <c r="P13" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4229,21 +4229,21 @@
       <c r="F14" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="128" t="s">
+      <c r="P14" s="161" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="130"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="163"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4264,21 +4264,21 @@
       <c r="F15" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="128" t="s">
+      <c r="P15" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="130"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="163"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4299,21 +4299,21 @@
       <c r="F16" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="139" t="s">
+      <c r="P16" s="169" t="s">
         <v>171</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="171"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4334,21 +4334,21 @@
       <c r="F17" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="128" t="s">
+      <c r="P17" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="163"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4369,13 +4369,13 @@
       <c r="F18" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4396,13 +4396,13 @@
       <c r="F19" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4423,13 +4423,13 @@
       <c r="F20" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4450,13 +4450,13 @@
       <c r="F21" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4480,13 +4480,13 @@
       <c r="F22" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4513,13 +4513,13 @@
       <c r="F23" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4546,13 +4546,13 @@
       <c r="F24" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4579,13 +4579,13 @@
       <c r="F25" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4612,13 +4612,13 @@
       <c r="F26" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4645,13 +4645,13 @@
       <c r="F27" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4678,13 +4678,13 @@
       <c r="F28" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4711,13 +4711,13 @@
       <c r="F29" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4744,13 +4744,13 @@
       <c r="F30" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4777,13 +4777,13 @@
       <c r="F31" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4806,13 +4806,13 @@
       <c r="F32" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4839,13 +4839,13 @@
       <c r="F33" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4866,13 +4866,13 @@
       <c r="F34" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4893,13 +4893,13 @@
       <c r="F35" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4920,13 +4920,13 @@
       <c r="F36" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4947,13 +4947,13 @@
       <c r="F37" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4974,13 +4974,13 @@
       <c r="F38" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -5001,13 +5001,13 @@
       <c r="F39" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5026,13 +5026,13 @@
       <c r="F40" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="153"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5053,13 +5053,13 @@
       <c r="F41" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="153"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5080,13 +5080,13 @@
       <c r="F42" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5107,13 +5107,13 @@
       <c r="F43" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5124,13 +5124,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="153"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5141,13 +5141,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5158,13 +5158,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="153"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5175,13 +5175,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5192,13 +5192,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="133"/>
-      <c r="K48" s="133"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="153"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5209,13 +5209,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5226,13 +5226,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="153"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5243,13 +5243,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5260,13 +5260,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="152"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5277,13 +5277,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="153"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5294,13 +5294,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="152"/>
+      <c r="L54" s="153"/>
+      <c r="M54" s="153"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5311,13 +5311,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="152"/>
+      <c r="K55" s="152"/>
+      <c r="L55" s="153"/>
+      <c r="M55" s="153"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5328,13 +5328,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="134"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="153"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5345,13 +5345,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="153"/>
+      <c r="M57" s="153"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5362,13 +5362,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="152"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="153"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5379,13 +5379,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="152"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="153"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5396,13 +5396,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="152"/>
+      <c r="K60" s="152"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="153"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5413,13 +5413,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
+      <c r="G61" s="151"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="151"/>
+      <c r="J61" s="152"/>
+      <c r="K61" s="152"/>
+      <c r="L61" s="153"/>
+      <c r="M61" s="153"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5430,13 +5430,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="152"/>
+      <c r="K62" s="152"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5447,13 +5447,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="133"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="152"/>
+      <c r="K63" s="152"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="153"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5464,13 +5464,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="133"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
+      <c r="G64" s="151"/>
+      <c r="H64" s="151"/>
+      <c r="I64" s="151"/>
+      <c r="J64" s="152"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="153"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5481,13 +5481,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="134"/>
+      <c r="G65" s="151"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="152"/>
+      <c r="K65" s="152"/>
+      <c r="L65" s="153"/>
+      <c r="M65" s="153"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5498,13 +5498,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="133"/>
-      <c r="L66" s="134"/>
-      <c r="M66" s="134"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="152"/>
+      <c r="K66" s="152"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="153"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5515,13 +5515,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="134"/>
+      <c r="G67" s="151"/>
+      <c r="H67" s="151"/>
+      <c r="I67" s="151"/>
+      <c r="J67" s="152"/>
+      <c r="K67" s="152"/>
+      <c r="L67" s="153"/>
+      <c r="M67" s="153"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5532,13 +5532,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
+      <c r="J68" s="152"/>
+      <c r="K68" s="152"/>
+      <c r="L68" s="153"/>
+      <c r="M68" s="153"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5549,13 +5549,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="133"/>
-      <c r="L69" s="134"/>
-      <c r="M69" s="134"/>
+      <c r="G69" s="151"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="151"/>
+      <c r="J69" s="152"/>
+      <c r="K69" s="152"/>
+      <c r="L69" s="153"/>
+      <c r="M69" s="153"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5566,13 +5566,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="152"/>
+      <c r="K70" s="152"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="153"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5583,13 +5583,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="133"/>
-      <c r="L71" s="134"/>
-      <c r="M71" s="134"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="151"/>
+      <c r="J71" s="152"/>
+      <c r="K71" s="152"/>
+      <c r="L71" s="153"/>
+      <c r="M71" s="153"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5597,195 +5597,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5810,6 +5621,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="equal">
@@ -6110,9 +6110,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BL22" sqref="BL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6126,452 +6126,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="135"/>
-      <c r="BM2" s="135"/>
-      <c r="BN2" s="135"/>
-      <c r="BO2" s="135"/>
-      <c r="BP2" s="135"/>
-      <c r="BQ2" s="135"/>
-      <c r="BR2" s="135"/>
-      <c r="BS2" s="135"/>
-      <c r="BT2" s="135"/>
-      <c r="BU2" s="135"/>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="135"/>
-      <c r="BY2" s="135"/>
-      <c r="BZ2" s="135"/>
-      <c r="CA2" s="135"/>
-      <c r="CB2" s="135"/>
-      <c r="CC2" s="135"/>
-      <c r="CD2" s="135"/>
-      <c r="CE2" s="135"/>
-      <c r="CF2" s="135"/>
-      <c r="CG2" s="135"/>
-      <c r="CH2" s="135"/>
-      <c r="CI2" s="135"/>
-      <c r="CJ2" s="135"/>
-      <c r="CK2" s="135"/>
-      <c r="CL2" s="135"/>
-      <c r="CM2" s="135"/>
-      <c r="CN2" s="135"/>
-      <c r="CO2" s="135"/>
-      <c r="CP2" s="135"/>
-      <c r="CQ2" s="135"/>
-      <c r="CR2" s="135"/>
-      <c r="CS2" s="135"/>
-      <c r="CT2" s="135"/>
-      <c r="CU2" s="135"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="165"/>
+      <c r="AN2" s="165"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="165"/>
+      <c r="AT2" s="165"/>
+      <c r="AU2" s="165"/>
+      <c r="AV2" s="165"/>
+      <c r="AW2" s="165"/>
+      <c r="AX2" s="165"/>
+      <c r="AY2" s="165"/>
+      <c r="AZ2" s="165"/>
+      <c r="BA2" s="165"/>
+      <c r="BB2" s="165"/>
+      <c r="BC2" s="165"/>
+      <c r="BD2" s="165"/>
+      <c r="BE2" s="165"/>
+      <c r="BF2" s="165"/>
+      <c r="BG2" s="165"/>
+      <c r="BH2" s="165"/>
+      <c r="BI2" s="165"/>
+      <c r="BJ2" s="165"/>
+      <c r="BK2" s="165"/>
+      <c r="BL2" s="165"/>
+      <c r="BM2" s="165"/>
+      <c r="BN2" s="165"/>
+      <c r="BO2" s="165"/>
+      <c r="BP2" s="165"/>
+      <c r="BQ2" s="165"/>
+      <c r="BR2" s="165"/>
+      <c r="BS2" s="165"/>
+      <c r="BT2" s="165"/>
+      <c r="BU2" s="165"/>
+      <c r="BV2" s="165"/>
+      <c r="BW2" s="165"/>
+      <c r="BX2" s="165"/>
+      <c r="BY2" s="165"/>
+      <c r="BZ2" s="165"/>
+      <c r="CA2" s="165"/>
+      <c r="CB2" s="165"/>
+      <c r="CC2" s="165"/>
+      <c r="CD2" s="165"/>
+      <c r="CE2" s="165"/>
+      <c r="CF2" s="165"/>
+      <c r="CG2" s="165"/>
+      <c r="CH2" s="165"/>
+      <c r="CI2" s="165"/>
+      <c r="CJ2" s="165"/>
+      <c r="CK2" s="165"/>
+      <c r="CL2" s="165"/>
+      <c r="CM2" s="165"/>
+      <c r="CN2" s="165"/>
+      <c r="CO2" s="165"/>
+      <c r="CP2" s="165"/>
+      <c r="CQ2" s="165"/>
+      <c r="CR2" s="165"/>
+      <c r="CS2" s="165"/>
+      <c r="CT2" s="165"/>
+      <c r="CU2" s="165"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="135"/>
-      <c r="BN3" s="135"/>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="135"/>
-      <c r="BR3" s="135"/>
-      <c r="BS3" s="135"/>
-      <c r="BT3" s="135"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="135"/>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
-      <c r="CG3" s="135"/>
-      <c r="CH3" s="135"/>
-      <c r="CI3" s="135"/>
-      <c r="CJ3" s="135"/>
-      <c r="CK3" s="135"/>
-      <c r="CL3" s="135"/>
-      <c r="CM3" s="135"/>
-      <c r="CN3" s="135"/>
-      <c r="CO3" s="135"/>
-      <c r="CP3" s="135"/>
-      <c r="CQ3" s="135"/>
-      <c r="CR3" s="135"/>
-      <c r="CS3" s="135"/>
-      <c r="CT3" s="135"/>
-      <c r="CU3" s="135"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="165"/>
+      <c r="AM3" s="165"/>
+      <c r="AN3" s="165"/>
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="165"/>
+      <c r="AQ3" s="165"/>
+      <c r="AR3" s="165"/>
+      <c r="AS3" s="165"/>
+      <c r="AT3" s="165"/>
+      <c r="AU3" s="165"/>
+      <c r="AV3" s="165"/>
+      <c r="AW3" s="165"/>
+      <c r="AX3" s="165"/>
+      <c r="AY3" s="165"/>
+      <c r="AZ3" s="165"/>
+      <c r="BA3" s="165"/>
+      <c r="BB3" s="165"/>
+      <c r="BC3" s="165"/>
+      <c r="BD3" s="165"/>
+      <c r="BE3" s="165"/>
+      <c r="BF3" s="165"/>
+      <c r="BG3" s="165"/>
+      <c r="BH3" s="165"/>
+      <c r="BI3" s="165"/>
+      <c r="BJ3" s="165"/>
+      <c r="BK3" s="165"/>
+      <c r="BL3" s="165"/>
+      <c r="BM3" s="165"/>
+      <c r="BN3" s="165"/>
+      <c r="BO3" s="165"/>
+      <c r="BP3" s="165"/>
+      <c r="BQ3" s="165"/>
+      <c r="BR3" s="165"/>
+      <c r="BS3" s="165"/>
+      <c r="BT3" s="165"/>
+      <c r="BU3" s="165"/>
+      <c r="BV3" s="165"/>
+      <c r="BW3" s="165"/>
+      <c r="BX3" s="165"/>
+      <c r="BY3" s="165"/>
+      <c r="BZ3" s="165"/>
+      <c r="CA3" s="165"/>
+      <c r="CB3" s="165"/>
+      <c r="CC3" s="165"/>
+      <c r="CD3" s="165"/>
+      <c r="CE3" s="165"/>
+      <c r="CF3" s="165"/>
+      <c r="CG3" s="165"/>
+      <c r="CH3" s="165"/>
+      <c r="CI3" s="165"/>
+      <c r="CJ3" s="165"/>
+      <c r="CK3" s="165"/>
+      <c r="CL3" s="165"/>
+      <c r="CM3" s="165"/>
+      <c r="CN3" s="165"/>
+      <c r="CO3" s="165"/>
+      <c r="CP3" s="165"/>
+      <c r="CQ3" s="165"/>
+      <c r="CR3" s="165"/>
+      <c r="CS3" s="165"/>
+      <c r="CT3" s="165"/>
+      <c r="CU3" s="165"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="202" t="s">
+      <c r="D5" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="203"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="203"/>
-      <c r="S5" s="203"/>
-      <c r="T5" s="203"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="203"/>
-      <c r="W5" s="203"/>
-      <c r="X5" s="203"/>
-      <c r="Y5" s="203"/>
-      <c r="Z5" s="203"/>
-      <c r="AA5" s="203"/>
-      <c r="AB5" s="203"/>
-      <c r="AC5" s="203"/>
-      <c r="AD5" s="203"/>
-      <c r="AE5" s="203"/>
-      <c r="AF5" s="203"/>
-      <c r="AG5" s="203"/>
-      <c r="AH5" s="203"/>
-      <c r="AI5" s="203"/>
-      <c r="AJ5" s="203"/>
-      <c r="AK5" s="203"/>
-      <c r="AL5" s="203"/>
-      <c r="AM5" s="203"/>
-      <c r="AN5" s="203"/>
-      <c r="AO5" s="203"/>
-      <c r="AP5" s="203"/>
-      <c r="AQ5" s="203"/>
-      <c r="AR5" s="203"/>
-      <c r="AS5" s="203"/>
-      <c r="AT5" s="203"/>
-      <c r="AU5" s="203"/>
-      <c r="AV5" s="203"/>
-      <c r="AW5" s="203"/>
-      <c r="AX5" s="203"/>
-      <c r="AY5" s="203"/>
-      <c r="AZ5" s="203"/>
-      <c r="BA5" s="203"/>
-      <c r="BB5" s="203"/>
-      <c r="BC5" s="203"/>
-      <c r="BD5" s="204"/>
-      <c r="BE5" s="205" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="178"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="178"/>
+      <c r="V5" s="178"/>
+      <c r="W5" s="178"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="178"/>
+      <c r="AA5" s="178"/>
+      <c r="AB5" s="178"/>
+      <c r="AC5" s="178"/>
+      <c r="AD5" s="178"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="178"/>
+      <c r="AG5" s="178"/>
+      <c r="AH5" s="178"/>
+      <c r="AI5" s="178"/>
+      <c r="AJ5" s="178"/>
+      <c r="AK5" s="178"/>
+      <c r="AL5" s="178"/>
+      <c r="AM5" s="178"/>
+      <c r="AN5" s="178"/>
+      <c r="AO5" s="178"/>
+      <c r="AP5" s="178"/>
+      <c r="AQ5" s="178"/>
+      <c r="AR5" s="178"/>
+      <c r="AS5" s="178"/>
+      <c r="AT5" s="178"/>
+      <c r="AU5" s="178"/>
+      <c r="AV5" s="178"/>
+      <c r="AW5" s="178"/>
+      <c r="AX5" s="178"/>
+      <c r="AY5" s="178"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="178"/>
+      <c r="BB5" s="178"/>
+      <c r="BC5" s="178"/>
+      <c r="BD5" s="179"/>
+      <c r="BE5" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="206"/>
-      <c r="BG5" s="206"/>
-      <c r="BH5" s="206"/>
-      <c r="BI5" s="206"/>
-      <c r="BJ5" s="206"/>
-      <c r="BK5" s="206"/>
-      <c r="BL5" s="206"/>
-      <c r="BM5" s="206"/>
-      <c r="BN5" s="206"/>
-      <c r="BO5" s="206"/>
-      <c r="BP5" s="206"/>
-      <c r="BQ5" s="206"/>
-      <c r="BR5" s="206"/>
-      <c r="BS5" s="206"/>
-      <c r="BT5" s="206"/>
-      <c r="BU5" s="206"/>
-      <c r="BV5" s="206"/>
-      <c r="BW5" s="206"/>
-      <c r="BX5" s="206"/>
-      <c r="BY5" s="206"/>
-      <c r="BZ5" s="206"/>
-      <c r="CA5" s="206"/>
-      <c r="CB5" s="206"/>
-      <c r="CC5" s="206"/>
-      <c r="CD5" s="206"/>
-      <c r="CE5" s="206"/>
-      <c r="CF5" s="206"/>
-      <c r="CG5" s="206"/>
-      <c r="CH5" s="206"/>
-      <c r="CI5" s="206"/>
-      <c r="CJ5" s="206"/>
-      <c r="CK5" s="206"/>
-      <c r="CL5" s="206"/>
-      <c r="CM5" s="206"/>
-      <c r="CN5" s="206"/>
-      <c r="CO5" s="206"/>
-      <c r="CP5" s="206"/>
-      <c r="CQ5" s="206"/>
-      <c r="CR5" s="207"/>
-      <c r="CS5" s="194" t="s">
+      <c r="BF5" s="181"/>
+      <c r="BG5" s="181"/>
+      <c r="BH5" s="181"/>
+      <c r="BI5" s="181"/>
+      <c r="BJ5" s="181"/>
+      <c r="BK5" s="181"/>
+      <c r="BL5" s="181"/>
+      <c r="BM5" s="181"/>
+      <c r="BN5" s="181"/>
+      <c r="BO5" s="181"/>
+      <c r="BP5" s="181"/>
+      <c r="BQ5" s="181"/>
+      <c r="BR5" s="181"/>
+      <c r="BS5" s="181"/>
+      <c r="BT5" s="181"/>
+      <c r="BU5" s="181"/>
+      <c r="BV5" s="181"/>
+      <c r="BW5" s="181"/>
+      <c r="BX5" s="181"/>
+      <c r="BY5" s="181"/>
+      <c r="BZ5" s="181"/>
+      <c r="CA5" s="181"/>
+      <c r="CB5" s="181"/>
+      <c r="CC5" s="181"/>
+      <c r="CD5" s="181"/>
+      <c r="CE5" s="181"/>
+      <c r="CF5" s="181"/>
+      <c r="CG5" s="181"/>
+      <c r="CH5" s="181"/>
+      <c r="CI5" s="181"/>
+      <c r="CJ5" s="181"/>
+      <c r="CK5" s="181"/>
+      <c r="CL5" s="181"/>
+      <c r="CM5" s="181"/>
+      <c r="CN5" s="181"/>
+      <c r="CO5" s="181"/>
+      <c r="CP5" s="181"/>
+      <c r="CQ5" s="181"/>
+      <c r="CR5" s="182"/>
+      <c r="CS5" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="195"/>
-      <c r="CU5" s="196"/>
+      <c r="CT5" s="188"/>
+      <c r="CU5" s="189"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="199"/>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="177" t="s">
+      <c r="A6" s="174"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="180" t="s">
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="180"/>
-      <c r="T6" s="180"/>
-      <c r="U6" s="180"/>
-      <c r="V6" s="180"/>
-      <c r="W6" s="180"/>
-      <c r="X6" s="180"/>
-      <c r="Y6" s="180"/>
-      <c r="Z6" s="180"/>
-      <c r="AA6" s="180"/>
-      <c r="AB6" s="180"/>
-      <c r="AC6" s="180"/>
-      <c r="AD6" s="180"/>
-      <c r="AE6" s="180"/>
-      <c r="AF6" s="180"/>
-      <c r="AG6" s="180"/>
-      <c r="AH6" s="180"/>
-      <c r="AI6" s="180"/>
-      <c r="AJ6" s="180"/>
-      <c r="AK6" s="180"/>
-      <c r="AL6" s="180"/>
-      <c r="AM6" s="180"/>
-      <c r="AN6" s="180"/>
-      <c r="AO6" s="180" t="s">
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="193"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="193"/>
+      <c r="AI6" s="193"/>
+      <c r="AJ6" s="193"/>
+      <c r="AK6" s="193"/>
+      <c r="AL6" s="193"/>
+      <c r="AM6" s="193"/>
+      <c r="AN6" s="193"/>
+      <c r="AO6" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="180"/>
-      <c r="AQ6" s="180"/>
-      <c r="AR6" s="180"/>
-      <c r="AS6" s="180" t="s">
+      <c r="AP6" s="193"/>
+      <c r="AQ6" s="193"/>
+      <c r="AR6" s="193"/>
+      <c r="AS6" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="180"/>
-      <c r="AU6" s="180"/>
-      <c r="AV6" s="180" t="s">
+      <c r="AT6" s="193"/>
+      <c r="AU6" s="193"/>
+      <c r="AV6" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="180"/>
-      <c r="AX6" s="180"/>
-      <c r="AY6" s="180"/>
-      <c r="AZ6" s="180"/>
-      <c r="BA6" s="180"/>
-      <c r="BB6" s="180"/>
-      <c r="BC6" s="187" t="s">
+      <c r="AW6" s="193"/>
+      <c r="AX6" s="193"/>
+      <c r="AY6" s="193"/>
+      <c r="AZ6" s="193"/>
+      <c r="BA6" s="193"/>
+      <c r="BB6" s="193"/>
+      <c r="BC6" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="188"/>
-      <c r="BE6" s="189" t="s">
+      <c r="BD6" s="198"/>
+      <c r="BE6" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="190"/>
-      <c r="BG6" s="190"/>
-      <c r="BH6" s="190"/>
-      <c r="BI6" s="190"/>
-      <c r="BJ6" s="190"/>
-      <c r="BK6" s="191"/>
-      <c r="BL6" s="192" t="s">
+      <c r="BF6" s="200"/>
+      <c r="BG6" s="200"/>
+      <c r="BH6" s="200"/>
+      <c r="BI6" s="200"/>
+      <c r="BJ6" s="200"/>
+      <c r="BK6" s="201"/>
+      <c r="BL6" s="202" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="190"/>
-      <c r="BN6" s="190"/>
-      <c r="BO6" s="190"/>
-      <c r="BP6" s="190"/>
-      <c r="BQ6" s="190"/>
-      <c r="BR6" s="190"/>
-      <c r="BS6" s="190"/>
-      <c r="BT6" s="190"/>
-      <c r="BU6" s="190"/>
-      <c r="BV6" s="190"/>
-      <c r="BW6" s="190"/>
-      <c r="BX6" s="190"/>
-      <c r="BY6" s="190"/>
-      <c r="BZ6" s="190"/>
-      <c r="CA6" s="190"/>
-      <c r="CB6" s="190"/>
-      <c r="CC6" s="190"/>
-      <c r="CD6" s="190"/>
-      <c r="CE6" s="190"/>
-      <c r="CF6" s="190"/>
-      <c r="CG6" s="190"/>
-      <c r="CH6" s="190"/>
-      <c r="CI6" s="190"/>
-      <c r="CJ6" s="190"/>
-      <c r="CK6" s="190"/>
-      <c r="CL6" s="190"/>
-      <c r="CM6" s="190"/>
-      <c r="CN6" s="190"/>
-      <c r="CO6" s="190"/>
-      <c r="CP6" s="190"/>
-      <c r="CQ6" s="197" t="s">
+      <c r="BM6" s="200"/>
+      <c r="BN6" s="200"/>
+      <c r="BO6" s="200"/>
+      <c r="BP6" s="200"/>
+      <c r="BQ6" s="200"/>
+      <c r="BR6" s="200"/>
+      <c r="BS6" s="200"/>
+      <c r="BT6" s="200"/>
+      <c r="BU6" s="200"/>
+      <c r="BV6" s="200"/>
+      <c r="BW6" s="200"/>
+      <c r="BX6" s="200"/>
+      <c r="BY6" s="200"/>
+      <c r="BZ6" s="200"/>
+      <c r="CA6" s="200"/>
+      <c r="CB6" s="200"/>
+      <c r="CC6" s="200"/>
+      <c r="CD6" s="200"/>
+      <c r="CE6" s="200"/>
+      <c r="CF6" s="200"/>
+      <c r="CG6" s="200"/>
+      <c r="CH6" s="200"/>
+      <c r="CI6" s="200"/>
+      <c r="CJ6" s="200"/>
+      <c r="CK6" s="200"/>
+      <c r="CL6" s="200"/>
+      <c r="CM6" s="200"/>
+      <c r="CN6" s="200"/>
+      <c r="CO6" s="200"/>
+      <c r="CP6" s="200"/>
+      <c r="CQ6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="197"/>
-      <c r="CS6" s="193" t="s">
+      <c r="CR6" s="190"/>
+      <c r="CS6" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="193" t="s">
+      <c r="CT6" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="184" t="s">
+      <c r="CU6" s="194" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6580,318 +6580,321 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="179" t="s">
+      <c r="J7" s="185" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="183">
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="186">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="183"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179"/>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179"/>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
+      <c r="U7" s="186"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185"/>
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179"/>
-      <c r="AS7" s="183">
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185"/>
+      <c r="AS7" s="186">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="183"/>
+      <c r="AT7" s="186"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179"/>
-      <c r="AZ7" s="183">
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185"/>
+      <c r="AZ7" s="186">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="183"/>
+      <c r="BA7" s="186"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="187"/>
-      <c r="BD7" s="188"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179"/>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="183">
+      <c r="BC7" s="197"/>
+      <c r="BD7" s="198"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="186">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="183"/>
+      <c r="BJ7" s="186"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="179"/>
-      <c r="BM7" s="179"/>
-      <c r="BN7" s="179"/>
-      <c r="BO7" s="179"/>
-      <c r="BP7" s="179"/>
-      <c r="BQ7" s="179"/>
-      <c r="BR7" s="179"/>
-      <c r="BS7" s="179"/>
-      <c r="BT7" s="179"/>
-      <c r="BU7" s="179"/>
-      <c r="BV7" s="179"/>
-      <c r="BW7" s="179"/>
-      <c r="BX7" s="179"/>
-      <c r="BY7" s="179"/>
-      <c r="BZ7" s="179"/>
-      <c r="CA7" s="179"/>
-      <c r="CB7" s="179"/>
-      <c r="CC7" s="179"/>
-      <c r="CD7" s="179"/>
-      <c r="CE7" s="179"/>
-      <c r="CF7" s="179"/>
-      <c r="CG7" s="179"/>
-      <c r="CH7" s="179"/>
-      <c r="CI7" s="179"/>
-      <c r="CJ7" s="179"/>
-      <c r="CK7" s="179"/>
-      <c r="CL7" s="179"/>
-      <c r="CM7" s="179"/>
-      <c r="CN7" s="183"/>
-      <c r="CO7" s="183"/>
+      <c r="BL7" s="185"/>
+      <c r="BM7" s="185"/>
+      <c r="BN7" s="185"/>
+      <c r="BO7" s="185"/>
+      <c r="BP7" s="185"/>
+      <c r="BQ7" s="185"/>
+      <c r="BR7" s="185"/>
+      <c r="BS7" s="185"/>
+      <c r="BT7" s="185"/>
+      <c r="BU7" s="185"/>
+      <c r="BV7" s="185"/>
+      <c r="BW7" s="185"/>
+      <c r="BX7" s="185"/>
+      <c r="BY7" s="185"/>
+      <c r="BZ7" s="185"/>
+      <c r="CA7" s="185"/>
+      <c r="CB7" s="185"/>
+      <c r="CC7" s="185"/>
+      <c r="CD7" s="185"/>
+      <c r="CE7" s="185"/>
+      <c r="CF7" s="185"/>
+      <c r="CG7" s="185"/>
+      <c r="CH7" s="185"/>
+      <c r="CI7" s="185"/>
+      <c r="CJ7" s="185"/>
+      <c r="CK7" s="185"/>
+      <c r="CL7" s="185"/>
+      <c r="CM7" s="185"/>
+      <c r="CN7" s="186">
+        <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
+        <v>3</v>
+      </c>
+      <c r="CO7" s="186"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="197"/>
-      <c r="CR7" s="197"/>
-      <c r="CS7" s="193"/>
-      <c r="CT7" s="193"/>
-      <c r="CU7" s="185"/>
+      <c r="CQ7" s="190"/>
+      <c r="CR7" s="190"/>
+      <c r="CS7" s="172"/>
+      <c r="CT7" s="172"/>
+      <c r="CU7" s="195"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="201"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="208" t="s">
+      <c r="A8" s="174"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="183" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208" t="s">
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="172" t="s">
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172" t="s">
+      <c r="K8" s="184"/>
+      <c r="L8" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172" t="s">
+      <c r="M8" s="184"/>
+      <c r="N8" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172" t="s">
+      <c r="O8" s="184"/>
+      <c r="P8" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="172" t="s">
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172" t="s">
+      <c r="S8" s="184"/>
+      <c r="T8" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172" t="s">
+      <c r="U8" s="184"/>
+      <c r="V8" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172" t="s">
+      <c r="W8" s="184"/>
+      <c r="X8" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="172" t="s">
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172" t="s">
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172" t="s">
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="172" t="s">
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="172"/>
-      <c r="AH8" s="172" t="s">
+      <c r="AG8" s="184"/>
+      <c r="AH8" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="172"/>
-      <c r="AJ8" s="172" t="s">
+      <c r="AI8" s="184"/>
+      <c r="AJ8" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="172"/>
-      <c r="AL8" s="172" t="s">
+      <c r="AK8" s="184"/>
+      <c r="AL8" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="172"/>
+      <c r="AM8" s="184"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="172" t="s">
+      <c r="AO8" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="172"/>
-      <c r="AQ8" s="172" t="s">
+      <c r="AP8" s="184"/>
+      <c r="AQ8" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="172"/>
-      <c r="AS8" s="172" t="s">
+      <c r="AR8" s="184"/>
+      <c r="AS8" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="172"/>
+      <c r="AT8" s="184"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="172" t="s">
+      <c r="AV8" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="172"/>
-      <c r="AX8" s="172" t="s">
+      <c r="AW8" s="184"/>
+      <c r="AX8" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="172"/>
-      <c r="AZ8" s="172" t="s">
+      <c r="AY8" s="184"/>
+      <c r="AZ8" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="172"/>
+      <c r="BA8" s="184"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="187"/>
-      <c r="BD8" s="188"/>
-      <c r="BE8" s="182" t="s">
+      <c r="BC8" s="197"/>
+      <c r="BD8" s="198"/>
+      <c r="BE8" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="181"/>
-      <c r="BG8" s="181" t="s">
+      <c r="BF8" s="203"/>
+      <c r="BG8" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="181"/>
-      <c r="BI8" s="181" t="s">
+      <c r="BH8" s="203"/>
+      <c r="BI8" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="181"/>
+      <c r="BJ8" s="203"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="175" t="s">
+      <c r="BL8" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="176"/>
-      <c r="BN8" s="175" t="s">
+      <c r="BM8" s="205"/>
+      <c r="BN8" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="176"/>
-      <c r="BP8" s="175" t="s">
+      <c r="BO8" s="205"/>
+      <c r="BP8" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="176"/>
-      <c r="BR8" s="175" t="s">
+      <c r="BQ8" s="205"/>
+      <c r="BR8" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="176"/>
-      <c r="BT8" s="175" t="s">
+      <c r="BS8" s="205"/>
+      <c r="BT8" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="176"/>
-      <c r="BV8" s="173" t="s">
+      <c r="BU8" s="205"/>
+      <c r="BV8" s="191" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="174"/>
-      <c r="BX8" s="173" t="s">
+      <c r="BW8" s="192"/>
+      <c r="BX8" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="174"/>
-      <c r="BZ8" s="173" t="s">
+      <c r="BY8" s="192"/>
+      <c r="BZ8" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="174"/>
-      <c r="CB8" s="173" t="s">
+      <c r="CA8" s="192"/>
+      <c r="CB8" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="174"/>
-      <c r="CD8" s="173" t="s">
+      <c r="CC8" s="192"/>
+      <c r="CD8" s="191" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="174"/>
-      <c r="CF8" s="173" t="s">
+      <c r="CE8" s="192"/>
+      <c r="CF8" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="174"/>
-      <c r="CH8" s="173" t="s">
+      <c r="CG8" s="192"/>
+      <c r="CH8" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="174"/>
-      <c r="CJ8" s="173" t="s">
+      <c r="CI8" s="192"/>
+      <c r="CJ8" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="174"/>
-      <c r="CL8" s="173" t="s">
+      <c r="CK8" s="192"/>
+      <c r="CL8" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="174"/>
-      <c r="CN8" s="173" t="s">
+      <c r="CM8" s="192"/>
+      <c r="CN8" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="174"/>
+      <c r="CO8" s="192"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="197"/>
-      <c r="CR8" s="197"/>
-      <c r="CS8" s="193"/>
-      <c r="CT8" s="193"/>
-      <c r="CU8" s="185"/>
+      <c r="CQ8" s="190"/>
+      <c r="CR8" s="190"/>
+      <c r="CS8" s="172"/>
+      <c r="CT8" s="172"/>
+      <c r="CU8" s="195"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="200"/>
-      <c r="B9" s="201"/>
-      <c r="C9" s="201"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="27">
         <v>70</v>
       </c>
@@ -7053,9 +7056,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="193"/>
-      <c r="CT9" s="193"/>
-      <c r="CU9" s="186"/>
+      <c r="CS9" s="172"/>
+      <c r="CT9" s="172"/>
+      <c r="CU9" s="196"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7284,9 +7287,9 @@
         <f>IFERROR(((CN10/$CN$9)*100),"")</f>
         <v/>
       </c>
-      <c r="CP10" s="103" t="str">
+      <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
@@ -7536,9 +7539,9 @@
         <f t="shared" ref="CO11:CO70" si="37">IFERROR(((CN11/$CN$9)*100),"")</f>
         <v/>
       </c>
-      <c r="CP11" s="103" t="str">
+      <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
@@ -7788,9 +7791,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP12" s="103" t="str">
+      <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
@@ -8040,9 +8043,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP13" s="103" t="str">
+      <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
@@ -8292,9 +8295,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP14" s="103" t="str">
+      <c r="CP14" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ14" s="99">
         <f t="shared" si="39"/>
@@ -8544,9 +8547,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP15" s="103" t="str">
+      <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
@@ -8796,9 +8799,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP16" s="103" t="str">
+      <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
@@ -9048,9 +9051,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP17" s="103" t="str">
+      <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
@@ -9300,9 +9303,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP18" s="103" t="str">
+      <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
@@ -9552,9 +9555,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP19" s="103" t="str">
+      <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
@@ -9804,9 +9807,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP20" s="103" t="str">
+      <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
@@ -10056,9 +10059,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP21" s="103" t="str">
+      <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
@@ -10308,9 +10311,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP22" s="103" t="str">
+      <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
@@ -10560,9 +10563,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP23" s="103" t="str">
+      <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
@@ -10812,9 +10815,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP24" s="103" t="str">
+      <c r="CP24" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ24" s="99">
         <f t="shared" si="39"/>
@@ -11064,9 +11067,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP25" s="103" t="str">
+      <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
@@ -11316,9 +11319,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP26" s="103" t="str">
+      <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
@@ -11568,9 +11571,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP27" s="103" t="str">
+      <c r="CP27" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ27" s="99">
         <f t="shared" si="39"/>
@@ -11820,9 +11823,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP28" s="103" t="str">
+      <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
@@ -12072,9 +12075,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP29" s="103" t="str">
+      <c r="CP29" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ29" s="99">
         <f t="shared" si="39"/>
@@ -12324,9 +12327,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP30" s="103" t="str">
+      <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
@@ -12576,9 +12579,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP31" s="103" t="str">
+      <c r="CP31" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ31" s="99">
         <f t="shared" si="39"/>
@@ -12828,9 +12831,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP32" s="103" t="str">
+      <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
@@ -13080,9 +13083,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP33" s="103" t="str">
+      <c r="CP33" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ33" s="99">
         <f t="shared" si="39"/>
@@ -13338,21 +13341,21 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP34" s="103" t="str">
+      <c r="CP34" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CR34" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>18.116</v>
+        <v>48.116</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13590,9 +13593,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP35" s="103" t="str">
+      <c r="CP35" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ35" s="99">
         <f t="shared" si="39"/>
@@ -13842,9 +13845,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP36" s="103" t="str">
+      <c r="CP36" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ36" s="99">
         <f t="shared" si="39"/>
@@ -14094,9 +14097,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP37" s="103" t="str">
+      <c r="CP37" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ37" s="99">
         <f t="shared" si="39"/>
@@ -14346,9 +14349,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP38" s="103" t="str">
+      <c r="CP38" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ38" s="99">
         <f t="shared" si="39"/>
@@ -14598,9 +14601,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP39" s="103" t="str">
+      <c r="CP39" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ39" s="99">
         <f t="shared" si="39"/>
@@ -14850,9 +14853,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP40" s="103" t="str">
+      <c r="CP40" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ40" s="99">
         <f t="shared" si="39"/>
@@ -15102,9 +15105,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP41" s="103" t="str">
+      <c r="CP41" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ41" s="99">
         <f t="shared" si="39"/>
@@ -15354,9 +15357,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP42" s="103" t="str">
+      <c r="CP42" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ42" s="99">
         <f t="shared" si="39"/>
@@ -15602,9 +15605,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP43" s="103" t="str">
+      <c r="CP43" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ43" s="99">
         <f t="shared" si="39"/>
@@ -15850,9 +15853,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP44" s="103" t="str">
+      <c r="CP44" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ44" s="99">
         <f t="shared" si="39"/>
@@ -16098,9 +16101,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP45" s="103" t="str">
+      <c r="CP45" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ45" s="99">
         <f t="shared" si="39"/>
@@ -16346,9 +16349,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP46" s="103" t="str">
+      <c r="CP46" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ46" s="99">
         <f t="shared" si="39"/>
@@ -16594,9 +16597,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP47" s="103" t="str">
+      <c r="CP47" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ47" s="99">
         <f t="shared" si="39"/>
@@ -16842,9 +16845,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP48" s="103" t="str">
+      <c r="CP48" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ48" s="99">
         <f t="shared" si="39"/>
@@ -17090,9 +17093,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP49" s="103" t="str">
+      <c r="CP49" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ49" s="99">
         <f t="shared" si="39"/>
@@ -17338,9 +17341,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP50" s="103" t="str">
+      <c r="CP50" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ50" s="99">
         <f t="shared" si="39"/>
@@ -17586,9 +17589,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP51" s="103" t="str">
+      <c r="CP51" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ51" s="99">
         <f t="shared" si="39"/>
@@ -17834,9 +17837,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP52" s="103" t="str">
+      <c r="CP52" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ52" s="99">
         <f t="shared" si="39"/>
@@ -18082,9 +18085,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP53" s="103" t="str">
+      <c r="CP53" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ53" s="99">
         <f t="shared" si="39"/>
@@ -18330,9 +18333,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP54" s="103" t="str">
+      <c r="CP54" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ54" s="99">
         <f t="shared" si="39"/>
@@ -18578,9 +18581,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP55" s="103" t="str">
+      <c r="CP55" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ55" s="99">
         <f t="shared" si="39"/>
@@ -18826,9 +18829,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP56" s="103" t="str">
+      <c r="CP56" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ56" s="99">
         <f t="shared" si="39"/>
@@ -19074,9 +19077,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP57" s="103" t="str">
+      <c r="CP57" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ57" s="99">
         <f t="shared" si="39"/>
@@ -19322,9 +19325,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP58" s="103" t="str">
+      <c r="CP58" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ58" s="99">
         <f t="shared" si="39"/>
@@ -19570,9 +19573,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP59" s="103" t="str">
+      <c r="CP59" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ59" s="99">
         <f t="shared" si="39"/>
@@ -19818,9 +19821,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP60" s="103" t="str">
+      <c r="CP60" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ60" s="99">
         <f t="shared" si="39"/>
@@ -20066,9 +20069,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP61" s="103" t="str">
+      <c r="CP61" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ61" s="99">
         <f t="shared" si="39"/>
@@ -20314,9 +20317,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP62" s="103" t="str">
+      <c r="CP62" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ62" s="99">
         <f t="shared" si="39"/>
@@ -20562,9 +20565,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP63" s="103" t="str">
+      <c r="CP63" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ63" s="99">
         <f t="shared" si="39"/>
@@ -20810,9 +20813,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP64" s="103" t="str">
+      <c r="CP64" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ64" s="99">
         <f t="shared" si="39"/>
@@ -21058,9 +21061,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP65" s="103" t="str">
+      <c r="CP65" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ65" s="99">
         <f t="shared" si="39"/>
@@ -21306,9 +21309,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP66" s="103" t="str">
+      <c r="CP66" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ66" s="99">
         <f t="shared" si="39"/>
@@ -21554,9 +21557,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP67" s="103" t="str">
+      <c r="CP67" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ67" s="99">
         <f t="shared" si="39"/>
@@ -21802,9 +21805,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP68" s="103" t="str">
+      <c r="CP68" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ68" s="99">
         <f t="shared" si="39"/>
@@ -22050,9 +22053,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP69" s="110" t="str">
+      <c r="CP69" s="110">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ69" s="99">
         <f t="shared" si="39"/>
@@ -22298,9 +22301,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP70" s="103" t="str">
+      <c r="CP70" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ70" s="99">
         <f t="shared" si="39"/>
@@ -22326,6 +22329,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22342,88 +22427,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -22657,9 +22660,9 @@
         <f>'RAW GRADES'!BK10</f>
         <v/>
       </c>
-      <c r="K8" s="52" t="str">
+      <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
@@ -22722,9 +22725,9 @@
         <f>'RAW GRADES'!BK11</f>
         <v/>
       </c>
-      <c r="K9" s="52" t="str">
+      <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
@@ -22787,9 +22790,9 @@
         <f>'RAW GRADES'!BK12</f>
         <v/>
       </c>
-      <c r="K10" s="52" t="str">
+      <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
@@ -22852,9 +22855,9 @@
         <f>'RAW GRADES'!BK13</f>
         <v/>
       </c>
-      <c r="K11" s="52" t="str">
+      <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
@@ -22917,9 +22920,9 @@
         <f>'RAW GRADES'!BK14</f>
         <v/>
       </c>
-      <c r="K12" s="52" t="str">
+      <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
@@ -22982,9 +22985,9 @@
         <f>'RAW GRADES'!BK15</f>
         <v/>
       </c>
-      <c r="K13" s="52" t="str">
+      <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
@@ -23047,9 +23050,9 @@
         <f>'RAW GRADES'!BK16</f>
         <v/>
       </c>
-      <c r="K14" s="52" t="str">
+      <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
@@ -23112,9 +23115,9 @@
         <f>'RAW GRADES'!BK17</f>
         <v/>
       </c>
-      <c r="K15" s="52" t="str">
+      <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
@@ -23177,9 +23180,9 @@
         <f>'RAW GRADES'!BK18</f>
         <v/>
       </c>
-      <c r="K16" s="52" t="str">
+      <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
@@ -23242,9 +23245,9 @@
         <f>'RAW GRADES'!BK19</f>
         <v/>
       </c>
-      <c r="K17" s="52" t="str">
+      <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
@@ -23307,9 +23310,9 @@
         <f>'RAW GRADES'!BK20</f>
         <v/>
       </c>
-      <c r="K18" s="52" t="str">
+      <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
@@ -23372,9 +23375,9 @@
         <f>'RAW GRADES'!BK21</f>
         <v/>
       </c>
-      <c r="K19" s="52" t="str">
+      <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
@@ -23437,9 +23440,9 @@
         <f>'RAW GRADES'!BK22</f>
         <v/>
       </c>
-      <c r="K20" s="52" t="str">
+      <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
@@ -23502,9 +23505,9 @@
         <f>'RAW GRADES'!BK23</f>
         <v/>
       </c>
-      <c r="K21" s="52" t="str">
+      <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
@@ -23567,9 +23570,9 @@
         <f>'RAW GRADES'!BK24</f>
         <v/>
       </c>
-      <c r="K22" s="52" t="str">
+      <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
@@ -23632,9 +23635,9 @@
         <f>'RAW GRADES'!BK25</f>
         <v/>
       </c>
-      <c r="K23" s="52" t="str">
+      <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
@@ -23697,9 +23700,9 @@
         <f>'RAW GRADES'!BK26</f>
         <v/>
       </c>
-      <c r="K24" s="52" t="str">
+      <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
@@ -23762,9 +23765,9 @@
         <f>'RAW GRADES'!BK27</f>
         <v/>
       </c>
-      <c r="K25" s="52" t="str">
+      <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
@@ -23827,9 +23830,9 @@
         <f>'RAW GRADES'!BK28</f>
         <v/>
       </c>
-      <c r="K26" s="52" t="str">
+      <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
@@ -23892,9 +23895,9 @@
         <f>'RAW GRADES'!BK29</f>
         <v/>
       </c>
-      <c r="K27" s="52" t="str">
+      <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
@@ -23957,9 +23960,9 @@
         <f>'RAW GRADES'!BK30</f>
         <v/>
       </c>
-      <c r="K28" s="52" t="str">
+      <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
@@ -24022,9 +24025,9 @@
         <f>'RAW GRADES'!BK31</f>
         <v/>
       </c>
-      <c r="K29" s="52" t="str">
+      <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
@@ -24087,9 +24090,9 @@
         <f>'RAW GRADES'!BK32</f>
         <v/>
       </c>
-      <c r="K30" s="52" t="str">
+      <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
@@ -24152,9 +24155,9 @@
         <f>'RAW GRADES'!BK33</f>
         <v/>
       </c>
-      <c r="K31" s="52" t="str">
+      <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L31" s="52">
         <f>'RAW GRADES'!CQ33</f>
@@ -24217,21 +24220,21 @@
         <f>'RAW GRADES'!BK34</f>
         <v/>
       </c>
-      <c r="K32" s="52" t="str">
+      <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>18.116</v>
+        <v>48.116</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -24282,9 +24285,9 @@
         <f>'RAW GRADES'!BK35</f>
         <v/>
       </c>
-      <c r="K33" s="52" t="str">
+      <c r="K33" s="52">
         <f>'RAW GRADES'!CP35</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L33" s="52">
         <f>'RAW GRADES'!CQ35</f>
@@ -24347,9 +24350,9 @@
         <f>'RAW GRADES'!BK36</f>
         <v/>
       </c>
-      <c r="K34" s="52" t="str">
+      <c r="K34" s="52">
         <f>'RAW GRADES'!CP36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L34" s="52">
         <f>'RAW GRADES'!CQ36</f>
@@ -24412,9 +24415,9 @@
         <f>'RAW GRADES'!BK37</f>
         <v/>
       </c>
-      <c r="K35" s="52" t="str">
+      <c r="K35" s="52">
         <f>'RAW GRADES'!CP37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L35" s="52">
         <f>'RAW GRADES'!CQ37</f>
@@ -24477,9 +24480,9 @@
         <f>'RAW GRADES'!BK38</f>
         <v/>
       </c>
-      <c r="K36" s="52" t="str">
+      <c r="K36" s="52">
         <f>'RAW GRADES'!CP38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L36" s="52">
         <f>'RAW GRADES'!CQ38</f>
@@ -24542,9 +24545,9 @@
         <f>'RAW GRADES'!BK39</f>
         <v/>
       </c>
-      <c r="K37" s="52" t="str">
+      <c r="K37" s="52">
         <f>'RAW GRADES'!CP39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L37" s="52">
         <f>'RAW GRADES'!CQ39</f>
@@ -24607,9 +24610,9 @@
         <f>'RAW GRADES'!BK40</f>
         <v/>
       </c>
-      <c r="K38" s="52" t="str">
+      <c r="K38" s="52">
         <f>'RAW GRADES'!CP40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L38" s="52">
         <f>'RAW GRADES'!CQ40</f>
@@ -24672,9 +24675,9 @@
         <f>'RAW GRADES'!BK41</f>
         <v/>
       </c>
-      <c r="K39" s="52" t="str">
+      <c r="K39" s="52">
         <f>'RAW GRADES'!CP41</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L39" s="52">
         <f>'RAW GRADES'!CQ41</f>
@@ -24737,9 +24740,9 @@
         <f>'RAW GRADES'!BK42</f>
         <v/>
       </c>
-      <c r="K40" s="52" t="str">
+      <c r="K40" s="52">
         <f>'RAW GRADES'!CP42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L40" s="52">
         <f>'RAW GRADES'!CQ42</f>
@@ -24802,9 +24805,9 @@
         <f>'RAW GRADES'!BK43</f>
         <v/>
       </c>
-      <c r="K41" s="52" t="str">
+      <c r="K41" s="52">
         <f>'RAW GRADES'!CP43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L41" s="52">
         <f>'RAW GRADES'!CQ43</f>
@@ -24867,9 +24870,9 @@
         <f>'RAW GRADES'!BK44</f>
         <v/>
       </c>
-      <c r="K42" s="52" t="str">
+      <c r="K42" s="52">
         <f>'RAW GRADES'!CP44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L42" s="52">
         <f>'RAW GRADES'!CQ44</f>
@@ -24932,9 +24935,9 @@
         <f>'RAW GRADES'!BK45</f>
         <v/>
       </c>
-      <c r="K43" s="52" t="str">
+      <c r="K43" s="52">
         <f>'RAW GRADES'!CP45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L43" s="52">
         <f>'RAW GRADES'!CQ45</f>
@@ -24997,9 +25000,9 @@
         <f>'RAW GRADES'!BK46</f>
         <v/>
       </c>
-      <c r="K44" s="52" t="str">
+      <c r="K44" s="52">
         <f>'RAW GRADES'!CP46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L44" s="52">
         <f>'RAW GRADES'!CQ46</f>
@@ -25062,9 +25065,9 @@
         <f>'RAW GRADES'!BK47</f>
         <v/>
       </c>
-      <c r="K45" s="52" t="str">
+      <c r="K45" s="52">
         <f>'RAW GRADES'!CP47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L45" s="52">
         <f>'RAW GRADES'!CQ47</f>
@@ -25127,9 +25130,9 @@
         <f>'RAW GRADES'!BK48</f>
         <v/>
       </c>
-      <c r="K46" s="52" t="str">
+      <c r="K46" s="52">
         <f>'RAW GRADES'!CP48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L46" s="52">
         <f>'RAW GRADES'!CQ48</f>
@@ -25192,9 +25195,9 @@
         <f>'RAW GRADES'!BK49</f>
         <v/>
       </c>
-      <c r="K47" s="52" t="str">
+      <c r="K47" s="52">
         <f>'RAW GRADES'!CP49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L47" s="52">
         <f>'RAW GRADES'!CQ49</f>
@@ -25257,9 +25260,9 @@
         <f>'RAW GRADES'!BK50</f>
         <v/>
       </c>
-      <c r="K48" s="52" t="str">
+      <c r="K48" s="52">
         <f>'RAW GRADES'!CP50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L48" s="52">
         <f>'RAW GRADES'!CQ50</f>
@@ -25322,9 +25325,9 @@
         <f>'RAW GRADES'!BK51</f>
         <v/>
       </c>
-      <c r="K49" s="52" t="str">
+      <c r="K49" s="52">
         <f>'RAW GRADES'!CP51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L49" s="52">
         <f>'RAW GRADES'!CQ51</f>
@@ -25387,9 +25390,9 @@
         <f>'RAW GRADES'!BK52</f>
         <v/>
       </c>
-      <c r="K50" s="52" t="str">
+      <c r="K50" s="52">
         <f>'RAW GRADES'!CP52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L50" s="52">
         <f>'RAW GRADES'!CQ52</f>
@@ -25452,9 +25455,9 @@
         <f>'RAW GRADES'!BK53</f>
         <v/>
       </c>
-      <c r="K51" s="52" t="str">
+      <c r="K51" s="52">
         <f>'RAW GRADES'!CP53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L51" s="52">
         <f>'RAW GRADES'!CQ53</f>
@@ -25517,9 +25520,9 @@
         <f>'RAW GRADES'!BK54</f>
         <v/>
       </c>
-      <c r="K52" s="52" t="str">
+      <c r="K52" s="52">
         <f>'RAW GRADES'!CP54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L52" s="52">
         <f>'RAW GRADES'!CQ54</f>
@@ -25582,9 +25585,9 @@
         <f>'RAW GRADES'!BK55</f>
         <v/>
       </c>
-      <c r="K53" s="52" t="str">
+      <c r="K53" s="52">
         <f>'RAW GRADES'!CP55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L53" s="52">
         <f>'RAW GRADES'!CQ55</f>
@@ -25647,9 +25650,9 @@
         <f>'RAW GRADES'!BK56</f>
         <v/>
       </c>
-      <c r="K54" s="52" t="str">
+      <c r="K54" s="52">
         <f>'RAW GRADES'!CP56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L54" s="52">
         <f>'RAW GRADES'!CQ56</f>
@@ -25712,9 +25715,9 @@
         <f>'RAW GRADES'!BK57</f>
         <v/>
       </c>
-      <c r="K55" s="52" t="str">
+      <c r="K55" s="52">
         <f>'RAW GRADES'!CP57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L55" s="52">
         <f>'RAW GRADES'!CQ57</f>
@@ -25777,9 +25780,9 @@
         <f>'RAW GRADES'!BK58</f>
         <v/>
       </c>
-      <c r="K56" s="52" t="str">
+      <c r="K56" s="52">
         <f>'RAW GRADES'!CP58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L56" s="52">
         <f>'RAW GRADES'!CQ58</f>
@@ -25842,9 +25845,9 @@
         <f>'RAW GRADES'!BK59</f>
         <v/>
       </c>
-      <c r="K57" s="52" t="str">
+      <c r="K57" s="52">
         <f>'RAW GRADES'!CP59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L57" s="52">
         <f>'RAW GRADES'!CQ59</f>
@@ -25907,9 +25910,9 @@
         <f>'RAW GRADES'!BK60</f>
         <v/>
       </c>
-      <c r="K58" s="52" t="str">
+      <c r="K58" s="52">
         <f>'RAW GRADES'!CP60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L58" s="52">
         <f>'RAW GRADES'!CQ60</f>
@@ -25972,9 +25975,9 @@
         <f>'RAW GRADES'!BK61</f>
         <v/>
       </c>
-      <c r="K59" s="52" t="str">
+      <c r="K59" s="52">
         <f>'RAW GRADES'!CP61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L59" s="52">
         <f>'RAW GRADES'!CQ61</f>
@@ -26037,9 +26040,9 @@
         <f>'RAW GRADES'!BK62</f>
         <v/>
       </c>
-      <c r="K60" s="52" t="str">
+      <c r="K60" s="52">
         <f>'RAW GRADES'!CP62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L60" s="52">
         <f>'RAW GRADES'!CQ62</f>
@@ -26102,9 +26105,9 @@
         <f>'RAW GRADES'!BK63</f>
         <v/>
       </c>
-      <c r="K61" s="52" t="str">
+      <c r="K61" s="52">
         <f>'RAW GRADES'!CP63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L61" s="52">
         <f>'RAW GRADES'!CQ63</f>
@@ -26167,9 +26170,9 @@
         <f>'RAW GRADES'!BK64</f>
         <v/>
       </c>
-      <c r="K62" s="52" t="str">
+      <c r="K62" s="52">
         <f>'RAW GRADES'!CP64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L62" s="52">
         <f>'RAW GRADES'!CQ64</f>
@@ -26232,9 +26235,9 @@
         <f>'RAW GRADES'!BK65</f>
         <v/>
       </c>
-      <c r="K63" s="52" t="str">
+      <c r="K63" s="52">
         <f>'RAW GRADES'!CP65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L63" s="52">
         <f>'RAW GRADES'!CQ65</f>
@@ -26297,9 +26300,9 @@
         <f>'RAW GRADES'!BK66</f>
         <v/>
       </c>
-      <c r="K64" s="52" t="str">
+      <c r="K64" s="52">
         <f>'RAW GRADES'!CP66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L64" s="52">
         <f>'RAW GRADES'!CQ66</f>
@@ -26362,9 +26365,9 @@
         <f>'RAW GRADES'!BK67</f>
         <v/>
       </c>
-      <c r="K65" s="52" t="str">
+      <c r="K65" s="52">
         <f>'RAW GRADES'!CP67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L65" s="52">
         <f>'RAW GRADES'!CQ67</f>
@@ -26427,9 +26430,9 @@
         <f>'RAW GRADES'!BK68</f>
         <v/>
       </c>
-      <c r="K66" s="52" t="str">
+      <c r="K66" s="52">
         <f>'RAW GRADES'!CP68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L66" s="52">
         <f>'RAW GRADES'!CQ68</f>
@@ -26492,9 +26495,9 @@
         <f>'RAW GRADES'!BK69</f>
         <v/>
       </c>
-      <c r="K67" s="52" t="str">
+      <c r="K67" s="52">
         <f>'RAW GRADES'!CP69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L67" s="52">
         <f>'RAW GRADES'!CQ69</f>
@@ -26557,9 +26560,9 @@
         <f>'RAW GRADES'!BK70</f>
         <v/>
       </c>
-      <c r="K68" s="52" t="str">
+      <c r="K68" s="52">
         <f>'RAW GRADES'!CP70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L68" s="52">
         <f>'RAW GRADES'!CQ70</f>
@@ -26638,106 +26641,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="259" t="s">
+      <c r="A4" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="260" t="s">
+      <c r="A5" s="227" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="260"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="261" t="s">
+      <c r="A7" s="228" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="261"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="262"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
+      <c r="A8" s="229"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="256"/>
-      <c r="B9" s="256"/>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
+      <c r="A9" s="225"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="225"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="263"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
+      <c r="A10" s="230"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="264" t="s">
+      <c r="A11" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="264"/>
-      <c r="C11" s="264"/>
-      <c r="D11" s="264"/>
-      <c r="E11" s="264"/>
-      <c r="F11" s="264"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="231"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="262"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="262"/>
+      <c r="A12" s="229"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="229"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="265" t="str">
+      <c r="C13" s="232" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="265"/>
-      <c r="E13" s="265"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="232"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -26745,12 +26748,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="258" t="str">
+      <c r="C14" s="224" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="258"/>
-      <c r="E14" s="258"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -26758,12 +26761,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="244" t="str">
+      <c r="C15" s="235" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="244"/>
-      <c r="E15" s="244"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="235"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -26771,12 +26774,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="244" t="str">
+      <c r="C16" s="235" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT 1C</v>
       </c>
-      <c r="D16" s="244"/>
-      <c r="E16" s="244"/>
+      <c r="D16" s="235"/>
+      <c r="E16" s="235"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -26784,12 +26787,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="244" t="str">
+      <c r="C17" s="235" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="244"/>
-      <c r="E17" s="244"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="235"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26801,42 +26804,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="245" t="s">
+      <c r="A19" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="248" t="s">
+      <c r="B19" s="239" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="245" t="s">
+      <c r="C19" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="245" t="s">
+      <c r="D19" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="250" t="s">
+      <c r="E19" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="245" t="s">
+      <c r="F19" s="236" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="246"/>
-      <c r="B20" s="249"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="253"/>
+      <c r="A20" s="237"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="244"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="247"/>
+      <c r="A21" s="238"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="247"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="254"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="245"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28349,14 +28352,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="228" t="s">
+      <c r="A83" s="252" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="229"/>
-      <c r="C83" s="229"/>
-      <c r="D83" s="229"/>
-      <c r="E83" s="229"/>
-      <c r="F83" s="230"/>
+      <c r="B83" s="253"/>
+      <c r="C83" s="253"/>
+      <c r="D83" s="253"/>
+      <c r="E83" s="253"/>
+      <c r="F83" s="254"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28389,11 +28392,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="255">
+      <c r="E87" s="246">
         <f ca="1">NOW()</f>
-        <v>43019.469391435188</v>
-      </c>
-      <c r="F87" s="255"/>
+        <v>43021.826894328704</v>
+      </c>
+      <c r="F87" s="246"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28403,10 +28406,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="256" t="s">
+      <c r="E88" s="225" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="256"/>
+      <c r="F88" s="225"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28423,8 +28426,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="256"/>
-      <c r="F90" s="256"/>
+      <c r="E90" s="225"/>
+      <c r="F90" s="225"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28540,14 +28543,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="257" t="s">
+      <c r="A105" s="247" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="257"/>
-      <c r="C105" s="257"/>
-      <c r="D105" s="257"/>
-      <c r="E105" s="257"/>
-      <c r="F105" s="257"/>
+      <c r="B105" s="247"/>
+      <c r="C105" s="247"/>
+      <c r="D105" s="247"/>
+      <c r="E105" s="247"/>
+      <c r="F105" s="247"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28562,124 +28565,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="241" t="s">
+      <c r="C107" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="242"/>
-      <c r="E107" s="243" t="s">
+      <c r="D107" s="234"/>
+      <c r="E107" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="242"/>
+      <c r="F107" s="234"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="237">
+      <c r="C108" s="261">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="238"/>
-      <c r="E108" s="239">
+      <c r="D108" s="262"/>
+      <c r="E108" s="263">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="240"/>
+      <c r="F108" s="264"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="231">
+      <c r="C109" s="255">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="232"/>
-      <c r="E109" s="233">
+      <c r="D109" s="256"/>
+      <c r="E109" s="257">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="234"/>
+      <c r="F109" s="258"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="231">
+      <c r="C110" s="255">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="232"/>
-      <c r="E110" s="233">
+      <c r="D110" s="256"/>
+      <c r="E110" s="257">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="234"/>
+      <c r="F110" s="258"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="231">
+      <c r="C111" s="255">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="232"/>
-      <c r="E111" s="233">
+      <c r="D111" s="256"/>
+      <c r="E111" s="257">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="234"/>
+      <c r="F111" s="258"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="235">
-        <v>0</v>
-      </c>
-      <c r="D112" s="236"/>
-      <c r="E112" s="233">
+      <c r="C112" s="259">
+        <v>0</v>
+      </c>
+      <c r="D112" s="260"/>
+      <c r="E112" s="257">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="234"/>
+      <c r="F112" s="258"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="235">
-        <v>0</v>
-      </c>
-      <c r="D113" s="236"/>
-      <c r="E113" s="233">
+      <c r="C113" s="259">
+        <v>0</v>
+      </c>
+      <c r="D113" s="260"/>
+      <c r="E113" s="257">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="234"/>
+      <c r="F113" s="258"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="224">
+      <c r="C114" s="248">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="225"/>
-      <c r="E114" s="226">
+      <c r="D114" s="249"/>
+      <c r="E114" s="250">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="227"/>
+      <c r="F114" s="251"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -28847,32 +28850,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28889,6 +28866,32 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
+++ b/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
@@ -2359,37 +2359,91 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2429,96 +2483,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2559,93 +2646,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2704,102 +2704,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2873,6 +2777,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3876,7 +3876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3909,82 +3909,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="128" t="s">
+      <c r="A6" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="129" t="s">
+      <c r="D6" s="164"/>
+      <c r="E6" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="129"/>
+      <c r="F6" s="165"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3992,28 +3992,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="130"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="3" t="s">
         <v>275</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="134"/>
+      <c r="F7" s="170"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4021,28 +4021,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="134" t="s">
+      <c r="J7" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="8" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="138" t="s">
+      <c r="E8" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="138"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4050,45 +4050,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145" t="s">
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="148" t="s">
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="149"/>
-      <c r="L9" s="148" t="s">
+      <c r="K9" s="143"/>
+      <c r="L9" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="149"/>
+      <c r="M9" s="143"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="141"/>
-      <c r="B10" s="143"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4098,14 +4098,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4126,19 +4126,19 @@
       <c r="F11" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="154"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="156"/>
-      <c r="O11" s="166" t="s">
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="147"/>
+      <c r="O11" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="168"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="138"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4159,21 +4159,21 @@
       <c r="F12" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="164" t="s">
+      <c r="P12" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4194,21 +4194,21 @@
       <c r="F13" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="164" t="s">
+      <c r="P13" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4229,21 +4229,21 @@
       <c r="F14" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="161" t="s">
+      <c r="P14" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="163"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="130"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4264,21 +4264,21 @@
       <c r="F15" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="161" t="s">
+      <c r="P15" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="163"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="130"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4299,21 +4299,21 @@
       <c r="F16" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="169" t="s">
+      <c r="P16" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="171"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="141"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4334,21 +4334,21 @@
       <c r="F17" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="161" t="s">
+      <c r="P17" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="163"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4369,13 +4369,13 @@
       <c r="F18" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4396,13 +4396,13 @@
       <c r="F19" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4423,13 +4423,13 @@
       <c r="F20" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4450,13 +4450,13 @@
       <c r="F21" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4480,13 +4480,13 @@
       <c r="F22" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4513,13 +4513,13 @@
       <c r="F23" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4546,13 +4546,13 @@
       <c r="F24" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4579,13 +4579,13 @@
       <c r="F25" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4612,13 +4612,13 @@
       <c r="F26" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4645,13 +4645,13 @@
       <c r="F27" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4678,13 +4678,13 @@
       <c r="F28" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4711,13 +4711,13 @@
       <c r="F29" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4744,13 +4744,13 @@
       <c r="F30" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4777,13 +4777,13 @@
       <c r="F31" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4806,13 +4806,13 @@
       <c r="F32" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4839,13 +4839,13 @@
       <c r="F33" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4866,13 +4866,13 @@
       <c r="F34" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4893,13 +4893,13 @@
       <c r="F35" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4920,13 +4920,13 @@
       <c r="F36" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4947,13 +4947,13 @@
       <c r="F37" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4974,13 +4974,13 @@
       <c r="F38" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="152"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -5001,13 +5001,13 @@
       <c r="F39" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5026,13 +5026,13 @@
       <c r="F40" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="152"/>
-      <c r="K40" s="152"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5053,13 +5053,13 @@
       <c r="F41" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="152"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5080,13 +5080,13 @@
       <c r="F42" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="152"/>
-      <c r="K42" s="152"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5107,13 +5107,13 @@
       <c r="F43" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5124,13 +5124,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="152"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5141,13 +5141,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="152"/>
-      <c r="K45" s="152"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5158,13 +5158,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5175,13 +5175,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="152"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="134"/>
+      <c r="M47" s="134"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5192,13 +5192,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="153"/>
-      <c r="M48" s="153"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5209,13 +5209,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="152"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5226,13 +5226,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="152"/>
-      <c r="L50" s="153"/>
-      <c r="M50" s="153"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5243,13 +5243,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="152"/>
-      <c r="K51" s="152"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="153"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5260,13 +5260,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="152"/>
-      <c r="K52" s="152"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5277,13 +5277,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="152"/>
-      <c r="K53" s="152"/>
-      <c r="L53" s="153"/>
-      <c r="M53" s="153"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="134"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5294,13 +5294,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="152"/>
-      <c r="K54" s="152"/>
-      <c r="L54" s="153"/>
-      <c r="M54" s="153"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5311,13 +5311,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="151"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
-      <c r="J55" s="152"/>
-      <c r="K55" s="152"/>
-      <c r="L55" s="153"/>
-      <c r="M55" s="153"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="133"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="134"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5328,13 +5328,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="152"/>
-      <c r="K56" s="152"/>
-      <c r="L56" s="153"/>
-      <c r="M56" s="153"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5345,13 +5345,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="152"/>
-      <c r="L57" s="153"/>
-      <c r="M57" s="153"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="134"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5362,13 +5362,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="152"/>
-      <c r="L58" s="153"/>
-      <c r="M58" s="153"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5379,13 +5379,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="151"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
-      <c r="J59" s="152"/>
-      <c r="K59" s="152"/>
-      <c r="L59" s="153"/>
-      <c r="M59" s="153"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="133"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5396,13 +5396,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="151"/>
-      <c r="H60" s="151"/>
-      <c r="I60" s="151"/>
-      <c r="J60" s="152"/>
-      <c r="K60" s="152"/>
-      <c r="L60" s="153"/>
-      <c r="M60" s="153"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="132"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5413,13 +5413,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="151"/>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
-      <c r="J61" s="152"/>
-      <c r="K61" s="152"/>
-      <c r="L61" s="153"/>
-      <c r="M61" s="153"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="133"/>
+      <c r="L61" s="134"/>
+      <c r="M61" s="134"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5430,13 +5430,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="151"/>
-      <c r="H62" s="151"/>
-      <c r="I62" s="151"/>
-      <c r="J62" s="152"/>
-      <c r="K62" s="152"/>
-      <c r="L62" s="153"/>
-      <c r="M62" s="153"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5447,13 +5447,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="151"/>
-      <c r="H63" s="151"/>
-      <c r="I63" s="151"/>
-      <c r="J63" s="152"/>
-      <c r="K63" s="152"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="153"/>
+      <c r="G63" s="132"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="133"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5464,13 +5464,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="151"/>
-      <c r="H64" s="151"/>
-      <c r="I64" s="151"/>
-      <c r="J64" s="152"/>
-      <c r="K64" s="152"/>
-      <c r="L64" s="153"/>
-      <c r="M64" s="153"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="133"/>
+      <c r="K64" s="133"/>
+      <c r="L64" s="134"/>
+      <c r="M64" s="134"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5481,13 +5481,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="151"/>
-      <c r="H65" s="151"/>
-      <c r="I65" s="151"/>
-      <c r="J65" s="152"/>
-      <c r="K65" s="152"/>
-      <c r="L65" s="153"/>
-      <c r="M65" s="153"/>
+      <c r="G65" s="132"/>
+      <c r="H65" s="132"/>
+      <c r="I65" s="132"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="133"/>
+      <c r="L65" s="134"/>
+      <c r="M65" s="134"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5498,13 +5498,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="151"/>
-      <c r="H66" s="151"/>
-      <c r="I66" s="151"/>
-      <c r="J66" s="152"/>
-      <c r="K66" s="152"/>
-      <c r="L66" s="153"/>
-      <c r="M66" s="153"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="133"/>
+      <c r="K66" s="133"/>
+      <c r="L66" s="134"/>
+      <c r="M66" s="134"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5515,13 +5515,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="151"/>
-      <c r="H67" s="151"/>
-      <c r="I67" s="151"/>
-      <c r="J67" s="152"/>
-      <c r="K67" s="152"/>
-      <c r="L67" s="153"/>
-      <c r="M67" s="153"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="134"/>
+      <c r="M67" s="134"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5532,13 +5532,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="151"/>
-      <c r="H68" s="151"/>
-      <c r="I68" s="151"/>
-      <c r="J68" s="152"/>
-      <c r="K68" s="152"/>
-      <c r="L68" s="153"/>
-      <c r="M68" s="153"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="133"/>
+      <c r="L68" s="134"/>
+      <c r="M68" s="134"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5549,13 +5549,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="151"/>
-      <c r="H69" s="151"/>
-      <c r="I69" s="151"/>
-      <c r="J69" s="152"/>
-      <c r="K69" s="152"/>
-      <c r="L69" s="153"/>
-      <c r="M69" s="153"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="133"/>
+      <c r="L69" s="134"/>
+      <c r="M69" s="134"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5566,13 +5566,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="151"/>
-      <c r="H70" s="151"/>
-      <c r="I70" s="151"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="152"/>
-      <c r="L70" s="153"/>
-      <c r="M70" s="153"/>
+      <c r="G70" s="132"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="132"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="134"/>
+      <c r="M70" s="134"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5583,13 +5583,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="151"/>
-      <c r="I71" s="151"/>
-      <c r="J71" s="152"/>
-      <c r="K71" s="152"/>
-      <c r="L71" s="153"/>
-      <c r="M71" s="153"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="133"/>
+      <c r="L71" s="134"/>
+      <c r="M71" s="134"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5597,6 +5597,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5621,195 +5810,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="equal">
@@ -6110,9 +6110,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL22" sqref="BL22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV34" sqref="BV34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6126,452 +6126,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="165"/>
-      <c r="AJ2" s="165"/>
-      <c r="AK2" s="165"/>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="165"/>
-      <c r="AN2" s="165"/>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="165"/>
-      <c r="AQ2" s="165"/>
-      <c r="AR2" s="165"/>
-      <c r="AS2" s="165"/>
-      <c r="AT2" s="165"/>
-      <c r="AU2" s="165"/>
-      <c r="AV2" s="165"/>
-      <c r="AW2" s="165"/>
-      <c r="AX2" s="165"/>
-      <c r="AY2" s="165"/>
-      <c r="AZ2" s="165"/>
-      <c r="BA2" s="165"/>
-      <c r="BB2" s="165"/>
-      <c r="BC2" s="165"/>
-      <c r="BD2" s="165"/>
-      <c r="BE2" s="165"/>
-      <c r="BF2" s="165"/>
-      <c r="BG2" s="165"/>
-      <c r="BH2" s="165"/>
-      <c r="BI2" s="165"/>
-      <c r="BJ2" s="165"/>
-      <c r="BK2" s="165"/>
-      <c r="BL2" s="165"/>
-      <c r="BM2" s="165"/>
-      <c r="BN2" s="165"/>
-      <c r="BO2" s="165"/>
-      <c r="BP2" s="165"/>
-      <c r="BQ2" s="165"/>
-      <c r="BR2" s="165"/>
-      <c r="BS2" s="165"/>
-      <c r="BT2" s="165"/>
-      <c r="BU2" s="165"/>
-      <c r="BV2" s="165"/>
-      <c r="BW2" s="165"/>
-      <c r="BX2" s="165"/>
-      <c r="BY2" s="165"/>
-      <c r="BZ2" s="165"/>
-      <c r="CA2" s="165"/>
-      <c r="CB2" s="165"/>
-      <c r="CC2" s="165"/>
-      <c r="CD2" s="165"/>
-      <c r="CE2" s="165"/>
-      <c r="CF2" s="165"/>
-      <c r="CG2" s="165"/>
-      <c r="CH2" s="165"/>
-      <c r="CI2" s="165"/>
-      <c r="CJ2" s="165"/>
-      <c r="CK2" s="165"/>
-      <c r="CL2" s="165"/>
-      <c r="CM2" s="165"/>
-      <c r="CN2" s="165"/>
-      <c r="CO2" s="165"/>
-      <c r="CP2" s="165"/>
-      <c r="CQ2" s="165"/>
-      <c r="CR2" s="165"/>
-      <c r="CS2" s="165"/>
-      <c r="CT2" s="165"/>
-      <c r="CU2" s="165"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="135"/>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="135"/>
+      <c r="BR2" s="135"/>
+      <c r="BS2" s="135"/>
+      <c r="BT2" s="135"/>
+      <c r="BU2" s="135"/>
+      <c r="BV2" s="135"/>
+      <c r="BW2" s="135"/>
+      <c r="BX2" s="135"/>
+      <c r="BY2" s="135"/>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135"/>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135"/>
+      <c r="CF2" s="135"/>
+      <c r="CG2" s="135"/>
+      <c r="CH2" s="135"/>
+      <c r="CI2" s="135"/>
+      <c r="CJ2" s="135"/>
+      <c r="CK2" s="135"/>
+      <c r="CL2" s="135"/>
+      <c r="CM2" s="135"/>
+      <c r="CN2" s="135"/>
+      <c r="CO2" s="135"/>
+      <c r="CP2" s="135"/>
+      <c r="CQ2" s="135"/>
+      <c r="CR2" s="135"/>
+      <c r="CS2" s="135"/>
+      <c r="CT2" s="135"/>
+      <c r="CU2" s="135"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="165"/>
-      <c r="AL3" s="165"/>
-      <c r="AM3" s="165"/>
-      <c r="AN3" s="165"/>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="165"/>
-      <c r="AQ3" s="165"/>
-      <c r="AR3" s="165"/>
-      <c r="AS3" s="165"/>
-      <c r="AT3" s="165"/>
-      <c r="AU3" s="165"/>
-      <c r="AV3" s="165"/>
-      <c r="AW3" s="165"/>
-      <c r="AX3" s="165"/>
-      <c r="AY3" s="165"/>
-      <c r="AZ3" s="165"/>
-      <c r="BA3" s="165"/>
-      <c r="BB3" s="165"/>
-      <c r="BC3" s="165"/>
-      <c r="BD3" s="165"/>
-      <c r="BE3" s="165"/>
-      <c r="BF3" s="165"/>
-      <c r="BG3" s="165"/>
-      <c r="BH3" s="165"/>
-      <c r="BI3" s="165"/>
-      <c r="BJ3" s="165"/>
-      <c r="BK3" s="165"/>
-      <c r="BL3" s="165"/>
-      <c r="BM3" s="165"/>
-      <c r="BN3" s="165"/>
-      <c r="BO3" s="165"/>
-      <c r="BP3" s="165"/>
-      <c r="BQ3" s="165"/>
-      <c r="BR3" s="165"/>
-      <c r="BS3" s="165"/>
-      <c r="BT3" s="165"/>
-      <c r="BU3" s="165"/>
-      <c r="BV3" s="165"/>
-      <c r="BW3" s="165"/>
-      <c r="BX3" s="165"/>
-      <c r="BY3" s="165"/>
-      <c r="BZ3" s="165"/>
-      <c r="CA3" s="165"/>
-      <c r="CB3" s="165"/>
-      <c r="CC3" s="165"/>
-      <c r="CD3" s="165"/>
-      <c r="CE3" s="165"/>
-      <c r="CF3" s="165"/>
-      <c r="CG3" s="165"/>
-      <c r="CH3" s="165"/>
-      <c r="CI3" s="165"/>
-      <c r="CJ3" s="165"/>
-      <c r="CK3" s="165"/>
-      <c r="CL3" s="165"/>
-      <c r="CM3" s="165"/>
-      <c r="CN3" s="165"/>
-      <c r="CO3" s="165"/>
-      <c r="CP3" s="165"/>
-      <c r="CQ3" s="165"/>
-      <c r="CR3" s="165"/>
-      <c r="CS3" s="165"/>
-      <c r="CT3" s="165"/>
-      <c r="CU3" s="165"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="135"/>
+      <c r="AR3" s="135"/>
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="135"/>
+      <c r="BC3" s="135"/>
+      <c r="BD3" s="135"/>
+      <c r="BE3" s="135"/>
+      <c r="BF3" s="135"/>
+      <c r="BG3" s="135"/>
+      <c r="BH3" s="135"/>
+      <c r="BI3" s="135"/>
+      <c r="BJ3" s="135"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="135"/>
+      <c r="BM3" s="135"/>
+      <c r="BN3" s="135"/>
+      <c r="BO3" s="135"/>
+      <c r="BP3" s="135"/>
+      <c r="BQ3" s="135"/>
+      <c r="BR3" s="135"/>
+      <c r="BS3" s="135"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="135"/>
+      <c r="BX3" s="135"/>
+      <c r="BY3" s="135"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="135"/>
+      <c r="CB3" s="135"/>
+      <c r="CC3" s="135"/>
+      <c r="CD3" s="135"/>
+      <c r="CE3" s="135"/>
+      <c r="CF3" s="135"/>
+      <c r="CG3" s="135"/>
+      <c r="CH3" s="135"/>
+      <c r="CI3" s="135"/>
+      <c r="CJ3" s="135"/>
+      <c r="CK3" s="135"/>
+      <c r="CL3" s="135"/>
+      <c r="CM3" s="135"/>
+      <c r="CN3" s="135"/>
+      <c r="CO3" s="135"/>
+      <c r="CP3" s="135"/>
+      <c r="CQ3" s="135"/>
+      <c r="CR3" s="135"/>
+      <c r="CS3" s="135"/>
+      <c r="CT3" s="135"/>
+      <c r="CU3" s="135"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="177" t="s">
+      <c r="D5" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="178"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="178"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="178"/>
-      <c r="V5" s="178"/>
-      <c r="W5" s="178"/>
-      <c r="X5" s="178"/>
-      <c r="Y5" s="178"/>
-      <c r="Z5" s="178"/>
-      <c r="AA5" s="178"/>
-      <c r="AB5" s="178"/>
-      <c r="AC5" s="178"/>
-      <c r="AD5" s="178"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="178"/>
-      <c r="AG5" s="178"/>
-      <c r="AH5" s="178"/>
-      <c r="AI5" s="178"/>
-      <c r="AJ5" s="178"/>
-      <c r="AK5" s="178"/>
-      <c r="AL5" s="178"/>
-      <c r="AM5" s="178"/>
-      <c r="AN5" s="178"/>
-      <c r="AO5" s="178"/>
-      <c r="AP5" s="178"/>
-      <c r="AQ5" s="178"/>
-      <c r="AR5" s="178"/>
-      <c r="AS5" s="178"/>
-      <c r="AT5" s="178"/>
-      <c r="AU5" s="178"/>
-      <c r="AV5" s="178"/>
-      <c r="AW5" s="178"/>
-      <c r="AX5" s="178"/>
-      <c r="AY5" s="178"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="178"/>
-      <c r="BB5" s="178"/>
-      <c r="BC5" s="178"/>
-      <c r="BD5" s="179"/>
-      <c r="BE5" s="180" t="s">
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="203"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="203"/>
+      <c r="T5" s="203"/>
+      <c r="U5" s="203"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="203"/>
+      <c r="X5" s="203"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203"/>
+      <c r="AA5" s="203"/>
+      <c r="AB5" s="203"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="203"/>
+      <c r="AI5" s="203"/>
+      <c r="AJ5" s="203"/>
+      <c r="AK5" s="203"/>
+      <c r="AL5" s="203"/>
+      <c r="AM5" s="203"/>
+      <c r="AN5" s="203"/>
+      <c r="AO5" s="203"/>
+      <c r="AP5" s="203"/>
+      <c r="AQ5" s="203"/>
+      <c r="AR5" s="203"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="203"/>
+      <c r="AU5" s="203"/>
+      <c r="AV5" s="203"/>
+      <c r="AW5" s="203"/>
+      <c r="AX5" s="203"/>
+      <c r="AY5" s="203"/>
+      <c r="AZ5" s="203"/>
+      <c r="BA5" s="203"/>
+      <c r="BB5" s="203"/>
+      <c r="BC5" s="203"/>
+      <c r="BD5" s="204"/>
+      <c r="BE5" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="181"/>
-      <c r="BH5" s="181"/>
-      <c r="BI5" s="181"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="181"/>
-      <c r="BO5" s="181"/>
-      <c r="BP5" s="181"/>
-      <c r="BQ5" s="181"/>
-      <c r="BR5" s="181"/>
-      <c r="BS5" s="181"/>
-      <c r="BT5" s="181"/>
-      <c r="BU5" s="181"/>
-      <c r="BV5" s="181"/>
-      <c r="BW5" s="181"/>
-      <c r="BX5" s="181"/>
-      <c r="BY5" s="181"/>
-      <c r="BZ5" s="181"/>
-      <c r="CA5" s="181"/>
-      <c r="CB5" s="181"/>
-      <c r="CC5" s="181"/>
-      <c r="CD5" s="181"/>
-      <c r="CE5" s="181"/>
-      <c r="CF5" s="181"/>
-      <c r="CG5" s="181"/>
-      <c r="CH5" s="181"/>
-      <c r="CI5" s="181"/>
-      <c r="CJ5" s="181"/>
-      <c r="CK5" s="181"/>
-      <c r="CL5" s="181"/>
-      <c r="CM5" s="181"/>
-      <c r="CN5" s="181"/>
-      <c r="CO5" s="181"/>
-      <c r="CP5" s="181"/>
-      <c r="CQ5" s="181"/>
-      <c r="CR5" s="182"/>
-      <c r="CS5" s="187" t="s">
+      <c r="BF5" s="206"/>
+      <c r="BG5" s="206"/>
+      <c r="BH5" s="206"/>
+      <c r="BI5" s="206"/>
+      <c r="BJ5" s="206"/>
+      <c r="BK5" s="206"/>
+      <c r="BL5" s="206"/>
+      <c r="BM5" s="206"/>
+      <c r="BN5" s="206"/>
+      <c r="BO5" s="206"/>
+      <c r="BP5" s="206"/>
+      <c r="BQ5" s="206"/>
+      <c r="BR5" s="206"/>
+      <c r="BS5" s="206"/>
+      <c r="BT5" s="206"/>
+      <c r="BU5" s="206"/>
+      <c r="BV5" s="206"/>
+      <c r="BW5" s="206"/>
+      <c r="BX5" s="206"/>
+      <c r="BY5" s="206"/>
+      <c r="BZ5" s="206"/>
+      <c r="CA5" s="206"/>
+      <c r="CB5" s="206"/>
+      <c r="CC5" s="206"/>
+      <c r="CD5" s="206"/>
+      <c r="CE5" s="206"/>
+      <c r="CF5" s="206"/>
+      <c r="CG5" s="206"/>
+      <c r="CH5" s="206"/>
+      <c r="CI5" s="206"/>
+      <c r="CJ5" s="206"/>
+      <c r="CK5" s="206"/>
+      <c r="CL5" s="206"/>
+      <c r="CM5" s="206"/>
+      <c r="CN5" s="206"/>
+      <c r="CO5" s="206"/>
+      <c r="CP5" s="206"/>
+      <c r="CQ5" s="206"/>
+      <c r="CR5" s="207"/>
+      <c r="CS5" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="188"/>
-      <c r="CU5" s="189"/>
+      <c r="CT5" s="195"/>
+      <c r="CU5" s="196"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="174"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="207" t="s">
+      <c r="A6" s="199"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="201"/>
+      <c r="D6" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="193" t="s">
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="193"/>
-      <c r="AA6" s="193"/>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="193"/>
-      <c r="AD6" s="193"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193"/>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="193"/>
-      <c r="AJ6" s="193"/>
-      <c r="AK6" s="193"/>
-      <c r="AL6" s="193"/>
-      <c r="AM6" s="193"/>
-      <c r="AN6" s="193"/>
-      <c r="AO6" s="193" t="s">
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="180"/>
+      <c r="U6" s="180"/>
+      <c r="V6" s="180"/>
+      <c r="W6" s="180"/>
+      <c r="X6" s="180"/>
+      <c r="Y6" s="180"/>
+      <c r="Z6" s="180"/>
+      <c r="AA6" s="180"/>
+      <c r="AB6" s="180"/>
+      <c r="AC6" s="180"/>
+      <c r="AD6" s="180"/>
+      <c r="AE6" s="180"/>
+      <c r="AF6" s="180"/>
+      <c r="AG6" s="180"/>
+      <c r="AH6" s="180"/>
+      <c r="AI6" s="180"/>
+      <c r="AJ6" s="180"/>
+      <c r="AK6" s="180"/>
+      <c r="AL6" s="180"/>
+      <c r="AM6" s="180"/>
+      <c r="AN6" s="180"/>
+      <c r="AO6" s="180" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="193"/>
-      <c r="AQ6" s="193"/>
-      <c r="AR6" s="193"/>
-      <c r="AS6" s="193" t="s">
+      <c r="AP6" s="180"/>
+      <c r="AQ6" s="180"/>
+      <c r="AR6" s="180"/>
+      <c r="AS6" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="193"/>
-      <c r="AU6" s="193"/>
-      <c r="AV6" s="193" t="s">
+      <c r="AT6" s="180"/>
+      <c r="AU6" s="180"/>
+      <c r="AV6" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="193"/>
-      <c r="AX6" s="193"/>
-      <c r="AY6" s="193"/>
-      <c r="AZ6" s="193"/>
-      <c r="BA6" s="193"/>
-      <c r="BB6" s="193"/>
-      <c r="BC6" s="197" t="s">
+      <c r="AW6" s="180"/>
+      <c r="AX6" s="180"/>
+      <c r="AY6" s="180"/>
+      <c r="AZ6" s="180"/>
+      <c r="BA6" s="180"/>
+      <c r="BB6" s="180"/>
+      <c r="BC6" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="198"/>
-      <c r="BE6" s="199" t="s">
+      <c r="BD6" s="188"/>
+      <c r="BE6" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="200"/>
-      <c r="BG6" s="200"/>
-      <c r="BH6" s="200"/>
-      <c r="BI6" s="200"/>
-      <c r="BJ6" s="200"/>
-      <c r="BK6" s="201"/>
-      <c r="BL6" s="202" t="s">
+      <c r="BF6" s="190"/>
+      <c r="BG6" s="190"/>
+      <c r="BH6" s="190"/>
+      <c r="BI6" s="190"/>
+      <c r="BJ6" s="190"/>
+      <c r="BK6" s="191"/>
+      <c r="BL6" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="200"/>
-      <c r="BN6" s="200"/>
-      <c r="BO6" s="200"/>
-      <c r="BP6" s="200"/>
-      <c r="BQ6" s="200"/>
-      <c r="BR6" s="200"/>
-      <c r="BS6" s="200"/>
-      <c r="BT6" s="200"/>
-      <c r="BU6" s="200"/>
-      <c r="BV6" s="200"/>
-      <c r="BW6" s="200"/>
-      <c r="BX6" s="200"/>
-      <c r="BY6" s="200"/>
-      <c r="BZ6" s="200"/>
-      <c r="CA6" s="200"/>
-      <c r="CB6" s="200"/>
-      <c r="CC6" s="200"/>
-      <c r="CD6" s="200"/>
-      <c r="CE6" s="200"/>
-      <c r="CF6" s="200"/>
-      <c r="CG6" s="200"/>
-      <c r="CH6" s="200"/>
-      <c r="CI6" s="200"/>
-      <c r="CJ6" s="200"/>
-      <c r="CK6" s="200"/>
-      <c r="CL6" s="200"/>
-      <c r="CM6" s="200"/>
-      <c r="CN6" s="200"/>
-      <c r="CO6" s="200"/>
-      <c r="CP6" s="200"/>
-      <c r="CQ6" s="190" t="s">
+      <c r="BM6" s="190"/>
+      <c r="BN6" s="190"/>
+      <c r="BO6" s="190"/>
+      <c r="BP6" s="190"/>
+      <c r="BQ6" s="190"/>
+      <c r="BR6" s="190"/>
+      <c r="BS6" s="190"/>
+      <c r="BT6" s="190"/>
+      <c r="BU6" s="190"/>
+      <c r="BV6" s="190"/>
+      <c r="BW6" s="190"/>
+      <c r="BX6" s="190"/>
+      <c r="BY6" s="190"/>
+      <c r="BZ6" s="190"/>
+      <c r="CA6" s="190"/>
+      <c r="CB6" s="190"/>
+      <c r="CC6" s="190"/>
+      <c r="CD6" s="190"/>
+      <c r="CE6" s="190"/>
+      <c r="CF6" s="190"/>
+      <c r="CG6" s="190"/>
+      <c r="CH6" s="190"/>
+      <c r="CI6" s="190"/>
+      <c r="CJ6" s="190"/>
+      <c r="CK6" s="190"/>
+      <c r="CL6" s="190"/>
+      <c r="CM6" s="190"/>
+      <c r="CN6" s="190"/>
+      <c r="CO6" s="190"/>
+      <c r="CP6" s="190"/>
+      <c r="CQ6" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="190"/>
-      <c r="CS6" s="172" t="s">
+      <c r="CR6" s="197"/>
+      <c r="CS6" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="172" t="s">
+      <c r="CT6" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="194" t="s">
+      <c r="CU6" s="184" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="176"/>
+      <c r="A7" s="199"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="201"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6580,321 +6580,321 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="185" t="s">
+      <c r="J7" s="179" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="186">
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="183">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="186"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="185"/>
-      <c r="X7" s="185"/>
-      <c r="Y7" s="185"/>
-      <c r="Z7" s="185"/>
-      <c r="AA7" s="185"/>
-      <c r="AB7" s="185"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="185"/>
-      <c r="AF7" s="185"/>
-      <c r="AG7" s="185"/>
-      <c r="AH7" s="185"/>
-      <c r="AI7" s="185"/>
-      <c r="AJ7" s="185"/>
-      <c r="AK7" s="185"/>
-      <c r="AL7" s="185"/>
-      <c r="AM7" s="185"/>
+      <c r="U7" s="183"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="179"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="179"/>
+      <c r="AI7" s="179"/>
+      <c r="AJ7" s="179"/>
+      <c r="AK7" s="179"/>
+      <c r="AL7" s="179"/>
+      <c r="AM7" s="179"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="185"/>
-      <c r="AP7" s="185"/>
-      <c r="AQ7" s="185"/>
-      <c r="AR7" s="185"/>
-      <c r="AS7" s="186">
+      <c r="AO7" s="179"/>
+      <c r="AP7" s="179"/>
+      <c r="AQ7" s="179"/>
+      <c r="AR7" s="179"/>
+      <c r="AS7" s="183">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="186"/>
+      <c r="AT7" s="183"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="185"/>
-      <c r="AW7" s="185"/>
-      <c r="AX7" s="185"/>
-      <c r="AY7" s="185"/>
-      <c r="AZ7" s="186">
+      <c r="AV7" s="179"/>
+      <c r="AW7" s="179"/>
+      <c r="AX7" s="179"/>
+      <c r="AY7" s="179"/>
+      <c r="AZ7" s="183">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="186"/>
+      <c r="BA7" s="183"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="197"/>
-      <c r="BD7" s="198"/>
-      <c r="BE7" s="185"/>
-      <c r="BF7" s="185"/>
-      <c r="BG7" s="185"/>
-      <c r="BH7" s="185"/>
-      <c r="BI7" s="186">
+      <c r="BC7" s="187"/>
+      <c r="BD7" s="188"/>
+      <c r="BE7" s="179"/>
+      <c r="BF7" s="179"/>
+      <c r="BG7" s="179"/>
+      <c r="BH7" s="179"/>
+      <c r="BI7" s="183">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="186"/>
+      <c r="BJ7" s="183"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="185"/>
-      <c r="BM7" s="185"/>
-      <c r="BN7" s="185"/>
-      <c r="BO7" s="185"/>
-      <c r="BP7" s="185"/>
-      <c r="BQ7" s="185"/>
-      <c r="BR7" s="185"/>
-      <c r="BS7" s="185"/>
-      <c r="BT7" s="185"/>
-      <c r="BU7" s="185"/>
-      <c r="BV7" s="185"/>
-      <c r="BW7" s="185"/>
-      <c r="BX7" s="185"/>
-      <c r="BY7" s="185"/>
-      <c r="BZ7" s="185"/>
-      <c r="CA7" s="185"/>
-      <c r="CB7" s="185"/>
-      <c r="CC7" s="185"/>
-      <c r="CD7" s="185"/>
-      <c r="CE7" s="185"/>
-      <c r="CF7" s="185"/>
-      <c r="CG7" s="185"/>
-      <c r="CH7" s="185"/>
-      <c r="CI7" s="185"/>
-      <c r="CJ7" s="185"/>
-      <c r="CK7" s="185"/>
-      <c r="CL7" s="185"/>
-      <c r="CM7" s="185"/>
-      <c r="CN7" s="186">
+      <c r="BL7" s="179"/>
+      <c r="BM7" s="179"/>
+      <c r="BN7" s="179"/>
+      <c r="BO7" s="179"/>
+      <c r="BP7" s="179"/>
+      <c r="BQ7" s="179"/>
+      <c r="BR7" s="179"/>
+      <c r="BS7" s="179"/>
+      <c r="BT7" s="179"/>
+      <c r="BU7" s="179"/>
+      <c r="BV7" s="179"/>
+      <c r="BW7" s="179"/>
+      <c r="BX7" s="179"/>
+      <c r="BY7" s="179"/>
+      <c r="BZ7" s="179"/>
+      <c r="CA7" s="179"/>
+      <c r="CB7" s="179"/>
+      <c r="CC7" s="179"/>
+      <c r="CD7" s="179"/>
+      <c r="CE7" s="179"/>
+      <c r="CF7" s="179"/>
+      <c r="CG7" s="179"/>
+      <c r="CH7" s="179"/>
+      <c r="CI7" s="179"/>
+      <c r="CJ7" s="179"/>
+      <c r="CK7" s="179"/>
+      <c r="CL7" s="179"/>
+      <c r="CM7" s="179"/>
+      <c r="CN7" s="183">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>3</v>
-      </c>
-      <c r="CO7" s="186"/>
+        <v>6</v>
+      </c>
+      <c r="CO7" s="183"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="190"/>
-      <c r="CR7" s="190"/>
-      <c r="CS7" s="172"/>
-      <c r="CT7" s="172"/>
-      <c r="CU7" s="195"/>
+      <c r="CQ7" s="197"/>
+      <c r="CR7" s="197"/>
+      <c r="CS7" s="193"/>
+      <c r="CT7" s="193"/>
+      <c r="CU7" s="185"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="174"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="183" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="208" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183" t="s">
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="184" t="s">
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184" t="s">
+      <c r="K8" s="172"/>
+      <c r="L8" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184" t="s">
+      <c r="M8" s="172"/>
+      <c r="N8" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184" t="s">
+      <c r="O8" s="172"/>
+      <c r="P8" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184" t="s">
+      <c r="Q8" s="172"/>
+      <c r="R8" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184" t="s">
+      <c r="S8" s="172"/>
+      <c r="T8" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184" t="s">
+      <c r="U8" s="172"/>
+      <c r="V8" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184" t="s">
+      <c r="W8" s="172"/>
+      <c r="X8" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184" t="s">
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184" t="s">
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184" t="s">
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="184"/>
-      <c r="AF8" s="184" t="s">
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="184" t="s">
+      <c r="AG8" s="172"/>
+      <c r="AH8" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="184"/>
-      <c r="AJ8" s="184" t="s">
+      <c r="AI8" s="172"/>
+      <c r="AJ8" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="184"/>
-      <c r="AL8" s="184" t="s">
+      <c r="AK8" s="172"/>
+      <c r="AL8" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="184"/>
+      <c r="AM8" s="172"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="184" t="s">
+      <c r="AO8" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="184"/>
-      <c r="AQ8" s="184" t="s">
+      <c r="AP8" s="172"/>
+      <c r="AQ8" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="184"/>
-      <c r="AS8" s="184" t="s">
+      <c r="AR8" s="172"/>
+      <c r="AS8" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="184"/>
+      <c r="AT8" s="172"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="184" t="s">
+      <c r="AV8" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="184"/>
-      <c r="AX8" s="184" t="s">
+      <c r="AW8" s="172"/>
+      <c r="AX8" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="184"/>
-      <c r="AZ8" s="184" t="s">
+      <c r="AY8" s="172"/>
+      <c r="AZ8" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="184"/>
+      <c r="BA8" s="172"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="197"/>
-      <c r="BD8" s="198"/>
-      <c r="BE8" s="206" t="s">
+      <c r="BC8" s="187"/>
+      <c r="BD8" s="188"/>
+      <c r="BE8" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="203"/>
-      <c r="BG8" s="203" t="s">
+      <c r="BF8" s="181"/>
+      <c r="BG8" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="203"/>
-      <c r="BI8" s="203" t="s">
+      <c r="BH8" s="181"/>
+      <c r="BI8" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="203"/>
+      <c r="BJ8" s="181"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="204" t="s">
+      <c r="BL8" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="205"/>
-      <c r="BN8" s="204" t="s">
+      <c r="BM8" s="176"/>
+      <c r="BN8" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="205"/>
-      <c r="BP8" s="204" t="s">
+      <c r="BO8" s="176"/>
+      <c r="BP8" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="205"/>
-      <c r="BR8" s="204" t="s">
+      <c r="BQ8" s="176"/>
+      <c r="BR8" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="205"/>
-      <c r="BT8" s="204" t="s">
+      <c r="BS8" s="176"/>
+      <c r="BT8" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="205"/>
-      <c r="BV8" s="191" t="s">
+      <c r="BU8" s="176"/>
+      <c r="BV8" s="173" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="192"/>
-      <c r="BX8" s="191" t="s">
+      <c r="BW8" s="174"/>
+      <c r="BX8" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="192"/>
-      <c r="BZ8" s="191" t="s">
+      <c r="BY8" s="174"/>
+      <c r="BZ8" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="192"/>
-      <c r="CB8" s="191" t="s">
+      <c r="CA8" s="174"/>
+      <c r="CB8" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="192"/>
-      <c r="CD8" s="191" t="s">
+      <c r="CC8" s="174"/>
+      <c r="CD8" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="192"/>
-      <c r="CF8" s="191" t="s">
+      <c r="CE8" s="174"/>
+      <c r="CF8" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="192"/>
-      <c r="CH8" s="191" t="s">
+      <c r="CG8" s="174"/>
+      <c r="CH8" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="192"/>
-      <c r="CJ8" s="191" t="s">
+      <c r="CI8" s="174"/>
+      <c r="CJ8" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="192"/>
-      <c r="CL8" s="191" t="s">
+      <c r="CK8" s="174"/>
+      <c r="CL8" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="192"/>
-      <c r="CN8" s="191" t="s">
+      <c r="CM8" s="174"/>
+      <c r="CN8" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="192"/>
+      <c r="CO8" s="174"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="190"/>
-      <c r="CR8" s="190"/>
-      <c r="CS8" s="172"/>
-      <c r="CT8" s="172"/>
-      <c r="CU8" s="195"/>
+      <c r="CQ8" s="197"/>
+      <c r="CR8" s="197"/>
+      <c r="CS8" s="193"/>
+      <c r="CT8" s="193"/>
+      <c r="CU8" s="185"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="175"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="27">
         <v>70</v>
       </c>
@@ -6999,15 +6999,21 @@
       <c r="BQ9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BR9" s="27"/>
+      <c r="BR9" s="27">
+        <v>100</v>
+      </c>
       <c r="BS9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BT9" s="27"/>
+      <c r="BT9" s="27">
+        <v>100</v>
+      </c>
       <c r="BU9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BV9" s="27"/>
+      <c r="BV9" s="27">
+        <v>100</v>
+      </c>
       <c r="BW9" s="30" t="s">
         <v>87</v>
       </c>
@@ -7056,9 +7062,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="172"/>
-      <c r="CT9" s="172"/>
-      <c r="CU9" s="196"/>
+      <c r="CS9" s="193"/>
+      <c r="CT9" s="193"/>
+      <c r="CU9" s="186"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7228,19 +7234,19 @@
         <v>0</v>
       </c>
       <c r="BR10" s="107"/>
-      <c r="BS10" s="92" t="str">
+      <c r="BS10" s="92">
         <f>IFERROR(((BR10/$BR$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT10" s="107"/>
-      <c r="BU10" s="92" t="str">
+      <c r="BU10" s="92">
         <f>IFERROR(((BT10/$BT$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV10" s="107"/>
-      <c r="BW10" s="92" t="str">
+      <c r="BW10" s="92">
         <f>IFERROR(((BV10/$BV$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX10" s="107"/>
       <c r="BY10" s="92" t="str">
@@ -7480,19 +7486,19 @@
         <v>0</v>
       </c>
       <c r="BR11" s="108"/>
-      <c r="BS11" s="92" t="str">
+      <c r="BS11" s="92">
         <f t="shared" ref="BS11:BS70" si="26">IFERROR(((BR11/$BR$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT11" s="108"/>
-      <c r="BU11" s="92" t="str">
+      <c r="BU11" s="92">
         <f t="shared" ref="BU11:BU70" si="27">IFERROR(((BT11/$BT$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV11" s="107"/>
-      <c r="BW11" s="92" t="str">
+      <c r="BW11" s="92">
         <f t="shared" ref="BW11:BW70" si="28">IFERROR(((BV11/$BV$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX11" s="107"/>
       <c r="BY11" s="92" t="str">
@@ -7732,19 +7738,19 @@
         <v>0</v>
       </c>
       <c r="BR12" s="108"/>
-      <c r="BS12" s="92" t="str">
+      <c r="BS12" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT12" s="108"/>
-      <c r="BU12" s="92" t="str">
+      <c r="BU12" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV12" s="107"/>
-      <c r="BW12" s="92" t="str">
+      <c r="BW12" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX12" s="107"/>
       <c r="BY12" s="92" t="str">
@@ -7984,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="BR13" s="108"/>
-      <c r="BS13" s="92" t="str">
+      <c r="BS13" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT13" s="108"/>
-      <c r="BU13" s="92" t="str">
+      <c r="BU13" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV13" s="107"/>
-      <c r="BW13" s="92" t="str">
+      <c r="BW13" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX13" s="107"/>
       <c r="BY13" s="92" t="str">
@@ -8236,19 +8242,19 @@
         <v>0</v>
       </c>
       <c r="BR14" s="108"/>
-      <c r="BS14" s="92" t="str">
+      <c r="BS14" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT14" s="108"/>
-      <c r="BU14" s="92" t="str">
+      <c r="BU14" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV14" s="107"/>
-      <c r="BW14" s="92" t="str">
+      <c r="BW14" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX14" s="107"/>
       <c r="BY14" s="92" t="str">
@@ -8488,19 +8494,19 @@
         <v>0</v>
       </c>
       <c r="BR15" s="108"/>
-      <c r="BS15" s="92" t="str">
+      <c r="BS15" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT15" s="108"/>
-      <c r="BU15" s="92" t="str">
+      <c r="BU15" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV15" s="107"/>
-      <c r="BW15" s="92" t="str">
+      <c r="BW15" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX15" s="107"/>
       <c r="BY15" s="92" t="str">
@@ -8740,19 +8746,19 @@
         <v>0</v>
       </c>
       <c r="BR16" s="108"/>
-      <c r="BS16" s="92" t="str">
+      <c r="BS16" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT16" s="108"/>
-      <c r="BU16" s="92" t="str">
+      <c r="BU16" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV16" s="107"/>
-      <c r="BW16" s="92" t="str">
+      <c r="BW16" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX16" s="107"/>
       <c r="BY16" s="92" t="str">
@@ -8992,19 +8998,19 @@
         <v>0</v>
       </c>
       <c r="BR17" s="108"/>
-      <c r="BS17" s="92" t="str">
+      <c r="BS17" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT17" s="108"/>
-      <c r="BU17" s="92" t="str">
+      <c r="BU17" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV17" s="107"/>
-      <c r="BW17" s="92" t="str">
+      <c r="BW17" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX17" s="107"/>
       <c r="BY17" s="92" t="str">
@@ -9244,19 +9250,19 @@
         <v>0</v>
       </c>
       <c r="BR18" s="108"/>
-      <c r="BS18" s="92" t="str">
+      <c r="BS18" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT18" s="108"/>
-      <c r="BU18" s="92" t="str">
+      <c r="BU18" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV18" s="107"/>
-      <c r="BW18" s="92" t="str">
+      <c r="BW18" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX18" s="107"/>
       <c r="BY18" s="92" t="str">
@@ -9496,19 +9502,19 @@
         <v>0</v>
       </c>
       <c r="BR19" s="108"/>
-      <c r="BS19" s="92" t="str">
+      <c r="BS19" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT19" s="108"/>
-      <c r="BU19" s="92" t="str">
+      <c r="BU19" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV19" s="107"/>
-      <c r="BW19" s="92" t="str">
+      <c r="BW19" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX19" s="107"/>
       <c r="BY19" s="92" t="str">
@@ -9748,19 +9754,19 @@
         <v>0</v>
       </c>
       <c r="BR20" s="108"/>
-      <c r="BS20" s="92" t="str">
+      <c r="BS20" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT20" s="108"/>
-      <c r="BU20" s="92" t="str">
+      <c r="BU20" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV20" s="107"/>
-      <c r="BW20" s="92" t="str">
+      <c r="BW20" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX20" s="107"/>
       <c r="BY20" s="92" t="str">
@@ -10000,19 +10006,19 @@
         <v>0</v>
       </c>
       <c r="BR21" s="108"/>
-      <c r="BS21" s="92" t="str">
+      <c r="BS21" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT21" s="108"/>
-      <c r="BU21" s="92" t="str">
+      <c r="BU21" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV21" s="107"/>
-      <c r="BW21" s="92" t="str">
+      <c r="BW21" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX21" s="107"/>
       <c r="BY21" s="92" t="str">
@@ -10252,19 +10258,19 @@
         <v>0</v>
       </c>
       <c r="BR22" s="108"/>
-      <c r="BS22" s="92" t="str">
+      <c r="BS22" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT22" s="108"/>
-      <c r="BU22" s="92" t="str">
+      <c r="BU22" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV22" s="107"/>
-      <c r="BW22" s="92" t="str">
+      <c r="BW22" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX22" s="107"/>
       <c r="BY22" s="92" t="str">
@@ -10504,19 +10510,19 @@
         <v>0</v>
       </c>
       <c r="BR23" s="108"/>
-      <c r="BS23" s="92" t="str">
+      <c r="BS23" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT23" s="108"/>
-      <c r="BU23" s="92" t="str">
+      <c r="BU23" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV23" s="107"/>
-      <c r="BW23" s="92" t="str">
+      <c r="BW23" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX23" s="107"/>
       <c r="BY23" s="92" t="str">
@@ -10756,19 +10762,19 @@
         <v>0</v>
       </c>
       <c r="BR24" s="108"/>
-      <c r="BS24" s="92" t="str">
+      <c r="BS24" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT24" s="108"/>
-      <c r="BU24" s="92" t="str">
+      <c r="BU24" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV24" s="107"/>
-      <c r="BW24" s="92" t="str">
+      <c r="BW24" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX24" s="107"/>
       <c r="BY24" s="92" t="str">
@@ -11008,19 +11014,19 @@
         <v>0</v>
       </c>
       <c r="BR25" s="108"/>
-      <c r="BS25" s="92" t="str">
+      <c r="BS25" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT25" s="108"/>
-      <c r="BU25" s="92" t="str">
+      <c r="BU25" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV25" s="107"/>
-      <c r="BW25" s="92" t="str">
+      <c r="BW25" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX25" s="107"/>
       <c r="BY25" s="92" t="str">
@@ -11260,19 +11266,19 @@
         <v>0</v>
       </c>
       <c r="BR26" s="108"/>
-      <c r="BS26" s="92" t="str">
+      <c r="BS26" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT26" s="108"/>
-      <c r="BU26" s="92" t="str">
+      <c r="BU26" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV26" s="107"/>
-      <c r="BW26" s="92" t="str">
+      <c r="BW26" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX26" s="107"/>
       <c r="BY26" s="92" t="str">
@@ -11512,19 +11518,19 @@
         <v>0</v>
       </c>
       <c r="BR27" s="108"/>
-      <c r="BS27" s="92" t="str">
+      <c r="BS27" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT27" s="108"/>
-      <c r="BU27" s="92" t="str">
+      <c r="BU27" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV27" s="107"/>
-      <c r="BW27" s="92" t="str">
+      <c r="BW27" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX27" s="107"/>
       <c r="BY27" s="92" t="str">
@@ -11764,19 +11770,19 @@
         <v>0</v>
       </c>
       <c r="BR28" s="108"/>
-      <c r="BS28" s="92" t="str">
+      <c r="BS28" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT28" s="108"/>
-      <c r="BU28" s="92" t="str">
+      <c r="BU28" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV28" s="107"/>
-      <c r="BW28" s="92" t="str">
+      <c r="BW28" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX28" s="107"/>
       <c r="BY28" s="92" t="str">
@@ -12016,19 +12022,19 @@
         <v>0</v>
       </c>
       <c r="BR29" s="108"/>
-      <c r="BS29" s="92" t="str">
+      <c r="BS29" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT29" s="108"/>
-      <c r="BU29" s="92" t="str">
+      <c r="BU29" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV29" s="107"/>
-      <c r="BW29" s="92" t="str">
+      <c r="BW29" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX29" s="107"/>
       <c r="BY29" s="92" t="str">
@@ -12268,19 +12274,19 @@
         <v>0</v>
       </c>
       <c r="BR30" s="108"/>
-      <c r="BS30" s="92" t="str">
+      <c r="BS30" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT30" s="108"/>
-      <c r="BU30" s="92" t="str">
+      <c r="BU30" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV30" s="107"/>
-      <c r="BW30" s="92" t="str">
+      <c r="BW30" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX30" s="107"/>
       <c r="BY30" s="92" t="str">
@@ -12520,19 +12526,19 @@
         <v>0</v>
       </c>
       <c r="BR31" s="108"/>
-      <c r="BS31" s="92" t="str">
+      <c r="BS31" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT31" s="108"/>
-      <c r="BU31" s="92" t="str">
+      <c r="BU31" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV31" s="107"/>
-      <c r="BW31" s="92" t="str">
+      <c r="BW31" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX31" s="107"/>
       <c r="BY31" s="92" t="str">
@@ -12772,19 +12778,19 @@
         <v>0</v>
       </c>
       <c r="BR32" s="108"/>
-      <c r="BS32" s="92" t="str">
+      <c r="BS32" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT32" s="108"/>
-      <c r="BU32" s="92" t="str">
+      <c r="BU32" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV32" s="107"/>
-      <c r="BW32" s="92" t="str">
+      <c r="BW32" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX32" s="107"/>
       <c r="BY32" s="92" t="str">
@@ -13024,19 +13030,19 @@
         <v>0</v>
       </c>
       <c r="BR33" s="108"/>
-      <c r="BS33" s="92" t="str">
+      <c r="BS33" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT33" s="108"/>
-      <c r="BU33" s="92" t="str">
+      <c r="BU33" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV33" s="107"/>
-      <c r="BW33" s="92" t="str">
+      <c r="BW33" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX33" s="107"/>
       <c r="BY33" s="92" t="str">
@@ -13281,20 +13287,26 @@
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="BR34" s="108"/>
-      <c r="BS34" s="92" t="str">
+      <c r="BR34" s="108">
+        <v>100</v>
+      </c>
+      <c r="BS34" s="92">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="BT34" s="108"/>
-      <c r="BU34" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BT34" s="108">
+        <v>100</v>
+      </c>
+      <c r="BU34" s="92">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="BV34" s="107"/>
-      <c r="BW34" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BV34" s="107">
+        <v>90</v>
+      </c>
+      <c r="BW34" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BX34" s="107"/>
       <c r="BY34" s="92" t="str">
@@ -13343,19 +13355,19 @@
       </c>
       <c r="CP34" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="CR34" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>49.17</v>
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>48.116</v>
+        <v>47.617999999999995</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13534,19 +13546,19 @@
         <v>0</v>
       </c>
       <c r="BR35" s="108"/>
-      <c r="BS35" s="92" t="str">
+      <c r="BS35" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT35" s="108"/>
-      <c r="BU35" s="92" t="str">
+      <c r="BU35" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV35" s="107"/>
-      <c r="BW35" s="92" t="str">
+      <c r="BW35" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX35" s="107"/>
       <c r="BY35" s="92" t="str">
@@ -13786,19 +13798,19 @@
         <v>0</v>
       </c>
       <c r="BR36" s="108"/>
-      <c r="BS36" s="92" t="str">
+      <c r="BS36" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT36" s="108"/>
-      <c r="BU36" s="92" t="str">
+      <c r="BU36" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV36" s="107"/>
-      <c r="BW36" s="92" t="str">
+      <c r="BW36" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX36" s="107"/>
       <c r="BY36" s="92" t="str">
@@ -14038,19 +14050,19 @@
         <v>0</v>
       </c>
       <c r="BR37" s="108"/>
-      <c r="BS37" s="92" t="str">
+      <c r="BS37" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT37" s="108"/>
-      <c r="BU37" s="92" t="str">
+      <c r="BU37" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV37" s="107"/>
-      <c r="BW37" s="92" t="str">
+      <c r="BW37" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX37" s="107"/>
       <c r="BY37" s="92" t="str">
@@ -14290,19 +14302,19 @@
         <v>0</v>
       </c>
       <c r="BR38" s="108"/>
-      <c r="BS38" s="92" t="str">
+      <c r="BS38" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT38" s="108"/>
-      <c r="BU38" s="92" t="str">
+      <c r="BU38" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV38" s="107"/>
-      <c r="BW38" s="92" t="str">
+      <c r="BW38" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX38" s="107"/>
       <c r="BY38" s="92" t="str">
@@ -14542,19 +14554,19 @@
         <v>0</v>
       </c>
       <c r="BR39" s="108"/>
-      <c r="BS39" s="92" t="str">
+      <c r="BS39" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT39" s="108"/>
-      <c r="BU39" s="92" t="str">
+      <c r="BU39" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV39" s="107"/>
-      <c r="BW39" s="92" t="str">
+      <c r="BW39" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX39" s="107"/>
       <c r="BY39" s="92" t="str">
@@ -14794,19 +14806,19 @@
         <v>0</v>
       </c>
       <c r="BR40" s="108"/>
-      <c r="BS40" s="92" t="str">
+      <c r="BS40" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT40" s="108"/>
-      <c r="BU40" s="92" t="str">
+      <c r="BU40" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV40" s="107"/>
-      <c r="BW40" s="92" t="str">
+      <c r="BW40" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX40" s="107"/>
       <c r="BY40" s="92" t="str">
@@ -15046,19 +15058,19 @@
         <v>0</v>
       </c>
       <c r="BR41" s="108"/>
-      <c r="BS41" s="92" t="str">
+      <c r="BS41" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT41" s="108"/>
-      <c r="BU41" s="92" t="str">
+      <c r="BU41" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV41" s="107"/>
-      <c r="BW41" s="92" t="str">
+      <c r="BW41" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX41" s="107"/>
       <c r="BY41" s="92" t="str">
@@ -15298,19 +15310,19 @@
         <v>0</v>
       </c>
       <c r="BR42" s="108"/>
-      <c r="BS42" s="92" t="str">
+      <c r="BS42" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT42" s="108"/>
-      <c r="BU42" s="92" t="str">
+      <c r="BU42" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV42" s="107"/>
-      <c r="BW42" s="92" t="str">
+      <c r="BW42" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX42" s="107"/>
       <c r="BY42" s="92" t="str">
@@ -15546,19 +15558,19 @@
         <v>0</v>
       </c>
       <c r="BR43" s="108"/>
-      <c r="BS43" s="92" t="str">
+      <c r="BS43" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT43" s="108"/>
-      <c r="BU43" s="92" t="str">
+      <c r="BU43" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV43" s="107"/>
-      <c r="BW43" s="92" t="str">
+      <c r="BW43" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX43" s="107"/>
       <c r="BY43" s="92" t="str">
@@ -15794,19 +15806,19 @@
         <v>0</v>
       </c>
       <c r="BR44" s="108"/>
-      <c r="BS44" s="92" t="str">
+      <c r="BS44" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT44" s="108"/>
-      <c r="BU44" s="92" t="str">
+      <c r="BU44" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV44" s="107"/>
-      <c r="BW44" s="92" t="str">
+      <c r="BW44" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX44" s="107"/>
       <c r="BY44" s="92" t="str">
@@ -16042,19 +16054,19 @@
         <v>0</v>
       </c>
       <c r="BR45" s="108"/>
-      <c r="BS45" s="92" t="str">
+      <c r="BS45" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT45" s="108"/>
-      <c r="BU45" s="92" t="str">
+      <c r="BU45" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV45" s="107"/>
-      <c r="BW45" s="92" t="str">
+      <c r="BW45" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX45" s="107"/>
       <c r="BY45" s="92" t="str">
@@ -16290,19 +16302,19 @@
         <v>0</v>
       </c>
       <c r="BR46" s="108"/>
-      <c r="BS46" s="92" t="str">
+      <c r="BS46" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT46" s="108"/>
-      <c r="BU46" s="92" t="str">
+      <c r="BU46" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV46" s="107"/>
-      <c r="BW46" s="92" t="str">
+      <c r="BW46" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX46" s="107"/>
       <c r="BY46" s="92" t="str">
@@ -16538,19 +16550,19 @@
         <v>0</v>
       </c>
       <c r="BR47" s="108"/>
-      <c r="BS47" s="92" t="str">
+      <c r="BS47" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT47" s="108"/>
-      <c r="BU47" s="92" t="str">
+      <c r="BU47" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV47" s="107"/>
-      <c r="BW47" s="92" t="str">
+      <c r="BW47" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX47" s="107"/>
       <c r="BY47" s="92" t="str">
@@ -16786,19 +16798,19 @@
         <v>0</v>
       </c>
       <c r="BR48" s="108"/>
-      <c r="BS48" s="92" t="str">
+      <c r="BS48" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT48" s="108"/>
-      <c r="BU48" s="92" t="str">
+      <c r="BU48" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV48" s="107"/>
-      <c r="BW48" s="92" t="str">
+      <c r="BW48" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX48" s="107"/>
       <c r="BY48" s="92" t="str">
@@ -17034,19 +17046,19 @@
         <v>0</v>
       </c>
       <c r="BR49" s="108"/>
-      <c r="BS49" s="92" t="str">
+      <c r="BS49" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT49" s="108"/>
-      <c r="BU49" s="92" t="str">
+      <c r="BU49" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV49" s="107"/>
-      <c r="BW49" s="92" t="str">
+      <c r="BW49" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX49" s="107"/>
       <c r="BY49" s="92" t="str">
@@ -17282,19 +17294,19 @@
         <v>0</v>
       </c>
       <c r="BR50" s="108"/>
-      <c r="BS50" s="92" t="str">
+      <c r="BS50" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT50" s="108"/>
-      <c r="BU50" s="92" t="str">
+      <c r="BU50" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV50" s="107"/>
-      <c r="BW50" s="92" t="str">
+      <c r="BW50" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX50" s="107"/>
       <c r="BY50" s="92" t="str">
@@ -17530,19 +17542,19 @@
         <v>0</v>
       </c>
       <c r="BR51" s="108"/>
-      <c r="BS51" s="92" t="str">
+      <c r="BS51" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT51" s="108"/>
-      <c r="BU51" s="92" t="str">
+      <c r="BU51" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV51" s="107"/>
-      <c r="BW51" s="92" t="str">
+      <c r="BW51" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX51" s="107"/>
       <c r="BY51" s="92" t="str">
@@ -17778,19 +17790,19 @@
         <v>0</v>
       </c>
       <c r="BR52" s="108"/>
-      <c r="BS52" s="92" t="str">
+      <c r="BS52" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT52" s="108"/>
-      <c r="BU52" s="92" t="str">
+      <c r="BU52" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV52" s="107"/>
-      <c r="BW52" s="92" t="str">
+      <c r="BW52" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX52" s="107"/>
       <c r="BY52" s="92" t="str">
@@ -18026,19 +18038,19 @@
         <v>0</v>
       </c>
       <c r="BR53" s="108"/>
-      <c r="BS53" s="92" t="str">
+      <c r="BS53" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT53" s="108"/>
-      <c r="BU53" s="92" t="str">
+      <c r="BU53" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV53" s="107"/>
-      <c r="BW53" s="92" t="str">
+      <c r="BW53" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX53" s="107"/>
       <c r="BY53" s="92" t="str">
@@ -18274,19 +18286,19 @@
         <v>0</v>
       </c>
       <c r="BR54" s="108"/>
-      <c r="BS54" s="92" t="str">
+      <c r="BS54" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT54" s="108"/>
-      <c r="BU54" s="92" t="str">
+      <c r="BU54" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV54" s="107"/>
-      <c r="BW54" s="92" t="str">
+      <c r="BW54" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX54" s="107"/>
       <c r="BY54" s="92" t="str">
@@ -18522,19 +18534,19 @@
         <v>0</v>
       </c>
       <c r="BR55" s="108"/>
-      <c r="BS55" s="92" t="str">
+      <c r="BS55" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT55" s="108"/>
-      <c r="BU55" s="92" t="str">
+      <c r="BU55" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV55" s="107"/>
-      <c r="BW55" s="92" t="str">
+      <c r="BW55" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX55" s="107"/>
       <c r="BY55" s="92" t="str">
@@ -18770,19 +18782,19 @@
         <v>0</v>
       </c>
       <c r="BR56" s="108"/>
-      <c r="BS56" s="92" t="str">
+      <c r="BS56" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT56" s="108"/>
-      <c r="BU56" s="92" t="str">
+      <c r="BU56" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV56" s="107"/>
-      <c r="BW56" s="92" t="str">
+      <c r="BW56" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX56" s="107"/>
       <c r="BY56" s="92" t="str">
@@ -19018,19 +19030,19 @@
         <v>0</v>
       </c>
       <c r="BR57" s="108"/>
-      <c r="BS57" s="92" t="str">
+      <c r="BS57" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT57" s="108"/>
-      <c r="BU57" s="92" t="str">
+      <c r="BU57" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV57" s="107"/>
-      <c r="BW57" s="92" t="str">
+      <c r="BW57" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX57" s="107"/>
       <c r="BY57" s="92" t="str">
@@ -19266,19 +19278,19 @@
         <v>0</v>
       </c>
       <c r="BR58" s="108"/>
-      <c r="BS58" s="92" t="str">
+      <c r="BS58" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT58" s="108"/>
-      <c r="BU58" s="92" t="str">
+      <c r="BU58" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV58" s="107"/>
-      <c r="BW58" s="92" t="str">
+      <c r="BW58" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX58" s="107"/>
       <c r="BY58" s="92" t="str">
@@ -19514,19 +19526,19 @@
         <v>0</v>
       </c>
       <c r="BR59" s="108"/>
-      <c r="BS59" s="92" t="str">
+      <c r="BS59" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT59" s="108"/>
-      <c r="BU59" s="92" t="str">
+      <c r="BU59" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV59" s="107"/>
-      <c r="BW59" s="92" t="str">
+      <c r="BW59" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX59" s="107"/>
       <c r="BY59" s="92" t="str">
@@ -19762,19 +19774,19 @@
         <v>0</v>
       </c>
       <c r="BR60" s="108"/>
-      <c r="BS60" s="92" t="str">
+      <c r="BS60" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT60" s="108"/>
-      <c r="BU60" s="92" t="str">
+      <c r="BU60" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV60" s="107"/>
-      <c r="BW60" s="92" t="str">
+      <c r="BW60" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX60" s="107"/>
       <c r="BY60" s="92" t="str">
@@ -20010,19 +20022,19 @@
         <v>0</v>
       </c>
       <c r="BR61" s="108"/>
-      <c r="BS61" s="92" t="str">
+      <c r="BS61" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT61" s="108"/>
-      <c r="BU61" s="92" t="str">
+      <c r="BU61" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV61" s="107"/>
-      <c r="BW61" s="92" t="str">
+      <c r="BW61" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX61" s="107"/>
       <c r="BY61" s="92" t="str">
@@ -20258,19 +20270,19 @@
         <v>0</v>
       </c>
       <c r="BR62" s="108"/>
-      <c r="BS62" s="92" t="str">
+      <c r="BS62" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT62" s="108"/>
-      <c r="BU62" s="92" t="str">
+      <c r="BU62" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV62" s="107"/>
-      <c r="BW62" s="92" t="str">
+      <c r="BW62" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX62" s="107"/>
       <c r="BY62" s="92" t="str">
@@ -20506,19 +20518,19 @@
         <v>0</v>
       </c>
       <c r="BR63" s="108"/>
-      <c r="BS63" s="92" t="str">
+      <c r="BS63" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT63" s="108"/>
-      <c r="BU63" s="92" t="str">
+      <c r="BU63" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV63" s="107"/>
-      <c r="BW63" s="92" t="str">
+      <c r="BW63" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX63" s="107"/>
       <c r="BY63" s="92" t="str">
@@ -20754,19 +20766,19 @@
         <v>0</v>
       </c>
       <c r="BR64" s="108"/>
-      <c r="BS64" s="92" t="str">
+      <c r="BS64" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT64" s="108"/>
-      <c r="BU64" s="92" t="str">
+      <c r="BU64" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV64" s="107"/>
-      <c r="BW64" s="92" t="str">
+      <c r="BW64" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX64" s="107"/>
       <c r="BY64" s="92" t="str">
@@ -21002,19 +21014,19 @@
         <v>0</v>
       </c>
       <c r="BR65" s="108"/>
-      <c r="BS65" s="92" t="str">
+      <c r="BS65" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT65" s="108"/>
-      <c r="BU65" s="92" t="str">
+      <c r="BU65" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV65" s="107"/>
-      <c r="BW65" s="92" t="str">
+      <c r="BW65" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX65" s="107"/>
       <c r="BY65" s="92" t="str">
@@ -21250,19 +21262,19 @@
         <v>0</v>
       </c>
       <c r="BR66" s="108"/>
-      <c r="BS66" s="92" t="str">
+      <c r="BS66" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT66" s="108"/>
-      <c r="BU66" s="92" t="str">
+      <c r="BU66" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV66" s="107"/>
-      <c r="BW66" s="92" t="str">
+      <c r="BW66" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX66" s="107"/>
       <c r="BY66" s="92" t="str">
@@ -21498,19 +21510,19 @@
         <v>0</v>
       </c>
       <c r="BR67" s="108"/>
-      <c r="BS67" s="92" t="str">
+      <c r="BS67" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT67" s="108"/>
-      <c r="BU67" s="92" t="str">
+      <c r="BU67" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV67" s="107"/>
-      <c r="BW67" s="92" t="str">
+      <c r="BW67" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX67" s="107"/>
       <c r="BY67" s="92" t="str">
@@ -21746,19 +21758,19 @@
         <v>0</v>
       </c>
       <c r="BR68" s="108"/>
-      <c r="BS68" s="92" t="str">
+      <c r="BS68" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT68" s="108"/>
-      <c r="BU68" s="92" t="str">
+      <c r="BU68" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV68" s="107"/>
-      <c r="BW68" s="92" t="str">
+      <c r="BW68" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX68" s="107"/>
       <c r="BY68" s="92" t="str">
@@ -21994,19 +22006,19 @@
         <v>0</v>
       </c>
       <c r="BR69" s="108"/>
-      <c r="BS69" s="92" t="str">
+      <c r="BS69" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT69" s="108"/>
-      <c r="BU69" s="92" t="str">
+      <c r="BU69" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV69" s="107"/>
-      <c r="BW69" s="92" t="str">
+      <c r="BW69" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX69" s="107"/>
       <c r="BY69" s="92" t="str">
@@ -22242,19 +22254,19 @@
         <v>0</v>
       </c>
       <c r="BR70" s="108"/>
-      <c r="BS70" s="92" t="str">
+      <c r="BS70" s="92">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BT70" s="108"/>
-      <c r="BU70" s="92" t="str">
+      <c r="BU70" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV70" s="107"/>
-      <c r="BW70" s="92" t="str">
+      <c r="BW70" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX70" s="107"/>
       <c r="BY70" s="92" t="str">
@@ -22329,6 +22341,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -22345,88 +22439,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -24222,19 +24234,19 @@
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
-        <v>50</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>50</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>50</v>
+        <v>49.17</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>48.116</v>
+        <v>47.617999999999995</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -26641,106 +26653,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="225"/>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
+      <c r="A3" s="256"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="259" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
+      <c r="B4" s="259"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="261" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="229"/>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
+      <c r="A8" s="262"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="225"/>
-      <c r="B9" s="225"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
+      <c r="A9" s="256"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="230"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
+      <c r="A10" s="263"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="264" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="264"/>
+      <c r="F11" s="264"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="229"/>
-      <c r="B12" s="229"/>
-      <c r="C12" s="229"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="229"/>
+      <c r="A12" s="262"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="262"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="232" t="str">
+      <c r="C13" s="265" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="232"/>
-      <c r="E13" s="232"/>
+      <c r="D13" s="265"/>
+      <c r="E13" s="265"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -26748,12 +26760,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="224" t="str">
+      <c r="C14" s="258" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="258"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -26761,12 +26773,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="235" t="str">
+      <c r="C15" s="244" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -26774,12 +26786,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="235" t="str">
+      <c r="C16" s="244" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT 1C</v>
       </c>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -26787,12 +26799,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="235" t="str">
+      <c r="C17" s="244" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="235"/>
-      <c r="E17" s="235"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26804,42 +26816,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="236" t="s">
+      <c r="A19" s="245" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="248" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="236" t="s">
+      <c r="C19" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="236" t="s">
+      <c r="D19" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="241" t="s">
+      <c r="E19" s="250" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="236" t="s">
+      <c r="F19" s="245" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="237"/>
-      <c r="B20" s="240"/>
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="244"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="249"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="253"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="238"/>
+      <c r="A21" s="247"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="245"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="254"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28352,14 +28364,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="252" t="s">
+      <c r="A83" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="253"/>
-      <c r="C83" s="253"/>
-      <c r="D83" s="253"/>
-      <c r="E83" s="253"/>
-      <c r="F83" s="254"/>
+      <c r="B83" s="229"/>
+      <c r="C83" s="229"/>
+      <c r="D83" s="229"/>
+      <c r="E83" s="229"/>
+      <c r="F83" s="230"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28392,11 +28404,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="246">
+      <c r="E87" s="255">
         <f ca="1">NOW()</f>
-        <v>43021.826894328704</v>
-      </c>
-      <c r="F87" s="246"/>
+        <v>43035.47561238426</v>
+      </c>
+      <c r="F87" s="255"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28406,10 +28418,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="225" t="s">
+      <c r="E88" s="256" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="225"/>
+      <c r="F88" s="256"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28426,8 +28438,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="225"/>
-      <c r="F90" s="225"/>
+      <c r="E90" s="256"/>
+      <c r="F90" s="256"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28543,14 +28555,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="247" t="s">
+      <c r="A105" s="257" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="247"/>
-      <c r="C105" s="247"/>
-      <c r="D105" s="247"/>
-      <c r="E105" s="247"/>
-      <c r="F105" s="247"/>
+      <c r="B105" s="257"/>
+      <c r="C105" s="257"/>
+      <c r="D105" s="257"/>
+      <c r="E105" s="257"/>
+      <c r="F105" s="257"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28565,124 +28577,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="265" t="s">
+      <c r="C107" s="241" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="234"/>
-      <c r="E107" s="233" t="s">
+      <c r="D107" s="242"/>
+      <c r="E107" s="243" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="234"/>
+      <c r="F107" s="242"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="261">
+      <c r="C108" s="237">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="262"/>
-      <c r="E108" s="263">
+      <c r="D108" s="238"/>
+      <c r="E108" s="239">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="264"/>
+      <c r="F108" s="240"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="255">
+      <c r="C109" s="231">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="256"/>
-      <c r="E109" s="257">
+      <c r="D109" s="232"/>
+      <c r="E109" s="233">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="258"/>
+      <c r="F109" s="234"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="255">
+      <c r="C110" s="231">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="256"/>
-      <c r="E110" s="257">
+      <c r="D110" s="232"/>
+      <c r="E110" s="233">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="258"/>
+      <c r="F110" s="234"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="255">
+      <c r="C111" s="231">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="256"/>
-      <c r="E111" s="257">
+      <c r="D111" s="232"/>
+      <c r="E111" s="233">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="258"/>
+      <c r="F111" s="234"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="259">
-        <v>0</v>
-      </c>
-      <c r="D112" s="260"/>
-      <c r="E112" s="257">
+      <c r="C112" s="235">
+        <v>0</v>
+      </c>
+      <c r="D112" s="236"/>
+      <c r="E112" s="233">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="258"/>
+      <c r="F112" s="234"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="259">
-        <v>0</v>
-      </c>
-      <c r="D113" s="260"/>
-      <c r="E113" s="257">
+      <c r="C113" s="235">
+        <v>0</v>
+      </c>
+      <c r="D113" s="236"/>
+      <c r="E113" s="233">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="258"/>
+      <c r="F113" s="234"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="248">
+      <c r="C114" s="224">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="249"/>
-      <c r="E114" s="250">
+      <c r="D114" s="225"/>
+      <c r="E114" s="226">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="251"/>
+      <c r="F114" s="227"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -28850,6 +28862,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28866,32 +28904,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
+++ b/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
@@ -6110,9 +6110,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV34" sqref="BV34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="CG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS34" sqref="CS34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6670,7 +6670,9 @@
       <c r="BW7" s="179"/>
       <c r="BX7" s="179"/>
       <c r="BY7" s="179"/>
-      <c r="BZ7" s="179"/>
+      <c r="BZ7" s="179">
+        <v>43052</v>
+      </c>
       <c r="CA7" s="179"/>
       <c r="CB7" s="179"/>
       <c r="CC7" s="179"/>
@@ -6686,7 +6688,7 @@
       <c r="CM7" s="179"/>
       <c r="CN7" s="183">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CO7" s="183"/>
       <c r="CP7" s="106">
@@ -7017,11 +7019,15 @@
       <c r="BW9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BX9" s="27"/>
+      <c r="BX9" s="27">
+        <v>100</v>
+      </c>
       <c r="BY9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BZ9" s="27"/>
+      <c r="BZ9" s="27">
+        <v>100</v>
+      </c>
       <c r="CA9" s="30" t="s">
         <v>87</v>
       </c>
@@ -7249,14 +7255,14 @@
         <v>0</v>
       </c>
       <c r="BX10" s="107"/>
-      <c r="BY10" s="92" t="str">
+      <c r="BY10" s="92">
         <f>IFERROR(((BX10/$BX$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ10" s="107"/>
-      <c r="CA10" s="92" t="str">
+      <c r="CA10" s="92">
         <f>IFERROR(((BZ10/$BZ$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB10" s="107"/>
       <c r="CC10" s="92" t="str">
@@ -7501,14 +7507,14 @@
         <v>0</v>
       </c>
       <c r="BX11" s="107"/>
-      <c r="BY11" s="92" t="str">
+      <c r="BY11" s="92">
         <f t="shared" ref="BY11:BY70" si="29">IFERROR(((BX11/$BX$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ11" s="107"/>
-      <c r="CA11" s="92" t="str">
+      <c r="CA11" s="92">
         <f t="shared" ref="CA11:CA70" si="30">IFERROR(((BZ11/$BZ$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB11" s="107"/>
       <c r="CC11" s="92" t="str">
@@ -7753,14 +7759,14 @@
         <v>0</v>
       </c>
       <c r="BX12" s="107"/>
-      <c r="BY12" s="92" t="str">
+      <c r="BY12" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ12" s="107"/>
-      <c r="CA12" s="92" t="str">
+      <c r="CA12" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB12" s="107"/>
       <c r="CC12" s="92" t="str">
@@ -8005,14 +8011,14 @@
         <v>0</v>
       </c>
       <c r="BX13" s="107"/>
-      <c r="BY13" s="92" t="str">
+      <c r="BY13" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ13" s="107"/>
-      <c r="CA13" s="92" t="str">
+      <c r="CA13" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB13" s="107"/>
       <c r="CC13" s="92" t="str">
@@ -8257,14 +8263,14 @@
         <v>0</v>
       </c>
       <c r="BX14" s="107"/>
-      <c r="BY14" s="92" t="str">
+      <c r="BY14" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ14" s="107"/>
-      <c r="CA14" s="92" t="str">
+      <c r="CA14" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB14" s="107"/>
       <c r="CC14" s="92" t="str">
@@ -8509,14 +8515,14 @@
         <v>0</v>
       </c>
       <c r="BX15" s="107"/>
-      <c r="BY15" s="92" t="str">
+      <c r="BY15" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ15" s="107"/>
-      <c r="CA15" s="92" t="str">
+      <c r="CA15" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB15" s="107"/>
       <c r="CC15" s="92" t="str">
@@ -8761,14 +8767,14 @@
         <v>0</v>
       </c>
       <c r="BX16" s="107"/>
-      <c r="BY16" s="92" t="str">
+      <c r="BY16" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ16" s="107"/>
-      <c r="CA16" s="92" t="str">
+      <c r="CA16" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB16" s="107"/>
       <c r="CC16" s="92" t="str">
@@ -8844,15 +8850,15 @@
         <v>Buenafe Naomi Carmel E</v>
       </c>
       <c r="D17" s="108">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E17" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>58.571428571428577</v>
       </c>
       <c r="F17" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="G17" s="108"/>
       <c r="H17" s="92" t="e">
@@ -8957,11 +8963,11 @@
       </c>
       <c r="BC17" s="98">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="BD17" s="98">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>17.57</v>
       </c>
       <c r="BE17" s="108"/>
       <c r="BF17" s="92" t="str">
@@ -9013,14 +9019,14 @@
         <v>0</v>
       </c>
       <c r="BX17" s="107"/>
-      <c r="BY17" s="92" t="str">
+      <c r="BY17" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ17" s="107"/>
-      <c r="CA17" s="92" t="str">
+      <c r="CA17" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB17" s="107"/>
       <c r="CC17" s="92" t="str">
@@ -9071,7 +9077,7 @@
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>7.0280000000000005</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9265,14 +9271,14 @@
         <v>0</v>
       </c>
       <c r="BX18" s="107"/>
-      <c r="BY18" s="92" t="str">
+      <c r="BY18" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ18" s="107"/>
-      <c r="CA18" s="92" t="str">
+      <c r="CA18" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB18" s="107"/>
       <c r="CC18" s="92" t="str">
@@ -9517,14 +9523,14 @@
         <v>0</v>
       </c>
       <c r="BX19" s="107"/>
-      <c r="BY19" s="92" t="str">
+      <c r="BY19" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ19" s="107"/>
-      <c r="CA19" s="92" t="str">
+      <c r="CA19" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB19" s="107"/>
       <c r="CC19" s="92" t="str">
@@ -9769,14 +9775,14 @@
         <v>0</v>
       </c>
       <c r="BX20" s="107"/>
-      <c r="BY20" s="92" t="str">
+      <c r="BY20" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ20" s="107"/>
-      <c r="CA20" s="92" t="str">
+      <c r="CA20" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB20" s="107"/>
       <c r="CC20" s="92" t="str">
@@ -10021,14 +10027,14 @@
         <v>0</v>
       </c>
       <c r="BX21" s="107"/>
-      <c r="BY21" s="92" t="str">
+      <c r="BY21" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ21" s="107"/>
-      <c r="CA21" s="92" t="str">
+      <c r="CA21" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB21" s="107"/>
       <c r="CC21" s="92" t="str">
@@ -10273,14 +10279,14 @@
         <v>0</v>
       </c>
       <c r="BX22" s="107"/>
-      <c r="BY22" s="92" t="str">
+      <c r="BY22" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ22" s="107"/>
-      <c r="CA22" s="92" t="str">
+      <c r="CA22" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB22" s="107"/>
       <c r="CC22" s="92" t="str">
@@ -10525,14 +10531,14 @@
         <v>0</v>
       </c>
       <c r="BX23" s="107"/>
-      <c r="BY23" s="92" t="str">
+      <c r="BY23" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ23" s="107"/>
-      <c r="CA23" s="92" t="str">
+      <c r="CA23" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB23" s="107"/>
       <c r="CC23" s="92" t="str">
@@ -10777,14 +10783,14 @@
         <v>0</v>
       </c>
       <c r="BX24" s="107"/>
-      <c r="BY24" s="92" t="str">
+      <c r="BY24" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ24" s="107"/>
-      <c r="CA24" s="92" t="str">
+      <c r="CA24" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB24" s="107"/>
       <c r="CC24" s="92" t="str">
@@ -11029,14 +11035,14 @@
         <v>0</v>
       </c>
       <c r="BX25" s="107"/>
-      <c r="BY25" s="92" t="str">
+      <c r="BY25" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ25" s="107"/>
-      <c r="CA25" s="92" t="str">
+      <c r="CA25" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB25" s="107"/>
       <c r="CC25" s="92" t="str">
@@ -11281,14 +11287,14 @@
         <v>0</v>
       </c>
       <c r="BX26" s="107"/>
-      <c r="BY26" s="92" t="str">
+      <c r="BY26" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ26" s="107"/>
-      <c r="CA26" s="92" t="str">
+      <c r="CA26" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB26" s="107"/>
       <c r="CC26" s="92" t="str">
@@ -11533,14 +11539,14 @@
         <v>0</v>
       </c>
       <c r="BX27" s="107"/>
-      <c r="BY27" s="92" t="str">
+      <c r="BY27" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ27" s="107"/>
-      <c r="CA27" s="92" t="str">
+      <c r="CA27" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB27" s="107"/>
       <c r="CC27" s="92" t="str">
@@ -11785,14 +11791,14 @@
         <v>0</v>
       </c>
       <c r="BX28" s="107"/>
-      <c r="BY28" s="92" t="str">
+      <c r="BY28" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ28" s="107"/>
-      <c r="CA28" s="92" t="str">
+      <c r="CA28" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB28" s="107"/>
       <c r="CC28" s="92" t="str">
@@ -12037,14 +12043,14 @@
         <v>0</v>
       </c>
       <c r="BX29" s="107"/>
-      <c r="BY29" s="92" t="str">
+      <c r="BY29" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ29" s="107"/>
-      <c r="CA29" s="92" t="str">
+      <c r="CA29" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB29" s="107"/>
       <c r="CC29" s="92" t="str">
@@ -12289,14 +12295,14 @@
         <v>0</v>
       </c>
       <c r="BX30" s="107"/>
-      <c r="BY30" s="92" t="str">
+      <c r="BY30" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ30" s="107"/>
-      <c r="CA30" s="92" t="str">
+      <c r="CA30" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB30" s="107"/>
       <c r="CC30" s="92" t="str">
@@ -12541,14 +12547,14 @@
         <v>0</v>
       </c>
       <c r="BX31" s="107"/>
-      <c r="BY31" s="92" t="str">
+      <c r="BY31" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ31" s="107"/>
-      <c r="CA31" s="92" t="str">
+      <c r="CA31" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB31" s="107"/>
       <c r="CC31" s="92" t="str">
@@ -12793,14 +12799,14 @@
         <v>0</v>
       </c>
       <c r="BX32" s="107"/>
-      <c r="BY32" s="92" t="str">
+      <c r="BY32" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ32" s="107"/>
-      <c r="CA32" s="92" t="str">
+      <c r="CA32" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB32" s="107"/>
       <c r="CC32" s="92" t="str">
@@ -13045,14 +13051,14 @@
         <v>0</v>
       </c>
       <c r="BX33" s="107"/>
-      <c r="BY33" s="92" t="str">
+      <c r="BY33" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ33" s="107"/>
-      <c r="CA33" s="92" t="str">
+      <c r="CA33" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB33" s="107"/>
       <c r="CC33" s="92" t="str">
@@ -13308,15 +13314,19 @@
         <f t="shared" si="28"/>
         <v>90</v>
       </c>
-      <c r="BX34" s="107"/>
-      <c r="BY34" s="92" t="str">
+      <c r="BX34" s="107">
+        <v>100</v>
+      </c>
+      <c r="BY34" s="92">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BZ34" s="107"/>
-      <c r="CA34" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BZ34" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA34" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CB34" s="107"/>
       <c r="CC34" s="92" t="str">
@@ -13355,19 +13365,19 @@
       </c>
       <c r="CP34" s="103">
         <f t="shared" si="38"/>
-        <v>49.166666666666664</v>
+        <v>49.375</v>
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
-        <v>49.166666666666664</v>
+        <v>49.375</v>
       </c>
       <c r="CR34" s="99">
         <f t="shared" si="40"/>
-        <v>49.17</v>
+        <v>49.38</v>
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>47.617999999999995</v>
+        <v>47.744</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13561,14 +13571,14 @@
         <v>0</v>
       </c>
       <c r="BX35" s="107"/>
-      <c r="BY35" s="92" t="str">
+      <c r="BY35" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ35" s="107"/>
-      <c r="CA35" s="92" t="str">
+      <c r="CA35" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB35" s="107"/>
       <c r="CC35" s="92" t="str">
@@ -13813,14 +13823,14 @@
         <v>0</v>
       </c>
       <c r="BX36" s="107"/>
-      <c r="BY36" s="92" t="str">
+      <c r="BY36" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ36" s="107"/>
-      <c r="CA36" s="92" t="str">
+      <c r="CA36" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB36" s="107"/>
       <c r="CC36" s="92" t="str">
@@ -14065,14 +14075,14 @@
         <v>0</v>
       </c>
       <c r="BX37" s="107"/>
-      <c r="BY37" s="92" t="str">
+      <c r="BY37" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ37" s="107"/>
-      <c r="CA37" s="92" t="str">
+      <c r="CA37" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB37" s="107"/>
       <c r="CC37" s="92" t="str">
@@ -14317,14 +14327,14 @@
         <v>0</v>
       </c>
       <c r="BX38" s="107"/>
-      <c r="BY38" s="92" t="str">
+      <c r="BY38" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ38" s="107"/>
-      <c r="CA38" s="92" t="str">
+      <c r="CA38" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB38" s="107"/>
       <c r="CC38" s="92" t="str">
@@ -14569,14 +14579,14 @@
         <v>0</v>
       </c>
       <c r="BX39" s="107"/>
-      <c r="BY39" s="92" t="str">
+      <c r="BY39" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ39" s="107"/>
-      <c r="CA39" s="92" t="str">
+      <c r="CA39" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB39" s="107"/>
       <c r="CC39" s="92" t="str">
@@ -14821,14 +14831,14 @@
         <v>0</v>
       </c>
       <c r="BX40" s="107"/>
-      <c r="BY40" s="92" t="str">
+      <c r="BY40" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ40" s="107"/>
-      <c r="CA40" s="92" t="str">
+      <c r="CA40" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB40" s="107"/>
       <c r="CC40" s="92" t="str">
@@ -15073,14 +15083,14 @@
         <v>0</v>
       </c>
       <c r="BX41" s="107"/>
-      <c r="BY41" s="92" t="str">
+      <c r="BY41" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ41" s="107"/>
-      <c r="CA41" s="92" t="str">
+      <c r="CA41" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB41" s="107"/>
       <c r="CC41" s="92" t="str">
@@ -15325,14 +15335,14 @@
         <v>0</v>
       </c>
       <c r="BX42" s="107"/>
-      <c r="BY42" s="92" t="str">
+      <c r="BY42" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ42" s="107"/>
-      <c r="CA42" s="92" t="str">
+      <c r="CA42" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB42" s="107"/>
       <c r="CC42" s="92" t="str">
@@ -15573,14 +15583,14 @@
         <v>0</v>
       </c>
       <c r="BX43" s="107"/>
-      <c r="BY43" s="92" t="str">
+      <c r="BY43" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ43" s="107"/>
-      <c r="CA43" s="92" t="str">
+      <c r="CA43" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB43" s="107"/>
       <c r="CC43" s="92" t="str">
@@ -15821,14 +15831,14 @@
         <v>0</v>
       </c>
       <c r="BX44" s="107"/>
-      <c r="BY44" s="92" t="str">
+      <c r="BY44" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ44" s="107"/>
-      <c r="CA44" s="92" t="str">
+      <c r="CA44" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB44" s="107"/>
       <c r="CC44" s="92" t="str">
@@ -16069,14 +16079,14 @@
         <v>0</v>
       </c>
       <c r="BX45" s="107"/>
-      <c r="BY45" s="92" t="str">
+      <c r="BY45" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ45" s="107"/>
-      <c r="CA45" s="92" t="str">
+      <c r="CA45" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB45" s="107"/>
       <c r="CC45" s="92" t="str">
@@ -16317,14 +16327,14 @@
         <v>0</v>
       </c>
       <c r="BX46" s="107"/>
-      <c r="BY46" s="92" t="str">
+      <c r="BY46" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ46" s="107"/>
-      <c r="CA46" s="92" t="str">
+      <c r="CA46" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB46" s="107"/>
       <c r="CC46" s="92" t="str">
@@ -16565,14 +16575,14 @@
         <v>0</v>
       </c>
       <c r="BX47" s="107"/>
-      <c r="BY47" s="92" t="str">
+      <c r="BY47" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ47" s="107"/>
-      <c r="CA47" s="92" t="str">
+      <c r="CA47" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB47" s="107"/>
       <c r="CC47" s="92" t="str">
@@ -16813,14 +16823,14 @@
         <v>0</v>
       </c>
       <c r="BX48" s="107"/>
-      <c r="BY48" s="92" t="str">
+      <c r="BY48" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ48" s="107"/>
-      <c r="CA48" s="92" t="str">
+      <c r="CA48" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB48" s="107"/>
       <c r="CC48" s="92" t="str">
@@ -17061,14 +17071,14 @@
         <v>0</v>
       </c>
       <c r="BX49" s="107"/>
-      <c r="BY49" s="92" t="str">
+      <c r="BY49" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ49" s="107"/>
-      <c r="CA49" s="92" t="str">
+      <c r="CA49" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB49" s="107"/>
       <c r="CC49" s="92" t="str">
@@ -17309,14 +17319,14 @@
         <v>0</v>
       </c>
       <c r="BX50" s="107"/>
-      <c r="BY50" s="92" t="str">
+      <c r="BY50" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ50" s="107"/>
-      <c r="CA50" s="92" t="str">
+      <c r="CA50" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB50" s="107"/>
       <c r="CC50" s="92" t="str">
@@ -17557,14 +17567,14 @@
         <v>0</v>
       </c>
       <c r="BX51" s="107"/>
-      <c r="BY51" s="92" t="str">
+      <c r="BY51" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ51" s="107"/>
-      <c r="CA51" s="92" t="str">
+      <c r="CA51" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB51" s="107"/>
       <c r="CC51" s="92" t="str">
@@ -17805,14 +17815,14 @@
         <v>0</v>
       </c>
       <c r="BX52" s="107"/>
-      <c r="BY52" s="92" t="str">
+      <c r="BY52" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ52" s="107"/>
-      <c r="CA52" s="92" t="str">
+      <c r="CA52" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB52" s="107"/>
       <c r="CC52" s="92" t="str">
@@ -18053,14 +18063,14 @@
         <v>0</v>
       </c>
       <c r="BX53" s="107"/>
-      <c r="BY53" s="92" t="str">
+      <c r="BY53" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ53" s="107"/>
-      <c r="CA53" s="92" t="str">
+      <c r="CA53" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB53" s="107"/>
       <c r="CC53" s="92" t="str">
@@ -18301,14 +18311,14 @@
         <v>0</v>
       </c>
       <c r="BX54" s="107"/>
-      <c r="BY54" s="92" t="str">
+      <c r="BY54" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ54" s="107"/>
-      <c r="CA54" s="92" t="str">
+      <c r="CA54" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB54" s="107"/>
       <c r="CC54" s="92" t="str">
@@ -18549,14 +18559,14 @@
         <v>0</v>
       </c>
       <c r="BX55" s="107"/>
-      <c r="BY55" s="92" t="str">
+      <c r="BY55" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ55" s="107"/>
-      <c r="CA55" s="92" t="str">
+      <c r="CA55" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB55" s="107"/>
       <c r="CC55" s="92" t="str">
@@ -18797,14 +18807,14 @@
         <v>0</v>
       </c>
       <c r="BX56" s="107"/>
-      <c r="BY56" s="92" t="str">
+      <c r="BY56" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ56" s="107"/>
-      <c r="CA56" s="92" t="str">
+      <c r="CA56" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB56" s="107"/>
       <c r="CC56" s="92" t="str">
@@ -19045,14 +19055,14 @@
         <v>0</v>
       </c>
       <c r="BX57" s="107"/>
-      <c r="BY57" s="92" t="str">
+      <c r="BY57" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ57" s="107"/>
-      <c r="CA57" s="92" t="str">
+      <c r="CA57" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB57" s="107"/>
       <c r="CC57" s="92" t="str">
@@ -19293,14 +19303,14 @@
         <v>0</v>
       </c>
       <c r="BX58" s="107"/>
-      <c r="BY58" s="92" t="str">
+      <c r="BY58" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ58" s="107"/>
-      <c r="CA58" s="92" t="str">
+      <c r="CA58" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB58" s="107"/>
       <c r="CC58" s="92" t="str">
@@ -19541,14 +19551,14 @@
         <v>0</v>
       </c>
       <c r="BX59" s="107"/>
-      <c r="BY59" s="92" t="str">
+      <c r="BY59" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ59" s="107"/>
-      <c r="CA59" s="92" t="str">
+      <c r="CA59" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB59" s="107"/>
       <c r="CC59" s="92" t="str">
@@ -19789,14 +19799,14 @@
         <v>0</v>
       </c>
       <c r="BX60" s="107"/>
-      <c r="BY60" s="92" t="str">
+      <c r="BY60" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ60" s="107"/>
-      <c r="CA60" s="92" t="str">
+      <c r="CA60" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB60" s="107"/>
       <c r="CC60" s="92" t="str">
@@ -20037,14 +20047,14 @@
         <v>0</v>
       </c>
       <c r="BX61" s="107"/>
-      <c r="BY61" s="92" t="str">
+      <c r="BY61" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ61" s="107"/>
-      <c r="CA61" s="92" t="str">
+      <c r="CA61" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB61" s="107"/>
       <c r="CC61" s="92" t="str">
@@ -20285,14 +20295,14 @@
         <v>0</v>
       </c>
       <c r="BX62" s="107"/>
-      <c r="BY62" s="92" t="str">
+      <c r="BY62" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ62" s="107"/>
-      <c r="CA62" s="92" t="str">
+      <c r="CA62" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB62" s="107"/>
       <c r="CC62" s="92" t="str">
@@ -20533,14 +20543,14 @@
         <v>0</v>
       </c>
       <c r="BX63" s="107"/>
-      <c r="BY63" s="92" t="str">
+      <c r="BY63" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ63" s="107"/>
-      <c r="CA63" s="92" t="str">
+      <c r="CA63" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB63" s="107"/>
       <c r="CC63" s="92" t="str">
@@ -20781,14 +20791,14 @@
         <v>0</v>
       </c>
       <c r="BX64" s="107"/>
-      <c r="BY64" s="92" t="str">
+      <c r="BY64" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ64" s="107"/>
-      <c r="CA64" s="92" t="str">
+      <c r="CA64" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB64" s="107"/>
       <c r="CC64" s="92" t="str">
@@ -21029,14 +21039,14 @@
         <v>0</v>
       </c>
       <c r="BX65" s="107"/>
-      <c r="BY65" s="92" t="str">
+      <c r="BY65" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ65" s="107"/>
-      <c r="CA65" s="92" t="str">
+      <c r="CA65" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB65" s="107"/>
       <c r="CC65" s="92" t="str">
@@ -21277,14 +21287,14 @@
         <v>0</v>
       </c>
       <c r="BX66" s="107"/>
-      <c r="BY66" s="92" t="str">
+      <c r="BY66" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ66" s="107"/>
-      <c r="CA66" s="92" t="str">
+      <c r="CA66" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB66" s="107"/>
       <c r="CC66" s="92" t="str">
@@ -21525,14 +21535,14 @@
         <v>0</v>
       </c>
       <c r="BX67" s="107"/>
-      <c r="BY67" s="92" t="str">
+      <c r="BY67" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ67" s="107"/>
-      <c r="CA67" s="92" t="str">
+      <c r="CA67" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB67" s="107"/>
       <c r="CC67" s="92" t="str">
@@ -21773,14 +21783,14 @@
         <v>0</v>
       </c>
       <c r="BX68" s="107"/>
-      <c r="BY68" s="92" t="str">
+      <c r="BY68" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ68" s="107"/>
-      <c r="CA68" s="92" t="str">
+      <c r="CA68" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB68" s="107"/>
       <c r="CC68" s="92" t="str">
@@ -22021,14 +22031,14 @@
         <v>0</v>
       </c>
       <c r="BX69" s="107"/>
-      <c r="BY69" s="92" t="str">
+      <c r="BY69" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ69" s="107"/>
-      <c r="CA69" s="92" t="str">
+      <c r="CA69" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB69" s="107"/>
       <c r="CC69" s="92" t="str">
@@ -22269,14 +22279,14 @@
         <v>0</v>
       </c>
       <c r="BX70" s="107"/>
-      <c r="BY70" s="92" t="str">
+      <c r="BY70" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ70" s="107"/>
-      <c r="CA70" s="92" t="str">
+      <c r="CA70" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB70" s="107"/>
       <c r="CC70" s="92" t="str">
@@ -23097,7 +23107,7 @@
       </c>
       <c r="C15" s="57">
         <f>'RAW GRADES'!F17</f>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="D15" s="89" t="str">
         <f>'RAW GRADES'!I17</f>
@@ -23117,11 +23127,11 @@
       </c>
       <c r="H15" s="53">
         <f>'RAW GRADES'!BC17</f>
-        <v>0</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="I15" s="53">
         <f>'RAW GRADES'!BD17</f>
-        <v>0</v>
+        <v>17.57</v>
       </c>
       <c r="J15" s="52" t="str">
         <f>'RAW GRADES'!BK17</f>
@@ -23141,7 +23151,7 @@
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>0</v>
+        <v>7.0280000000000005</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -24234,19 +24244,19 @@
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
-        <v>49.166666666666664</v>
+        <v>49.375</v>
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>49.166666666666664</v>
+        <v>49.375</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>49.17</v>
+        <v>49.38</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>47.617999999999995</v>
+        <v>47.744</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -28406,7 +28416,7 @@
       <c r="D87" s="60"/>
       <c r="E87" s="255">
         <f ca="1">NOW()</f>
-        <v>43035.47561238426</v>
+        <v>43053.376611111111</v>
       </c>
       <c r="F87" s="255"/>
     </row>

--- a/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
+++ b/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
@@ -2359,91 +2359,37 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2483,129 +2429,96 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2646,6 +2559,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2704,6 +2704,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2777,102 +2873,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3876,7 +3876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3888,7 +3888,7 @@
   <dimension ref="A2:R71"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B43"/>
+      <selection activeCell="C11" sqref="C11:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3909,82 +3909,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164" t="s">
+      <c r="A6" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="165" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="165"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3992,28 +3992,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="166" t="s">
+      <c r="J6" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="166"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="169"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="3" t="s">
         <v>275</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="170" t="s">
+      <c r="E7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="170"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4021,28 +4021,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="170" t="s">
+      <c r="J7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="170"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="151"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="8" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="152" t="s">
+      <c r="E8" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="152"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4050,45 +4050,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="152" t="s">
+      <c r="J8" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="152"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159" t="s">
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="159" t="s">
+      <c r="G9" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="142" t="s">
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="142" t="s">
+      <c r="K9" s="149"/>
+      <c r="L9" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="143"/>
+      <c r="M9" s="149"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="155"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4098,14 +4098,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4126,19 +4126,19 @@
       <c r="F11" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="147"/>
-      <c r="O11" s="136" t="s">
+      <c r="G11" s="154"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="156"/>
+      <c r="O11" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="168"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4159,21 +4159,21 @@
       <c r="F12" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="131" t="s">
+      <c r="P12" s="164" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4194,21 +4194,21 @@
       <c r="F13" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="131" t="s">
+      <c r="P13" s="164" t="s">
         <v>170</v>
       </c>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4229,21 +4229,21 @@
       <c r="F14" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="128" t="s">
+      <c r="P14" s="161" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="130"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="163"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4264,21 +4264,21 @@
       <c r="F15" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="128" t="s">
+      <c r="P15" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="130"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="163"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4299,21 +4299,21 @@
       <c r="F16" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="139" t="s">
+      <c r="P16" s="169" t="s">
         <v>171</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="171"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4334,21 +4334,21 @@
       <c r="F17" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="128" t="s">
+      <c r="P17" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="163"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4369,13 +4369,13 @@
       <c r="F18" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4396,13 +4396,13 @@
       <c r="F19" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4423,13 +4423,13 @@
       <c r="F20" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4450,13 +4450,13 @@
       <c r="F21" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4480,13 +4480,13 @@
       <c r="F22" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4513,13 +4513,13 @@
       <c r="F23" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4546,13 +4546,13 @@
       <c r="F24" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4579,13 +4579,13 @@
       <c r="F25" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4612,13 +4612,13 @@
       <c r="F26" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4645,13 +4645,13 @@
       <c r="F27" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4678,13 +4678,13 @@
       <c r="F28" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4711,13 +4711,13 @@
       <c r="F29" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4744,13 +4744,13 @@
       <c r="F30" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4777,13 +4777,13 @@
       <c r="F31" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4806,13 +4806,13 @@
       <c r="F32" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4839,13 +4839,13 @@
       <c r="F33" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4866,13 +4866,13 @@
       <c r="F34" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4893,13 +4893,13 @@
       <c r="F35" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4920,13 +4920,13 @@
       <c r="F36" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4947,13 +4947,13 @@
       <c r="F37" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4974,13 +4974,13 @@
       <c r="F38" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -5001,13 +5001,13 @@
       <c r="F39" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5026,13 +5026,13 @@
       <c r="F40" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="153"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5053,13 +5053,13 @@
       <c r="F41" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="153"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5080,13 +5080,13 @@
       <c r="F42" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5107,13 +5107,13 @@
       <c r="F43" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5124,13 +5124,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="153"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5141,13 +5141,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5158,13 +5158,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="153"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5175,13 +5175,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5192,13 +5192,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="133"/>
-      <c r="K48" s="133"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="153"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5209,13 +5209,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5226,13 +5226,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="153"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5243,13 +5243,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5260,13 +5260,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="152"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5277,13 +5277,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="153"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5294,13 +5294,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="152"/>
+      <c r="L54" s="153"/>
+      <c r="M54" s="153"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5311,13 +5311,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="152"/>
+      <c r="K55" s="152"/>
+      <c r="L55" s="153"/>
+      <c r="M55" s="153"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5328,13 +5328,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="134"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="153"/>
+      <c r="M56" s="153"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5345,13 +5345,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="153"/>
+      <c r="M57" s="153"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5362,13 +5362,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="152"/>
+      <c r="L58" s="153"/>
+      <c r="M58" s="153"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5379,13 +5379,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="152"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="153"/>
+      <c r="M59" s="153"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5396,13 +5396,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="151"/>
+      <c r="I60" s="151"/>
+      <c r="J60" s="152"/>
+      <c r="K60" s="152"/>
+      <c r="L60" s="153"/>
+      <c r="M60" s="153"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5413,13 +5413,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
+      <c r="G61" s="151"/>
+      <c r="H61" s="151"/>
+      <c r="I61" s="151"/>
+      <c r="J61" s="152"/>
+      <c r="K61" s="152"/>
+      <c r="L61" s="153"/>
+      <c r="M61" s="153"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5430,13 +5430,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="152"/>
+      <c r="K62" s="152"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5447,13 +5447,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="133"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="151"/>
+      <c r="I63" s="151"/>
+      <c r="J63" s="152"/>
+      <c r="K63" s="152"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="153"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5464,13 +5464,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="133"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
+      <c r="G64" s="151"/>
+      <c r="H64" s="151"/>
+      <c r="I64" s="151"/>
+      <c r="J64" s="152"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="153"/>
+      <c r="M64" s="153"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5481,13 +5481,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="134"/>
+      <c r="G65" s="151"/>
+      <c r="H65" s="151"/>
+      <c r="I65" s="151"/>
+      <c r="J65" s="152"/>
+      <c r="K65" s="152"/>
+      <c r="L65" s="153"/>
+      <c r="M65" s="153"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5498,13 +5498,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="133"/>
-      <c r="L66" s="134"/>
-      <c r="M66" s="134"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="151"/>
+      <c r="I66" s="151"/>
+      <c r="J66" s="152"/>
+      <c r="K66" s="152"/>
+      <c r="L66" s="153"/>
+      <c r="M66" s="153"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5515,13 +5515,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="134"/>
+      <c r="G67" s="151"/>
+      <c r="H67" s="151"/>
+      <c r="I67" s="151"/>
+      <c r="J67" s="152"/>
+      <c r="K67" s="152"/>
+      <c r="L67" s="153"/>
+      <c r="M67" s="153"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5532,13 +5532,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
+      <c r="J68" s="152"/>
+      <c r="K68" s="152"/>
+      <c r="L68" s="153"/>
+      <c r="M68" s="153"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5549,13 +5549,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="133"/>
-      <c r="L69" s="134"/>
-      <c r="M69" s="134"/>
+      <c r="G69" s="151"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="151"/>
+      <c r="J69" s="152"/>
+      <c r="K69" s="152"/>
+      <c r="L69" s="153"/>
+      <c r="M69" s="153"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5566,13 +5566,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="152"/>
+      <c r="K70" s="152"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="153"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5583,13 +5583,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="133"/>
-      <c r="L71" s="134"/>
-      <c r="M71" s="134"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="151"/>
+      <c r="I71" s="151"/>
+      <c r="J71" s="152"/>
+      <c r="K71" s="152"/>
+      <c r="L71" s="153"/>
+      <c r="M71" s="153"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5597,195 +5597,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5810,6 +5621,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="equal">
@@ -6110,9 +6110,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS34" sqref="CS34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6126,452 +6126,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="135"/>
-      <c r="BM2" s="135"/>
-      <c r="BN2" s="135"/>
-      <c r="BO2" s="135"/>
-      <c r="BP2" s="135"/>
-      <c r="BQ2" s="135"/>
-      <c r="BR2" s="135"/>
-      <c r="BS2" s="135"/>
-      <c r="BT2" s="135"/>
-      <c r="BU2" s="135"/>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="135"/>
-      <c r="BY2" s="135"/>
-      <c r="BZ2" s="135"/>
-      <c r="CA2" s="135"/>
-      <c r="CB2" s="135"/>
-      <c r="CC2" s="135"/>
-      <c r="CD2" s="135"/>
-      <c r="CE2" s="135"/>
-      <c r="CF2" s="135"/>
-      <c r="CG2" s="135"/>
-      <c r="CH2" s="135"/>
-      <c r="CI2" s="135"/>
-      <c r="CJ2" s="135"/>
-      <c r="CK2" s="135"/>
-      <c r="CL2" s="135"/>
-      <c r="CM2" s="135"/>
-      <c r="CN2" s="135"/>
-      <c r="CO2" s="135"/>
-      <c r="CP2" s="135"/>
-      <c r="CQ2" s="135"/>
-      <c r="CR2" s="135"/>
-      <c r="CS2" s="135"/>
-      <c r="CT2" s="135"/>
-      <c r="CU2" s="135"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="165"/>
+      <c r="AN2" s="165"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="165"/>
+      <c r="AT2" s="165"/>
+      <c r="AU2" s="165"/>
+      <c r="AV2" s="165"/>
+      <c r="AW2" s="165"/>
+      <c r="AX2" s="165"/>
+      <c r="AY2" s="165"/>
+      <c r="AZ2" s="165"/>
+      <c r="BA2" s="165"/>
+      <c r="BB2" s="165"/>
+      <c r="BC2" s="165"/>
+      <c r="BD2" s="165"/>
+      <c r="BE2" s="165"/>
+      <c r="BF2" s="165"/>
+      <c r="BG2" s="165"/>
+      <c r="BH2" s="165"/>
+      <c r="BI2" s="165"/>
+      <c r="BJ2" s="165"/>
+      <c r="BK2" s="165"/>
+      <c r="BL2" s="165"/>
+      <c r="BM2" s="165"/>
+      <c r="BN2" s="165"/>
+      <c r="BO2" s="165"/>
+      <c r="BP2" s="165"/>
+      <c r="BQ2" s="165"/>
+      <c r="BR2" s="165"/>
+      <c r="BS2" s="165"/>
+      <c r="BT2" s="165"/>
+      <c r="BU2" s="165"/>
+      <c r="BV2" s="165"/>
+      <c r="BW2" s="165"/>
+      <c r="BX2" s="165"/>
+      <c r="BY2" s="165"/>
+      <c r="BZ2" s="165"/>
+      <c r="CA2" s="165"/>
+      <c r="CB2" s="165"/>
+      <c r="CC2" s="165"/>
+      <c r="CD2" s="165"/>
+      <c r="CE2" s="165"/>
+      <c r="CF2" s="165"/>
+      <c r="CG2" s="165"/>
+      <c r="CH2" s="165"/>
+      <c r="CI2" s="165"/>
+      <c r="CJ2" s="165"/>
+      <c r="CK2" s="165"/>
+      <c r="CL2" s="165"/>
+      <c r="CM2" s="165"/>
+      <c r="CN2" s="165"/>
+      <c r="CO2" s="165"/>
+      <c r="CP2" s="165"/>
+      <c r="CQ2" s="165"/>
+      <c r="CR2" s="165"/>
+      <c r="CS2" s="165"/>
+      <c r="CT2" s="165"/>
+      <c r="CU2" s="165"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="135"/>
-      <c r="BN3" s="135"/>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="135"/>
-      <c r="BR3" s="135"/>
-      <c r="BS3" s="135"/>
-      <c r="BT3" s="135"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="135"/>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
-      <c r="CG3" s="135"/>
-      <c r="CH3" s="135"/>
-      <c r="CI3" s="135"/>
-      <c r="CJ3" s="135"/>
-      <c r="CK3" s="135"/>
-      <c r="CL3" s="135"/>
-      <c r="CM3" s="135"/>
-      <c r="CN3" s="135"/>
-      <c r="CO3" s="135"/>
-      <c r="CP3" s="135"/>
-      <c r="CQ3" s="135"/>
-      <c r="CR3" s="135"/>
-      <c r="CS3" s="135"/>
-      <c r="CT3" s="135"/>
-      <c r="CU3" s="135"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="165"/>
+      <c r="AM3" s="165"/>
+      <c r="AN3" s="165"/>
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="165"/>
+      <c r="AQ3" s="165"/>
+      <c r="AR3" s="165"/>
+      <c r="AS3" s="165"/>
+      <c r="AT3" s="165"/>
+      <c r="AU3" s="165"/>
+      <c r="AV3" s="165"/>
+      <c r="AW3" s="165"/>
+      <c r="AX3" s="165"/>
+      <c r="AY3" s="165"/>
+      <c r="AZ3" s="165"/>
+      <c r="BA3" s="165"/>
+      <c r="BB3" s="165"/>
+      <c r="BC3" s="165"/>
+      <c r="BD3" s="165"/>
+      <c r="BE3" s="165"/>
+      <c r="BF3" s="165"/>
+      <c r="BG3" s="165"/>
+      <c r="BH3" s="165"/>
+      <c r="BI3" s="165"/>
+      <c r="BJ3" s="165"/>
+      <c r="BK3" s="165"/>
+      <c r="BL3" s="165"/>
+      <c r="BM3" s="165"/>
+      <c r="BN3" s="165"/>
+      <c r="BO3" s="165"/>
+      <c r="BP3" s="165"/>
+      <c r="BQ3" s="165"/>
+      <c r="BR3" s="165"/>
+      <c r="BS3" s="165"/>
+      <c r="BT3" s="165"/>
+      <c r="BU3" s="165"/>
+      <c r="BV3" s="165"/>
+      <c r="BW3" s="165"/>
+      <c r="BX3" s="165"/>
+      <c r="BY3" s="165"/>
+      <c r="BZ3" s="165"/>
+      <c r="CA3" s="165"/>
+      <c r="CB3" s="165"/>
+      <c r="CC3" s="165"/>
+      <c r="CD3" s="165"/>
+      <c r="CE3" s="165"/>
+      <c r="CF3" s="165"/>
+      <c r="CG3" s="165"/>
+      <c r="CH3" s="165"/>
+      <c r="CI3" s="165"/>
+      <c r="CJ3" s="165"/>
+      <c r="CK3" s="165"/>
+      <c r="CL3" s="165"/>
+      <c r="CM3" s="165"/>
+      <c r="CN3" s="165"/>
+      <c r="CO3" s="165"/>
+      <c r="CP3" s="165"/>
+      <c r="CQ3" s="165"/>
+      <c r="CR3" s="165"/>
+      <c r="CS3" s="165"/>
+      <c r="CT3" s="165"/>
+      <c r="CU3" s="165"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="202" t="s">
+      <c r="D5" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="203"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="203"/>
-      <c r="S5" s="203"/>
-      <c r="T5" s="203"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="203"/>
-      <c r="W5" s="203"/>
-      <c r="X5" s="203"/>
-      <c r="Y5" s="203"/>
-      <c r="Z5" s="203"/>
-      <c r="AA5" s="203"/>
-      <c r="AB5" s="203"/>
-      <c r="AC5" s="203"/>
-      <c r="AD5" s="203"/>
-      <c r="AE5" s="203"/>
-      <c r="AF5" s="203"/>
-      <c r="AG5" s="203"/>
-      <c r="AH5" s="203"/>
-      <c r="AI5" s="203"/>
-      <c r="AJ5" s="203"/>
-      <c r="AK5" s="203"/>
-      <c r="AL5" s="203"/>
-      <c r="AM5" s="203"/>
-      <c r="AN5" s="203"/>
-      <c r="AO5" s="203"/>
-      <c r="AP5" s="203"/>
-      <c r="AQ5" s="203"/>
-      <c r="AR5" s="203"/>
-      <c r="AS5" s="203"/>
-      <c r="AT5" s="203"/>
-      <c r="AU5" s="203"/>
-      <c r="AV5" s="203"/>
-      <c r="AW5" s="203"/>
-      <c r="AX5" s="203"/>
-      <c r="AY5" s="203"/>
-      <c r="AZ5" s="203"/>
-      <c r="BA5" s="203"/>
-      <c r="BB5" s="203"/>
-      <c r="BC5" s="203"/>
-      <c r="BD5" s="204"/>
-      <c r="BE5" s="205" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="178"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="178"/>
+      <c r="V5" s="178"/>
+      <c r="W5" s="178"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="178"/>
+      <c r="AA5" s="178"/>
+      <c r="AB5" s="178"/>
+      <c r="AC5" s="178"/>
+      <c r="AD5" s="178"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="178"/>
+      <c r="AG5" s="178"/>
+      <c r="AH5" s="178"/>
+      <c r="AI5" s="178"/>
+      <c r="AJ5" s="178"/>
+      <c r="AK5" s="178"/>
+      <c r="AL5" s="178"/>
+      <c r="AM5" s="178"/>
+      <c r="AN5" s="178"/>
+      <c r="AO5" s="178"/>
+      <c r="AP5" s="178"/>
+      <c r="AQ5" s="178"/>
+      <c r="AR5" s="178"/>
+      <c r="AS5" s="178"/>
+      <c r="AT5" s="178"/>
+      <c r="AU5" s="178"/>
+      <c r="AV5" s="178"/>
+      <c r="AW5" s="178"/>
+      <c r="AX5" s="178"/>
+      <c r="AY5" s="178"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="178"/>
+      <c r="BB5" s="178"/>
+      <c r="BC5" s="178"/>
+      <c r="BD5" s="179"/>
+      <c r="BE5" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="206"/>
-      <c r="BG5" s="206"/>
-      <c r="BH5" s="206"/>
-      <c r="BI5" s="206"/>
-      <c r="BJ5" s="206"/>
-      <c r="BK5" s="206"/>
-      <c r="BL5" s="206"/>
-      <c r="BM5" s="206"/>
-      <c r="BN5" s="206"/>
-      <c r="BO5" s="206"/>
-      <c r="BP5" s="206"/>
-      <c r="BQ5" s="206"/>
-      <c r="BR5" s="206"/>
-      <c r="BS5" s="206"/>
-      <c r="BT5" s="206"/>
-      <c r="BU5" s="206"/>
-      <c r="BV5" s="206"/>
-      <c r="BW5" s="206"/>
-      <c r="BX5" s="206"/>
-      <c r="BY5" s="206"/>
-      <c r="BZ5" s="206"/>
-      <c r="CA5" s="206"/>
-      <c r="CB5" s="206"/>
-      <c r="CC5" s="206"/>
-      <c r="CD5" s="206"/>
-      <c r="CE5" s="206"/>
-      <c r="CF5" s="206"/>
-      <c r="CG5" s="206"/>
-      <c r="CH5" s="206"/>
-      <c r="CI5" s="206"/>
-      <c r="CJ5" s="206"/>
-      <c r="CK5" s="206"/>
-      <c r="CL5" s="206"/>
-      <c r="CM5" s="206"/>
-      <c r="CN5" s="206"/>
-      <c r="CO5" s="206"/>
-      <c r="CP5" s="206"/>
-      <c r="CQ5" s="206"/>
-      <c r="CR5" s="207"/>
-      <c r="CS5" s="194" t="s">
+      <c r="BF5" s="181"/>
+      <c r="BG5" s="181"/>
+      <c r="BH5" s="181"/>
+      <c r="BI5" s="181"/>
+      <c r="BJ5" s="181"/>
+      <c r="BK5" s="181"/>
+      <c r="BL5" s="181"/>
+      <c r="BM5" s="181"/>
+      <c r="BN5" s="181"/>
+      <c r="BO5" s="181"/>
+      <c r="BP5" s="181"/>
+      <c r="BQ5" s="181"/>
+      <c r="BR5" s="181"/>
+      <c r="BS5" s="181"/>
+      <c r="BT5" s="181"/>
+      <c r="BU5" s="181"/>
+      <c r="BV5" s="181"/>
+      <c r="BW5" s="181"/>
+      <c r="BX5" s="181"/>
+      <c r="BY5" s="181"/>
+      <c r="BZ5" s="181"/>
+      <c r="CA5" s="181"/>
+      <c r="CB5" s="181"/>
+      <c r="CC5" s="181"/>
+      <c r="CD5" s="181"/>
+      <c r="CE5" s="181"/>
+      <c r="CF5" s="181"/>
+      <c r="CG5" s="181"/>
+      <c r="CH5" s="181"/>
+      <c r="CI5" s="181"/>
+      <c r="CJ5" s="181"/>
+      <c r="CK5" s="181"/>
+      <c r="CL5" s="181"/>
+      <c r="CM5" s="181"/>
+      <c r="CN5" s="181"/>
+      <c r="CO5" s="181"/>
+      <c r="CP5" s="181"/>
+      <c r="CQ5" s="181"/>
+      <c r="CR5" s="182"/>
+      <c r="CS5" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="195"/>
-      <c r="CU5" s="196"/>
+      <c r="CT5" s="188"/>
+      <c r="CU5" s="189"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="199"/>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="177" t="s">
+      <c r="A6" s="174"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="180" t="s">
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="180"/>
-      <c r="T6" s="180"/>
-      <c r="U6" s="180"/>
-      <c r="V6" s="180"/>
-      <c r="W6" s="180"/>
-      <c r="X6" s="180"/>
-      <c r="Y6" s="180"/>
-      <c r="Z6" s="180"/>
-      <c r="AA6" s="180"/>
-      <c r="AB6" s="180"/>
-      <c r="AC6" s="180"/>
-      <c r="AD6" s="180"/>
-      <c r="AE6" s="180"/>
-      <c r="AF6" s="180"/>
-      <c r="AG6" s="180"/>
-      <c r="AH6" s="180"/>
-      <c r="AI6" s="180"/>
-      <c r="AJ6" s="180"/>
-      <c r="AK6" s="180"/>
-      <c r="AL6" s="180"/>
-      <c r="AM6" s="180"/>
-      <c r="AN6" s="180"/>
-      <c r="AO6" s="180" t="s">
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="193"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="193"/>
+      <c r="AI6" s="193"/>
+      <c r="AJ6" s="193"/>
+      <c r="AK6" s="193"/>
+      <c r="AL6" s="193"/>
+      <c r="AM6" s="193"/>
+      <c r="AN6" s="193"/>
+      <c r="AO6" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="180"/>
-      <c r="AQ6" s="180"/>
-      <c r="AR6" s="180"/>
-      <c r="AS6" s="180" t="s">
+      <c r="AP6" s="193"/>
+      <c r="AQ6" s="193"/>
+      <c r="AR6" s="193"/>
+      <c r="AS6" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="180"/>
-      <c r="AU6" s="180"/>
-      <c r="AV6" s="180" t="s">
+      <c r="AT6" s="193"/>
+      <c r="AU6" s="193"/>
+      <c r="AV6" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="180"/>
-      <c r="AX6" s="180"/>
-      <c r="AY6" s="180"/>
-      <c r="AZ6" s="180"/>
-      <c r="BA6" s="180"/>
-      <c r="BB6" s="180"/>
-      <c r="BC6" s="187" t="s">
+      <c r="AW6" s="193"/>
+      <c r="AX6" s="193"/>
+      <c r="AY6" s="193"/>
+      <c r="AZ6" s="193"/>
+      <c r="BA6" s="193"/>
+      <c r="BB6" s="193"/>
+      <c r="BC6" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="188"/>
-      <c r="BE6" s="189" t="s">
+      <c r="BD6" s="198"/>
+      <c r="BE6" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="190"/>
-      <c r="BG6" s="190"/>
-      <c r="BH6" s="190"/>
-      <c r="BI6" s="190"/>
-      <c r="BJ6" s="190"/>
-      <c r="BK6" s="191"/>
-      <c r="BL6" s="192" t="s">
+      <c r="BF6" s="200"/>
+      <c r="BG6" s="200"/>
+      <c r="BH6" s="200"/>
+      <c r="BI6" s="200"/>
+      <c r="BJ6" s="200"/>
+      <c r="BK6" s="201"/>
+      <c r="BL6" s="202" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="190"/>
-      <c r="BN6" s="190"/>
-      <c r="BO6" s="190"/>
-      <c r="BP6" s="190"/>
-      <c r="BQ6" s="190"/>
-      <c r="BR6" s="190"/>
-      <c r="BS6" s="190"/>
-      <c r="BT6" s="190"/>
-      <c r="BU6" s="190"/>
-      <c r="BV6" s="190"/>
-      <c r="BW6" s="190"/>
-      <c r="BX6" s="190"/>
-      <c r="BY6" s="190"/>
-      <c r="BZ6" s="190"/>
-      <c r="CA6" s="190"/>
-      <c r="CB6" s="190"/>
-      <c r="CC6" s="190"/>
-      <c r="CD6" s="190"/>
-      <c r="CE6" s="190"/>
-      <c r="CF6" s="190"/>
-      <c r="CG6" s="190"/>
-      <c r="CH6" s="190"/>
-      <c r="CI6" s="190"/>
-      <c r="CJ6" s="190"/>
-      <c r="CK6" s="190"/>
-      <c r="CL6" s="190"/>
-      <c r="CM6" s="190"/>
-      <c r="CN6" s="190"/>
-      <c r="CO6" s="190"/>
-      <c r="CP6" s="190"/>
-      <c r="CQ6" s="197" t="s">
+      <c r="BM6" s="200"/>
+      <c r="BN6" s="200"/>
+      <c r="BO6" s="200"/>
+      <c r="BP6" s="200"/>
+      <c r="BQ6" s="200"/>
+      <c r="BR6" s="200"/>
+      <c r="BS6" s="200"/>
+      <c r="BT6" s="200"/>
+      <c r="BU6" s="200"/>
+      <c r="BV6" s="200"/>
+      <c r="BW6" s="200"/>
+      <c r="BX6" s="200"/>
+      <c r="BY6" s="200"/>
+      <c r="BZ6" s="200"/>
+      <c r="CA6" s="200"/>
+      <c r="CB6" s="200"/>
+      <c r="CC6" s="200"/>
+      <c r="CD6" s="200"/>
+      <c r="CE6" s="200"/>
+      <c r="CF6" s="200"/>
+      <c r="CG6" s="200"/>
+      <c r="CH6" s="200"/>
+      <c r="CI6" s="200"/>
+      <c r="CJ6" s="200"/>
+      <c r="CK6" s="200"/>
+      <c r="CL6" s="200"/>
+      <c r="CM6" s="200"/>
+      <c r="CN6" s="200"/>
+      <c r="CO6" s="200"/>
+      <c r="CP6" s="200"/>
+      <c r="CQ6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="197"/>
-      <c r="CS6" s="193" t="s">
+      <c r="CR6" s="190"/>
+      <c r="CS6" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="193" t="s">
+      <c r="CT6" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="184" t="s">
+      <c r="CU6" s="194" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6580,323 +6580,323 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="179" t="s">
+      <c r="J7" s="185" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="183">
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="186">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="183"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="179"/>
-      <c r="X7" s="179"/>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="179"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="179"/>
-      <c r="AE7" s="179"/>
-      <c r="AF7" s="179"/>
-      <c r="AG7" s="179"/>
-      <c r="AH7" s="179"/>
-      <c r="AI7" s="179"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="179"/>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="179"/>
+        <v>4</v>
+      </c>
+      <c r="U7" s="186"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185"/>
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="179"/>
-      <c r="AP7" s="179"/>
-      <c r="AQ7" s="179"/>
-      <c r="AR7" s="179"/>
-      <c r="AS7" s="183">
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185"/>
+      <c r="AS7" s="186">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="183"/>
+      <c r="AT7" s="186"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="179"/>
-      <c r="AW7" s="179"/>
-      <c r="AX7" s="179"/>
-      <c r="AY7" s="179"/>
-      <c r="AZ7" s="183">
+      <c r="AV7" s="185"/>
+      <c r="AW7" s="185"/>
+      <c r="AX7" s="185"/>
+      <c r="AY7" s="185"/>
+      <c r="AZ7" s="186">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="183"/>
+      <c r="BA7" s="186"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="187"/>
-      <c r="BD7" s="188"/>
-      <c r="BE7" s="179"/>
-      <c r="BF7" s="179"/>
-      <c r="BG7" s="179"/>
-      <c r="BH7" s="179"/>
-      <c r="BI7" s="183">
+      <c r="BC7" s="197"/>
+      <c r="BD7" s="198"/>
+      <c r="BE7" s="185"/>
+      <c r="BF7" s="185"/>
+      <c r="BG7" s="185"/>
+      <c r="BH7" s="185"/>
+      <c r="BI7" s="186">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="183"/>
+      <c r="BJ7" s="186"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="179"/>
-      <c r="BM7" s="179"/>
-      <c r="BN7" s="179"/>
-      <c r="BO7" s="179"/>
-      <c r="BP7" s="179"/>
-      <c r="BQ7" s="179"/>
-      <c r="BR7" s="179"/>
-      <c r="BS7" s="179"/>
-      <c r="BT7" s="179"/>
-      <c r="BU7" s="179"/>
-      <c r="BV7" s="179"/>
-      <c r="BW7" s="179"/>
-      <c r="BX7" s="179"/>
-      <c r="BY7" s="179"/>
-      <c r="BZ7" s="179">
+      <c r="BL7" s="185"/>
+      <c r="BM7" s="185"/>
+      <c r="BN7" s="185"/>
+      <c r="BO7" s="185"/>
+      <c r="BP7" s="185"/>
+      <c r="BQ7" s="185"/>
+      <c r="BR7" s="185"/>
+      <c r="BS7" s="185"/>
+      <c r="BT7" s="185"/>
+      <c r="BU7" s="185"/>
+      <c r="BV7" s="185"/>
+      <c r="BW7" s="185"/>
+      <c r="BX7" s="185"/>
+      <c r="BY7" s="185"/>
+      <c r="BZ7" s="185">
         <v>43052</v>
       </c>
-      <c r="CA7" s="179"/>
-      <c r="CB7" s="179"/>
-      <c r="CC7" s="179"/>
-      <c r="CD7" s="179"/>
-      <c r="CE7" s="179"/>
-      <c r="CF7" s="179"/>
-      <c r="CG7" s="179"/>
-      <c r="CH7" s="179"/>
-      <c r="CI7" s="179"/>
-      <c r="CJ7" s="179"/>
-      <c r="CK7" s="179"/>
-      <c r="CL7" s="179"/>
-      <c r="CM7" s="179"/>
-      <c r="CN7" s="183">
+      <c r="CA7" s="185"/>
+      <c r="CB7" s="185"/>
+      <c r="CC7" s="185"/>
+      <c r="CD7" s="185"/>
+      <c r="CE7" s="185"/>
+      <c r="CF7" s="185"/>
+      <c r="CG7" s="185"/>
+      <c r="CH7" s="185"/>
+      <c r="CI7" s="185"/>
+      <c r="CJ7" s="185"/>
+      <c r="CK7" s="185"/>
+      <c r="CL7" s="185"/>
+      <c r="CM7" s="185"/>
+      <c r="CN7" s="186">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>8</v>
       </c>
-      <c r="CO7" s="183"/>
+      <c r="CO7" s="186"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="197"/>
-      <c r="CR7" s="197"/>
-      <c r="CS7" s="193"/>
-      <c r="CT7" s="193"/>
-      <c r="CU7" s="185"/>
+      <c r="CQ7" s="190"/>
+      <c r="CR7" s="190"/>
+      <c r="CS7" s="172"/>
+      <c r="CT7" s="172"/>
+      <c r="CU7" s="195"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="201"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="208" t="s">
+      <c r="A8" s="174"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="183" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208" t="s">
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="172" t="s">
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172" t="s">
+      <c r="K8" s="184"/>
+      <c r="L8" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172" t="s">
+      <c r="M8" s="184"/>
+      <c r="N8" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172" t="s">
+      <c r="O8" s="184"/>
+      <c r="P8" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="172" t="s">
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172" t="s">
+      <c r="S8" s="184"/>
+      <c r="T8" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172" t="s">
+      <c r="U8" s="184"/>
+      <c r="V8" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172" t="s">
+      <c r="W8" s="184"/>
+      <c r="X8" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="172" t="s">
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172" t="s">
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172" t="s">
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="172" t="s">
+      <c r="AE8" s="184"/>
+      <c r="AF8" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="172"/>
-      <c r="AH8" s="172" t="s">
+      <c r="AG8" s="184"/>
+      <c r="AH8" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="172"/>
-      <c r="AJ8" s="172" t="s">
+      <c r="AI8" s="184"/>
+      <c r="AJ8" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="172"/>
-      <c r="AL8" s="172" t="s">
+      <c r="AK8" s="184"/>
+      <c r="AL8" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="172"/>
+      <c r="AM8" s="184"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="172" t="s">
+      <c r="AO8" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="172"/>
-      <c r="AQ8" s="172" t="s">
+      <c r="AP8" s="184"/>
+      <c r="AQ8" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="172"/>
-      <c r="AS8" s="172" t="s">
+      <c r="AR8" s="184"/>
+      <c r="AS8" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="172"/>
+      <c r="AT8" s="184"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="172" t="s">
+      <c r="AV8" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="172"/>
-      <c r="AX8" s="172" t="s">
+      <c r="AW8" s="184"/>
+      <c r="AX8" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="172"/>
-      <c r="AZ8" s="172" t="s">
+      <c r="AY8" s="184"/>
+      <c r="AZ8" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="172"/>
+      <c r="BA8" s="184"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="187"/>
-      <c r="BD8" s="188"/>
-      <c r="BE8" s="182" t="s">
+      <c r="BC8" s="197"/>
+      <c r="BD8" s="198"/>
+      <c r="BE8" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="181"/>
-      <c r="BG8" s="181" t="s">
+      <c r="BF8" s="203"/>
+      <c r="BG8" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="181"/>
-      <c r="BI8" s="181" t="s">
+      <c r="BH8" s="203"/>
+      <c r="BI8" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="181"/>
+      <c r="BJ8" s="203"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="175" t="s">
+      <c r="BL8" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="176"/>
-      <c r="BN8" s="175" t="s">
+      <c r="BM8" s="205"/>
+      <c r="BN8" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="176"/>
-      <c r="BP8" s="175" t="s">
+      <c r="BO8" s="205"/>
+      <c r="BP8" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="176"/>
-      <c r="BR8" s="175" t="s">
+      <c r="BQ8" s="205"/>
+      <c r="BR8" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="176"/>
-      <c r="BT8" s="175" t="s">
+      <c r="BS8" s="205"/>
+      <c r="BT8" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="176"/>
-      <c r="BV8" s="173" t="s">
+      <c r="BU8" s="205"/>
+      <c r="BV8" s="191" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="174"/>
-      <c r="BX8" s="173" t="s">
+      <c r="BW8" s="192"/>
+      <c r="BX8" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="174"/>
-      <c r="BZ8" s="173" t="s">
+      <c r="BY8" s="192"/>
+      <c r="BZ8" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="174"/>
-      <c r="CB8" s="173" t="s">
+      <c r="CA8" s="192"/>
+      <c r="CB8" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="174"/>
-      <c r="CD8" s="173" t="s">
+      <c r="CC8" s="192"/>
+      <c r="CD8" s="191" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="174"/>
-      <c r="CF8" s="173" t="s">
+      <c r="CE8" s="192"/>
+      <c r="CF8" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="174"/>
-      <c r="CH8" s="173" t="s">
+      <c r="CG8" s="192"/>
+      <c r="CH8" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="174"/>
-      <c r="CJ8" s="173" t="s">
+      <c r="CI8" s="192"/>
+      <c r="CJ8" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="174"/>
-      <c r="CL8" s="173" t="s">
+      <c r="CK8" s="192"/>
+      <c r="CL8" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="174"/>
-      <c r="CN8" s="173" t="s">
+      <c r="CM8" s="192"/>
+      <c r="CN8" s="191" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="174"/>
+      <c r="CO8" s="192"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="197"/>
-      <c r="CR8" s="197"/>
-      <c r="CS8" s="193"/>
-      <c r="CT8" s="193"/>
-      <c r="CU8" s="185"/>
+      <c r="CQ8" s="190"/>
+      <c r="CR8" s="190"/>
+      <c r="CS8" s="172"/>
+      <c r="CT8" s="172"/>
+      <c r="CU8" s="195"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="200"/>
-      <c r="B9" s="201"/>
-      <c r="C9" s="201"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="27">
         <v>70</v>
       </c>
@@ -6913,11 +6913,17 @@
         <v>20</v>
       </c>
       <c r="K9" s="29"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>25</v>
+      </c>
       <c r="M9" s="29"/>
-      <c r="N9" s="27"/>
+      <c r="N9" s="27">
+        <v>35</v>
+      </c>
       <c r="O9" s="29"/>
-      <c r="P9" s="27"/>
+      <c r="P9" s="27">
+        <v>15</v>
+      </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="27"/>
       <c r="S9" s="30"/>
@@ -7068,9 +7074,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="193"/>
-      <c r="CT9" s="193"/>
-      <c r="CU9" s="186"/>
+      <c r="CS9" s="172"/>
+      <c r="CT9" s="172"/>
+      <c r="CU9" s="196"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7113,19 +7119,19 @@
         <v>65</v>
       </c>
       <c r="L10" s="107"/>
-      <c r="M10" s="92" t="str">
+      <c r="M10" s="92">
         <f>IFERROR(((L10/$L$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N10" s="107"/>
-      <c r="O10" s="92" t="str">
+      <c r="O10" s="92">
         <f>IFERROR(((N10/$N$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P10" s="107"/>
-      <c r="Q10" s="92" t="str">
+      <c r="Q10" s="92">
         <f>IFERROR(((P10/$P$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R10" s="107"/>
       <c r="S10" s="92" t="str">
@@ -7157,7 +7163,7 @@
       <c r="AM10" s="93"/>
       <c r="AN10" s="95">
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="AO10" s="107"/>
       <c r="AP10" s="92" t="str">
@@ -7199,11 +7205,11 @@
       </c>
       <c r="BC10" s="98">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>28</v>
+        <v>18.25</v>
       </c>
       <c r="BD10" s="98">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>28</v>
+        <v>18.25</v>
       </c>
       <c r="BE10" s="107"/>
       <c r="BF10" s="92" t="str">
@@ -7313,7 +7319,7 @@
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>11.200000000000001</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7365,19 +7371,19 @@
         <v>65</v>
       </c>
       <c r="L11" s="108"/>
-      <c r="M11" s="92" t="str">
+      <c r="M11" s="92">
         <f t="shared" ref="M11:M70" si="4">IFERROR(((L11/$L$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N11" s="108"/>
-      <c r="O11" s="92" t="str">
+      <c r="O11" s="92">
         <f t="shared" ref="O11:O70" si="5">IFERROR(((N11/$N$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P11" s="108"/>
-      <c r="Q11" s="92" t="str">
+      <c r="Q11" s="92">
         <f t="shared" ref="Q11:Q70" si="6">IFERROR(((P11/$P$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R11" s="108"/>
       <c r="S11" s="92" t="str">
@@ -7409,7 +7415,7 @@
       <c r="AM11" s="94"/>
       <c r="AN11" s="95">
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" s="108"/>
       <c r="AP11" s="92" t="str">
@@ -7451,11 +7457,11 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>27.142857142857139</v>
+        <v>17.392857142857139</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>27.14</v>
+        <v>17.39</v>
       </c>
       <c r="BE11" s="108"/>
       <c r="BF11" s="92" t="str">
@@ -7565,7 +7571,7 @@
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>10.856000000000002</v>
+        <v>6.9560000000000004</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7617,19 +7623,19 @@
         <v>75</v>
       </c>
       <c r="L12" s="108"/>
-      <c r="M12" s="92" t="str">
+      <c r="M12" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N12" s="108"/>
-      <c r="O12" s="92" t="str">
+      <c r="O12" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P12" s="108"/>
-      <c r="Q12" s="92" t="str">
+      <c r="Q12" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R12" s="108"/>
       <c r="S12" s="92" t="str">
@@ -7661,7 +7667,7 @@
       <c r="AM12" s="94"/>
       <c r="AN12" s="95">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" s="108"/>
       <c r="AP12" s="92" t="str">
@@ -7703,11 +7709,11 @@
       </c>
       <c r="BC12" s="98">
         <f t="shared" si="18"/>
-        <v>39.857142857142861</v>
+        <v>28.607142857142858</v>
       </c>
       <c r="BD12" s="98">
         <f t="shared" si="19"/>
-        <v>39.86</v>
+        <v>28.61</v>
       </c>
       <c r="BE12" s="108"/>
       <c r="BF12" s="92" t="str">
@@ -7817,7 +7823,7 @@
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>15.944000000000001</v>
+        <v>11.444000000000001</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7869,19 +7875,19 @@
         <v>50</v>
       </c>
       <c r="L13" s="108"/>
-      <c r="M13" s="92" t="str">
+      <c r="M13" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N13" s="108"/>
-      <c r="O13" s="92" t="str">
+      <c r="O13" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P13" s="108"/>
-      <c r="Q13" s="92" t="str">
+      <c r="Q13" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R13" s="108"/>
       <c r="S13" s="92" t="str">
@@ -7913,7 +7919,7 @@
       <c r="AM13" s="94"/>
       <c r="AN13" s="95">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="AO13" s="108"/>
       <c r="AP13" s="92" t="str">
@@ -7955,11 +7961,11 @@
       </c>
       <c r="BC13" s="98">
         <f t="shared" si="18"/>
-        <v>28.857142857142854</v>
+        <v>21.357142857142854</v>
       </c>
       <c r="BD13" s="98">
         <f t="shared" si="19"/>
-        <v>28.86</v>
+        <v>21.36</v>
       </c>
       <c r="BE13" s="108"/>
       <c r="BF13" s="92" t="str">
@@ -8069,7 +8075,7 @@
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>11.544</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8121,19 +8127,19 @@
         <v>70</v>
       </c>
       <c r="L14" s="108"/>
-      <c r="M14" s="92" t="str">
+      <c r="M14" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N14" s="108"/>
-      <c r="O14" s="92" t="str">
+      <c r="O14" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P14" s="108"/>
-      <c r="Q14" s="92" t="str">
+      <c r="Q14" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R14" s="108"/>
       <c r="S14" s="92" t="str">
@@ -8165,7 +8171,7 @@
       <c r="AM14" s="94"/>
       <c r="AN14" s="95">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" s="108"/>
       <c r="AP14" s="92" t="str">
@@ -8207,11 +8213,11 @@
       </c>
       <c r="BC14" s="98">
         <f t="shared" si="18"/>
-        <v>27.714285714285715</v>
+        <v>17.214285714285715</v>
       </c>
       <c r="BD14" s="98">
         <f t="shared" si="19"/>
-        <v>27.71</v>
+        <v>17.21</v>
       </c>
       <c r="BE14" s="108"/>
       <c r="BF14" s="92" t="str">
@@ -8321,7 +8327,7 @@
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>11.084000000000001</v>
+        <v>6.8840000000000003</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8373,19 +8379,19 @@
         <v>75</v>
       </c>
       <c r="L15" s="108"/>
-      <c r="M15" s="92" t="str">
+      <c r="M15" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N15" s="108"/>
-      <c r="O15" s="92" t="str">
+      <c r="O15" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P15" s="108"/>
-      <c r="Q15" s="92" t="str">
+      <c r="Q15" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R15" s="108"/>
       <c r="S15" s="92" t="str">
@@ -8417,7 +8423,7 @@
       <c r="AM15" s="94"/>
       <c r="AN15" s="95">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" s="108"/>
       <c r="AP15" s="92" t="str">
@@ -8459,11 +8465,11 @@
       </c>
       <c r="BC15" s="98">
         <f t="shared" si="18"/>
-        <v>33.857142857142854</v>
+        <v>22.607142857142854</v>
       </c>
       <c r="BD15" s="98">
         <f t="shared" si="19"/>
-        <v>33.86</v>
+        <v>22.61</v>
       </c>
       <c r="BE15" s="108"/>
       <c r="BF15" s="92" t="str">
@@ -8573,7 +8579,7 @@
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>13.544</v>
+        <v>9.0440000000000005</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8625,19 +8631,19 @@
         <v>85</v>
       </c>
       <c r="L16" s="108"/>
-      <c r="M16" s="92" t="str">
+      <c r="M16" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N16" s="108"/>
-      <c r="O16" s="92" t="str">
+      <c r="O16" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P16" s="108"/>
-      <c r="Q16" s="92" t="str">
+      <c r="Q16" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R16" s="108"/>
       <c r="S16" s="92" t="str">
@@ -8669,7 +8675,7 @@
       <c r="AM16" s="94"/>
       <c r="AN16" s="95">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>4.25</v>
       </c>
       <c r="AO16" s="108"/>
       <c r="AP16" s="92" t="str">
@@ -8711,11 +8717,11 @@
       </c>
       <c r="BC16" s="98">
         <f t="shared" si="18"/>
-        <v>44</v>
+        <v>31.25</v>
       </c>
       <c r="BD16" s="98">
         <f t="shared" si="19"/>
-        <v>44</v>
+        <v>31.25</v>
       </c>
       <c r="BE16" s="108"/>
       <c r="BF16" s="92" t="str">
@@ -8825,7 +8831,7 @@
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>17.600000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8877,19 +8883,19 @@
         <v>0</v>
       </c>
       <c r="L17" s="108"/>
-      <c r="M17" s="92" t="str">
+      <c r="M17" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N17" s="108"/>
-      <c r="O17" s="92" t="str">
+      <c r="O17" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P17" s="108"/>
-      <c r="Q17" s="92" t="str">
+      <c r="Q17" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R17" s="108"/>
       <c r="S17" s="92" t="str">
@@ -9129,19 +9135,19 @@
         <v>0</v>
       </c>
       <c r="L18" s="108"/>
-      <c r="M18" s="92" t="str">
+      <c r="M18" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N18" s="108"/>
-      <c r="O18" s="92" t="str">
+      <c r="O18" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P18" s="108"/>
-      <c r="Q18" s="92" t="str">
+      <c r="Q18" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R18" s="108"/>
       <c r="S18" s="92" t="str">
@@ -9381,19 +9387,19 @@
         <v>0</v>
       </c>
       <c r="L19" s="108"/>
-      <c r="M19" s="92" t="str">
+      <c r="M19" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N19" s="108"/>
-      <c r="O19" s="92" t="str">
+      <c r="O19" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P19" s="108"/>
-      <c r="Q19" s="92" t="str">
+      <c r="Q19" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R19" s="108"/>
       <c r="S19" s="92" t="str">
@@ -9633,19 +9639,19 @@
         <v>50</v>
       </c>
       <c r="L20" s="108"/>
-      <c r="M20" s="92" t="str">
+      <c r="M20" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N20" s="108"/>
-      <c r="O20" s="92" t="str">
+      <c r="O20" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P20" s="108"/>
-      <c r="Q20" s="92" t="str">
+      <c r="Q20" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R20" s="108"/>
       <c r="S20" s="92" t="str">
@@ -9677,7 +9683,7 @@
       <c r="AM20" s="94"/>
       <c r="AN20" s="95">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="AO20" s="108"/>
       <c r="AP20" s="92" t="str">
@@ -9719,11 +9725,11 @@
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>26.285714285714285</v>
+        <v>18.785714285714285</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>26.29</v>
+        <v>18.79</v>
       </c>
       <c r="BE20" s="108"/>
       <c r="BF20" s="92" t="str">
@@ -9833,7 +9839,7 @@
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>10.516</v>
+        <v>7.516</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9885,19 +9891,19 @@
         <v>65</v>
       </c>
       <c r="L21" s="108"/>
-      <c r="M21" s="92" t="str">
+      <c r="M21" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N21" s="108"/>
-      <c r="O21" s="92" t="str">
+      <c r="O21" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P21" s="108"/>
-      <c r="Q21" s="92" t="str">
+      <c r="Q21" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R21" s="108"/>
       <c r="S21" s="92" t="str">
@@ -9929,7 +9935,7 @@
       <c r="AM21" s="94"/>
       <c r="AN21" s="95">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="AO21" s="108"/>
       <c r="AP21" s="92" t="str">
@@ -9971,11 +9977,11 @@
       </c>
       <c r="BC21" s="98">
         <f t="shared" si="18"/>
-        <v>29.714285714285715</v>
+        <v>19.964285714285715</v>
       </c>
       <c r="BD21" s="98">
         <f t="shared" si="19"/>
-        <v>29.71</v>
+        <v>19.96</v>
       </c>
       <c r="BE21" s="108"/>
       <c r="BF21" s="92" t="str">
@@ -10085,7 +10091,7 @@
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>11.884</v>
+        <v>7.9840000000000009</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10137,19 +10143,19 @@
         <v>70</v>
       </c>
       <c r="L22" s="108"/>
-      <c r="M22" s="92" t="str">
+      <c r="M22" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N22" s="108"/>
-      <c r="O22" s="92" t="str">
+      <c r="O22" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P22" s="108"/>
-      <c r="Q22" s="92" t="str">
+      <c r="Q22" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R22" s="108"/>
       <c r="S22" s="92" t="str">
@@ -10181,7 +10187,7 @@
       <c r="AM22" s="94"/>
       <c r="AN22" s="95">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="AO22" s="108"/>
       <c r="AP22" s="92" t="str">
@@ -10223,11 +10229,11 @@
       </c>
       <c r="BC22" s="98">
         <f t="shared" si="18"/>
-        <v>30.285714285714285</v>
+        <v>19.785714285714285</v>
       </c>
       <c r="BD22" s="98">
         <f t="shared" si="19"/>
-        <v>30.29</v>
+        <v>19.79</v>
       </c>
       <c r="BE22" s="108"/>
       <c r="BF22" s="92" t="str">
@@ -10337,7 +10343,7 @@
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>12.116</v>
+        <v>7.9160000000000004</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10389,19 +10395,19 @@
         <v>80</v>
       </c>
       <c r="L23" s="108"/>
-      <c r="M23" s="92" t="str">
+      <c r="M23" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N23" s="108"/>
-      <c r="O23" s="92" t="str">
+      <c r="O23" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P23" s="108"/>
-      <c r="Q23" s="92" t="str">
+      <c r="Q23" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R23" s="108"/>
       <c r="S23" s="92" t="str">
@@ -10433,7 +10439,7 @@
       <c r="AM23" s="94"/>
       <c r="AN23" s="95">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AO23" s="108"/>
       <c r="AP23" s="92" t="str">
@@ -10475,11 +10481,11 @@
       </c>
       <c r="BC23" s="98">
         <f t="shared" si="18"/>
-        <v>32.285714285714285</v>
+        <v>20.285714285714285</v>
       </c>
       <c r="BD23" s="98">
         <f t="shared" si="19"/>
-        <v>32.29</v>
+        <v>20.29</v>
       </c>
       <c r="BE23" s="108"/>
       <c r="BF23" s="92" t="str">
@@ -10589,7 +10595,7 @@
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>12.916</v>
+        <v>8.1159999999999997</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10641,19 +10647,19 @@
         <v>0</v>
       </c>
       <c r="L24" s="108"/>
-      <c r="M24" s="92" t="str">
+      <c r="M24" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N24" s="108"/>
-      <c r="O24" s="92" t="str">
+      <c r="O24" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P24" s="108"/>
-      <c r="Q24" s="92" t="str">
+      <c r="Q24" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R24" s="108"/>
       <c r="S24" s="92" t="str">
@@ -10893,19 +10899,19 @@
         <v>65</v>
       </c>
       <c r="L25" s="108"/>
-      <c r="M25" s="92" t="str">
+      <c r="M25" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N25" s="108"/>
-      <c r="O25" s="92" t="str">
+      <c r="O25" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P25" s="108"/>
-      <c r="Q25" s="92" t="str">
+      <c r="Q25" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R25" s="108"/>
       <c r="S25" s="92" t="str">
@@ -10937,7 +10943,7 @@
       <c r="AM25" s="94"/>
       <c r="AN25" s="95">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="AO25" s="108"/>
       <c r="AP25" s="92" t="str">
@@ -10979,11 +10985,11 @@
       </c>
       <c r="BC25" s="98">
         <f t="shared" si="18"/>
-        <v>34.428571428571431</v>
+        <v>24.678571428571427</v>
       </c>
       <c r="BD25" s="98">
         <f t="shared" si="19"/>
-        <v>34.43</v>
+        <v>24.68</v>
       </c>
       <c r="BE25" s="108"/>
       <c r="BF25" s="92" t="str">
@@ -11093,7 +11099,7 @@
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>13.772</v>
+        <v>9.8719999999999999</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11145,19 +11151,19 @@
         <v>55.000000000000007</v>
       </c>
       <c r="L26" s="108"/>
-      <c r="M26" s="92" t="str">
+      <c r="M26" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N26" s="108"/>
-      <c r="O26" s="92" t="str">
+      <c r="O26" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P26" s="108"/>
-      <c r="Q26" s="92" t="str">
+      <c r="Q26" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R26" s="108"/>
       <c r="S26" s="92" t="str">
@@ -11189,7 +11195,7 @@
       <c r="AM26" s="94"/>
       <c r="AN26" s="95">
         <f t="shared" si="9"/>
-        <v>11.000000000000002</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="AO26" s="108"/>
       <c r="AP26" s="92" t="str">
@@ -11231,11 +11237,11 @@
       </c>
       <c r="BC26" s="98">
         <f t="shared" si="18"/>
-        <v>11.000000000000002</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="BD26" s="98">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="BE26" s="108"/>
       <c r="BF26" s="92" t="str">
@@ -11345,7 +11351,7 @@
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>4.4000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11397,19 +11403,19 @@
         <v>75</v>
       </c>
       <c r="L27" s="108"/>
-      <c r="M27" s="92" t="str">
+      <c r="M27" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N27" s="108"/>
-      <c r="O27" s="92" t="str">
+      <c r="O27" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P27" s="108"/>
-      <c r="Q27" s="92" t="str">
+      <c r="Q27" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R27" s="108"/>
       <c r="S27" s="92" t="str">
@@ -11441,7 +11447,7 @@
       <c r="AM27" s="94"/>
       <c r="AN27" s="95">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="AO27" s="108"/>
       <c r="AP27" s="92" t="str">
@@ -11483,11 +11489,11 @@
       </c>
       <c r="BC27" s="98">
         <f t="shared" si="18"/>
-        <v>31.714285714285715</v>
+        <v>20.464285714285715</v>
       </c>
       <c r="BD27" s="98">
         <f t="shared" si="19"/>
-        <v>31.71</v>
+        <v>20.46</v>
       </c>
       <c r="BE27" s="108"/>
       <c r="BF27" s="92" t="str">
@@ -11597,7 +11603,7 @@
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>12.684000000000001</v>
+        <v>8.1840000000000011</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11649,19 +11655,19 @@
         <v>50</v>
       </c>
       <c r="L28" s="108"/>
-      <c r="M28" s="92" t="str">
+      <c r="M28" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N28" s="108"/>
-      <c r="O28" s="92" t="str">
+      <c r="O28" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P28" s="108"/>
-      <c r="Q28" s="92" t="str">
+      <c r="Q28" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R28" s="108"/>
       <c r="S28" s="92" t="str">
@@ -11693,7 +11699,7 @@
       <c r="AM28" s="94"/>
       <c r="AN28" s="95">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="AO28" s="108"/>
       <c r="AP28" s="92" t="str">
@@ -11735,11 +11741,11 @@
       </c>
       <c r="BC28" s="98">
         <f t="shared" si="18"/>
-        <v>26.285714285714285</v>
+        <v>18.785714285714285</v>
       </c>
       <c r="BD28" s="98">
         <f t="shared" si="19"/>
-        <v>26.29</v>
+        <v>18.79</v>
       </c>
       <c r="BE28" s="108"/>
       <c r="BF28" s="92" t="str">
@@ -11849,7 +11855,7 @@
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>10.516</v>
+        <v>7.516</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11874,15 +11880,15 @@
         <v>Maala Mark Justine C</v>
       </c>
       <c r="D29" s="108">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E29" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>47.142857142857139</v>
       </c>
       <c r="F29" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.142857142857141</v>
       </c>
       <c r="G29" s="108"/>
       <c r="H29" s="92" t="e">
@@ -11900,20 +11906,22 @@
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="L29" s="108"/>
-      <c r="M29" s="92" t="str">
+      <c r="L29" s="108">
+        <v>7</v>
+      </c>
+      <c r="M29" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>28.000000000000004</v>
       </c>
       <c r="N29" s="108"/>
-      <c r="O29" s="92" t="str">
+      <c r="O29" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P29" s="108"/>
-      <c r="Q29" s="92" t="str">
+      <c r="Q29" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R29" s="108"/>
       <c r="S29" s="92" t="str">
@@ -11945,7 +11953,7 @@
       <c r="AM29" s="94"/>
       <c r="AN29" s="95">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>5.65</v>
       </c>
       <c r="AO29" s="108"/>
       <c r="AP29" s="92" t="str">
@@ -11987,11 +11995,11 @@
       </c>
       <c r="BC29" s="98">
         <f t="shared" si="18"/>
-        <v>17</v>
+        <v>19.792857142857141</v>
       </c>
       <c r="BD29" s="98">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>19.79</v>
       </c>
       <c r="BE29" s="108"/>
       <c r="BF29" s="92" t="str">
@@ -12101,7 +12109,7 @@
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>6.8000000000000007</v>
+        <v>7.9160000000000004</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12153,19 +12161,19 @@
         <v>0</v>
       </c>
       <c r="L30" s="108"/>
-      <c r="M30" s="92" t="str">
+      <c r="M30" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N30" s="108"/>
-      <c r="O30" s="92" t="str">
+      <c r="O30" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P30" s="108"/>
-      <c r="Q30" s="92" t="str">
+      <c r="Q30" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R30" s="108"/>
       <c r="S30" s="92" t="str">
@@ -12405,19 +12413,19 @@
         <v>0</v>
       </c>
       <c r="L31" s="108"/>
-      <c r="M31" s="92" t="str">
+      <c r="M31" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N31" s="108"/>
-      <c r="O31" s="92" t="str">
+      <c r="O31" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P31" s="108"/>
-      <c r="Q31" s="92" t="str">
+      <c r="Q31" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R31" s="108"/>
       <c r="S31" s="92" t="str">
@@ -12657,19 +12665,19 @@
         <v>55.000000000000007</v>
       </c>
       <c r="L32" s="108"/>
-      <c r="M32" s="92" t="str">
+      <c r="M32" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N32" s="108"/>
-      <c r="O32" s="92" t="str">
+      <c r="O32" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P32" s="108"/>
-      <c r="Q32" s="92" t="str">
+      <c r="Q32" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R32" s="108"/>
       <c r="S32" s="92" t="str">
@@ -12701,7 +12709,7 @@
       <c r="AM32" s="94"/>
       <c r="AN32" s="95">
         <f t="shared" si="9"/>
-        <v>11.000000000000002</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="AO32" s="108"/>
       <c r="AP32" s="92" t="str">
@@ -12743,11 +12751,11 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>28.571428571428577</v>
+        <v>20.321428571428573</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>28.57</v>
+        <v>20.32</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92" t="str">
@@ -12857,7 +12865,7 @@
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>11.428000000000001</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12909,19 +12917,19 @@
         <v>90</v>
       </c>
       <c r="L33" s="108"/>
-      <c r="M33" s="92" t="str">
+      <c r="M33" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N33" s="108"/>
-      <c r="O33" s="92" t="str">
+      <c r="O33" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P33" s="108"/>
-      <c r="Q33" s="92" t="str">
+      <c r="Q33" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R33" s="108"/>
       <c r="S33" s="92" t="str">
@@ -12953,7 +12961,7 @@
       <c r="AM33" s="94"/>
       <c r="AN33" s="95">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="AO33" s="108"/>
       <c r="AP33" s="92" t="str">
@@ -12995,11 +13003,11 @@
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>43.714285714285708</v>
+        <v>30.214285714285712</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>43.71</v>
+        <v>30.21</v>
       </c>
       <c r="BE33" s="108"/>
       <c r="BF33" s="92" t="str">
@@ -13109,7 +13117,7 @@
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>17.484000000000002</v>
+        <v>12.084000000000001</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13161,19 +13169,19 @@
         <v>85</v>
       </c>
       <c r="L34" s="108"/>
-      <c r="M34" s="92" t="str">
+      <c r="M34" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N34" s="108"/>
-      <c r="O34" s="92" t="str">
+      <c r="O34" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P34" s="108"/>
-      <c r="Q34" s="92" t="str">
+      <c r="Q34" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R34" s="108"/>
       <c r="S34" s="92" t="str">
@@ -13205,7 +13213,7 @@
       <c r="AM34" s="94"/>
       <c r="AN34" s="95">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>4.25</v>
       </c>
       <c r="AO34" s="108"/>
       <c r="AP34" s="92" t="str">
@@ -13247,11 +13255,11 @@
       </c>
       <c r="BC34" s="98">
         <f t="shared" si="18"/>
-        <v>45.285714285714278</v>
+        <v>32.535714285714278</v>
       </c>
       <c r="BD34" s="98">
         <f t="shared" si="19"/>
-        <v>45.29</v>
+        <v>32.54</v>
       </c>
       <c r="BE34" s="108"/>
       <c r="BF34" s="92" t="str">
@@ -13377,7 +13385,7 @@
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>47.744</v>
+        <v>42.643999999999998</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13429,19 +13437,19 @@
         <v>70</v>
       </c>
       <c r="L35" s="108"/>
-      <c r="M35" s="92" t="str">
+      <c r="M35" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N35" s="108"/>
-      <c r="O35" s="92" t="str">
+      <c r="O35" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P35" s="108"/>
-      <c r="Q35" s="92" t="str">
+      <c r="Q35" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R35" s="108"/>
       <c r="S35" s="92" t="str">
@@ -13473,7 +13481,7 @@
       <c r="AM35" s="94"/>
       <c r="AN35" s="95">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="AO35" s="108"/>
       <c r="AP35" s="92" t="str">
@@ -13515,11 +13523,11 @@
       </c>
       <c r="BC35" s="98">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="BD35" s="98">
         <f t="shared" si="19"/>
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="BE35" s="108"/>
       <c r="BF35" s="92" t="str">
@@ -13629,7 +13637,7 @@
       </c>
       <c r="CS35" s="104">
         <f t="shared" si="45"/>
-        <v>10.4</v>
+        <v>6.2</v>
       </c>
       <c r="CT35" s="104">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13681,19 +13689,19 @@
         <v>70</v>
       </c>
       <c r="L36" s="108"/>
-      <c r="M36" s="92" t="str">
+      <c r="M36" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N36" s="108"/>
-      <c r="O36" s="92" t="str">
+      <c r="O36" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P36" s="108"/>
-      <c r="Q36" s="92" t="str">
+      <c r="Q36" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R36" s="108"/>
       <c r="S36" s="92" t="str">
@@ -13725,7 +13733,7 @@
       <c r="AM36" s="94"/>
       <c r="AN36" s="95">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="AO36" s="108"/>
       <c r="AP36" s="92" t="str">
@@ -13767,11 +13775,11 @@
       </c>
       <c r="BC36" s="98">
         <f t="shared" si="18"/>
-        <v>35.857142857142854</v>
+        <v>25.357142857142854</v>
       </c>
       <c r="BD36" s="98">
         <f t="shared" si="19"/>
-        <v>35.86</v>
+        <v>25.36</v>
       </c>
       <c r="BE36" s="108"/>
       <c r="BF36" s="92" t="str">
@@ -13881,7 +13889,7 @@
       </c>
       <c r="CS36" s="104">
         <f t="shared" si="45"/>
-        <v>14.344000000000001</v>
+        <v>10.144</v>
       </c>
       <c r="CT36" s="104">
         <f>IFERROR(VLOOKUP(CS36,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13933,19 +13941,19 @@
         <v>55.000000000000007</v>
       </c>
       <c r="L37" s="108"/>
-      <c r="M37" s="92" t="str">
+      <c r="M37" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N37" s="108"/>
-      <c r="O37" s="92" t="str">
+      <c r="O37" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P37" s="108"/>
-      <c r="Q37" s="92" t="str">
+      <c r="Q37" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R37" s="108"/>
       <c r="S37" s="92" t="str">
@@ -13977,7 +13985,7 @@
       <c r="AM37" s="94"/>
       <c r="AN37" s="95">
         <f t="shared" si="9"/>
-        <v>11.000000000000002</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="AO37" s="108"/>
       <c r="AP37" s="92" t="str">
@@ -14019,11 +14027,11 @@
       </c>
       <c r="BC37" s="98">
         <f t="shared" si="18"/>
-        <v>31.571428571428569</v>
+        <v>23.321428571428569</v>
       </c>
       <c r="BD37" s="98">
         <f t="shared" si="19"/>
-        <v>31.57</v>
+        <v>23.32</v>
       </c>
       <c r="BE37" s="108"/>
       <c r="BF37" s="92" t="str">
@@ -14133,7 +14141,7 @@
       </c>
       <c r="CS37" s="104">
         <f t="shared" si="45"/>
-        <v>12.628</v>
+        <v>9.3280000000000012</v>
       </c>
       <c r="CT37" s="104">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14185,19 +14193,19 @@
         <v>80</v>
       </c>
       <c r="L38" s="108"/>
-      <c r="M38" s="92" t="str">
+      <c r="M38" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N38" s="108"/>
-      <c r="O38" s="92" t="str">
+      <c r="O38" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P38" s="108"/>
-      <c r="Q38" s="92" t="str">
+      <c r="Q38" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R38" s="108"/>
       <c r="S38" s="92" t="str">
@@ -14229,7 +14237,7 @@
       <c r="AM38" s="94"/>
       <c r="AN38" s="95">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AO38" s="108"/>
       <c r="AP38" s="92" t="str">
@@ -14271,11 +14279,11 @@
       </c>
       <c r="BC38" s="98">
         <f t="shared" si="18"/>
-        <v>32.285714285714285</v>
+        <v>20.285714285714285</v>
       </c>
       <c r="BD38" s="98">
         <f t="shared" si="19"/>
-        <v>32.29</v>
+        <v>20.29</v>
       </c>
       <c r="BE38" s="108"/>
       <c r="BF38" s="92" t="str">
@@ -14385,7 +14393,7 @@
       </c>
       <c r="CS38" s="104">
         <f t="shared" si="45"/>
-        <v>12.916</v>
+        <v>8.1159999999999997</v>
       </c>
       <c r="CT38" s="104">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14437,19 +14445,19 @@
         <v>75</v>
       </c>
       <c r="L39" s="108"/>
-      <c r="M39" s="92" t="str">
+      <c r="M39" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N39" s="108"/>
-      <c r="O39" s="92" t="str">
+      <c r="O39" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P39" s="108"/>
-      <c r="Q39" s="92" t="str">
+      <c r="Q39" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R39" s="108"/>
       <c r="S39" s="92" t="str">
@@ -14481,7 +14489,7 @@
       <c r="AM39" s="94"/>
       <c r="AN39" s="95">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="AO39" s="108"/>
       <c r="AP39" s="92" t="str">
@@ -14523,11 +14531,11 @@
       </c>
       <c r="BC39" s="98">
         <f t="shared" si="18"/>
-        <v>39.428571428571431</v>
+        <v>28.178571428571427</v>
       </c>
       <c r="BD39" s="98">
         <f t="shared" si="19"/>
-        <v>39.43</v>
+        <v>28.18</v>
       </c>
       <c r="BE39" s="108"/>
       <c r="BF39" s="92" t="str">
@@ -14637,7 +14645,7 @@
       </c>
       <c r="CS39" s="104">
         <f t="shared" si="45"/>
-        <v>15.772</v>
+        <v>11.272</v>
       </c>
       <c r="CT39" s="104">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14689,19 +14697,19 @@
         <v>80</v>
       </c>
       <c r="L40" s="108"/>
-      <c r="M40" s="92" t="str">
+      <c r="M40" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N40" s="108"/>
-      <c r="O40" s="92" t="str">
+      <c r="O40" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P40" s="108"/>
-      <c r="Q40" s="92" t="str">
+      <c r="Q40" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R40" s="108"/>
       <c r="S40" s="92" t="str">
@@ -14733,7 +14741,7 @@
       <c r="AM40" s="94"/>
       <c r="AN40" s="95">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AO40" s="108"/>
       <c r="AP40" s="92" t="str">
@@ -14775,11 +14783,11 @@
       </c>
       <c r="BC40" s="98">
         <f t="shared" si="18"/>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BD40" s="98">
         <f t="shared" si="19"/>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="BE40" s="108"/>
       <c r="BF40" s="92" t="str">
@@ -14889,7 +14897,7 @@
       </c>
       <c r="CS40" s="104">
         <f t="shared" si="45"/>
-        <v>12.4</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="CT40" s="104">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14941,19 +14949,19 @@
         <v>35</v>
       </c>
       <c r="L41" s="108"/>
-      <c r="M41" s="92" t="str">
+      <c r="M41" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N41" s="108"/>
-      <c r="O41" s="92" t="str">
+      <c r="O41" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P41" s="108"/>
-      <c r="Q41" s="92" t="str">
+      <c r="Q41" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R41" s="108"/>
       <c r="S41" s="92" t="str">
@@ -14985,7 +14993,7 @@
       <c r="AM41" s="94"/>
       <c r="AN41" s="95">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="AO41" s="108"/>
       <c r="AP41" s="92" t="str">
@@ -15027,11 +15035,11 @@
       </c>
       <c r="BC41" s="98">
         <f t="shared" si="18"/>
-        <v>22.428571428571427</v>
+        <v>17.178571428571427</v>
       </c>
       <c r="BD41" s="98">
         <f t="shared" si="19"/>
-        <v>22.43</v>
+        <v>17.18</v>
       </c>
       <c r="BE41" s="108"/>
       <c r="BF41" s="92" t="str">
@@ -15141,7 +15149,7 @@
       </c>
       <c r="CS41" s="104">
         <f t="shared" si="45"/>
-        <v>8.9719999999999995</v>
+        <v>6.8719999999999999</v>
       </c>
       <c r="CT41" s="104">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15193,19 +15201,19 @@
         <v>40</v>
       </c>
       <c r="L42" s="108"/>
-      <c r="M42" s="92" t="str">
+      <c r="M42" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N42" s="108"/>
-      <c r="O42" s="92" t="str">
+      <c r="O42" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P42" s="108"/>
-      <c r="Q42" s="92" t="str">
+      <c r="Q42" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R42" s="108"/>
       <c r="S42" s="92" t="str">
@@ -15237,7 +15245,7 @@
       <c r="AM42" s="94"/>
       <c r="AN42" s="95">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AO42" s="108"/>
       <c r="AP42" s="92" t="str">
@@ -15279,11 +15287,11 @@
       </c>
       <c r="BC42" s="98">
         <f t="shared" si="18"/>
-        <v>24.714285714285715</v>
+        <v>18.714285714285715</v>
       </c>
       <c r="BD42" s="98">
         <f t="shared" si="19"/>
-        <v>24.71</v>
+        <v>18.71</v>
       </c>
       <c r="BE42" s="108"/>
       <c r="BF42" s="92" t="str">
@@ -15393,7 +15401,7 @@
       </c>
       <c r="CS42" s="104">
         <f t="shared" si="45"/>
-        <v>9.8840000000000003</v>
+        <v>7.4840000000000009</v>
       </c>
       <c r="CT42" s="104">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15441,19 +15449,19 @@
         <v>0</v>
       </c>
       <c r="L43" s="108"/>
-      <c r="M43" s="92" t="str">
+      <c r="M43" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N43" s="108"/>
-      <c r="O43" s="92" t="str">
+      <c r="O43" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P43" s="108"/>
-      <c r="Q43" s="92" t="str">
+      <c r="Q43" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R43" s="108"/>
       <c r="S43" s="92" t="str">
@@ -15689,19 +15697,19 @@
         <v>0</v>
       </c>
       <c r="L44" s="108"/>
-      <c r="M44" s="92" t="str">
+      <c r="M44" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N44" s="108"/>
-      <c r="O44" s="92" t="str">
+      <c r="O44" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P44" s="108"/>
-      <c r="Q44" s="92" t="str">
+      <c r="Q44" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R44" s="108"/>
       <c r="S44" s="92" t="str">
@@ -15937,19 +15945,19 @@
         <v>0</v>
       </c>
       <c r="L45" s="108"/>
-      <c r="M45" s="92" t="str">
+      <c r="M45" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N45" s="108"/>
-      <c r="O45" s="92" t="str">
+      <c r="O45" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P45" s="108"/>
-      <c r="Q45" s="92" t="str">
+      <c r="Q45" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R45" s="108"/>
       <c r="S45" s="92" t="str">
@@ -16185,19 +16193,19 @@
         <v>0</v>
       </c>
       <c r="L46" s="108"/>
-      <c r="M46" s="92" t="str">
+      <c r="M46" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N46" s="108"/>
-      <c r="O46" s="92" t="str">
+      <c r="O46" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P46" s="108"/>
-      <c r="Q46" s="92" t="str">
+      <c r="Q46" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R46" s="108"/>
       <c r="S46" s="92" t="str">
@@ -16433,19 +16441,19 @@
         <v>0</v>
       </c>
       <c r="L47" s="108"/>
-      <c r="M47" s="92" t="str">
+      <c r="M47" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N47" s="108"/>
-      <c r="O47" s="92" t="str">
+      <c r="O47" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P47" s="108"/>
-      <c r="Q47" s="92" t="str">
+      <c r="Q47" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R47" s="108"/>
       <c r="S47" s="92" t="str">
@@ -16681,19 +16689,19 @@
         <v>0</v>
       </c>
       <c r="L48" s="108"/>
-      <c r="M48" s="92" t="str">
+      <c r="M48" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N48" s="108"/>
-      <c r="O48" s="92" t="str">
+      <c r="O48" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P48" s="108"/>
-      <c r="Q48" s="92" t="str">
+      <c r="Q48" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R48" s="108"/>
       <c r="S48" s="92" t="str">
@@ -16929,19 +16937,19 @@
         <v>0</v>
       </c>
       <c r="L49" s="108"/>
-      <c r="M49" s="92" t="str">
+      <c r="M49" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N49" s="108"/>
-      <c r="O49" s="92" t="str">
+      <c r="O49" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P49" s="108"/>
-      <c r="Q49" s="92" t="str">
+      <c r="Q49" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R49" s="108"/>
       <c r="S49" s="92" t="str">
@@ -17177,19 +17185,19 @@
         <v>0</v>
       </c>
       <c r="L50" s="108"/>
-      <c r="M50" s="92" t="str">
+      <c r="M50" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N50" s="108"/>
-      <c r="O50" s="92" t="str">
+      <c r="O50" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P50" s="108"/>
-      <c r="Q50" s="92" t="str">
+      <c r="Q50" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R50" s="108"/>
       <c r="S50" s="92" t="str">
@@ -17425,19 +17433,19 @@
         <v>0</v>
       </c>
       <c r="L51" s="108"/>
-      <c r="M51" s="92" t="str">
+      <c r="M51" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N51" s="108"/>
-      <c r="O51" s="92" t="str">
+      <c r="O51" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P51" s="108"/>
-      <c r="Q51" s="92" t="str">
+      <c r="Q51" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R51" s="108"/>
       <c r="S51" s="92" t="str">
@@ -17673,19 +17681,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="108"/>
-      <c r="M52" s="92" t="str">
+      <c r="M52" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N52" s="108"/>
-      <c r="O52" s="92" t="str">
+      <c r="O52" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P52" s="108"/>
-      <c r="Q52" s="92" t="str">
+      <c r="Q52" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R52" s="108"/>
       <c r="S52" s="92" t="str">
@@ -17921,19 +17929,19 @@
         <v>0</v>
       </c>
       <c r="L53" s="108"/>
-      <c r="M53" s="92" t="str">
+      <c r="M53" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N53" s="108"/>
-      <c r="O53" s="92" t="str">
+      <c r="O53" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P53" s="108"/>
-      <c r="Q53" s="92" t="str">
+      <c r="Q53" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R53" s="108"/>
       <c r="S53" s="92" t="str">
@@ -18169,19 +18177,19 @@
         <v>0</v>
       </c>
       <c r="L54" s="108"/>
-      <c r="M54" s="92" t="str">
+      <c r="M54" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N54" s="108"/>
-      <c r="O54" s="92" t="str">
+      <c r="O54" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P54" s="108"/>
-      <c r="Q54" s="92" t="str">
+      <c r="Q54" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R54" s="108"/>
       <c r="S54" s="92" t="str">
@@ -18417,19 +18425,19 @@
         <v>0</v>
       </c>
       <c r="L55" s="108"/>
-      <c r="M55" s="92" t="str">
+      <c r="M55" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N55" s="108"/>
-      <c r="O55" s="92" t="str">
+      <c r="O55" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P55" s="108"/>
-      <c r="Q55" s="92" t="str">
+      <c r="Q55" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R55" s="108"/>
       <c r="S55" s="92" t="str">
@@ -18665,19 +18673,19 @@
         <v>0</v>
       </c>
       <c r="L56" s="108"/>
-      <c r="M56" s="92" t="str">
+      <c r="M56" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N56" s="108"/>
-      <c r="O56" s="92" t="str">
+      <c r="O56" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P56" s="108"/>
-      <c r="Q56" s="92" t="str">
+      <c r="Q56" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R56" s="108"/>
       <c r="S56" s="92" t="str">
@@ -18913,19 +18921,19 @@
         <v>0</v>
       </c>
       <c r="L57" s="108"/>
-      <c r="M57" s="92" t="str">
+      <c r="M57" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N57" s="108"/>
-      <c r="O57" s="92" t="str">
+      <c r="O57" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P57" s="108"/>
-      <c r="Q57" s="92" t="str">
+      <c r="Q57" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R57" s="108"/>
       <c r="S57" s="92" t="str">
@@ -19161,19 +19169,19 @@
         <v>0</v>
       </c>
       <c r="L58" s="108"/>
-      <c r="M58" s="92" t="str">
+      <c r="M58" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N58" s="108"/>
-      <c r="O58" s="92" t="str">
+      <c r="O58" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P58" s="108"/>
-      <c r="Q58" s="92" t="str">
+      <c r="Q58" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R58" s="108"/>
       <c r="S58" s="92" t="str">
@@ -19409,19 +19417,19 @@
         <v>0</v>
       </c>
       <c r="L59" s="108"/>
-      <c r="M59" s="92" t="str">
+      <c r="M59" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N59" s="108"/>
-      <c r="O59" s="92" t="str">
+      <c r="O59" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P59" s="108"/>
-      <c r="Q59" s="92" t="str">
+      <c r="Q59" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R59" s="108"/>
       <c r="S59" s="92" t="str">
@@ -19657,19 +19665,19 @@
         <v>0</v>
       </c>
       <c r="L60" s="108"/>
-      <c r="M60" s="92" t="str">
+      <c r="M60" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N60" s="108"/>
-      <c r="O60" s="92" t="str">
+      <c r="O60" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P60" s="108"/>
-      <c r="Q60" s="92" t="str">
+      <c r="Q60" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R60" s="108"/>
       <c r="S60" s="92" t="str">
@@ -19905,19 +19913,19 @@
         <v>0</v>
       </c>
       <c r="L61" s="108"/>
-      <c r="M61" s="92" t="str">
+      <c r="M61" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N61" s="108"/>
-      <c r="O61" s="92" t="str">
+      <c r="O61" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P61" s="108"/>
-      <c r="Q61" s="92" t="str">
+      <c r="Q61" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R61" s="108"/>
       <c r="S61" s="92" t="str">
@@ -20153,19 +20161,19 @@
         <v>0</v>
       </c>
       <c r="L62" s="108"/>
-      <c r="M62" s="92" t="str">
+      <c r="M62" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N62" s="108"/>
-      <c r="O62" s="92" t="str">
+      <c r="O62" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P62" s="108"/>
-      <c r="Q62" s="92" t="str">
+      <c r="Q62" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R62" s="108"/>
       <c r="S62" s="92" t="str">
@@ -20401,19 +20409,19 @@
         <v>0</v>
       </c>
       <c r="L63" s="108"/>
-      <c r="M63" s="92" t="str">
+      <c r="M63" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N63" s="108"/>
-      <c r="O63" s="92" t="str">
+      <c r="O63" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P63" s="108"/>
-      <c r="Q63" s="92" t="str">
+      <c r="Q63" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R63" s="108"/>
       <c r="S63" s="92" t="str">
@@ -20649,19 +20657,19 @@
         <v>0</v>
       </c>
       <c r="L64" s="108"/>
-      <c r="M64" s="92" t="str">
+      <c r="M64" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N64" s="108"/>
-      <c r="O64" s="92" t="str">
+      <c r="O64" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P64" s="108"/>
-      <c r="Q64" s="92" t="str">
+      <c r="Q64" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R64" s="108"/>
       <c r="S64" s="92" t="str">
@@ -20897,19 +20905,19 @@
         <v>0</v>
       </c>
       <c r="L65" s="108"/>
-      <c r="M65" s="92" t="str">
+      <c r="M65" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N65" s="108"/>
-      <c r="O65" s="92" t="str">
+      <c r="O65" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P65" s="108"/>
-      <c r="Q65" s="92" t="str">
+      <c r="Q65" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R65" s="108"/>
       <c r="S65" s="92" t="str">
@@ -21145,19 +21153,19 @@
         <v>0</v>
       </c>
       <c r="L66" s="108"/>
-      <c r="M66" s="92" t="str">
+      <c r="M66" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N66" s="108"/>
-      <c r="O66" s="92" t="str">
+      <c r="O66" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P66" s="108"/>
-      <c r="Q66" s="92" t="str">
+      <c r="Q66" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R66" s="108"/>
       <c r="S66" s="92" t="str">
@@ -21393,19 +21401,19 @@
         <v>0</v>
       </c>
       <c r="L67" s="108"/>
-      <c r="M67" s="92" t="str">
+      <c r="M67" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N67" s="108"/>
-      <c r="O67" s="92" t="str">
+      <c r="O67" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P67" s="108"/>
-      <c r="Q67" s="92" t="str">
+      <c r="Q67" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R67" s="108"/>
       <c r="S67" s="92" t="str">
@@ -21641,19 +21649,19 @@
         <v>0</v>
       </c>
       <c r="L68" s="108"/>
-      <c r="M68" s="92" t="str">
+      <c r="M68" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N68" s="108"/>
-      <c r="O68" s="92" t="str">
+      <c r="O68" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P68" s="108"/>
-      <c r="Q68" s="92" t="str">
+      <c r="Q68" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R68" s="108"/>
       <c r="S68" s="92" t="str">
@@ -21889,19 +21897,19 @@
         <v>0</v>
       </c>
       <c r="L69" s="108"/>
-      <c r="M69" s="92" t="str">
+      <c r="M69" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N69" s="108"/>
-      <c r="O69" s="92" t="str">
+      <c r="O69" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P69" s="108"/>
-      <c r="Q69" s="92" t="str">
+      <c r="Q69" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R69" s="108"/>
       <c r="S69" s="92" t="str">
@@ -22137,19 +22145,19 @@
         <v>0</v>
       </c>
       <c r="L70" s="108"/>
-      <c r="M70" s="92" t="str">
+      <c r="M70" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N70" s="108"/>
-      <c r="O70" s="92" t="str">
+      <c r="O70" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P70" s="108"/>
-      <c r="Q70" s="92" t="str">
+      <c r="Q70" s="92">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="R70" s="108"/>
       <c r="S70" s="92" t="str">
@@ -22351,6 +22359,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22367,88 +22457,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -22660,7 +22668,7 @@
       </c>
       <c r="E8" s="52">
         <f>'RAW GRADES'!AN10</f>
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="F8" s="52" t="str">
         <f>'RAW GRADES'!AU10</f>
@@ -22672,11 +22680,11 @@
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>28</v>
+        <v>18.25</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>28</v>
+        <v>18.25</v>
       </c>
       <c r="J8" s="52" t="str">
         <f>'RAW GRADES'!BK10</f>
@@ -22696,7 +22704,7 @@
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>11.200000000000001</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -22725,7 +22733,7 @@
       </c>
       <c r="E9" s="52">
         <f>'RAW GRADES'!AN11</f>
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="F9" s="52" t="str">
         <f>'RAW GRADES'!AU11</f>
@@ -22737,11 +22745,11 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>27.142857142857139</v>
+        <v>17.392857142857139</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>27.14</v>
+        <v>17.39</v>
       </c>
       <c r="J9" s="52" t="str">
         <f>'RAW GRADES'!BK11</f>
@@ -22761,7 +22769,7 @@
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>10.856000000000002</v>
+        <v>6.9560000000000004</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -22790,7 +22798,7 @@
       </c>
       <c r="E10" s="52">
         <f>'RAW GRADES'!AN12</f>
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="F10" s="52" t="str">
         <f>'RAW GRADES'!AU12</f>
@@ -22802,11 +22810,11 @@
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>39.857142857142861</v>
+        <v>28.607142857142858</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>39.86</v>
+        <v>28.61</v>
       </c>
       <c r="J10" s="52" t="str">
         <f>'RAW GRADES'!BK12</f>
@@ -22826,7 +22834,7 @@
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>15.944000000000001</v>
+        <v>11.444000000000001</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -22855,7 +22863,7 @@
       </c>
       <c r="E11" s="52">
         <f>'RAW GRADES'!AN13</f>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="52" t="str">
         <f>'RAW GRADES'!AU13</f>
@@ -22867,11 +22875,11 @@
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>28.857142857142854</v>
+        <v>21.357142857142854</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>28.86</v>
+        <v>21.36</v>
       </c>
       <c r="J11" s="52" t="str">
         <f>'RAW GRADES'!BK13</f>
@@ -22891,7 +22899,7 @@
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>11.544</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -22920,7 +22928,7 @@
       </c>
       <c r="E12" s="52">
         <f>'RAW GRADES'!AN14</f>
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="F12" s="52" t="str">
         <f>'RAW GRADES'!AU14</f>
@@ -22932,11 +22940,11 @@
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>27.714285714285715</v>
+        <v>17.214285714285715</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>27.71</v>
+        <v>17.21</v>
       </c>
       <c r="J12" s="52" t="str">
         <f>'RAW GRADES'!BK14</f>
@@ -22956,7 +22964,7 @@
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>11.084000000000001</v>
+        <v>6.8840000000000003</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -22985,7 +22993,7 @@
       </c>
       <c r="E13" s="52">
         <f>'RAW GRADES'!AN15</f>
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="F13" s="52" t="str">
         <f>'RAW GRADES'!AU15</f>
@@ -22997,11 +23005,11 @@
       </c>
       <c r="H13" s="53">
         <f>'RAW GRADES'!BC15</f>
-        <v>33.857142857142854</v>
+        <v>22.607142857142854</v>
       </c>
       <c r="I13" s="53">
         <f>'RAW GRADES'!BD15</f>
-        <v>33.86</v>
+        <v>22.61</v>
       </c>
       <c r="J13" s="52" t="str">
         <f>'RAW GRADES'!BK15</f>
@@ -23021,7 +23029,7 @@
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>13.544</v>
+        <v>9.0440000000000005</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -23050,7 +23058,7 @@
       </c>
       <c r="E14" s="52">
         <f>'RAW GRADES'!AN16</f>
-        <v>17</v>
+        <v>4.25</v>
       </c>
       <c r="F14" s="52" t="str">
         <f>'RAW GRADES'!AU16</f>
@@ -23062,11 +23070,11 @@
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>44</v>
+        <v>31.25</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>44</v>
+        <v>31.25</v>
       </c>
       <c r="J14" s="52" t="str">
         <f>'RAW GRADES'!BK16</f>
@@ -23086,7 +23094,7 @@
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>17.600000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23310,7 +23318,7 @@
       </c>
       <c r="E18" s="52">
         <f>'RAW GRADES'!AN20</f>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="52" t="str">
         <f>'RAW GRADES'!AU20</f>
@@ -23322,11 +23330,11 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>26.285714285714285</v>
+        <v>18.785714285714285</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>26.29</v>
+        <v>18.79</v>
       </c>
       <c r="J18" s="52" t="str">
         <f>'RAW GRADES'!BK20</f>
@@ -23346,7 +23354,7 @@
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>10.516</v>
+        <v>7.516</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23375,7 +23383,7 @@
       </c>
       <c r="E19" s="52">
         <f>'RAW GRADES'!AN21</f>
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="F19" s="52" t="str">
         <f>'RAW GRADES'!AU21</f>
@@ -23387,11 +23395,11 @@
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>29.714285714285715</v>
+        <v>19.964285714285715</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>29.71</v>
+        <v>19.96</v>
       </c>
       <c r="J19" s="52" t="str">
         <f>'RAW GRADES'!BK21</f>
@@ -23411,7 +23419,7 @@
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>11.884</v>
+        <v>7.9840000000000009</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23440,7 +23448,7 @@
       </c>
       <c r="E20" s="52">
         <f>'RAW GRADES'!AN22</f>
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="F20" s="52" t="str">
         <f>'RAW GRADES'!AU22</f>
@@ -23452,11 +23460,11 @@
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>30.285714285714285</v>
+        <v>19.785714285714285</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>30.29</v>
+        <v>19.79</v>
       </c>
       <c r="J20" s="52" t="str">
         <f>'RAW GRADES'!BK22</f>
@@ -23476,7 +23484,7 @@
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>12.116</v>
+        <v>7.9160000000000004</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23505,7 +23513,7 @@
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F21" s="52" t="str">
         <f>'RAW GRADES'!AU23</f>
@@ -23517,11 +23525,11 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>32.285714285714285</v>
+        <v>20.285714285714285</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>32.29</v>
+        <v>20.29</v>
       </c>
       <c r="J21" s="52" t="str">
         <f>'RAW GRADES'!BK23</f>
@@ -23541,7 +23549,7 @@
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>12.916</v>
+        <v>8.1159999999999997</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23635,7 +23643,7 @@
       </c>
       <c r="E23" s="52">
         <f>'RAW GRADES'!AN25</f>
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="F23" s="52" t="str">
         <f>'RAW GRADES'!AU25</f>
@@ -23647,11 +23655,11 @@
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>34.428571428571431</v>
+        <v>24.678571428571427</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>34.43</v>
+        <v>24.68</v>
       </c>
       <c r="J23" s="52" t="str">
         <f>'RAW GRADES'!BK25</f>
@@ -23671,7 +23679,7 @@
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>13.772</v>
+        <v>9.8719999999999999</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -23700,7 +23708,7 @@
       </c>
       <c r="E24" s="52">
         <f>'RAW GRADES'!AN26</f>
-        <v>11.000000000000002</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="F24" s="52" t="str">
         <f>'RAW GRADES'!AU26</f>
@@ -23712,11 +23720,11 @@
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>11.000000000000002</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="J24" s="52" t="str">
         <f>'RAW GRADES'!BK26</f>
@@ -23736,7 +23744,7 @@
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>4.4000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -23765,7 +23773,7 @@
       </c>
       <c r="E25" s="52">
         <f>'RAW GRADES'!AN27</f>
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="F25" s="52" t="str">
         <f>'RAW GRADES'!AU27</f>
@@ -23777,11 +23785,11 @@
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>31.714285714285715</v>
+        <v>20.464285714285715</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>31.71</v>
+        <v>20.46</v>
       </c>
       <c r="J25" s="52" t="str">
         <f>'RAW GRADES'!BK27</f>
@@ -23801,7 +23809,7 @@
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>12.684000000000001</v>
+        <v>8.1840000000000011</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -23830,7 +23838,7 @@
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F26" s="52" t="str">
         <f>'RAW GRADES'!AU28</f>
@@ -23842,11 +23850,11 @@
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>26.285714285714285</v>
+        <v>18.785714285714285</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>26.29</v>
+        <v>18.79</v>
       </c>
       <c r="J26" s="52" t="str">
         <f>'RAW GRADES'!BK28</f>
@@ -23866,7 +23874,7 @@
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>10.516</v>
+        <v>7.516</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -23887,7 +23895,7 @@
       </c>
       <c r="C27" s="57">
         <f>'RAW GRADES'!F29</f>
-        <v>0</v>
+        <v>14.142857142857141</v>
       </c>
       <c r="D27" s="89" t="str">
         <f>'RAW GRADES'!I29</f>
@@ -23895,7 +23903,7 @@
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
-        <v>17</v>
+        <v>5.65</v>
       </c>
       <c r="F27" s="52" t="str">
         <f>'RAW GRADES'!AU29</f>
@@ -23907,11 +23915,11 @@
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>17</v>
+        <v>19.792857142857141</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>17</v>
+        <v>19.79</v>
       </c>
       <c r="J27" s="52" t="str">
         <f>'RAW GRADES'!BK29</f>
@@ -23931,7 +23939,7 @@
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>6.8000000000000007</v>
+        <v>7.9160000000000004</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24090,7 +24098,7 @@
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
-        <v>11.000000000000002</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="F30" s="52" t="str">
         <f>'RAW GRADES'!AU32</f>
@@ -24102,11 +24110,11 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>28.571428571428577</v>
+        <v>20.321428571428573</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>28.57</v>
+        <v>20.32</v>
       </c>
       <c r="J30" s="52" t="str">
         <f>'RAW GRADES'!BK32</f>
@@ -24126,7 +24134,7 @@
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>11.428000000000001</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24155,7 +24163,7 @@
       </c>
       <c r="E31" s="52">
         <f>'RAW GRADES'!AN33</f>
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="F31" s="52" t="str">
         <f>'RAW GRADES'!AU33</f>
@@ -24167,11 +24175,11 @@
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>43.714285714285708</v>
+        <v>30.214285714285712</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>43.71</v>
+        <v>30.21</v>
       </c>
       <c r="J31" s="52" t="str">
         <f>'RAW GRADES'!BK33</f>
@@ -24191,7 +24199,7 @@
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>17.484000000000002</v>
+        <v>12.084000000000001</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24220,7 +24228,7 @@
       </c>
       <c r="E32" s="52">
         <f>'RAW GRADES'!AN34</f>
-        <v>17</v>
+        <v>4.25</v>
       </c>
       <c r="F32" s="52" t="str">
         <f>'RAW GRADES'!AU34</f>
@@ -24232,11 +24240,11 @@
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>45.285714285714278</v>
+        <v>32.535714285714278</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>45.29</v>
+        <v>32.54</v>
       </c>
       <c r="J32" s="52" t="str">
         <f>'RAW GRADES'!BK34</f>
@@ -24256,7 +24264,7 @@
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>47.744</v>
+        <v>42.643999999999998</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -24285,7 +24293,7 @@
       </c>
       <c r="E33" s="52">
         <f>'RAW GRADES'!AN35</f>
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="F33" s="52" t="str">
         <f>'RAW GRADES'!AU35</f>
@@ -24297,11 +24305,11 @@
       </c>
       <c r="H33" s="53">
         <f>'RAW GRADES'!BC35</f>
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="I33" s="53">
         <f>'RAW GRADES'!BD35</f>
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="J33" s="52" t="str">
         <f>'RAW GRADES'!BK35</f>
@@ -24321,7 +24329,7 @@
       </c>
       <c r="N33" s="58">
         <f>'RAW GRADES'!CS35</f>
-        <v>10.4</v>
+        <v>6.2</v>
       </c>
       <c r="O33" s="56">
         <f>'RAW GRADES'!CT35</f>
@@ -24350,7 +24358,7 @@
       </c>
       <c r="E34" s="52">
         <f>'RAW GRADES'!AN36</f>
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="F34" s="52" t="str">
         <f>'RAW GRADES'!AU36</f>
@@ -24362,11 +24370,11 @@
       </c>
       <c r="H34" s="53">
         <f>'RAW GRADES'!BC36</f>
-        <v>35.857142857142854</v>
+        <v>25.357142857142854</v>
       </c>
       <c r="I34" s="53">
         <f>'RAW GRADES'!BD36</f>
-        <v>35.86</v>
+        <v>25.36</v>
       </c>
       <c r="J34" s="52" t="str">
         <f>'RAW GRADES'!BK36</f>
@@ -24386,7 +24394,7 @@
       </c>
       <c r="N34" s="58">
         <f>'RAW GRADES'!CS36</f>
-        <v>14.344000000000001</v>
+        <v>10.144</v>
       </c>
       <c r="O34" s="56">
         <f>'RAW GRADES'!CT36</f>
@@ -24415,7 +24423,7 @@
       </c>
       <c r="E35" s="52">
         <f>'RAW GRADES'!AN37</f>
-        <v>11.000000000000002</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="F35" s="52" t="str">
         <f>'RAW GRADES'!AU37</f>
@@ -24427,11 +24435,11 @@
       </c>
       <c r="H35" s="53">
         <f>'RAW GRADES'!BC37</f>
-        <v>31.571428571428569</v>
+        <v>23.321428571428569</v>
       </c>
       <c r="I35" s="53">
         <f>'RAW GRADES'!BD37</f>
-        <v>31.57</v>
+        <v>23.32</v>
       </c>
       <c r="J35" s="52" t="str">
         <f>'RAW GRADES'!BK37</f>
@@ -24451,7 +24459,7 @@
       </c>
       <c r="N35" s="58">
         <f>'RAW GRADES'!CS37</f>
-        <v>12.628</v>
+        <v>9.3280000000000012</v>
       </c>
       <c r="O35" s="56">
         <f>'RAW GRADES'!CT37</f>
@@ -24480,7 +24488,7 @@
       </c>
       <c r="E36" s="52">
         <f>'RAW GRADES'!AN38</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F36" s="52" t="str">
         <f>'RAW GRADES'!AU38</f>
@@ -24492,11 +24500,11 @@
       </c>
       <c r="H36" s="53">
         <f>'RAW GRADES'!BC38</f>
-        <v>32.285714285714285</v>
+        <v>20.285714285714285</v>
       </c>
       <c r="I36" s="53">
         <f>'RAW GRADES'!BD38</f>
-        <v>32.29</v>
+        <v>20.29</v>
       </c>
       <c r="J36" s="52" t="str">
         <f>'RAW GRADES'!BK38</f>
@@ -24516,7 +24524,7 @@
       </c>
       <c r="N36" s="58">
         <f>'RAW GRADES'!CS38</f>
-        <v>12.916</v>
+        <v>8.1159999999999997</v>
       </c>
       <c r="O36" s="56">
         <f>'RAW GRADES'!CT38</f>
@@ -24545,7 +24553,7 @@
       </c>
       <c r="E37" s="52">
         <f>'RAW GRADES'!AN39</f>
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="F37" s="52" t="str">
         <f>'RAW GRADES'!AU39</f>
@@ -24557,11 +24565,11 @@
       </c>
       <c r="H37" s="53">
         <f>'RAW GRADES'!BC39</f>
-        <v>39.428571428571431</v>
+        <v>28.178571428571427</v>
       </c>
       <c r="I37" s="53">
         <f>'RAW GRADES'!BD39</f>
-        <v>39.43</v>
+        <v>28.18</v>
       </c>
       <c r="J37" s="52" t="str">
         <f>'RAW GRADES'!BK39</f>
@@ -24581,7 +24589,7 @@
       </c>
       <c r="N37" s="58">
         <f>'RAW GRADES'!CS39</f>
-        <v>15.772</v>
+        <v>11.272</v>
       </c>
       <c r="O37" s="56">
         <f>'RAW GRADES'!CT39</f>
@@ -24610,7 +24618,7 @@
       </c>
       <c r="E38" s="52">
         <f>'RAW GRADES'!AN40</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F38" s="52" t="str">
         <f>'RAW GRADES'!AU40</f>
@@ -24622,11 +24630,11 @@
       </c>
       <c r="H38" s="53">
         <f>'RAW GRADES'!BC40</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I38" s="53">
         <f>'RAW GRADES'!BD40</f>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J38" s="52" t="str">
         <f>'RAW GRADES'!BK40</f>
@@ -24646,7 +24654,7 @@
       </c>
       <c r="N38" s="58">
         <f>'RAW GRADES'!CS40</f>
-        <v>12.4</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="O38" s="56">
         <f>'RAW GRADES'!CT40</f>
@@ -24675,7 +24683,7 @@
       </c>
       <c r="E39" s="52">
         <f>'RAW GRADES'!AN41</f>
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="F39" s="52" t="str">
         <f>'RAW GRADES'!AU41</f>
@@ -24687,11 +24695,11 @@
       </c>
       <c r="H39" s="53">
         <f>'RAW GRADES'!BC41</f>
-        <v>22.428571428571427</v>
+        <v>17.178571428571427</v>
       </c>
       <c r="I39" s="53">
         <f>'RAW GRADES'!BD41</f>
-        <v>22.43</v>
+        <v>17.18</v>
       </c>
       <c r="J39" s="52" t="str">
         <f>'RAW GRADES'!BK41</f>
@@ -24711,7 +24719,7 @@
       </c>
       <c r="N39" s="58">
         <f>'RAW GRADES'!CS41</f>
-        <v>8.9719999999999995</v>
+        <v>6.8719999999999999</v>
       </c>
       <c r="O39" s="56">
         <f>'RAW GRADES'!CT41</f>
@@ -24740,7 +24748,7 @@
       </c>
       <c r="E40" s="52">
         <f>'RAW GRADES'!AN42</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F40" s="52" t="str">
         <f>'RAW GRADES'!AU42</f>
@@ -24752,11 +24760,11 @@
       </c>
       <c r="H40" s="53">
         <f>'RAW GRADES'!BC42</f>
-        <v>24.714285714285715</v>
+        <v>18.714285714285715</v>
       </c>
       <c r="I40" s="53">
         <f>'RAW GRADES'!BD42</f>
-        <v>24.71</v>
+        <v>18.71</v>
       </c>
       <c r="J40" s="52" t="str">
         <f>'RAW GRADES'!BK42</f>
@@ -24776,7 +24784,7 @@
       </c>
       <c r="N40" s="58">
         <f>'RAW GRADES'!CS42</f>
-        <v>9.8840000000000003</v>
+        <v>7.4840000000000009</v>
       </c>
       <c r="O40" s="56">
         <f>'RAW GRADES'!CT42</f>
@@ -26663,106 +26671,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="259" t="s">
+      <c r="A4" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="260" t="s">
+      <c r="A5" s="227" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="260"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="261" t="s">
+      <c r="A7" s="228" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="261"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
+      <c r="B7" s="228"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="262"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
+      <c r="A8" s="229"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="256"/>
-      <c r="B9" s="256"/>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
+      <c r="A9" s="225"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="225"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="263"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
+      <c r="A10" s="230"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="264" t="s">
+      <c r="A11" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="264"/>
-      <c r="C11" s="264"/>
-      <c r="D11" s="264"/>
-      <c r="E11" s="264"/>
-      <c r="F11" s="264"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="231"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="262"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="262"/>
+      <c r="A12" s="229"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="229"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="265" t="str">
+      <c r="C13" s="232" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 21</v>
       </c>
-      <c r="D13" s="265"/>
-      <c r="E13" s="265"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="232"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -26770,12 +26778,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="258" t="str">
+      <c r="C14" s="224" t="str">
         <f>REGISTRATION!C6</f>
         <v>Programming I</v>
       </c>
-      <c r="D14" s="258"/>
-      <c r="E14" s="258"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -26783,12 +26791,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="244" t="str">
+      <c r="C15" s="235" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="244"/>
-      <c r="E15" s="244"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="235"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -26796,12 +26804,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="244" t="str">
+      <c r="C16" s="235" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>IT 1C</v>
       </c>
-      <c r="D16" s="244"/>
-      <c r="E16" s="244"/>
+      <c r="D16" s="235"/>
+      <c r="E16" s="235"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -26809,12 +26817,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="244" t="str">
+      <c r="C17" s="235" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="244"/>
-      <c r="E17" s="244"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="235"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26826,42 +26834,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="245" t="s">
+      <c r="A19" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="248" t="s">
+      <c r="B19" s="239" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="245" t="s">
+      <c r="C19" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="245" t="s">
+      <c r="D19" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="250" t="s">
+      <c r="E19" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="245" t="s">
+      <c r="F19" s="236" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="246"/>
-      <c r="B20" s="249"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="253"/>
+      <c r="A20" s="237"/>
+      <c r="B20" s="240"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="244"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="247"/>
+      <c r="A21" s="238"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="247"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="254"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="245"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28374,14 +28382,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="228" t="s">
+      <c r="A83" s="252" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="229"/>
-      <c r="C83" s="229"/>
-      <c r="D83" s="229"/>
-      <c r="E83" s="229"/>
-      <c r="F83" s="230"/>
+      <c r="B83" s="253"/>
+      <c r="C83" s="253"/>
+      <c r="D83" s="253"/>
+      <c r="E83" s="253"/>
+      <c r="F83" s="254"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28414,11 +28422,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="255">
+      <c r="E87" s="246">
         <f ca="1">NOW()</f>
-        <v>43053.376611111111</v>
-      </c>
-      <c r="F87" s="255"/>
+        <v>43067.725441087961</v>
+      </c>
+      <c r="F87" s="246"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28428,10 +28436,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="256" t="s">
+      <c r="E88" s="225" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="256"/>
+      <c r="F88" s="225"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28448,8 +28456,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="256"/>
-      <c r="F90" s="256"/>
+      <c r="E90" s="225"/>
+      <c r="F90" s="225"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28565,14 +28573,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="257" t="s">
+      <c r="A105" s="247" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="257"/>
-      <c r="C105" s="257"/>
-      <c r="D105" s="257"/>
-      <c r="E105" s="257"/>
-      <c r="F105" s="257"/>
+      <c r="B105" s="247"/>
+      <c r="C105" s="247"/>
+      <c r="D105" s="247"/>
+      <c r="E105" s="247"/>
+      <c r="F105" s="247"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28587,124 +28595,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="241" t="s">
+      <c r="C107" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="242"/>
-      <c r="E107" s="243" t="s">
+      <c r="D107" s="234"/>
+      <c r="E107" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="242"/>
+      <c r="F107" s="234"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="237">
+      <c r="C108" s="261">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="238"/>
-      <c r="E108" s="239">
+      <c r="D108" s="262"/>
+      <c r="E108" s="263">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="240"/>
+      <c r="F108" s="264"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="231">
+      <c r="C109" s="255">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="232"/>
-      <c r="E109" s="233">
+      <c r="D109" s="256"/>
+      <c r="E109" s="257">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="234"/>
+      <c r="F109" s="258"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="231">
+      <c r="C110" s="255">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="232"/>
-      <c r="E110" s="233">
+      <c r="D110" s="256"/>
+      <c r="E110" s="257">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="234"/>
+      <c r="F110" s="258"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="231">
+      <c r="C111" s="255">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="232"/>
-      <c r="E111" s="233">
+      <c r="D111" s="256"/>
+      <c r="E111" s="257">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="234"/>
+      <c r="F111" s="258"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="235">
-        <v>0</v>
-      </c>
-      <c r="D112" s="236"/>
-      <c r="E112" s="233">
+      <c r="C112" s="259">
+        <v>0</v>
+      </c>
+      <c r="D112" s="260"/>
+      <c r="E112" s="257">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="234"/>
+      <c r="F112" s="258"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="235">
-        <v>0</v>
-      </c>
-      <c r="D113" s="236"/>
-      <c r="E113" s="233">
+      <c r="C113" s="259">
+        <v>0</v>
+      </c>
+      <c r="D113" s="260"/>
+      <c r="E113" s="257">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="234"/>
+      <c r="F113" s="258"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="224">
+      <c r="C114" s="248">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="225"/>
-      <c r="E114" s="226">
+      <c r="D114" s="249"/>
+      <c r="E114" s="250">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="227"/>
+      <c r="F114" s="251"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -28872,32 +28880,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28914,6 +28896,32 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
+++ b/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="4305" yWindow="1680" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -780,9 +780,6 @@
     <t>Carl Russel</t>
   </si>
   <si>
-    <t>201701-069</t>
-  </si>
-  <si>
     <t>Ralph Rholwen</t>
   </si>
   <si>
@@ -925,6 +922,9 @@
   </si>
   <si>
     <t>RECITATION</t>
+  </si>
+  <si>
+    <t>201601-069</t>
   </si>
 </sst>
 </file>
@@ -3890,8 +3890,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B6" s="163"/>
       <c r="C6" s="164" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" s="164"/>
       <c r="E6" s="165" t="s">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B7" s="169"/>
       <c r="C7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -4037,10 +4037,10 @@
       </c>
       <c r="B8" s="151"/>
       <c r="C8" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="E8" s="152" t="s">
         <v>10</v>
@@ -4700,13 +4700,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="C29" s="125" t="s">
         <v>165</v>
       </c>
       <c r="D29" s="125" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29" s="125" t="s">
         <v>166</v>
@@ -4733,13 +4733,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="125" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="D30" s="125" t="s">
         <v>234</v>
-      </c>
-      <c r="D30" s="125" t="s">
-        <v>235</v>
       </c>
       <c r="E30" s="125" t="s">
         <v>169</v>
@@ -4766,13 +4766,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="125" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="125" t="s">
+      <c r="D31" s="125" t="s">
         <v>237</v>
-      </c>
-      <c r="D31" s="125" t="s">
-        <v>238</v>
       </c>
       <c r="E31" s="125" t="s">
         <v>164</v>
@@ -4795,13 +4795,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="125" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="D32" s="125" t="s">
         <v>240</v>
-      </c>
-      <c r="D32" s="125" t="s">
-        <v>241</v>
       </c>
       <c r="E32" s="125" t="s">
         <v>169</v>
@@ -4828,13 +4828,13 @@
         <v>23</v>
       </c>
       <c r="B33" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="125" t="s">
         <v>242</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="D33" s="125" t="s">
         <v>243</v>
-      </c>
-      <c r="D33" s="125" t="s">
-        <v>244</v>
       </c>
       <c r="E33" s="125" t="s">
         <v>167</v>
@@ -4855,13 +4855,13 @@
         <v>24</v>
       </c>
       <c r="B34" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="125" t="s">
+      <c r="D34" s="125" t="s">
         <v>246</v>
-      </c>
-      <c r="D34" s="125" t="s">
-        <v>247</v>
       </c>
       <c r="E34" s="125" t="s">
         <v>164</v>
@@ -4882,13 +4882,13 @@
         <v>25</v>
       </c>
       <c r="B35" s="125" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="125" t="s">
         <v>248</v>
       </c>
-      <c r="C35" s="125" t="s">
+      <c r="D35" s="125" t="s">
         <v>249</v>
-      </c>
-      <c r="D35" s="125" t="s">
-        <v>250</v>
       </c>
       <c r="E35" s="125" t="s">
         <v>164</v>
@@ -4909,13 +4909,13 @@
         <v>26</v>
       </c>
       <c r="B36" s="125" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="C36" s="125" t="s">
+      <c r="D36" s="125" t="s">
         <v>252</v>
-      </c>
-      <c r="D36" s="125" t="s">
-        <v>253</v>
       </c>
       <c r="E36" s="125" t="s">
         <v>168</v>
@@ -4936,10 +4936,10 @@
         <v>27</v>
       </c>
       <c r="B37" s="125" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="125" t="s">
         <v>254</v>
-      </c>
-      <c r="C37" s="125" t="s">
-        <v>255</v>
       </c>
       <c r="D37" s="125" t="s">
         <v>193</v>
@@ -4963,13 +4963,13 @@
         <v>28</v>
       </c>
       <c r="B38" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="D38" s="125" t="s">
         <v>257</v>
-      </c>
-      <c r="D38" s="125" t="s">
-        <v>258</v>
       </c>
       <c r="E38" s="125" t="s">
         <v>167</v>
@@ -4990,13 +4990,13 @@
         <v>29</v>
       </c>
       <c r="B39" s="125" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="125" t="s">
         <v>259</v>
       </c>
-      <c r="C39" s="125" t="s">
+      <c r="D39" s="125" t="s">
         <v>260</v>
-      </c>
-      <c r="D39" s="125" t="s">
-        <v>261</v>
       </c>
       <c r="E39" s="125" t="s">
         <v>164</v>
@@ -5017,13 +5017,13 @@
         <v>30</v>
       </c>
       <c r="B40" s="125" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="125" t="s">
+      <c r="D40" s="125" t="s">
         <v>263</v>
-      </c>
-      <c r="D40" s="125" t="s">
-        <v>264</v>
       </c>
       <c r="E40" s="125"/>
       <c r="F40" s="16" t="s">
@@ -5042,13 +5042,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="C41" s="125" t="s">
+      <c r="D41" s="125" t="s">
         <v>266</v>
-      </c>
-      <c r="D41" s="125" t="s">
-        <v>267</v>
       </c>
       <c r="E41" s="125" t="s">
         <v>164</v>
@@ -5069,13 +5069,13 @@
         <v>32</v>
       </c>
       <c r="B42" s="125" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="125" t="s">
         <v>268</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="D42" s="125" t="s">
         <v>269</v>
-      </c>
-      <c r="D42" s="125" t="s">
-        <v>270</v>
       </c>
       <c r="E42" s="125" t="s">
         <v>167</v>
@@ -5096,13 +5096,13 @@
         <v>33</v>
       </c>
       <c r="B43" s="125" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="C43" s="125" t="s">
+      <c r="D43" s="125" t="s">
         <v>272</v>
-      </c>
-      <c r="D43" s="125" t="s">
-        <v>273</v>
       </c>
       <c r="E43" s="125" t="s">
         <v>166</v>
@@ -6113,9 +6113,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6628,7 +6628,7 @@
         <v>0.2</v>
       </c>
       <c r="AO7" s="179" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AP7" s="179"/>
       <c r="AQ7" s="179"/>
@@ -6642,7 +6642,7 @@
         <v>0.1</v>
       </c>
       <c r="AV7" s="179" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AW7" s="179"/>
       <c r="AX7" s="179"/>
@@ -6917,7 +6917,9 @@
       <c r="F9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="27">
+        <v>80</v>
+      </c>
       <c r="H9" s="91"/>
       <c r="I9" s="96" t="s">
         <v>87</v>
@@ -7125,14 +7127,16 @@
         <f t="shared" ref="F10:F41" si="0">IFERROR((E10*$F$7), " ")</f>
         <v>15</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="92" t="e">
+      <c r="G10" s="107">
+        <v>43</v>
+      </c>
+      <c r="H10" s="92">
         <f>(G10/$G$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="95" t="str">
+        <v>53.75</v>
+      </c>
+      <c r="I10" s="95">
         <f t="shared" ref="I10:I41" si="1">IFERROR((H10*$I$7), "")</f>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="J10" s="107">
         <v>13</v>
@@ -7190,10 +7194,12 @@
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
         <v>5.45</v>
       </c>
-      <c r="AO10" s="107"/>
+      <c r="AO10" s="107">
+        <v>100</v>
+      </c>
       <c r="AP10" s="92">
         <f>IFERROR(((AO10/$AO$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ10" s="107"/>
       <c r="AR10" s="92" t="str">
@@ -7207,12 +7213,14 @@
       </c>
       <c r="AU10" s="95">
         <f>IFERROR(((SUM(AP10,AR10,AT10)/$AS$7)*$AU$7),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AV10" s="107"/>
+        <v>10</v>
+      </c>
+      <c r="AV10" s="107">
+        <v>100</v>
+      </c>
       <c r="AW10" s="92">
         <f>IFERROR(((AV10/$AV$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX10" s="107"/>
       <c r="AY10" s="92" t="str">
@@ -7226,15 +7234,15 @@
       </c>
       <c r="BB10" s="95">
         <f>IFERROR(((SUM(AW10,AY10,BA10)/$AZ$7)*$BB$7),"")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC10" s="98">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>20.45</v>
+        <v>56.575000000000003</v>
       </c>
       <c r="BD10" s="98">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>20.45</v>
+        <v>56.58</v>
       </c>
       <c r="BE10" s="107"/>
       <c r="BF10" s="92">
@@ -7344,7 +7352,7 @@
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>8.18</v>
+        <v>22.632000000000001</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7379,14 +7387,16 @@
         <f t="shared" si="0"/>
         <v>14.142857142857141</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="92" t="e">
+      <c r="G11" s="108">
+        <v>38</v>
+      </c>
+      <c r="H11" s="92">
         <f t="shared" ref="H11:H70" si="2">(G11/$G$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="95" t="str">
+        <v>47.5</v>
+      </c>
+      <c r="I11" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>14.25</v>
       </c>
       <c r="J11" s="108">
         <v>13</v>
@@ -7448,10 +7458,12 @@
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
         <v>15.392857142857146</v>
       </c>
-      <c r="AO11" s="108"/>
+      <c r="AO11" s="108">
+        <v>100</v>
+      </c>
       <c r="AP11" s="92">
         <f t="shared" ref="AP11:AP70" si="10">IFERROR(((AO11/$AO$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ11" s="108"/>
       <c r="AR11" s="92" t="str">
@@ -7465,12 +7477,14 @@
       </c>
       <c r="AU11" s="95">
         <f t="shared" ref="AU11:AU70" si="13">IFERROR(((SUM(AP11,AR11,AT11)/$AS$7)*$AU$7),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AV11" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV11" s="107">
+        <v>100</v>
+      </c>
       <c r="AW11" s="92">
         <f t="shared" ref="AW11:AW70" si="14">IFERROR(((AV11/$AV$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX11" s="108"/>
       <c r="AY11" s="92" t="str">
@@ -7484,15 +7498,15 @@
       </c>
       <c r="BB11" s="95">
         <f t="shared" ref="BB11:BB70" si="17">IFERROR(((SUM(AW11,AY11,BA11)/$AZ$7)*$BB$7),"")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>29.535714285714285</v>
+        <v>63.785714285714285</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>29.54</v>
+        <v>63.79</v>
       </c>
       <c r="BE11" s="108"/>
       <c r="BF11" s="92">
@@ -7602,7 +7616,7 @@
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>11.816000000000001</v>
+        <v>25.516000000000002</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7637,14 +7651,16 @@
         <f t="shared" si="0"/>
         <v>24.857142857142858</v>
       </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="92" t="e">
+      <c r="G12" s="108">
+        <v>49</v>
+      </c>
+      <c r="H12" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="95" t="str">
+        <v>61.250000000000007</v>
+      </c>
+      <c r="I12" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>18.375</v>
       </c>
       <c r="J12" s="108">
         <v>15</v>
@@ -7706,10 +7722,12 @@
         <f t="shared" si="9"/>
         <v>13.216666666666667</v>
       </c>
-      <c r="AO12" s="108"/>
+      <c r="AO12" s="108">
+        <v>100</v>
+      </c>
       <c r="AP12" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ12" s="108"/>
       <c r="AR12" s="92" t="str">
@@ -7723,12 +7741,14 @@
       </c>
       <c r="AU12" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV12" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV12" s="107">
+        <v>100</v>
+      </c>
       <c r="AW12" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX12" s="108"/>
       <c r="AY12" s="92" t="str">
@@ -7742,15 +7762,15 @@
       </c>
       <c r="BB12" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC12" s="98">
         <f t="shared" si="18"/>
-        <v>38.073809523809523</v>
+        <v>76.44880952380953</v>
       </c>
       <c r="BD12" s="98">
         <f t="shared" si="19"/>
-        <v>38.07</v>
+        <v>76.45</v>
       </c>
       <c r="BE12" s="108"/>
       <c r="BF12" s="92">
@@ -7860,7 +7880,7 @@
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>15.228000000000002</v>
+        <v>30.580000000000002</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7895,14 +7915,16 @@
         <f t="shared" si="0"/>
         <v>18.857142857142854</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="92" t="e">
+      <c r="G13" s="108">
+        <v>43</v>
+      </c>
+      <c r="H13" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="95" t="str">
+        <v>53.75</v>
+      </c>
+      <c r="I13" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="J13" s="108">
         <v>10</v>
@@ -7964,10 +7986,12 @@
         <f t="shared" si="9"/>
         <v>12.195238095238095</v>
       </c>
-      <c r="AO13" s="108"/>
+      <c r="AO13" s="108">
+        <v>100</v>
+      </c>
       <c r="AP13" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ13" s="108"/>
       <c r="AR13" s="92" t="str">
@@ -7981,12 +8005,14 @@
       </c>
       <c r="AU13" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV13" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV13" s="107">
+        <v>100</v>
+      </c>
       <c r="AW13" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX13" s="108"/>
       <c r="AY13" s="92" t="str">
@@ -8000,15 +8026,15 @@
       </c>
       <c r="BB13" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC13" s="98">
         <f t="shared" si="18"/>
-        <v>31.05238095238095</v>
+        <v>67.177380952380958</v>
       </c>
       <c r="BD13" s="98">
         <f t="shared" si="19"/>
-        <v>31.05</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="BE13" s="108"/>
       <c r="BF13" s="92">
@@ -8118,7 +8144,7 @@
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>12.420000000000002</v>
+        <v>26.872000000000003</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8153,14 +8179,16 @@
         <f t="shared" si="0"/>
         <v>13.714285714285714</v>
       </c>
-      <c r="G14" s="108"/>
-      <c r="H14" s="92" t="e">
+      <c r="G14" s="108">
+        <v>32</v>
+      </c>
+      <c r="H14" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="95" t="str">
+        <v>40</v>
+      </c>
+      <c r="I14" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="J14" s="108">
         <v>9</v>
@@ -8222,10 +8250,12 @@
         <f t="shared" si="9"/>
         <v>9.25</v>
       </c>
-      <c r="AO14" s="108"/>
+      <c r="AO14" s="108">
+        <v>100</v>
+      </c>
       <c r="AP14" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ14" s="108"/>
       <c r="AR14" s="92" t="str">
@@ -8239,12 +8269,14 @@
       </c>
       <c r="AU14" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV14" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV14" s="107">
+        <v>100</v>
+      </c>
       <c r="AW14" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX14" s="108"/>
       <c r="AY14" s="92" t="str">
@@ -8258,15 +8290,15 @@
       </c>
       <c r="BB14" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC14" s="98">
         <f t="shared" si="18"/>
-        <v>22.964285714285715</v>
+        <v>54.964285714285715</v>
       </c>
       <c r="BD14" s="98">
         <f t="shared" si="19"/>
-        <v>22.96</v>
+        <v>54.96</v>
       </c>
       <c r="BE14" s="108"/>
       <c r="BF14" s="92">
@@ -8376,7 +8408,7 @@
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>9.1840000000000011</v>
+        <v>21.984000000000002</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8411,14 +8443,16 @@
         <f t="shared" si="0"/>
         <v>18.857142857142854</v>
       </c>
-      <c r="G15" s="108"/>
-      <c r="H15" s="92" t="e">
+      <c r="G15" s="108">
+        <v>43</v>
+      </c>
+      <c r="H15" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="95" t="str">
+        <v>53.75</v>
+      </c>
+      <c r="I15" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="J15" s="108">
         <v>15</v>
@@ -8480,10 +8514,12 @@
         <f t="shared" si="9"/>
         <v>12.873809523809525</v>
       </c>
-      <c r="AO15" s="108"/>
+      <c r="AO15" s="108">
+        <v>100</v>
+      </c>
       <c r="AP15" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ15" s="108"/>
       <c r="AR15" s="92" t="str">
@@ -8497,12 +8533,14 @@
       </c>
       <c r="AU15" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV15" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV15" s="107">
+        <v>100</v>
+      </c>
       <c r="AW15" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX15" s="108"/>
       <c r="AY15" s="92" t="str">
@@ -8516,15 +8554,15 @@
       </c>
       <c r="BB15" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC15" s="98">
         <f t="shared" si="18"/>
-        <v>31.730952380952381</v>
+        <v>67.855952380952374</v>
       </c>
       <c r="BD15" s="98">
         <f t="shared" si="19"/>
-        <v>31.73</v>
+        <v>67.86</v>
       </c>
       <c r="BE15" s="108"/>
       <c r="BF15" s="92">
@@ -8634,7 +8672,7 @@
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>12.692</v>
+        <v>27.144000000000002</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8670,13 +8708,13 @@
         <v>27</v>
       </c>
       <c r="G16" s="108"/>
-      <c r="H16" s="92" t="e">
+      <c r="H16" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I16" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J16" s="108">
         <v>17</v>
@@ -8736,10 +8774,12 @@
         <f t="shared" si="9"/>
         <v>13.25</v>
       </c>
-      <c r="AO16" s="108"/>
+      <c r="AO16" s="108">
+        <v>100</v>
+      </c>
       <c r="AP16" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ16" s="108"/>
       <c r="AR16" s="92" t="str">
@@ -8753,12 +8793,14 @@
       </c>
       <c r="AU16" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV16" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV16" s="107">
+        <v>100</v>
+      </c>
       <c r="AW16" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX16" s="108"/>
       <c r="AY16" s="92" t="str">
@@ -8772,15 +8814,15 @@
       </c>
       <c r="BB16" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC16" s="98">
         <f t="shared" si="18"/>
-        <v>40.25</v>
+        <v>60.25</v>
       </c>
       <c r="BD16" s="98">
         <f t="shared" si="19"/>
-        <v>40.25</v>
+        <v>60.25</v>
       </c>
       <c r="BE16" s="108"/>
       <c r="BF16" s="92">
@@ -8890,7 +8932,7 @@
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>16.100000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8925,14 +8967,16 @@
         <f t="shared" si="0"/>
         <v>17.571428571428573</v>
       </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="92" t="e">
+      <c r="G17" s="108">
+        <v>41</v>
+      </c>
+      <c r="H17" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="95" t="str">
+        <v>51.249999999999993</v>
+      </c>
+      <c r="I17" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="J17" s="108">
         <v>13</v>
@@ -8992,10 +9036,12 @@
         <f t="shared" si="9"/>
         <v>8.5833333333333339</v>
       </c>
-      <c r="AO17" s="108"/>
+      <c r="AO17" s="108">
+        <v>100</v>
+      </c>
       <c r="AP17" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ17" s="108"/>
       <c r="AR17" s="92" t="str">
@@ -9009,12 +9055,14 @@
       </c>
       <c r="AU17" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV17" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV17" s="107">
+        <v>100</v>
+      </c>
       <c r="AW17" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX17" s="108"/>
       <c r="AY17" s="92" t="str">
@@ -9028,15 +9076,15 @@
       </c>
       <c r="BB17" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC17" s="98">
         <f t="shared" si="18"/>
-        <v>26.154761904761905</v>
+        <v>61.529761904761898</v>
       </c>
       <c r="BD17" s="98">
         <f t="shared" si="19"/>
-        <v>26.15</v>
+        <v>61.53</v>
       </c>
       <c r="BE17" s="108"/>
       <c r="BF17" s="92">
@@ -9146,7 +9194,7 @@
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>10.46</v>
+        <v>24.612000000000002</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9181,14 +9229,16 @@
         <f t="shared" si="0"/>
         <v>13.714285714285714</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="92" t="e">
+      <c r="G18" s="108">
+        <v>22</v>
+      </c>
+      <c r="H18" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="95" t="str">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="I18" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.25</v>
       </c>
       <c r="J18" s="108">
         <v>0</v>
@@ -9244,10 +9294,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="108"/>
+      <c r="AO18" s="108">
+        <v>100</v>
+      </c>
       <c r="AP18" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ18" s="108"/>
       <c r="AR18" s="92" t="str">
@@ -9261,12 +9313,14 @@
       </c>
       <c r="AU18" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV18" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV18" s="107">
+        <v>100</v>
+      </c>
       <c r="AW18" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX18" s="108"/>
       <c r="AY18" s="92" t="str">
@@ -9280,15 +9334,15 @@
       </c>
       <c r="BB18" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC18" s="98">
         <f t="shared" si="18"/>
-        <v>13.714285714285714</v>
+        <v>41.964285714285715</v>
       </c>
       <c r="BD18" s="98">
         <f t="shared" si="19"/>
-        <v>13.71</v>
+        <v>41.96</v>
       </c>
       <c r="BE18" s="108"/>
       <c r="BF18" s="92">
@@ -9398,7 +9452,7 @@
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>5.4840000000000009</v>
+        <v>16.784000000000002</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9433,14 +9487,16 @@
         <f t="shared" si="0"/>
         <v>17.142857142857142</v>
       </c>
-      <c r="G19" s="108"/>
-      <c r="H19" s="92" t="e">
+      <c r="G19" s="108">
+        <v>46</v>
+      </c>
+      <c r="H19" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="95" t="str">
+        <v>57.499999999999993</v>
+      </c>
+      <c r="I19" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>17.249999999999996</v>
       </c>
       <c r="J19" s="108">
         <v>0</v>
@@ -9496,10 +9552,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="108"/>
+      <c r="AO19" s="108">
+        <v>100</v>
+      </c>
       <c r="AP19" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ19" s="108"/>
       <c r="AR19" s="92" t="str">
@@ -9513,12 +9571,14 @@
       </c>
       <c r="AU19" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV19" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV19" s="107">
+        <v>100</v>
+      </c>
       <c r="AW19" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX19" s="108"/>
       <c r="AY19" s="92" t="str">
@@ -9532,15 +9592,15 @@
       </c>
       <c r="BB19" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC19" s="98">
         <f t="shared" si="18"/>
-        <v>17.142857142857142</v>
+        <v>54.392857142857139</v>
       </c>
       <c r="BD19" s="98">
         <f t="shared" si="19"/>
-        <v>17.14</v>
+        <v>54.39</v>
       </c>
       <c r="BE19" s="108"/>
       <c r="BF19" s="92">
@@ -9650,7 +9710,7 @@
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>6.8560000000000008</v>
+        <v>21.756</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9685,14 +9745,16 @@
         <f t="shared" si="0"/>
         <v>16.285714285714285</v>
       </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="92" t="e">
+      <c r="G20" s="108">
+        <v>33</v>
+      </c>
+      <c r="H20" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="95" t="str">
+        <v>41.25</v>
+      </c>
+      <c r="I20" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>12.375</v>
       </c>
       <c r="J20" s="108">
         <v>10</v>
@@ -9754,10 +9816,12 @@
         <f t="shared" si="9"/>
         <v>9.5952380952380949</v>
       </c>
-      <c r="AO20" s="108"/>
+      <c r="AO20" s="108">
+        <v>100</v>
+      </c>
       <c r="AP20" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ20" s="108"/>
       <c r="AR20" s="92" t="str">
@@ -9771,12 +9835,14 @@
       </c>
       <c r="AU20" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV20" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV20" s="107">
+        <v>100</v>
+      </c>
       <c r="AW20" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX20" s="108"/>
       <c r="AY20" s="92" t="str">
@@ -9790,15 +9856,15 @@
       </c>
       <c r="BB20" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>25.88095238095238</v>
+        <v>58.25595238095238</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>25.88</v>
+        <v>58.26</v>
       </c>
       <c r="BE20" s="108"/>
       <c r="BF20" s="92">
@@ -9908,7 +9974,7 @@
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>10.352</v>
+        <v>23.304000000000002</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9943,14 +10009,16 @@
         <f t="shared" si="0"/>
         <v>16.714285714285715</v>
       </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="92" t="e">
+      <c r="G21" s="108">
+        <v>38</v>
+      </c>
+      <c r="H21" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="95" t="str">
+        <v>47.5</v>
+      </c>
+      <c r="I21" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>14.25</v>
       </c>
       <c r="J21" s="108">
         <v>13</v>
@@ -10012,10 +10080,12 @@
         <f t="shared" si="9"/>
         <v>14.25</v>
       </c>
-      <c r="AO21" s="108"/>
+      <c r="AO21" s="108">
+        <v>100</v>
+      </c>
       <c r="AP21" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ21" s="108"/>
       <c r="AR21" s="92" t="str">
@@ -10029,12 +10099,14 @@
       </c>
       <c r="AU21" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV21" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV21" s="107">
+        <v>100</v>
+      </c>
       <c r="AW21" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX21" s="108"/>
       <c r="AY21" s="92" t="str">
@@ -10048,15 +10120,15 @@
       </c>
       <c r="BB21" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC21" s="98">
         <f t="shared" si="18"/>
-        <v>30.964285714285715</v>
+        <v>65.214285714285722</v>
       </c>
       <c r="BD21" s="98">
         <f t="shared" si="19"/>
-        <v>30.96</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="BE21" s="108"/>
       <c r="BF21" s="92">
@@ -10166,7 +10238,7 @@
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>12.384</v>
+        <v>26.084</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10201,14 +10273,16 @@
         <f t="shared" si="0"/>
         <v>16.285714285714285</v>
       </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="92" t="e">
+      <c r="G22" s="108">
+        <v>42</v>
+      </c>
+      <c r="H22" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="95" t="str">
+        <v>52.5</v>
+      </c>
+      <c r="I22" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15.75</v>
       </c>
       <c r="J22" s="108">
         <v>14</v>
@@ -10270,10 +10344,12 @@
         <f t="shared" si="9"/>
         <v>12.633333333333333</v>
       </c>
-      <c r="AO22" s="108"/>
+      <c r="AO22" s="108">
+        <v>100</v>
+      </c>
       <c r="AP22" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ22" s="108"/>
       <c r="AR22" s="92" t="str">
@@ -10287,12 +10363,14 @@
       </c>
       <c r="AU22" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV22" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV22" s="107">
+        <v>100</v>
+      </c>
       <c r="AW22" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX22" s="108"/>
       <c r="AY22" s="92" t="str">
@@ -10306,15 +10384,15 @@
       </c>
       <c r="BB22" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC22" s="98">
         <f t="shared" si="18"/>
-        <v>28.919047619047618</v>
+        <v>64.669047619047618</v>
       </c>
       <c r="BD22" s="98">
         <f t="shared" si="19"/>
-        <v>28.92</v>
+        <v>64.67</v>
       </c>
       <c r="BE22" s="108"/>
       <c r="BF22" s="92">
@@ -10424,7 +10502,7 @@
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>11.568000000000001</v>
+        <v>25.868000000000002</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10459,14 +10537,16 @@
         <f t="shared" si="0"/>
         <v>16.285714285714285</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="92" t="e">
+      <c r="G23" s="108">
+        <v>40</v>
+      </c>
+      <c r="H23" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="95" t="str">
+        <v>50</v>
+      </c>
+      <c r="I23" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="J23" s="108">
         <v>13</v>
@@ -10528,10 +10608,12 @@
         <f t="shared" si="9"/>
         <v>11.611904761904761</v>
       </c>
-      <c r="AO23" s="108"/>
+      <c r="AO23" s="108">
+        <v>100</v>
+      </c>
       <c r="AP23" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ23" s="108"/>
       <c r="AR23" s="92" t="str">
@@ -10545,12 +10627,14 @@
       </c>
       <c r="AU23" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV23" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV23" s="107">
+        <v>100</v>
+      </c>
       <c r="AW23" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX23" s="108"/>
       <c r="AY23" s="92" t="str">
@@ -10564,15 +10648,15 @@
       </c>
       <c r="BB23" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC23" s="98">
         <f t="shared" si="18"/>
-        <v>27.897619047619045</v>
+        <v>62.897619047619045</v>
       </c>
       <c r="BD23" s="98">
         <f t="shared" si="19"/>
-        <v>27.9</v>
+        <v>62.9</v>
       </c>
       <c r="BE23" s="108"/>
       <c r="BF23" s="92">
@@ -10682,7 +10766,7 @@
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>11.16</v>
+        <v>25.16</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10717,14 +10801,16 @@
         <f t="shared" si="0"/>
         <v>20.142857142857142</v>
       </c>
-      <c r="G24" s="108"/>
-      <c r="H24" s="92" t="e">
+      <c r="G24" s="108">
+        <v>42</v>
+      </c>
+      <c r="H24" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="95" t="str">
+        <v>52.5</v>
+      </c>
+      <c r="I24" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15.75</v>
       </c>
       <c r="J24" s="108">
         <v>15</v>
@@ -10782,10 +10868,12 @@
         <f t="shared" si="9"/>
         <v>6.3500000000000005</v>
       </c>
-      <c r="AO24" s="108"/>
+      <c r="AO24" s="108">
+        <v>100</v>
+      </c>
       <c r="AP24" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ24" s="108"/>
       <c r="AR24" s="92" t="str">
@@ -10799,12 +10887,14 @@
       </c>
       <c r="AU24" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV24" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV24" s="107">
+        <v>100</v>
+      </c>
       <c r="AW24" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX24" s="108"/>
       <c r="AY24" s="92" t="str">
@@ -10818,15 +10908,15 @@
       </c>
       <c r="BB24" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC24" s="98">
         <f t="shared" si="18"/>
-        <v>26.492857142857144</v>
+        <v>62.242857142857147</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" si="19"/>
-        <v>26.49</v>
+        <v>62.24</v>
       </c>
       <c r="BE24" s="108"/>
       <c r="BF24" s="92">
@@ -10936,7 +11026,7 @@
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>10.596</v>
+        <v>24.896000000000001</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10971,14 +11061,16 @@
         <f t="shared" si="0"/>
         <v>21.428571428571427</v>
       </c>
-      <c r="G25" s="108"/>
-      <c r="H25" s="92" t="e">
+      <c r="G25" s="108">
+        <v>48</v>
+      </c>
+      <c r="H25" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="95" t="str">
+        <v>60</v>
+      </c>
+      <c r="I25" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="J25" s="108">
         <v>15</v>
@@ -11040,10 +11132,12 @@
         <f t="shared" si="9"/>
         <v>12.111904761904761</v>
       </c>
-      <c r="AO25" s="108"/>
+      <c r="AO25" s="108">
+        <v>100</v>
+      </c>
       <c r="AP25" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ25" s="108"/>
       <c r="AR25" s="92" t="str">
@@ -11057,12 +11151,14 @@
       </c>
       <c r="AU25" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV25" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV25" s="107">
+        <v>100</v>
+      </c>
       <c r="AW25" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX25" s="108"/>
       <c r="AY25" s="92" t="str">
@@ -11076,15 +11172,15 @@
       </c>
       <c r="BB25" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC25" s="98">
         <f t="shared" si="18"/>
-        <v>33.540476190476184</v>
+        <v>71.540476190476184</v>
       </c>
       <c r="BD25" s="98">
         <f t="shared" si="19"/>
-        <v>33.54</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="BE25" s="108"/>
       <c r="BF25" s="92">
@@ -11194,7 +11290,7 @@
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>13.416</v>
+        <v>28.616000000000003</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11229,14 +11325,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="108"/>
-      <c r="H26" s="92" t="e">
+      <c r="G26" s="108">
+        <v>26</v>
+      </c>
+      <c r="H26" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="95" t="str">
+        <v>32.5</v>
+      </c>
+      <c r="I26" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>9.75</v>
       </c>
       <c r="J26" s="108">
         <v>11</v>
@@ -11245,17 +11343,23 @@
         <f t="shared" si="3"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="L26" s="108"/>
+      <c r="L26" s="108">
+        <v>0</v>
+      </c>
       <c r="M26" s="92">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N26" s="108"/>
+      <c r="N26" s="108">
+        <v>0</v>
+      </c>
       <c r="O26" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P26" s="108"/>
+      <c r="P26" s="108">
+        <v>0</v>
+      </c>
       <c r="Q26" s="92">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -11293,11 +11397,11 @@
         <v>2.7500000000000004</v>
       </c>
       <c r="AO26" s="108">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AP26" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AQ26" s="108"/>
       <c r="AR26" s="92" t="str">
@@ -11311,14 +11415,14 @@
       </c>
       <c r="AU26" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV26" s="108">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AV26" s="107">
+        <v>100</v>
       </c>
       <c r="AW26" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX26" s="108"/>
       <c r="AY26" s="92" t="str">
@@ -11332,15 +11436,15 @@
       </c>
       <c r="BB26" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC26" s="98">
         <f t="shared" si="18"/>
-        <v>2.7500000000000004</v>
+        <v>30.5</v>
       </c>
       <c r="BD26" s="98">
         <f t="shared" si="19"/>
-        <v>2.75</v>
+        <v>30.5</v>
       </c>
       <c r="BE26" s="108"/>
       <c r="BF26" s="92">
@@ -11450,7 +11554,7 @@
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>1.1000000000000001</v>
+        <v>12.200000000000001</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11485,14 +11589,16 @@
         <f t="shared" si="0"/>
         <v>16.714285714285715</v>
       </c>
-      <c r="G27" s="108"/>
-      <c r="H27" s="92" t="e">
+      <c r="G27" s="108">
+        <v>43</v>
+      </c>
+      <c r="H27" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="95" t="str">
+        <v>53.75</v>
+      </c>
+      <c r="I27" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="J27" s="108">
         <v>15</v>
@@ -11554,10 +11660,12 @@
         <f t="shared" si="9"/>
         <v>14.654761904761907</v>
       </c>
-      <c r="AO27" s="108"/>
+      <c r="AO27" s="108">
+        <v>100</v>
+      </c>
       <c r="AP27" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ27" s="108"/>
       <c r="AR27" s="92" t="str">
@@ -11571,12 +11679,14 @@
       </c>
       <c r="AU27" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV27" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV27" s="107">
+        <v>100</v>
+      </c>
       <c r="AW27" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX27" s="108"/>
       <c r="AY27" s="92" t="str">
@@ -11590,15 +11700,15 @@
       </c>
       <c r="BB27" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC27" s="98">
         <f t="shared" si="18"/>
-        <v>31.36904761904762</v>
+        <v>67.49404761904762</v>
       </c>
       <c r="BD27" s="98">
         <f t="shared" si="19"/>
-        <v>31.37</v>
+        <v>67.489999999999995</v>
       </c>
       <c r="BE27" s="108"/>
       <c r="BF27" s="92">
@@ -11708,7 +11818,7 @@
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>12.548000000000002</v>
+        <v>26.995999999999999</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11726,7 +11836,7 @@
       </c>
       <c r="B28" s="41" t="str">
         <f>REGISTRATION!B29</f>
-        <v>201701-069</v>
+        <v>201601-069</v>
       </c>
       <c r="C28" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C29," ",REGISTRATION!D29," ",REGISTRATION!E29)</f>
@@ -11743,14 +11853,16 @@
         <f t="shared" si="0"/>
         <v>16.285714285714285</v>
       </c>
-      <c r="G28" s="108"/>
-      <c r="H28" s="92" t="e">
+      <c r="G28" s="108">
+        <v>44</v>
+      </c>
+      <c r="H28" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="95" t="str">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="I28" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16.5</v>
       </c>
       <c r="J28" s="108">
         <v>13</v>
@@ -11812,10 +11924,12 @@
         <f t="shared" si="9"/>
         <v>13.354761904761908</v>
       </c>
-      <c r="AO28" s="108"/>
+      <c r="AO28" s="108">
+        <v>100</v>
+      </c>
       <c r="AP28" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ28" s="108"/>
       <c r="AR28" s="92" t="str">
@@ -11829,12 +11943,14 @@
       </c>
       <c r="AU28" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV28" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV28" s="107">
+        <v>100</v>
+      </c>
       <c r="AW28" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX28" s="108"/>
       <c r="AY28" s="92" t="str">
@@ -11848,15 +11964,15 @@
       </c>
       <c r="BB28" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC28" s="98">
         <f t="shared" si="18"/>
-        <v>29.640476190476193</v>
+        <v>66.140476190476193</v>
       </c>
       <c r="BD28" s="98">
         <f t="shared" si="19"/>
-        <v>29.64</v>
+        <v>66.14</v>
       </c>
       <c r="BE28" s="108"/>
       <c r="BF28" s="92">
@@ -11966,7 +12082,7 @@
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>11.856000000000002</v>
+        <v>26.456000000000003</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12001,14 +12117,16 @@
         <f t="shared" si="0"/>
         <v>14.142857142857141</v>
       </c>
-      <c r="G29" s="108"/>
-      <c r="H29" s="92" t="e">
+      <c r="G29" s="108">
+        <v>38</v>
+      </c>
+      <c r="H29" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="95" t="str">
+        <v>47.5</v>
+      </c>
+      <c r="I29" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>14.25</v>
       </c>
       <c r="J29" s="108">
         <v>17</v>
@@ -12070,10 +12188,12 @@
         <f t="shared" si="9"/>
         <v>14.411904761904763</v>
       </c>
-      <c r="AO29" s="108"/>
+      <c r="AO29" s="108">
+        <v>90</v>
+      </c>
       <c r="AP29" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ29" s="108"/>
       <c r="AR29" s="92" t="str">
@@ -12087,12 +12207,14 @@
       </c>
       <c r="AU29" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV29" s="108"/>
+        <v>9</v>
+      </c>
+      <c r="AV29" s="107">
+        <v>100</v>
+      </c>
       <c r="AW29" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX29" s="108"/>
       <c r="AY29" s="92" t="str">
@@ -12106,15 +12228,15 @@
       </c>
       <c r="BB29" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC29" s="98">
         <f t="shared" si="18"/>
-        <v>28.554761904761904</v>
+        <v>61.804761904761904</v>
       </c>
       <c r="BD29" s="98">
         <f t="shared" si="19"/>
-        <v>28.55</v>
+        <v>61.8</v>
       </c>
       <c r="BE29" s="108"/>
       <c r="BF29" s="92">
@@ -12224,7 +12346,7 @@
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>11.420000000000002</v>
+        <v>24.72</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12259,14 +12381,16 @@
         <f t="shared" si="0"/>
         <v>9.8571428571428559</v>
       </c>
-      <c r="G30" s="108"/>
-      <c r="H30" s="92" t="e">
+      <c r="G30" s="108">
+        <v>19</v>
+      </c>
+      <c r="H30" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="95" t="str">
+        <v>23.75</v>
+      </c>
+      <c r="I30" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7.125</v>
       </c>
       <c r="J30" s="108">
         <v>16</v>
@@ -12328,10 +12452,12 @@
         <f t="shared" si="9"/>
         <v>9.5809523809523807</v>
       </c>
-      <c r="AO30" s="108"/>
+      <c r="AO30" s="108">
+        <v>100</v>
+      </c>
       <c r="AP30" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ30" s="108"/>
       <c r="AR30" s="92" t="str">
@@ -12345,12 +12471,14 @@
       </c>
       <c r="AU30" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV30" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV30" s="107">
+        <v>100</v>
+      </c>
       <c r="AW30" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX30" s="108"/>
       <c r="AY30" s="92" t="str">
@@ -12364,15 +12492,15 @@
       </c>
       <c r="BB30" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC30" s="98">
         <f t="shared" si="18"/>
-        <v>19.438095238095237</v>
+        <v>46.563095238095237</v>
       </c>
       <c r="BD30" s="98">
         <f t="shared" si="19"/>
-        <v>19.440000000000001</v>
+        <v>46.56</v>
       </c>
       <c r="BE30" s="108"/>
       <c r="BF30" s="92">
@@ -12482,7 +12610,7 @@
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>7.7760000000000007</v>
+        <v>18.624000000000002</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12517,14 +12645,16 @@
         <f t="shared" si="0"/>
         <v>16.285714285714285</v>
       </c>
-      <c r="G31" s="108"/>
-      <c r="H31" s="92" t="e">
+      <c r="G31" s="108">
+        <v>25</v>
+      </c>
+      <c r="H31" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="95" t="str">
+        <v>31.25</v>
+      </c>
+      <c r="I31" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>9.375</v>
       </c>
       <c r="J31" s="108">
         <v>15</v>
@@ -12584,10 +12714,12 @@
         <f t="shared" si="9"/>
         <v>7.95</v>
       </c>
-      <c r="AO31" s="108"/>
+      <c r="AO31" s="108">
+        <v>100</v>
+      </c>
       <c r="AP31" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ31" s="108"/>
       <c r="AR31" s="92" t="str">
@@ -12601,12 +12733,14 @@
       </c>
       <c r="AU31" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV31" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV31" s="107">
+        <v>100</v>
+      </c>
       <c r="AW31" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX31" s="108"/>
       <c r="AY31" s="92" t="str">
@@ -12620,15 +12754,15 @@
       </c>
       <c r="BB31" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC31" s="98">
         <f t="shared" si="18"/>
-        <v>24.235714285714284</v>
+        <v>53.610714285714288</v>
       </c>
       <c r="BD31" s="98">
         <f t="shared" si="19"/>
-        <v>24.24</v>
+        <v>53.61</v>
       </c>
       <c r="BE31" s="108"/>
       <c r="BF31" s="92">
@@ -12738,7 +12872,7 @@
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>9.6959999999999997</v>
+        <v>21.444000000000003</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12773,14 +12907,16 @@
         <f t="shared" si="0"/>
         <v>17.571428571428573</v>
       </c>
-      <c r="G32" s="108"/>
-      <c r="H32" s="92" t="e">
+      <c r="G32" s="108">
+        <v>41</v>
+      </c>
+      <c r="H32" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="95" t="str">
+        <v>51.249999999999993</v>
+      </c>
+      <c r="I32" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="J32" s="108">
         <v>11</v>
@@ -12842,10 +12978,12 @@
         <f t="shared" si="9"/>
         <v>9.9500000000000011</v>
       </c>
-      <c r="AO32" s="108"/>
+      <c r="AO32" s="108">
+        <v>100</v>
+      </c>
       <c r="AP32" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ32" s="108"/>
       <c r="AR32" s="92" t="str">
@@ -12859,12 +12997,14 @@
       </c>
       <c r="AU32" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV32" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV32" s="107">
+        <v>100</v>
+      </c>
       <c r="AW32" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX32" s="108"/>
       <c r="AY32" s="92" t="str">
@@ -12878,15 +13018,15 @@
       </c>
       <c r="BB32" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>27.521428571428572</v>
+        <v>62.896428571428572</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>27.52</v>
+        <v>62.9</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92">
@@ -12996,7 +13136,7 @@
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>11.008000000000001</v>
+        <v>25.16</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13031,14 +13171,16 @@
         <f t="shared" si="0"/>
         <v>25.714285714285712</v>
       </c>
-      <c r="G33" s="108"/>
-      <c r="H33" s="92" t="e">
+      <c r="G33" s="108">
+        <v>64</v>
+      </c>
+      <c r="H33" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="95" t="str">
+        <v>80</v>
+      </c>
+      <c r="I33" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>24</v>
       </c>
       <c r="J33" s="108">
         <v>18</v>
@@ -13100,10 +13242,12 @@
         <f t="shared" si="9"/>
         <v>16.5</v>
       </c>
-      <c r="AO33" s="108"/>
+      <c r="AO33" s="108">
+        <v>100</v>
+      </c>
       <c r="AP33" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ33" s="108"/>
       <c r="AR33" s="92" t="str">
@@ -13117,12 +13261,14 @@
       </c>
       <c r="AU33" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV33" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV33" s="107">
+        <v>100</v>
+      </c>
       <c r="AW33" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX33" s="108"/>
       <c r="AY33" s="92" t="str">
@@ -13136,15 +13282,15 @@
       </c>
       <c r="BB33" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>42.214285714285708</v>
+        <v>86.214285714285708</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>42.21</v>
+        <v>86.21</v>
       </c>
       <c r="BE33" s="108"/>
       <c r="BF33" s="92">
@@ -13254,7 +13400,7 @@
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>16.884</v>
+        <v>34.484000000000002</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13289,14 +13435,16 @@
         <f t="shared" si="0"/>
         <v>28.285714285714281</v>
       </c>
-      <c r="G34" s="108"/>
-      <c r="H34" s="92" t="e">
+      <c r="G34" s="108">
+        <v>46</v>
+      </c>
+      <c r="H34" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="95" t="str">
+        <v>57.499999999999993</v>
+      </c>
+      <c r="I34" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>17.249999999999996</v>
       </c>
       <c r="J34" s="108">
         <v>17</v>
@@ -13358,10 +13506,12 @@
         <f t="shared" si="9"/>
         <v>16.669047619047621</v>
       </c>
-      <c r="AO34" s="108"/>
+      <c r="AO34" s="108">
+        <v>100</v>
+      </c>
       <c r="AP34" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ34" s="108"/>
       <c r="AR34" s="92" t="str">
@@ -13375,12 +13525,14 @@
       </c>
       <c r="AU34" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV34" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV34" s="107">
+        <v>100</v>
+      </c>
       <c r="AW34" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX34" s="108"/>
       <c r="AY34" s="92" t="str">
@@ -13394,20 +13546,22 @@
       </c>
       <c r="BB34" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC34" s="98">
         <f t="shared" si="18"/>
-        <v>44.954761904761902</v>
+        <v>82.204761904761895</v>
       </c>
       <c r="BD34" s="98">
         <f t="shared" si="19"/>
-        <v>44.95</v>
-      </c>
-      <c r="BE34" s="108"/>
+        <v>82.2</v>
+      </c>
+      <c r="BE34" s="108">
+        <v>80</v>
+      </c>
       <c r="BF34" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BG34" s="108"/>
       <c r="BH34" s="92" t="str">
@@ -13421,7 +13575,7 @@
       </c>
       <c r="BK34" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BL34" s="108">
         <v>100</v>
@@ -13524,23 +13678,23 @@
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
-        <v>49.5</v>
+        <v>89.5</v>
       </c>
       <c r="CR34" s="99">
         <f t="shared" si="40"/>
-        <v>49.5</v>
+        <v>89.5</v>
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>47.68</v>
+        <v>86.58</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU34" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="35" spans="1:99">
@@ -13567,14 +13721,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G35" s="108"/>
-      <c r="H35" s="92" t="e">
+      <c r="G35" s="108">
+        <v>41</v>
+      </c>
+      <c r="H35" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="95" t="str">
+        <v>51.249999999999993</v>
+      </c>
+      <c r="I35" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="J35" s="108">
         <v>14</v>
@@ -13636,10 +13792,12 @@
         <f t="shared" si="9"/>
         <v>14.042857142857144</v>
       </c>
-      <c r="AO35" s="108"/>
+      <c r="AO35" s="108">
+        <v>100</v>
+      </c>
       <c r="AP35" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ35" s="108"/>
       <c r="AR35" s="92" t="str">
@@ -13653,12 +13811,14 @@
       </c>
       <c r="AU35" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV35" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV35" s="107">
+        <v>100</v>
+      </c>
       <c r="AW35" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX35" s="108"/>
       <c r="AY35" s="92" t="str">
@@ -13672,15 +13832,15 @@
       </c>
       <c r="BB35" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC35" s="98">
         <f t="shared" si="18"/>
-        <v>26.042857142857144</v>
+        <v>61.417857142857144</v>
       </c>
       <c r="BD35" s="98">
         <f t="shared" si="19"/>
-        <v>26.04</v>
+        <v>61.42</v>
       </c>
       <c r="BE35" s="108"/>
       <c r="BF35" s="92">
@@ -13790,7 +13950,7 @@
       </c>
       <c r="CS35" s="104">
         <f t="shared" si="45"/>
-        <v>10.416</v>
+        <v>24.568000000000001</v>
       </c>
       <c r="CT35" s="104">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13825,14 +13985,16 @@
         <f t="shared" si="0"/>
         <v>21.857142857142854</v>
       </c>
-      <c r="G36" s="108"/>
-      <c r="H36" s="92" t="e">
+      <c r="G36" s="108">
+        <v>37</v>
+      </c>
+      <c r="H36" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="95" t="str">
+        <v>46.25</v>
+      </c>
+      <c r="I36" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>13.875</v>
       </c>
       <c r="J36" s="108">
         <v>15</v>
@@ -13894,10 +14056,12 @@
         <f t="shared" si="9"/>
         <v>16.521428571428572</v>
       </c>
-      <c r="AO36" s="108"/>
+      <c r="AO36" s="108">
+        <v>100</v>
+      </c>
       <c r="AP36" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ36" s="108"/>
       <c r="AR36" s="92" t="str">
@@ -13911,12 +14075,14 @@
       </c>
       <c r="AU36" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV36" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV36" s="107">
+        <v>100</v>
+      </c>
       <c r="AW36" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX36" s="108"/>
       <c r="AY36" s="92" t="str">
@@ -13930,15 +14096,15 @@
       </c>
       <c r="BB36" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC36" s="98">
         <f t="shared" si="18"/>
-        <v>38.378571428571426</v>
+        <v>72.253571428571433</v>
       </c>
       <c r="BD36" s="98">
         <f t="shared" si="19"/>
-        <v>38.380000000000003</v>
+        <v>72.25</v>
       </c>
       <c r="BE36" s="108"/>
       <c r="BF36" s="92">
@@ -14048,7 +14214,7 @@
       </c>
       <c r="CS36" s="104">
         <f t="shared" si="45"/>
-        <v>15.352000000000002</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="CT36" s="104">
         <f>IFERROR(VLOOKUP(CS36,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14083,14 +14249,16 @@
         <f t="shared" si="0"/>
         <v>20.571428571428569</v>
       </c>
-      <c r="G37" s="108"/>
-      <c r="H37" s="92" t="e">
+      <c r="G37" s="108">
+        <v>41</v>
+      </c>
+      <c r="H37" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="95" t="str">
+        <v>51.249999999999993</v>
+      </c>
+      <c r="I37" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="J37" s="108">
         <v>11</v>
@@ -14152,10 +14320,12 @@
         <f t="shared" si="9"/>
         <v>9.4642857142857135</v>
       </c>
-      <c r="AO37" s="108"/>
+      <c r="AO37" s="108">
+        <v>100</v>
+      </c>
       <c r="AP37" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ37" s="108"/>
       <c r="AR37" s="92" t="str">
@@ -14169,12 +14339,14 @@
       </c>
       <c r="AU37" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV37" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV37" s="107">
+        <v>100</v>
+      </c>
       <c r="AW37" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX37" s="108"/>
       <c r="AY37" s="92" t="str">
@@ -14188,15 +14360,15 @@
       </c>
       <c r="BB37" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC37" s="98">
         <f t="shared" si="18"/>
-        <v>30.035714285714285</v>
+        <v>65.410714285714278</v>
       </c>
       <c r="BD37" s="98">
         <f t="shared" si="19"/>
-        <v>30.04</v>
+        <v>65.41</v>
       </c>
       <c r="BE37" s="108"/>
       <c r="BF37" s="92">
@@ -14306,7 +14478,7 @@
       </c>
       <c r="CS37" s="104">
         <f t="shared" si="45"/>
-        <v>12.016</v>
+        <v>26.164000000000001</v>
       </c>
       <c r="CT37" s="104">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14341,14 +14513,16 @@
         <f t="shared" si="0"/>
         <v>16.285714285714285</v>
       </c>
-      <c r="G38" s="108"/>
-      <c r="H38" s="92" t="e">
+      <c r="G38" s="108">
+        <v>43</v>
+      </c>
+      <c r="H38" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="95" t="str">
+        <v>53.75</v>
+      </c>
+      <c r="I38" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="J38" s="108">
         <v>16</v>
@@ -14408,10 +14582,12 @@
         <f t="shared" si="9"/>
         <v>9.6857142857142868</v>
       </c>
-      <c r="AO38" s="108"/>
+      <c r="AO38" s="108">
+        <v>100</v>
+      </c>
       <c r="AP38" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ38" s="108"/>
       <c r="AR38" s="92" t="str">
@@ -14425,12 +14601,14 @@
       </c>
       <c r="AU38" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV38" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV38" s="107">
+        <v>100</v>
+      </c>
       <c r="AW38" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX38" s="108"/>
       <c r="AY38" s="92" t="str">
@@ -14444,15 +14622,15 @@
       </c>
       <c r="BB38" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC38" s="98">
         <f t="shared" si="18"/>
-        <v>25.971428571428572</v>
+        <v>62.096428571428568</v>
       </c>
       <c r="BD38" s="98">
         <f t="shared" si="19"/>
-        <v>25.97</v>
+        <v>62.1</v>
       </c>
       <c r="BE38" s="108"/>
       <c r="BF38" s="92">
@@ -14562,7 +14740,7 @@
       </c>
       <c r="CS38" s="104">
         <f t="shared" si="45"/>
-        <v>10.388</v>
+        <v>24.840000000000003</v>
       </c>
       <c r="CT38" s="104">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14597,14 +14775,16 @@
         <f t="shared" si="0"/>
         <v>24.428571428571427</v>
       </c>
-      <c r="G39" s="108"/>
-      <c r="H39" s="92" t="e">
+      <c r="G39" s="108">
+        <v>51</v>
+      </c>
+      <c r="H39" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="95" t="str">
+        <v>63.749999999999993</v>
+      </c>
+      <c r="I39" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>19.124999999999996</v>
       </c>
       <c r="J39" s="108">
         <v>15</v>
@@ -14666,10 +14846,12 @@
         <f t="shared" si="9"/>
         <v>15.55952380952381</v>
       </c>
-      <c r="AO39" s="108"/>
+      <c r="AO39" s="108">
+        <v>100</v>
+      </c>
       <c r="AP39" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ39" s="108"/>
       <c r="AR39" s="92" t="str">
@@ -14683,12 +14865,14 @@
       </c>
       <c r="AU39" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV39" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV39" s="107">
+        <v>100</v>
+      </c>
       <c r="AW39" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX39" s="108"/>
       <c r="AY39" s="92" t="str">
@@ -14702,15 +14886,15 @@
       </c>
       <c r="BB39" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC39" s="98">
         <f t="shared" si="18"/>
-        <v>39.988095238095241</v>
+        <v>79.113095238095241</v>
       </c>
       <c r="BD39" s="98">
         <f t="shared" si="19"/>
-        <v>39.99</v>
+        <v>79.11</v>
       </c>
       <c r="BE39" s="108"/>
       <c r="BF39" s="92">
@@ -14820,7 +15004,7 @@
       </c>
       <c r="CS39" s="104">
         <f t="shared" si="45"/>
-        <v>15.996000000000002</v>
+        <v>31.644000000000002</v>
       </c>
       <c r="CT39" s="104">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -14855,14 +15039,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G40" s="108"/>
-      <c r="H40" s="92" t="e">
+      <c r="G40" s="108">
+        <v>41</v>
+      </c>
+      <c r="H40" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="95" t="str">
+        <v>51.249999999999993</v>
+      </c>
+      <c r="I40" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="J40" s="108">
         <v>16</v>
@@ -14924,10 +15110,12 @@
         <f t="shared" si="9"/>
         <v>15.914285714285715</v>
       </c>
-      <c r="AO40" s="108"/>
+      <c r="AO40" s="108">
+        <v>100</v>
+      </c>
       <c r="AP40" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ40" s="108"/>
       <c r="AR40" s="92" t="str">
@@ -14941,12 +15129,14 @@
       </c>
       <c r="AU40" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV40" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV40" s="107">
+        <v>100</v>
+      </c>
       <c r="AW40" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX40" s="108"/>
       <c r="AY40" s="92" t="str">
@@ -14960,15 +15150,15 @@
       </c>
       <c r="BB40" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC40" s="98">
         <f t="shared" si="18"/>
-        <v>30.914285714285715</v>
+        <v>66.289285714285711</v>
       </c>
       <c r="BD40" s="98">
         <f t="shared" si="19"/>
-        <v>30.91</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="BE40" s="108"/>
       <c r="BF40" s="92">
@@ -15078,7 +15268,7 @@
       </c>
       <c r="CS40" s="104">
         <f t="shared" si="45"/>
-        <v>12.364000000000001</v>
+        <v>26.516000000000005</v>
       </c>
       <c r="CT40" s="104">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15113,14 +15303,16 @@
         <f t="shared" si="0"/>
         <v>15.428571428571427</v>
       </c>
-      <c r="G41" s="108"/>
-      <c r="H41" s="92" t="e">
+      <c r="G41" s="108">
+        <v>42</v>
+      </c>
+      <c r="H41" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="95" t="str">
+        <v>52.5</v>
+      </c>
+      <c r="I41" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>15.75</v>
       </c>
       <c r="J41" s="108">
         <v>7</v>
@@ -15182,10 +15374,12 @@
         <f t="shared" si="9"/>
         <v>12.092857142857143</v>
       </c>
-      <c r="AO41" s="108"/>
+      <c r="AO41" s="108">
+        <v>100</v>
+      </c>
       <c r="AP41" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ41" s="108"/>
       <c r="AR41" s="92" t="str">
@@ -15199,12 +15393,14 @@
       </c>
       <c r="AU41" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV41" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV41" s="107">
+        <v>100</v>
+      </c>
       <c r="AW41" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX41" s="108"/>
       <c r="AY41" s="92" t="str">
@@ -15218,15 +15414,15 @@
       </c>
       <c r="BB41" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC41" s="98">
         <f t="shared" si="18"/>
-        <v>27.521428571428572</v>
+        <v>63.271428571428572</v>
       </c>
       <c r="BD41" s="98">
         <f t="shared" si="19"/>
-        <v>27.52</v>
+        <v>63.27</v>
       </c>
       <c r="BE41" s="108"/>
       <c r="BF41" s="92">
@@ -15336,7 +15532,7 @@
       </c>
       <c r="CS41" s="104">
         <f t="shared" si="45"/>
-        <v>11.008000000000001</v>
+        <v>25.308000000000003</v>
       </c>
       <c r="CT41" s="104">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15371,14 +15567,16 @@
         <f t="shared" ref="F42:F70" si="46">IFERROR((E42*$F$7), " ")</f>
         <v>16.714285714285715</v>
       </c>
-      <c r="G42" s="108"/>
-      <c r="H42" s="92" t="e">
+      <c r="G42" s="108">
+        <v>45</v>
+      </c>
+      <c r="H42" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="95" t="str">
+        <v>56.25</v>
+      </c>
+      <c r="I42" s="95">
         <f t="shared" ref="I42:I70" si="47">IFERROR((H42*$I$7), "")</f>
-        <v/>
+        <v>16.875</v>
       </c>
       <c r="J42" s="108">
         <v>8</v>
@@ -15438,10 +15636,12 @@
         <f t="shared" si="9"/>
         <v>9.3809523809523814</v>
       </c>
-      <c r="AO42" s="108"/>
+      <c r="AO42" s="108">
+        <v>100</v>
+      </c>
       <c r="AP42" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ42" s="108"/>
       <c r="AR42" s="92" t="str">
@@ -15455,12 +15655,14 @@
       </c>
       <c r="AU42" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV42" s="108"/>
+        <v>10</v>
+      </c>
+      <c r="AV42" s="108">
+        <v>100</v>
+      </c>
       <c r="AW42" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX42" s="108"/>
       <c r="AY42" s="92" t="str">
@@ -15474,15 +15676,15 @@
       </c>
       <c r="BB42" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC42" s="98">
         <f t="shared" si="18"/>
-        <v>26.095238095238095</v>
+        <v>62.970238095238095</v>
       </c>
       <c r="BD42" s="98">
         <f t="shared" si="19"/>
-        <v>26.1</v>
+        <v>62.97</v>
       </c>
       <c r="BE42" s="108"/>
       <c r="BF42" s="92">
@@ -15592,7 +15794,7 @@
       </c>
       <c r="CS42" s="104">
         <f t="shared" si="45"/>
-        <v>10.440000000000001</v>
+        <v>25.188000000000002</v>
       </c>
       <c r="CT42" s="104">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -15626,13 +15828,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="108"/>
-      <c r="H43" s="92" t="e">
+      <c r="H43" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I43" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J43" s="108"/>
       <c r="K43" s="92">
@@ -15874,13 +16076,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="108"/>
-      <c r="H44" s="92" t="e">
+      <c r="H44" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I44" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J44" s="108"/>
       <c r="K44" s="92">
@@ -16122,13 +16324,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="108"/>
-      <c r="H45" s="92" t="e">
+      <c r="H45" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I45" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J45" s="108"/>
       <c r="K45" s="92">
@@ -16370,13 +16572,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="108"/>
-      <c r="H46" s="92" t="e">
+      <c r="H46" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I46" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J46" s="108"/>
       <c r="K46" s="92">
@@ -16618,13 +16820,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="108"/>
-      <c r="H47" s="92" t="e">
+      <c r="H47" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I47" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J47" s="108"/>
       <c r="K47" s="92">
@@ -16866,13 +17068,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="108"/>
-      <c r="H48" s="92" t="e">
+      <c r="H48" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I48" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J48" s="108"/>
       <c r="K48" s="92">
@@ -17114,13 +17316,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="108"/>
-      <c r="H49" s="92" t="e">
+      <c r="H49" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I49" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J49" s="108"/>
       <c r="K49" s="92">
@@ -17362,13 +17564,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="108"/>
-      <c r="H50" s="92" t="e">
+      <c r="H50" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I50" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J50" s="108"/>
       <c r="K50" s="92">
@@ -17610,13 +17812,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="108"/>
-      <c r="H51" s="92" t="e">
+      <c r="H51" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I51" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="92">
@@ -17858,13 +18060,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="108"/>
-      <c r="H52" s="92" t="e">
+      <c r="H52" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I52" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J52" s="108"/>
       <c r="K52" s="92">
@@ -18106,13 +18308,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="108"/>
-      <c r="H53" s="92" t="e">
+      <c r="H53" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I53" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J53" s="108"/>
       <c r="K53" s="92">
@@ -18354,13 +18556,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="108"/>
-      <c r="H54" s="92" t="e">
+      <c r="H54" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I54" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J54" s="108"/>
       <c r="K54" s="92">
@@ -18602,13 +18804,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="108"/>
-      <c r="H55" s="92" t="e">
+      <c r="H55" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I55" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J55" s="108"/>
       <c r="K55" s="92">
@@ -18850,13 +19052,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="108"/>
-      <c r="H56" s="92" t="e">
+      <c r="H56" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I56" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J56" s="108"/>
       <c r="K56" s="92">
@@ -19098,13 +19300,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="108"/>
-      <c r="H57" s="92" t="e">
+      <c r="H57" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I57" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J57" s="108"/>
       <c r="K57" s="92">
@@ -19346,13 +19548,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="108"/>
-      <c r="H58" s="92" t="e">
+      <c r="H58" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I58" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J58" s="108"/>
       <c r="K58" s="92">
@@ -19594,13 +19796,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="108"/>
-      <c r="H59" s="92" t="e">
+      <c r="H59" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I59" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J59" s="108"/>
       <c r="K59" s="92">
@@ -19842,13 +20044,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="108"/>
-      <c r="H60" s="92" t="e">
+      <c r="H60" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I60" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J60" s="108"/>
       <c r="K60" s="92">
@@ -20090,13 +20292,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="108"/>
-      <c r="H61" s="92" t="e">
+      <c r="H61" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I61" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J61" s="108"/>
       <c r="K61" s="92">
@@ -20338,13 +20540,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="108"/>
-      <c r="H62" s="92" t="e">
+      <c r="H62" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I62" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J62" s="108"/>
       <c r="K62" s="92">
@@ -20586,13 +20788,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="108"/>
-      <c r="H63" s="92" t="e">
+      <c r="H63" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I63" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J63" s="108"/>
       <c r="K63" s="92">
@@ -20834,13 +21036,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="108"/>
-      <c r="H64" s="92" t="e">
+      <c r="H64" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I64" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J64" s="108"/>
       <c r="K64" s="92">
@@ -21082,13 +21284,13 @@
         <v>0</v>
       </c>
       <c r="G65" s="108"/>
-      <c r="H65" s="92" t="e">
+      <c r="H65" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I65" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I65" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J65" s="108"/>
       <c r="K65" s="92">
@@ -21330,13 +21532,13 @@
         <v>0</v>
       </c>
       <c r="G66" s="108"/>
-      <c r="H66" s="92" t="e">
+      <c r="H66" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I66" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I66" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J66" s="108"/>
       <c r="K66" s="92">
@@ -21578,13 +21780,13 @@
         <v>0</v>
       </c>
       <c r="G67" s="108"/>
-      <c r="H67" s="92" t="e">
+      <c r="H67" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I67" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I67" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J67" s="108"/>
       <c r="K67" s="92">
@@ -21826,13 +22028,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="108"/>
-      <c r="H68" s="92" t="e">
+      <c r="H68" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I68" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J68" s="108"/>
       <c r="K68" s="92">
@@ -22074,13 +22276,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="108"/>
-      <c r="H69" s="92" t="e">
+      <c r="H69" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I69" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I69" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J69" s="108"/>
       <c r="K69" s="92">
@@ -22322,13 +22524,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="108"/>
-      <c r="H70" s="92" t="e">
+      <c r="H70" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I70" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I70" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J70" s="108"/>
       <c r="K70" s="92">
@@ -22853,9 +23055,9 @@
         <f>'RAW GRADES'!F10</f>
         <v>15</v>
       </c>
-      <c r="D8" s="89" t="str">
+      <c r="D8" s="89">
         <f>'RAW GRADES'!I10</f>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="E8" s="52">
         <f>'RAW GRADES'!AN10</f>
@@ -22863,19 +23065,19 @@
       </c>
       <c r="F8" s="52">
         <f>'RAW GRADES'!AU10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="52">
         <f>'RAW GRADES'!BB10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>20.45</v>
+        <v>56.575000000000003</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>20.45</v>
+        <v>56.58</v>
       </c>
       <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
@@ -22895,7 +23097,7 @@
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>8.18</v>
+        <v>22.632000000000001</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -22918,9 +23120,9 @@
         <f>'RAW GRADES'!F11</f>
         <v>14.142857142857141</v>
       </c>
-      <c r="D9" s="89" t="str">
+      <c r="D9" s="89">
         <f>'RAW GRADES'!I11</f>
-        <v/>
+        <v>14.25</v>
       </c>
       <c r="E9" s="52">
         <f>'RAW GRADES'!AN11</f>
@@ -22928,19 +23130,19 @@
       </c>
       <c r="F9" s="52">
         <f>'RAW GRADES'!AU11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="52">
         <f>'RAW GRADES'!BB11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>29.535714285714285</v>
+        <v>63.785714285714285</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>29.54</v>
+        <v>63.79</v>
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
@@ -22960,7 +23162,7 @@
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>11.816000000000001</v>
+        <v>25.516000000000002</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -22983,9 +23185,9 @@
         <f>'RAW GRADES'!F12</f>
         <v>24.857142857142858</v>
       </c>
-      <c r="D10" s="89" t="str">
+      <c r="D10" s="89">
         <f>'RAW GRADES'!I12</f>
-        <v/>
+        <v>18.375</v>
       </c>
       <c r="E10" s="52">
         <f>'RAW GRADES'!AN12</f>
@@ -22993,19 +23195,19 @@
       </c>
       <c r="F10" s="52">
         <f>'RAW GRADES'!AU12</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G10" s="52">
         <f>'RAW GRADES'!BB12</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>38.073809523809523</v>
+        <v>76.44880952380953</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>38.07</v>
+        <v>76.45</v>
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
@@ -23025,7 +23227,7 @@
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>15.228000000000002</v>
+        <v>30.580000000000002</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23048,9 +23250,9 @@
         <f>'RAW GRADES'!F13</f>
         <v>18.857142857142854</v>
       </c>
-      <c r="D11" s="89" t="str">
+      <c r="D11" s="89">
         <f>'RAW GRADES'!I13</f>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="E11" s="52">
         <f>'RAW GRADES'!AN13</f>
@@ -23058,19 +23260,19 @@
       </c>
       <c r="F11" s="52">
         <f>'RAW GRADES'!AU13</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="52">
         <f>'RAW GRADES'!BB13</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>31.05238095238095</v>
+        <v>67.177380952380958</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>31.05</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
@@ -23090,7 +23292,7 @@
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>12.420000000000002</v>
+        <v>26.872000000000003</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -23113,9 +23315,9 @@
         <f>'RAW GRADES'!F14</f>
         <v>13.714285714285714</v>
       </c>
-      <c r="D12" s="89" t="str">
+      <c r="D12" s="89">
         <f>'RAW GRADES'!I14</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="E12" s="52">
         <f>'RAW GRADES'!AN14</f>
@@ -23123,19 +23325,19 @@
       </c>
       <c r="F12" s="52">
         <f>'RAW GRADES'!AU14</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" s="52">
         <f>'RAW GRADES'!BB14</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>22.964285714285715</v>
+        <v>54.964285714285715</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>22.96</v>
+        <v>54.96</v>
       </c>
       <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
@@ -23155,7 +23357,7 @@
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>9.1840000000000011</v>
+        <v>21.984000000000002</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -23178,9 +23380,9 @@
         <f>'RAW GRADES'!F15</f>
         <v>18.857142857142854</v>
       </c>
-      <c r="D13" s="89" t="str">
+      <c r="D13" s="89">
         <f>'RAW GRADES'!I15</f>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="E13" s="52">
         <f>'RAW GRADES'!AN15</f>
@@ -23188,19 +23390,19 @@
       </c>
       <c r="F13" s="52">
         <f>'RAW GRADES'!AU15</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" s="52">
         <f>'RAW GRADES'!BB15</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="53">
         <f>'RAW GRADES'!BC15</f>
-        <v>31.730952380952381</v>
+        <v>67.855952380952374</v>
       </c>
       <c r="I13" s="53">
         <f>'RAW GRADES'!BD15</f>
-        <v>31.73</v>
+        <v>67.86</v>
       </c>
       <c r="J13" s="52">
         <f>'RAW GRADES'!BK15</f>
@@ -23220,7 +23422,7 @@
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>12.692</v>
+        <v>27.144000000000002</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -23243,9 +23445,9 @@
         <f>'RAW GRADES'!F16</f>
         <v>27</v>
       </c>
-      <c r="D14" s="89" t="str">
+      <c r="D14" s="89">
         <f>'RAW GRADES'!I16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E14" s="52">
         <f>'RAW GRADES'!AN16</f>
@@ -23253,19 +23455,19 @@
       </c>
       <c r="F14" s="52">
         <f>'RAW GRADES'!AU16</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="52">
         <f>'RAW GRADES'!BB16</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>40.25</v>
+        <v>60.25</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>40.25</v>
+        <v>60.25</v>
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
@@ -23285,7 +23487,7 @@
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>16.100000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23308,9 +23510,9 @@
         <f>'RAW GRADES'!F17</f>
         <v>17.571428571428573</v>
       </c>
-      <c r="D15" s="89" t="str">
+      <c r="D15" s="89">
         <f>'RAW GRADES'!I17</f>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="E15" s="52">
         <f>'RAW GRADES'!AN17</f>
@@ -23318,19 +23520,19 @@
       </c>
       <c r="F15" s="52">
         <f>'RAW GRADES'!AU17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="52">
         <f>'RAW GRADES'!BB17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15" s="53">
         <f>'RAW GRADES'!BC17</f>
-        <v>26.154761904761905</v>
+        <v>61.529761904761898</v>
       </c>
       <c r="I15" s="53">
         <f>'RAW GRADES'!BD17</f>
-        <v>26.15</v>
+        <v>61.53</v>
       </c>
       <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
@@ -23350,7 +23552,7 @@
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>10.46</v>
+        <v>24.612000000000002</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -23373,9 +23575,9 @@
         <f>'RAW GRADES'!F18</f>
         <v>13.714285714285714</v>
       </c>
-      <c r="D16" s="89" t="str">
+      <c r="D16" s="89">
         <f>'RAW GRADES'!I18</f>
-        <v/>
+        <v>8.25</v>
       </c>
       <c r="E16" s="52">
         <f>'RAW GRADES'!AN18</f>
@@ -23383,19 +23585,19 @@
       </c>
       <c r="F16" s="52">
         <f>'RAW GRADES'!AU18</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16" s="52">
         <f>'RAW GRADES'!BB18</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="53">
         <f>'RAW GRADES'!BC18</f>
-        <v>13.714285714285714</v>
+        <v>41.964285714285715</v>
       </c>
       <c r="I16" s="53">
         <f>'RAW GRADES'!BD18</f>
-        <v>13.71</v>
+        <v>41.96</v>
       </c>
       <c r="J16" s="52">
         <f>'RAW GRADES'!BK18</f>
@@ -23415,7 +23617,7 @@
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>5.4840000000000009</v>
+        <v>16.784000000000002</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23438,9 +23640,9 @@
         <f>'RAW GRADES'!F19</f>
         <v>17.142857142857142</v>
       </c>
-      <c r="D17" s="89" t="str">
+      <c r="D17" s="89">
         <f>'RAW GRADES'!I19</f>
-        <v/>
+        <v>17.249999999999996</v>
       </c>
       <c r="E17" s="52">
         <f>'RAW GRADES'!AN19</f>
@@ -23448,19 +23650,19 @@
       </c>
       <c r="F17" s="52">
         <f>'RAW GRADES'!AU19</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="52">
         <f>'RAW GRADES'!BB19</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" s="53">
         <f>'RAW GRADES'!BC19</f>
-        <v>17.142857142857142</v>
+        <v>54.392857142857139</v>
       </c>
       <c r="I17" s="53">
         <f>'RAW GRADES'!BD19</f>
-        <v>17.14</v>
+        <v>54.39</v>
       </c>
       <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
@@ -23480,7 +23682,7 @@
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>6.8560000000000008</v>
+        <v>21.756</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23503,9 +23705,9 @@
         <f>'RAW GRADES'!F20</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="D18" s="89" t="str">
+      <c r="D18" s="89">
         <f>'RAW GRADES'!I20</f>
-        <v/>
+        <v>12.375</v>
       </c>
       <c r="E18" s="52">
         <f>'RAW GRADES'!AN20</f>
@@ -23513,19 +23715,19 @@
       </c>
       <c r="F18" s="52">
         <f>'RAW GRADES'!AU20</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18" s="52">
         <f>'RAW GRADES'!BB20</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>25.88095238095238</v>
+        <v>58.25595238095238</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>25.88</v>
+        <v>58.26</v>
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
@@ -23545,7 +23747,7 @@
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>10.352</v>
+        <v>23.304000000000002</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23568,9 +23770,9 @@
         <f>'RAW GRADES'!F21</f>
         <v>16.714285714285715</v>
       </c>
-      <c r="D19" s="89" t="str">
+      <c r="D19" s="89">
         <f>'RAW GRADES'!I21</f>
-        <v/>
+        <v>14.25</v>
       </c>
       <c r="E19" s="52">
         <f>'RAW GRADES'!AN21</f>
@@ -23578,19 +23780,19 @@
       </c>
       <c r="F19" s="52">
         <f>'RAW GRADES'!AU21</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19" s="52">
         <f>'RAW GRADES'!BB21</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>30.964285714285715</v>
+        <v>65.214285714285722</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>30.96</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
@@ -23610,7 +23812,7 @@
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>12.384</v>
+        <v>26.084</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23633,9 +23835,9 @@
         <f>'RAW GRADES'!F22</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="D20" s="89" t="str">
+      <c r="D20" s="89">
         <f>'RAW GRADES'!I22</f>
-        <v/>
+        <v>15.75</v>
       </c>
       <c r="E20" s="52">
         <f>'RAW GRADES'!AN22</f>
@@ -23643,19 +23845,19 @@
       </c>
       <c r="F20" s="52">
         <f>'RAW GRADES'!AU22</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G20" s="52">
         <f>'RAW GRADES'!BB22</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>28.919047619047618</v>
+        <v>64.669047619047618</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>28.92</v>
+        <v>64.67</v>
       </c>
       <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
@@ -23675,7 +23877,7 @@
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>11.568000000000001</v>
+        <v>25.868000000000002</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23698,9 +23900,9 @@
         <f>'RAW GRADES'!F23</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="D21" s="89" t="str">
+      <c r="D21" s="89">
         <f>'RAW GRADES'!I23</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
@@ -23708,19 +23910,19 @@
       </c>
       <c r="F21" s="52">
         <f>'RAW GRADES'!AU23</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21" s="52">
         <f>'RAW GRADES'!BB23</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>27.897619047619045</v>
+        <v>62.897619047619045</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>27.9</v>
+        <v>62.9</v>
       </c>
       <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
@@ -23740,7 +23942,7 @@
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>11.16</v>
+        <v>25.16</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23763,9 +23965,9 @@
         <f>'RAW GRADES'!F24</f>
         <v>20.142857142857142</v>
       </c>
-      <c r="D22" s="89" t="str">
+      <c r="D22" s="89">
         <f>'RAW GRADES'!I24</f>
-        <v/>
+        <v>15.75</v>
       </c>
       <c r="E22" s="52">
         <f>'RAW GRADES'!AN24</f>
@@ -23773,19 +23975,19 @@
       </c>
       <c r="F22" s="52">
         <f>'RAW GRADES'!AU24</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G22" s="52">
         <f>'RAW GRADES'!BB24</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H22" s="53">
         <f>'RAW GRADES'!BC24</f>
-        <v>26.492857142857144</v>
+        <v>62.242857142857147</v>
       </c>
       <c r="I22" s="53">
         <f>'RAW GRADES'!BD24</f>
-        <v>26.49</v>
+        <v>62.24</v>
       </c>
       <c r="J22" s="52">
         <f>'RAW GRADES'!BK24</f>
@@ -23805,7 +24007,7 @@
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>10.596</v>
+        <v>24.896000000000001</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -23828,9 +24030,9 @@
         <f>'RAW GRADES'!F25</f>
         <v>21.428571428571427</v>
       </c>
-      <c r="D23" s="89" t="str">
+      <c r="D23" s="89">
         <f>'RAW GRADES'!I25</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="E23" s="52">
         <f>'RAW GRADES'!AN25</f>
@@ -23838,19 +24040,19 @@
       </c>
       <c r="F23" s="52">
         <f>'RAW GRADES'!AU25</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G23" s="52">
         <f>'RAW GRADES'!BB25</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>33.540476190476184</v>
+        <v>71.540476190476184</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>33.54</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
@@ -23870,7 +24072,7 @@
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>13.416</v>
+        <v>28.616000000000003</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -23893,9 +24095,9 @@
         <f>'RAW GRADES'!F26</f>
         <v>0</v>
       </c>
-      <c r="D24" s="89" t="str">
+      <c r="D24" s="89">
         <f>'RAW GRADES'!I26</f>
-        <v/>
+        <v>9.75</v>
       </c>
       <c r="E24" s="52">
         <f>'RAW GRADES'!AN26</f>
@@ -23903,19 +24105,19 @@
       </c>
       <c r="F24" s="52">
         <f>'RAW GRADES'!AU26</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="52">
         <f>'RAW GRADES'!BB26</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>2.7500000000000004</v>
+        <v>30.5</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>2.75</v>
+        <v>30.5</v>
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
@@ -23935,7 +24137,7 @@
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>1.1000000000000001</v>
+        <v>12.200000000000001</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -23958,9 +24160,9 @@
         <f>'RAW GRADES'!F27</f>
         <v>16.714285714285715</v>
       </c>
-      <c r="D25" s="89" t="str">
+      <c r="D25" s="89">
         <f>'RAW GRADES'!I27</f>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="E25" s="52">
         <f>'RAW GRADES'!AN27</f>
@@ -23968,19 +24170,19 @@
       </c>
       <c r="F25" s="52">
         <f>'RAW GRADES'!AU27</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G25" s="52">
         <f>'RAW GRADES'!BB27</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>31.36904761904762</v>
+        <v>67.49404761904762</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>31.37</v>
+        <v>67.489999999999995</v>
       </c>
       <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
@@ -24000,7 +24202,7 @@
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>12.548000000000002</v>
+        <v>26.995999999999999</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -24023,9 +24225,9 @@
         <f>'RAW GRADES'!F28</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="D26" s="89" t="str">
+      <c r="D26" s="89">
         <f>'RAW GRADES'!I28</f>
-        <v/>
+        <v>16.5</v>
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
@@ -24033,19 +24235,19 @@
       </c>
       <c r="F26" s="52">
         <f>'RAW GRADES'!AU28</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26" s="52">
         <f>'RAW GRADES'!BB28</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>29.640476190476193</v>
+        <v>66.140476190476193</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>29.64</v>
+        <v>66.14</v>
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
@@ -24065,7 +24267,7 @@
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>11.856000000000002</v>
+        <v>26.456000000000003</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -24088,9 +24290,9 @@
         <f>'RAW GRADES'!F29</f>
         <v>14.142857142857141</v>
       </c>
-      <c r="D27" s="89" t="str">
+      <c r="D27" s="89">
         <f>'RAW GRADES'!I29</f>
-        <v/>
+        <v>14.25</v>
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
@@ -24098,19 +24300,19 @@
       </c>
       <c r="F27" s="52">
         <f>'RAW GRADES'!AU29</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G27" s="52">
         <f>'RAW GRADES'!BB29</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>28.554761904761904</v>
+        <v>61.804761904761904</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>28.55</v>
+        <v>61.8</v>
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
@@ -24130,7 +24332,7 @@
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>11.420000000000002</v>
+        <v>24.72</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24153,9 +24355,9 @@
         <f>'RAW GRADES'!F30</f>
         <v>9.8571428571428559</v>
       </c>
-      <c r="D28" s="89" t="str">
+      <c r="D28" s="89">
         <f>'RAW GRADES'!I30</f>
-        <v/>
+        <v>7.125</v>
       </c>
       <c r="E28" s="52">
         <f>'RAW GRADES'!AN30</f>
@@ -24163,19 +24365,19 @@
       </c>
       <c r="F28" s="52">
         <f>'RAW GRADES'!AU30</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G28" s="52">
         <f>'RAW GRADES'!BB30</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>19.438095238095237</v>
+        <v>46.563095238095237</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>19.440000000000001</v>
+        <v>46.56</v>
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
@@ -24195,7 +24397,7 @@
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>7.7760000000000007</v>
+        <v>18.624000000000002</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -24218,9 +24420,9 @@
         <f>'RAW GRADES'!F31</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="D29" s="89" t="str">
+      <c r="D29" s="89">
         <f>'RAW GRADES'!I31</f>
-        <v/>
+        <v>9.375</v>
       </c>
       <c r="E29" s="52">
         <f>'RAW GRADES'!AN31</f>
@@ -24228,19 +24430,19 @@
       </c>
       <c r="F29" s="52">
         <f>'RAW GRADES'!AU31</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G29" s="52">
         <f>'RAW GRADES'!BB31</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>24.235714285714284</v>
+        <v>53.610714285714288</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>24.24</v>
+        <v>53.61</v>
       </c>
       <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
@@ -24260,7 +24462,7 @@
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>9.6959999999999997</v>
+        <v>21.444000000000003</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -24283,9 +24485,9 @@
         <f>'RAW GRADES'!F32</f>
         <v>17.571428571428573</v>
       </c>
-      <c r="D30" s="89" t="str">
+      <c r="D30" s="89">
         <f>'RAW GRADES'!I32</f>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
@@ -24293,19 +24495,19 @@
       </c>
       <c r="F30" s="52">
         <f>'RAW GRADES'!AU32</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G30" s="52">
         <f>'RAW GRADES'!BB32</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>27.521428571428572</v>
+        <v>62.896428571428572</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>27.52</v>
+        <v>62.9</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
@@ -24325,7 +24527,7 @@
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>11.008000000000001</v>
+        <v>25.16</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24348,9 +24550,9 @@
         <f>'RAW GRADES'!F33</f>
         <v>25.714285714285712</v>
       </c>
-      <c r="D31" s="89" t="str">
+      <c r="D31" s="89">
         <f>'RAW GRADES'!I33</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="E31" s="52">
         <f>'RAW GRADES'!AN33</f>
@@ -24358,19 +24560,19 @@
       </c>
       <c r="F31" s="52">
         <f>'RAW GRADES'!AU33</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G31" s="52">
         <f>'RAW GRADES'!BB33</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>42.214285714285708</v>
+        <v>86.214285714285708</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>42.21</v>
+        <v>86.21</v>
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
@@ -24390,7 +24592,7 @@
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>16.884</v>
+        <v>34.484000000000002</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24413,9 +24615,9 @@
         <f>'RAW GRADES'!F34</f>
         <v>28.285714285714281</v>
       </c>
-      <c r="D32" s="89" t="str">
+      <c r="D32" s="89">
         <f>'RAW GRADES'!I34</f>
-        <v/>
+        <v>17.249999999999996</v>
       </c>
       <c r="E32" s="52">
         <f>'RAW GRADES'!AN34</f>
@@ -24423,23 +24625,23 @@
       </c>
       <c r="F32" s="52">
         <f>'RAW GRADES'!AU34</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G32" s="52">
         <f>'RAW GRADES'!BB34</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>44.954761904761902</v>
+        <v>82.204761904761895</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>44.95</v>
+        <v>82.2</v>
       </c>
       <c r="J32" s="52">
         <f>'RAW GRADES'!BK34</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
@@ -24447,23 +24649,23 @@
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>49.5</v>
+        <v>89.5</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>49.5</v>
+        <v>89.5</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>47.68</v>
+        <v>86.58</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P32" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -24478,9 +24680,9 @@
         <f>'RAW GRADES'!F35</f>
         <v>12</v>
       </c>
-      <c r="D33" s="89" t="str">
+      <c r="D33" s="89">
         <f>'RAW GRADES'!I35</f>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="E33" s="52">
         <f>'RAW GRADES'!AN35</f>
@@ -24488,19 +24690,19 @@
       </c>
       <c r="F33" s="52">
         <f>'RAW GRADES'!AU35</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G33" s="52">
         <f>'RAW GRADES'!BB35</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H33" s="53">
         <f>'RAW GRADES'!BC35</f>
-        <v>26.042857142857144</v>
+        <v>61.417857142857144</v>
       </c>
       <c r="I33" s="53">
         <f>'RAW GRADES'!BD35</f>
-        <v>26.04</v>
+        <v>61.42</v>
       </c>
       <c r="J33" s="52">
         <f>'RAW GRADES'!BK35</f>
@@ -24520,7 +24722,7 @@
       </c>
       <c r="N33" s="58">
         <f>'RAW GRADES'!CS35</f>
-        <v>10.416</v>
+        <v>24.568000000000001</v>
       </c>
       <c r="O33" s="56">
         <f>'RAW GRADES'!CT35</f>
@@ -24543,9 +24745,9 @@
         <f>'RAW GRADES'!F36</f>
         <v>21.857142857142854</v>
       </c>
-      <c r="D34" s="89" t="str">
+      <c r="D34" s="89">
         <f>'RAW GRADES'!I36</f>
-        <v/>
+        <v>13.875</v>
       </c>
       <c r="E34" s="52">
         <f>'RAW GRADES'!AN36</f>
@@ -24553,19 +24755,19 @@
       </c>
       <c r="F34" s="52">
         <f>'RAW GRADES'!AU36</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G34" s="52">
         <f>'RAW GRADES'!BB36</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H34" s="53">
         <f>'RAW GRADES'!BC36</f>
-        <v>38.378571428571426</v>
+        <v>72.253571428571433</v>
       </c>
       <c r="I34" s="53">
         <f>'RAW GRADES'!BD36</f>
-        <v>38.380000000000003</v>
+        <v>72.25</v>
       </c>
       <c r="J34" s="52">
         <f>'RAW GRADES'!BK36</f>
@@ -24585,7 +24787,7 @@
       </c>
       <c r="N34" s="58">
         <f>'RAW GRADES'!CS36</f>
-        <v>15.352000000000002</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="O34" s="56">
         <f>'RAW GRADES'!CT36</f>
@@ -24608,9 +24810,9 @@
         <f>'RAW GRADES'!F37</f>
         <v>20.571428571428569</v>
       </c>
-      <c r="D35" s="89" t="str">
+      <c r="D35" s="89">
         <f>'RAW GRADES'!I37</f>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="E35" s="52">
         <f>'RAW GRADES'!AN37</f>
@@ -24618,19 +24820,19 @@
       </c>
       <c r="F35" s="52">
         <f>'RAW GRADES'!AU37</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G35" s="52">
         <f>'RAW GRADES'!BB37</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H35" s="53">
         <f>'RAW GRADES'!BC37</f>
-        <v>30.035714285714285</v>
+        <v>65.410714285714278</v>
       </c>
       <c r="I35" s="53">
         <f>'RAW GRADES'!BD37</f>
-        <v>30.04</v>
+        <v>65.41</v>
       </c>
       <c r="J35" s="52">
         <f>'RAW GRADES'!BK37</f>
@@ -24650,7 +24852,7 @@
       </c>
       <c r="N35" s="58">
         <f>'RAW GRADES'!CS37</f>
-        <v>12.016</v>
+        <v>26.164000000000001</v>
       </c>
       <c r="O35" s="56">
         <f>'RAW GRADES'!CT37</f>
@@ -24673,9 +24875,9 @@
         <f>'RAW GRADES'!F38</f>
         <v>16.285714285714285</v>
       </c>
-      <c r="D36" s="89" t="str">
+      <c r="D36" s="89">
         <f>'RAW GRADES'!I38</f>
-        <v/>
+        <v>16.125</v>
       </c>
       <c r="E36" s="52">
         <f>'RAW GRADES'!AN38</f>
@@ -24683,19 +24885,19 @@
       </c>
       <c r="F36" s="52">
         <f>'RAW GRADES'!AU38</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G36" s="52">
         <f>'RAW GRADES'!BB38</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H36" s="53">
         <f>'RAW GRADES'!BC38</f>
-        <v>25.971428571428572</v>
+        <v>62.096428571428568</v>
       </c>
       <c r="I36" s="53">
         <f>'RAW GRADES'!BD38</f>
-        <v>25.97</v>
+        <v>62.1</v>
       </c>
       <c r="J36" s="52">
         <f>'RAW GRADES'!BK38</f>
@@ -24715,7 +24917,7 @@
       </c>
       <c r="N36" s="58">
         <f>'RAW GRADES'!CS38</f>
-        <v>10.388</v>
+        <v>24.840000000000003</v>
       </c>
       <c r="O36" s="56">
         <f>'RAW GRADES'!CT38</f>
@@ -24738,9 +24940,9 @@
         <f>'RAW GRADES'!F39</f>
         <v>24.428571428571427</v>
       </c>
-      <c r="D37" s="89" t="str">
+      <c r="D37" s="89">
         <f>'RAW GRADES'!I39</f>
-        <v/>
+        <v>19.124999999999996</v>
       </c>
       <c r="E37" s="52">
         <f>'RAW GRADES'!AN39</f>
@@ -24748,19 +24950,19 @@
       </c>
       <c r="F37" s="52">
         <f>'RAW GRADES'!AU39</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G37" s="52">
         <f>'RAW GRADES'!BB39</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H37" s="53">
         <f>'RAW GRADES'!BC39</f>
-        <v>39.988095238095241</v>
+        <v>79.113095238095241</v>
       </c>
       <c r="I37" s="53">
         <f>'RAW GRADES'!BD39</f>
-        <v>39.99</v>
+        <v>79.11</v>
       </c>
       <c r="J37" s="52">
         <f>'RAW GRADES'!BK39</f>
@@ -24780,7 +24982,7 @@
       </c>
       <c r="N37" s="58">
         <f>'RAW GRADES'!CS39</f>
-        <v>15.996000000000002</v>
+        <v>31.644000000000002</v>
       </c>
       <c r="O37" s="56">
         <f>'RAW GRADES'!CT39</f>
@@ -24803,9 +25005,9 @@
         <f>'RAW GRADES'!F40</f>
         <v>15</v>
       </c>
-      <c r="D38" s="89" t="str">
+      <c r="D38" s="89">
         <f>'RAW GRADES'!I40</f>
-        <v/>
+        <v>15.374999999999996</v>
       </c>
       <c r="E38" s="52">
         <f>'RAW GRADES'!AN40</f>
@@ -24813,19 +25015,19 @@
       </c>
       <c r="F38" s="52">
         <f>'RAW GRADES'!AU40</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" s="52">
         <f>'RAW GRADES'!BB40</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H38" s="53">
         <f>'RAW GRADES'!BC40</f>
-        <v>30.914285714285715</v>
+        <v>66.289285714285711</v>
       </c>
       <c r="I38" s="53">
         <f>'RAW GRADES'!BD40</f>
-        <v>30.91</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="J38" s="52">
         <f>'RAW GRADES'!BK40</f>
@@ -24845,7 +25047,7 @@
       </c>
       <c r="N38" s="58">
         <f>'RAW GRADES'!CS40</f>
-        <v>12.364000000000001</v>
+        <v>26.516000000000005</v>
       </c>
       <c r="O38" s="56">
         <f>'RAW GRADES'!CT40</f>
@@ -24868,9 +25070,9 @@
         <f>'RAW GRADES'!F41</f>
         <v>15.428571428571427</v>
       </c>
-      <c r="D39" s="89" t="str">
+      <c r="D39" s="89">
         <f>'RAW GRADES'!I41</f>
-        <v/>
+        <v>15.75</v>
       </c>
       <c r="E39" s="52">
         <f>'RAW GRADES'!AN41</f>
@@ -24878,19 +25080,19 @@
       </c>
       <c r="F39" s="52">
         <f>'RAW GRADES'!AU41</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G39" s="52">
         <f>'RAW GRADES'!BB41</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H39" s="53">
         <f>'RAW GRADES'!BC41</f>
-        <v>27.521428571428572</v>
+        <v>63.271428571428572</v>
       </c>
       <c r="I39" s="53">
         <f>'RAW GRADES'!BD41</f>
-        <v>27.52</v>
+        <v>63.27</v>
       </c>
       <c r="J39" s="52">
         <f>'RAW GRADES'!BK41</f>
@@ -24910,7 +25112,7 @@
       </c>
       <c r="N39" s="58">
         <f>'RAW GRADES'!CS41</f>
-        <v>11.008000000000001</v>
+        <v>25.308000000000003</v>
       </c>
       <c r="O39" s="56">
         <f>'RAW GRADES'!CT41</f>
@@ -24933,9 +25135,9 @@
         <f>'RAW GRADES'!F42</f>
         <v>16.714285714285715</v>
       </c>
-      <c r="D40" s="89" t="str">
+      <c r="D40" s="89">
         <f>'RAW GRADES'!I42</f>
-        <v/>
+        <v>16.875</v>
       </c>
       <c r="E40" s="52">
         <f>'RAW GRADES'!AN42</f>
@@ -24943,19 +25145,19 @@
       </c>
       <c r="F40" s="52">
         <f>'RAW GRADES'!AU42</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G40" s="52">
         <f>'RAW GRADES'!BB42</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H40" s="53">
         <f>'RAW GRADES'!BC42</f>
-        <v>26.095238095238095</v>
+        <v>62.970238095238095</v>
       </c>
       <c r="I40" s="53">
         <f>'RAW GRADES'!BD42</f>
-        <v>26.1</v>
+        <v>62.97</v>
       </c>
       <c r="J40" s="52">
         <f>'RAW GRADES'!BK42</f>
@@ -24975,7 +25177,7 @@
       </c>
       <c r="N40" s="58">
         <f>'RAW GRADES'!CS42</f>
-        <v>10.440000000000001</v>
+        <v>25.188000000000002</v>
       </c>
       <c r="O40" s="56">
         <f>'RAW GRADES'!CT42</f>
@@ -24998,9 +25200,9 @@
         <f>'RAW GRADES'!F43</f>
         <v>0</v>
       </c>
-      <c r="D41" s="89" t="str">
+      <c r="D41" s="89">
         <f>'RAW GRADES'!I43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E41" s="52">
         <f>'RAW GRADES'!AN43</f>
@@ -25063,9 +25265,9 @@
         <f>'RAW GRADES'!F44</f>
         <v>0</v>
       </c>
-      <c r="D42" s="89" t="str">
+      <c r="D42" s="89">
         <f>'RAW GRADES'!I44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E42" s="52">
         <f>'RAW GRADES'!AN44</f>
@@ -25128,9 +25330,9 @@
         <f>'RAW GRADES'!F45</f>
         <v>0</v>
       </c>
-      <c r="D43" s="89" t="str">
+      <c r="D43" s="89">
         <f>'RAW GRADES'!I45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E43" s="52">
         <f>'RAW GRADES'!AN45</f>
@@ -25193,9 +25395,9 @@
         <f>'RAW GRADES'!F46</f>
         <v>0</v>
       </c>
-      <c r="D44" s="89" t="str">
+      <c r="D44" s="89">
         <f>'RAW GRADES'!I46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E44" s="52">
         <f>'RAW GRADES'!AN46</f>
@@ -25258,9 +25460,9 @@
         <f>'RAW GRADES'!F47</f>
         <v>0</v>
       </c>
-      <c r="D45" s="89" t="str">
+      <c r="D45" s="89">
         <f>'RAW GRADES'!I47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E45" s="52">
         <f>'RAW GRADES'!AN47</f>
@@ -25323,9 +25525,9 @@
         <f>'RAW GRADES'!F48</f>
         <v>0</v>
       </c>
-      <c r="D46" s="89" t="str">
+      <c r="D46" s="89">
         <f>'RAW GRADES'!I48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E46" s="52">
         <f>'RAW GRADES'!AN48</f>
@@ -25388,9 +25590,9 @@
         <f>'RAW GRADES'!F49</f>
         <v>0</v>
       </c>
-      <c r="D47" s="89" t="str">
+      <c r="D47" s="89">
         <f>'RAW GRADES'!I49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E47" s="52">
         <f>'RAW GRADES'!AN49</f>
@@ -25453,9 +25655,9 @@
         <f>'RAW GRADES'!F50</f>
         <v>0</v>
       </c>
-      <c r="D48" s="89" t="str">
+      <c r="D48" s="89">
         <f>'RAW GRADES'!I50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E48" s="52">
         <f>'RAW GRADES'!AN50</f>
@@ -25518,9 +25720,9 @@
         <f>'RAW GRADES'!F51</f>
         <v>0</v>
       </c>
-      <c r="D49" s="89" t="str">
+      <c r="D49" s="89">
         <f>'RAW GRADES'!I51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E49" s="52">
         <f>'RAW GRADES'!AN51</f>
@@ -25583,9 +25785,9 @@
         <f>'RAW GRADES'!F52</f>
         <v>0</v>
       </c>
-      <c r="D50" s="89" t="str">
+      <c r="D50" s="89">
         <f>'RAW GRADES'!I52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E50" s="52">
         <f>'RAW GRADES'!AN52</f>
@@ -25648,9 +25850,9 @@
         <f>'RAW GRADES'!F53</f>
         <v>0</v>
       </c>
-      <c r="D51" s="89" t="str">
+      <c r="D51" s="89">
         <f>'RAW GRADES'!I53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E51" s="52">
         <f>'RAW GRADES'!AN53</f>
@@ -25713,9 +25915,9 @@
         <f>'RAW GRADES'!F54</f>
         <v>0</v>
       </c>
-      <c r="D52" s="89" t="str">
+      <c r="D52" s="89">
         <f>'RAW GRADES'!I54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E52" s="52">
         <f>'RAW GRADES'!AN54</f>
@@ -25778,9 +25980,9 @@
         <f>'RAW GRADES'!F55</f>
         <v>0</v>
       </c>
-      <c r="D53" s="89" t="str">
+      <c r="D53" s="89">
         <f>'RAW GRADES'!I55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E53" s="52">
         <f>'RAW GRADES'!AN55</f>
@@ -25843,9 +26045,9 @@
         <f>'RAW GRADES'!F56</f>
         <v>0</v>
       </c>
-      <c r="D54" s="89" t="str">
+      <c r="D54" s="89">
         <f>'RAW GRADES'!I56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E54" s="52">
         <f>'RAW GRADES'!AN56</f>
@@ -25908,9 +26110,9 @@
         <f>'RAW GRADES'!F57</f>
         <v>0</v>
       </c>
-      <c r="D55" s="89" t="str">
+      <c r="D55" s="89">
         <f>'RAW GRADES'!I57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E55" s="52">
         <f>'RAW GRADES'!AN57</f>
@@ -25973,9 +26175,9 @@
         <f>'RAW GRADES'!F58</f>
         <v>0</v>
       </c>
-      <c r="D56" s="89" t="str">
+      <c r="D56" s="89">
         <f>'RAW GRADES'!I58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E56" s="52">
         <f>'RAW GRADES'!AN58</f>
@@ -26038,9 +26240,9 @@
         <f>'RAW GRADES'!F59</f>
         <v>0</v>
       </c>
-      <c r="D57" s="89" t="str">
+      <c r="D57" s="89">
         <f>'RAW GRADES'!I59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E57" s="52">
         <f>'RAW GRADES'!AN59</f>
@@ -26103,9 +26305,9 @@
         <f>'RAW GRADES'!F60</f>
         <v>0</v>
       </c>
-      <c r="D58" s="89" t="str">
+      <c r="D58" s="89">
         <f>'RAW GRADES'!I60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E58" s="52">
         <f>'RAW GRADES'!AN60</f>
@@ -26168,9 +26370,9 @@
         <f>'RAW GRADES'!F61</f>
         <v>0</v>
       </c>
-      <c r="D59" s="89" t="str">
+      <c r="D59" s="89">
         <f>'RAW GRADES'!I61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E59" s="52">
         <f>'RAW GRADES'!AN61</f>
@@ -26233,9 +26435,9 @@
         <f>'RAW GRADES'!F62</f>
         <v>0</v>
       </c>
-      <c r="D60" s="89" t="str">
+      <c r="D60" s="89">
         <f>'RAW GRADES'!I62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E60" s="52">
         <f>'RAW GRADES'!AN62</f>
@@ -26298,9 +26500,9 @@
         <f>'RAW GRADES'!F63</f>
         <v>0</v>
       </c>
-      <c r="D61" s="89" t="str">
+      <c r="D61" s="89">
         <f>'RAW GRADES'!I63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E61" s="52">
         <f>'RAW GRADES'!AN63</f>
@@ -26363,9 +26565,9 @@
         <f>'RAW GRADES'!F64</f>
         <v>0</v>
       </c>
-      <c r="D62" s="89" t="str">
+      <c r="D62" s="89">
         <f>'RAW GRADES'!I64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E62" s="52">
         <f>'RAW GRADES'!AN64</f>
@@ -26428,9 +26630,9 @@
         <f>'RAW GRADES'!F65</f>
         <v>0</v>
       </c>
-      <c r="D63" s="89" t="str">
+      <c r="D63" s="89">
         <f>'RAW GRADES'!I65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E63" s="52">
         <f>'RAW GRADES'!AN65</f>
@@ -26493,9 +26695,9 @@
         <f>'RAW GRADES'!F66</f>
         <v>0</v>
       </c>
-      <c r="D64" s="89" t="str">
+      <c r="D64" s="89">
         <f>'RAW GRADES'!I66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E64" s="52">
         <f>'RAW GRADES'!AN66</f>
@@ -26558,9 +26760,9 @@
         <f>'RAW GRADES'!F67</f>
         <v>0</v>
       </c>
-      <c r="D65" s="89" t="str">
+      <c r="D65" s="89">
         <f>'RAW GRADES'!I67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E65" s="52">
         <f>'RAW GRADES'!AN67</f>
@@ -26623,9 +26825,9 @@
         <f>'RAW GRADES'!F68</f>
         <v>0</v>
       </c>
-      <c r="D66" s="89" t="str">
+      <c r="D66" s="89">
         <f>'RAW GRADES'!I68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E66" s="52">
         <f>'RAW GRADES'!AN68</f>
@@ -26688,9 +26890,9 @@
         <f>'RAW GRADES'!F69</f>
         <v>0</v>
       </c>
-      <c r="D67" s="89" t="str">
+      <c r="D67" s="89">
         <f>'RAW GRADES'!I69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E67" s="52">
         <f>'RAW GRADES'!AN69</f>
@@ -26753,9 +26955,9 @@
         <f>'RAW GRADES'!F70</f>
         <v>0</v>
       </c>
-      <c r="D68" s="89" t="str">
+      <c r="D68" s="89">
         <f>'RAW GRADES'!I70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E68" s="52">
         <f>'RAW GRADES'!AN70</f>
@@ -27522,7 +27724,7 @@
       </c>
       <c r="C40" s="67" t="str">
         <f>REGISTRATION!B29</f>
-        <v>201701-069</v>
+        <v>201601-069</v>
       </c>
       <c r="D40" s="68">
         <f>'DEPT CHAIR'!O26</f>
@@ -27676,15 +27878,15 @@
       </c>
       <c r="D46" s="68">
         <f>'DEPT CHAIR'!O32</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E46" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" s="70" t="str">
         <f>'DEPT CHAIR'!P32</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18">
@@ -28615,7 +28817,7 @@
       <c r="D87" s="60"/>
       <c r="E87" s="255">
         <f ca="1">NOW()</f>
-        <v>43070.580560069444</v>
+        <v>43081.658452430558</v>
       </c>
       <c r="F87" s="255"/>
     </row>
@@ -28818,12 +29020,12 @@
       </c>
       <c r="C109" s="231">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="232"/>
       <c r="E109" s="233">
         <f>(C109/$C$114)*100</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F109" s="234"/>
     </row>
@@ -28850,12 +29052,12 @@
       </c>
       <c r="C111" s="231">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D111" s="232"/>
       <c r="E111" s="233">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="F111" s="234"/>
     </row>
@@ -29756,7 +29958,7 @@
       </c>
       <c r="B22" s="111" t="str">
         <f>'SEMESTRAL GRADE'!C40</f>
-        <v>201701-069</v>
+        <v>201601-069</v>
       </c>
       <c r="C22" s="113" t="str">
         <f>'SEMESTRAL GRADE'!B40</f>

--- a/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
+++ b/DCIT 21 - IT 1C/LEC AND LAB - IT 1C.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1680" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="4305" yWindow="1680" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -918,13 +918,13 @@
     <t>Programming I</t>
   </si>
   <si>
-    <t>ASSIGNMENT</t>
-  </si>
-  <si>
     <t>RECITATION</t>
   </si>
   <si>
-    <t>201601-069</t>
+    <t>SEATWORK</t>
+  </si>
+  <si>
+    <t>201602-069</t>
   </si>
 </sst>
 </file>
@@ -3890,8 +3890,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6113,9 +6113,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6993,9 +6993,7 @@
       <c r="BD9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="BE9" s="27">
-        <v>100</v>
-      </c>
+      <c r="BE9" s="27"/>
       <c r="BF9" s="30" t="s">
         <v>87</v>
       </c>
@@ -7003,7 +7001,9 @@
       <c r="BH9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BI9" s="27"/>
+      <c r="BI9" s="27">
+        <v>100</v>
+      </c>
       <c r="BJ9" s="30" t="s">
         <v>87</v>
       </c>
@@ -7152,15 +7152,19 @@
         <f>IFERROR(((L10/$L$9)*100),"")</f>
         <v>44</v>
       </c>
-      <c r="N10" s="107"/>
+      <c r="N10" s="107">
+        <v>35</v>
+      </c>
       <c r="O10" s="92">
         <f>IFERROR(((N10/$N$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="P10" s="107">
+        <v>15</v>
+      </c>
       <c r="Q10" s="92">
         <f>IFERROR(((P10/$P$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="107"/>
       <c r="S10" s="92" t="str">
@@ -7192,7 +7196,7 @@
       <c r="AM10" s="93"/>
       <c r="AN10" s="95">
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
-        <v>5.45</v>
+        <v>15.450000000000001</v>
       </c>
       <c r="AO10" s="107">
         <v>100</v>
@@ -7238,80 +7242,102 @@
       </c>
       <c r="BC10" s="98">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>56.575000000000003</v>
+        <v>66.575000000000003</v>
       </c>
       <c r="BD10" s="98">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>56.58</v>
+        <v>66.58</v>
       </c>
       <c r="BE10" s="107"/>
-      <c r="BF10" s="92">
+      <c r="BF10" s="92" t="str">
         <f>IFERROR(((BE10/$BE$9)*100),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG10" s="107"/>
       <c r="BH10" s="92" t="str">
         <f>IFERROR(((BG10/$BG$9)*100),"")</f>
         <v/>
       </c>
-      <c r="BI10" s="107"/>
-      <c r="BJ10" s="92" t="str">
+      <c r="BI10" s="107">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="92">
         <f>IFERROR(((finalExamLab/$BI$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK10" s="103">
         <f>IFERROR(((SUM(BF10,BH10,BJ10)/$BI$7)*$BK$7),"")</f>
         <v>0</v>
       </c>
-      <c r="BL10" s="107"/>
+      <c r="BL10" s="107">
+        <v>100</v>
+      </c>
       <c r="BM10" s="92">
         <f>IFERROR(((BL10/$BL$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BN10" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BN10" s="107">
+        <v>100</v>
+      </c>
       <c r="BO10" s="92">
         <f>IFERROR(((BN10/$BN$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BP10" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BP10" s="107">
+        <v>91</v>
+      </c>
       <c r="BQ10" s="92">
         <f>IFERROR(((BP10/$BP$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BR10" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BR10" s="107">
+        <v>100</v>
+      </c>
       <c r="BS10" s="92">
         <f>IFERROR(((BR10/$BR$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BT10" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BT10" s="107">
+        <v>100</v>
+      </c>
       <c r="BU10" s="92">
         <f>IFERROR(((BT10/$BT$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BV10" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV10" s="107">
+        <v>91</v>
+      </c>
       <c r="BW10" s="92">
         <f>IFERROR(((BV10/$BV$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BX10" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BX10" s="107">
+        <v>100</v>
+      </c>
       <c r="BY10" s="92">
         <f>IFERROR(((BX10/$BX$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BZ10" s="107">
+        <v>85</v>
+      </c>
       <c r="CA10" s="92">
         <f>IFERROR(((BZ10/$BZ$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="CB10" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CB10" s="107">
+        <v>100</v>
+      </c>
       <c r="CC10" s="92">
         <f>IFERROR(((CB10/$CB$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="CD10" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CD10" s="107">
+        <v>94</v>
+      </c>
       <c r="CE10" s="92">
         <f>IFERROR(((CD10/$CD$9)*100),"")</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="CF10" s="107"/>
       <c r="CG10" s="92" t="str">
@@ -7340,19 +7366,19 @@
       </c>
       <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>0</v>
+        <v>48.05</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>0</v>
+        <v>48.05</v>
       </c>
       <c r="CR10" s="99">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>0</v>
+        <v>48.05</v>
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>22.632000000000001</v>
+        <v>55.462000000000003</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7399,18 +7425,18 @@
         <v>14.25</v>
       </c>
       <c r="J11" s="108">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K11" s="92">
         <f t="shared" ref="K11:K70" si="3">IFERROR(((J11/$J$9)*100), "")</f>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L11" s="108">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M11" s="92">
         <f t="shared" ref="M11:M70" si="4">IFERROR(((L11/$L$9)*100),"")</f>
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="N11" s="108">
         <v>29</v>
@@ -7456,7 +7482,7 @@
       <c r="AM11" s="94"/>
       <c r="AN11" s="95">
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
-        <v>15.392857142857146</v>
+        <v>18.192857142857147</v>
       </c>
       <c r="AO11" s="108">
         <v>100</v>
@@ -7502,80 +7528,102 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>63.785714285714285</v>
+        <v>66.585714285714289</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>63.79</v>
+        <v>66.59</v>
       </c>
       <c r="BE11" s="108"/>
-      <c r="BF11" s="92">
+      <c r="BF11" s="92" t="str">
         <f t="shared" ref="BF11:BF70" si="20">IFERROR(((BE11/$BE$9)*100),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG11" s="108"/>
       <c r="BH11" s="92" t="str">
         <f t="shared" ref="BH11:BH70" si="21">IFERROR(((BG11/$BG$9)*100),"")</f>
         <v/>
       </c>
-      <c r="BI11" s="108"/>
-      <c r="BJ11" s="92" t="str">
+      <c r="BI11" s="107">
+        <v>84</v>
+      </c>
+      <c r="BJ11" s="92">
         <f>IFERROR(((BI11/$BI$9)*100),"")</f>
-        <v/>
+        <v>84</v>
       </c>
       <c r="BK11" s="103">
         <f t="shared" ref="BK11:BK70" si="22">IFERROR(((SUM(BF11,BH11,BJ11)/$BI$7)*$BK$7),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BL11" s="108"/>
+        <v>42</v>
+      </c>
+      <c r="BL11" s="107">
+        <v>100</v>
+      </c>
       <c r="BM11" s="92">
         <f t="shared" ref="BM11:BM70" si="23">IFERROR(((BL11/$BL$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BN11" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN11" s="107">
+        <v>100</v>
+      </c>
       <c r="BO11" s="92">
         <f t="shared" ref="BO11:BO70" si="24">IFERROR(((BN11/$BN$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BP11" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP11" s="107">
+        <v>91</v>
+      </c>
       <c r="BQ11" s="92">
         <f t="shared" ref="BQ11:BQ70" si="25">IFERROR(((BP11/$BP$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BR11" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BR11" s="107">
+        <v>100</v>
+      </c>
       <c r="BS11" s="92">
         <f t="shared" ref="BS11:BS70" si="26">IFERROR(((BR11/$BR$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BT11" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BT11" s="107">
+        <v>100</v>
+      </c>
       <c r="BU11" s="92">
         <f t="shared" ref="BU11:BU70" si="27">IFERROR(((BT11/$BT$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BV11" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV11" s="107">
+        <v>93</v>
+      </c>
       <c r="BW11" s="92">
         <f t="shared" ref="BW11:BW70" si="28">IFERROR(((BV11/$BV$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BX11" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BX11" s="107">
+        <v>91</v>
+      </c>
       <c r="BY11" s="92">
         <f t="shared" ref="BY11:BY70" si="29">IFERROR(((BX11/$BX$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BZ11" s="107">
+        <v>100</v>
+      </c>
       <c r="CA11" s="92">
         <f t="shared" ref="CA11:CA70" si="30">IFERROR(((BZ11/$BZ$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="CB11" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CB11" s="107">
+        <v>85</v>
+      </c>
       <c r="CC11" s="92">
         <f t="shared" ref="CC11:CC70" si="31">IFERROR(((CB11/$CB$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="CD11" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CD11" s="107">
+        <v>91</v>
+      </c>
       <c r="CE11" s="92">
         <f t="shared" ref="CE11:CE70" si="32">IFERROR(((CD11/$CD$9)*100),"")</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="CF11" s="107"/>
       <c r="CG11" s="92" t="str">
@@ -7604,27 +7652,27 @@
       </c>
       <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>0</v>
+        <v>47.55</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>0</v>
+        <v>89.55</v>
       </c>
       <c r="CR11" s="99">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>0</v>
+        <v>89.55</v>
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>25.516000000000002</v>
+        <v>80.366</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU11" s="93" t="str">
         <f t="shared" ref="CU11:CU70" si="42">IF(CT11&lt;=3,"PASSED","FAILED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="12" spans="1:99">
@@ -7773,73 +7821,95 @@
         <v>76.45</v>
       </c>
       <c r="BE12" s="108"/>
-      <c r="BF12" s="92">
+      <c r="BF12" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG12" s="108"/>
       <c r="BH12" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI12" s="108"/>
-      <c r="BJ12" s="92" t="str">
+      <c r="BI12" s="107">
+        <v>87</v>
+      </c>
+      <c r="BJ12" s="92">
         <f t="shared" ref="BJ12:BJ70" si="44">IFERROR(((BI12/$BI$9)*100),"")</f>
-        <v/>
+        <v>87</v>
       </c>
       <c r="BK12" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL12" s="108"/>
+        <v>43.5</v>
+      </c>
+      <c r="BL12" s="107">
+        <v>100</v>
+      </c>
       <c r="BM12" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN12" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN12" s="107">
+        <v>91</v>
+      </c>
       <c r="BO12" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP12" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BP12" s="107">
+        <v>91</v>
+      </c>
       <c r="BQ12" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR12" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BR12" s="107">
+        <v>100</v>
+      </c>
       <c r="BS12" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT12" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BT12" s="107">
+        <v>100</v>
+      </c>
       <c r="BU12" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV12" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV12" s="107">
+        <v>100</v>
+      </c>
       <c r="BW12" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX12" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX12" s="107">
+        <v>100</v>
+      </c>
       <c r="BY12" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ12" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BZ12" s="107">
+        <v>91</v>
+      </c>
       <c r="CA12" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB12" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CB12" s="107">
+        <v>100</v>
+      </c>
       <c r="CC12" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD12" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CD12" s="107">
+        <v>100</v>
+      </c>
       <c r="CE12" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF12" s="107"/>
       <c r="CG12" s="92" t="str">
@@ -7868,27 +7938,27 @@
       </c>
       <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>48.65</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>92.15</v>
       </c>
       <c r="CR12" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>92.15</v>
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>30.580000000000002</v>
+        <v>85.87</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU12" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="13" spans="1:99">
@@ -7927,18 +7997,18 @@
         <v>16.125</v>
       </c>
       <c r="J13" s="108">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K13" s="92">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="L13" s="108">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="N13" s="108">
         <v>17</v>
@@ -7984,7 +8054,7 @@
       <c r="AM13" s="94"/>
       <c r="AN13" s="95">
         <f t="shared" si="9"/>
-        <v>12.195238095238095</v>
+        <v>15.345238095238095</v>
       </c>
       <c r="AO13" s="108">
         <v>100</v>
@@ -8030,80 +8100,102 @@
       </c>
       <c r="BC13" s="98">
         <f t="shared" si="18"/>
-        <v>67.177380952380958</v>
+        <v>70.327380952380949</v>
       </c>
       <c r="BD13" s="98">
         <f t="shared" si="19"/>
-        <v>67.180000000000007</v>
+        <v>70.33</v>
       </c>
       <c r="BE13" s="108"/>
-      <c r="BF13" s="92">
+      <c r="BF13" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG13" s="108"/>
       <c r="BH13" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI13" s="108"/>
-      <c r="BJ13" s="92" t="str">
+      <c r="BI13" s="107">
+        <v>90</v>
+      </c>
+      <c r="BJ13" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BK13" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL13" s="108"/>
+        <v>45</v>
+      </c>
+      <c r="BL13" s="107">
+        <v>100</v>
+      </c>
       <c r="BM13" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN13" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN13" s="107">
+        <v>100</v>
+      </c>
       <c r="BO13" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP13" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP13" s="107">
+        <v>91</v>
+      </c>
       <c r="BQ13" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR13" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BR13" s="107">
+        <v>100</v>
+      </c>
       <c r="BS13" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT13" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BT13" s="107">
+        <v>95</v>
+      </c>
       <c r="BU13" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV13" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BV13" s="107">
+        <v>91</v>
+      </c>
       <c r="BW13" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX13" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BX13" s="107">
+        <v>100</v>
+      </c>
       <c r="BY13" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BZ13" s="107">
+        <v>100</v>
+      </c>
       <c r="CA13" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB13" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CB13" s="107">
+        <v>85</v>
+      </c>
       <c r="CC13" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD13" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CD13" s="107">
+        <v>94</v>
+      </c>
       <c r="CE13" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="CF13" s="107"/>
       <c r="CG13" s="92" t="str">
@@ -8132,27 +8224,27 @@
       </c>
       <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>92.8</v>
       </c>
       <c r="CR13" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>92.8</v>
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>26.872000000000003</v>
+        <v>83.811999999999998</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU13" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="14" spans="1:99">
@@ -8191,18 +8283,18 @@
         <v>12</v>
       </c>
       <c r="J14" s="108">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K14" s="92">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="L14" s="108">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N14" s="108">
         <v>14</v>
@@ -8248,7 +8340,7 @@
       <c r="AM14" s="94"/>
       <c r="AN14" s="95">
         <f t="shared" si="9"/>
-        <v>9.25</v>
+        <v>12.5</v>
       </c>
       <c r="AO14" s="108">
         <v>100</v>
@@ -8294,80 +8386,102 @@
       </c>
       <c r="BC14" s="98">
         <f t="shared" si="18"/>
-        <v>54.964285714285715</v>
+        <v>58.214285714285715</v>
       </c>
       <c r="BD14" s="98">
         <f t="shared" si="19"/>
-        <v>54.96</v>
+        <v>58.21</v>
       </c>
       <c r="BE14" s="108"/>
-      <c r="BF14" s="92">
+      <c r="BF14" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG14" s="108"/>
       <c r="BH14" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI14" s="108"/>
-      <c r="BJ14" s="92" t="str">
+      <c r="BI14" s="107">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK14" s="103">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL14" s="108"/>
+      <c r="BL14" s="107">
+        <v>100</v>
+      </c>
       <c r="BM14" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN14" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN14" s="107">
+        <v>95</v>
+      </c>
       <c r="BO14" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP14" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BP14" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ14" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR14" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR14" s="107">
+        <v>100</v>
+      </c>
       <c r="BS14" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT14" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BT14" s="107">
+        <v>100</v>
+      </c>
       <c r="BU14" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV14" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV14" s="107">
+        <v>91</v>
+      </c>
       <c r="BW14" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX14" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BX14" s="107">
+        <v>91</v>
+      </c>
       <c r="BY14" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ14" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BZ14" s="107">
+        <v>85</v>
+      </c>
       <c r="CA14" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB14" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CB14" s="107">
+        <v>100</v>
+      </c>
       <c r="CC14" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD14" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CD14" s="107">
+        <v>100</v>
+      </c>
       <c r="CE14" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF14" s="107"/>
       <c r="CG14" s="92" t="str">
@@ -8396,19 +8510,19 @@
       </c>
       <c r="CP14" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="CQ14" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="CR14" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>21.984000000000002</v>
+        <v>52.144000000000005</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8462,11 +8576,11 @@
         <v>75</v>
       </c>
       <c r="L15" s="108">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="N15" s="108">
         <v>20</v>
@@ -8512,7 +8626,7 @@
       <c r="AM15" s="94"/>
       <c r="AN15" s="95">
         <f t="shared" si="9"/>
-        <v>12.873809523809525</v>
+        <v>14.473809523809525</v>
       </c>
       <c r="AO15" s="108">
         <v>100</v>
@@ -8558,80 +8672,102 @@
       </c>
       <c r="BC15" s="98">
         <f t="shared" si="18"/>
-        <v>67.855952380952374</v>
+        <v>69.455952380952368</v>
       </c>
       <c r="BD15" s="98">
         <f t="shared" si="19"/>
-        <v>67.86</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="BE15" s="108"/>
-      <c r="BF15" s="92">
+      <c r="BF15" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG15" s="108"/>
       <c r="BH15" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI15" s="108"/>
-      <c r="BJ15" s="92" t="str">
+      <c r="BI15" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ15" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK15" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL15" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL15" s="107">
+        <v>100</v>
+      </c>
       <c r="BM15" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN15" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN15" s="107">
+        <v>100</v>
+      </c>
       <c r="BO15" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP15" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP15" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ15" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR15" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR15" s="107">
+        <v>95</v>
+      </c>
       <c r="BS15" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT15" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BT15" s="107">
+        <v>100</v>
+      </c>
       <c r="BU15" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV15" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV15" s="107">
+        <v>100</v>
+      </c>
       <c r="BW15" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX15" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX15" s="107">
+        <v>93</v>
+      </c>
       <c r="BY15" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ15" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BZ15" s="107">
+        <v>91</v>
+      </c>
       <c r="CA15" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB15" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CB15" s="107">
+        <v>100</v>
+      </c>
       <c r="CC15" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD15" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CD15" s="107">
+        <v>92</v>
+      </c>
       <c r="CE15" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="CF15" s="107"/>
       <c r="CG15" s="92" t="str">
@@ -8660,27 +8796,27 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>48.55</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>91.05</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>91.05</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>27.144000000000002</v>
+        <v>82.413999999999987</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU15" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="16" spans="1:99">
@@ -8825,73 +8961,95 @@
         <v>60.25</v>
       </c>
       <c r="BE16" s="108"/>
-      <c r="BF16" s="92">
+      <c r="BF16" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG16" s="108"/>
       <c r="BH16" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI16" s="108"/>
-      <c r="BJ16" s="92" t="str">
+      <c r="BI16" s="107">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK16" s="103">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL16" s="108"/>
+      <c r="BL16" s="107">
+        <v>100</v>
+      </c>
       <c r="BM16" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN16" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN16" s="107">
+        <v>91</v>
+      </c>
       <c r="BO16" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP16" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BP16" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ16" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR16" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR16" s="107">
+        <v>100</v>
+      </c>
       <c r="BS16" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT16" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BT16" s="107">
+        <v>95</v>
+      </c>
       <c r="BU16" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV16" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BV16" s="107">
+        <v>100</v>
+      </c>
       <c r="BW16" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX16" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX16" s="107">
+        <v>91</v>
+      </c>
       <c r="BY16" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ16" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BZ16" s="107">
+        <v>100</v>
+      </c>
       <c r="CA16" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB16" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CB16" s="107">
+        <v>93</v>
+      </c>
       <c r="CC16" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD16" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="CD16" s="107">
+        <v>85</v>
+      </c>
       <c r="CE16" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="CF16" s="107"/>
       <c r="CG16" s="92" t="str">
@@ -8920,19 +9078,19 @@
       </c>
       <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>24.1</v>
+        <v>52.75</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8979,23 +9137,25 @@
         <v>15.374999999999996</v>
       </c>
       <c r="J17" s="108">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K17" s="92">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L17" s="108">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M17" s="92">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="N17" s="108"/>
+        <v>84</v>
+      </c>
+      <c r="N17" s="108">
+        <v>29</v>
+      </c>
       <c r="O17" s="92">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>82.857142857142861</v>
       </c>
       <c r="P17" s="108">
         <v>7</v>
@@ -9034,7 +9194,7 @@
       <c r="AM17" s="94"/>
       <c r="AN17" s="95">
         <f t="shared" si="9"/>
-        <v>8.5833333333333339</v>
+        <v>14.926190476190477</v>
       </c>
       <c r="AO17" s="108">
         <v>100</v>
@@ -9080,80 +9240,102 @@
       </c>
       <c r="BC17" s="98">
         <f t="shared" si="18"/>
-        <v>61.529761904761898</v>
+        <v>67.87261904761904</v>
       </c>
       <c r="BD17" s="98">
         <f t="shared" si="19"/>
-        <v>61.53</v>
+        <v>67.87</v>
       </c>
       <c r="BE17" s="108"/>
-      <c r="BF17" s="92">
+      <c r="BF17" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG17" s="108"/>
       <c r="BH17" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI17" s="108"/>
-      <c r="BJ17" s="92" t="str">
+      <c r="BI17" s="107">
+        <v>90</v>
+      </c>
+      <c r="BJ17" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BK17" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL17" s="108"/>
+        <v>45</v>
+      </c>
+      <c r="BL17" s="107">
+        <v>100</v>
+      </c>
       <c r="BM17" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN17" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN17" s="107">
+        <v>100</v>
+      </c>
       <c r="BO17" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP17" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP17" s="107">
+        <v>91</v>
+      </c>
       <c r="BQ17" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR17" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BR17" s="107">
+        <v>95</v>
+      </c>
       <c r="BS17" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT17" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BT17" s="107">
+        <v>95</v>
+      </c>
       <c r="BU17" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV17" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BV17" s="107">
+        <v>91</v>
+      </c>
       <c r="BW17" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX17" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BX17" s="107">
+        <v>100</v>
+      </c>
       <c r="BY17" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ17" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BZ17" s="107">
+        <v>85</v>
+      </c>
       <c r="CA17" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB17" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CB17" s="107">
+        <v>91</v>
+      </c>
       <c r="CC17" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD17" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CD17" s="107">
+        <v>94</v>
+      </c>
       <c r="CE17" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="CF17" s="107"/>
       <c r="CG17" s="92" t="str">
@@ -9182,27 +9364,27 @@
       </c>
       <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>92.1</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>92.1</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>24.612000000000002</v>
+        <v>82.408000000000001</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU17" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="18" spans="1:99">
@@ -9345,73 +9527,95 @@
         <v>41.96</v>
       </c>
       <c r="BE18" s="108"/>
-      <c r="BF18" s="92">
+      <c r="BF18" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG18" s="108"/>
       <c r="BH18" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI18" s="108"/>
-      <c r="BJ18" s="92" t="str">
+      <c r="BI18" s="107">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK18" s="103">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL18" s="108"/>
+      <c r="BL18" s="107">
+        <v>100</v>
+      </c>
       <c r="BM18" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN18" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN18" s="107">
+        <v>91</v>
+      </c>
       <c r="BO18" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP18" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BP18" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ18" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR18" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR18" s="107">
+        <v>100</v>
+      </c>
       <c r="BS18" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT18" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BT18" s="107">
+        <v>94</v>
+      </c>
       <c r="BU18" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV18" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BV18" s="107">
+        <v>94</v>
+      </c>
       <c r="BW18" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX18" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BX18" s="107">
+        <v>94</v>
+      </c>
       <c r="BY18" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ18" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BZ18" s="107">
+        <v>91</v>
+      </c>
       <c r="CA18" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB18" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CB18" s="107">
+        <v>93</v>
+      </c>
       <c r="CC18" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD18" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="CD18" s="107">
+        <v>92</v>
+      </c>
       <c r="CE18" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="CF18" s="107"/>
       <c r="CG18" s="92" t="str">
@@ -9440,19 +9644,19 @@
       </c>
       <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.45</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>47.45</v>
       </c>
       <c r="CR18" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>47.45</v>
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>16.784000000000002</v>
+        <v>45.254000000000005</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9499,26 +9703,32 @@
         <v>17.249999999999996</v>
       </c>
       <c r="J19" s="108">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K19" s="92">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="108"/>
+        <v>85</v>
+      </c>
+      <c r="L19" s="108">
+        <v>18</v>
+      </c>
       <c r="M19" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="108"/>
+        <v>72</v>
+      </c>
+      <c r="N19" s="108">
+        <v>32</v>
+      </c>
       <c r="O19" s="92">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="108"/>
+        <v>91.428571428571431</v>
+      </c>
+      <c r="P19" s="108">
+        <v>13</v>
+      </c>
       <c r="Q19" s="92">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="R19" s="108"/>
       <c r="S19" s="92" t="str">
@@ -9550,7 +9760,7 @@
       <c r="AM19" s="94"/>
       <c r="AN19" s="95">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16.754761904761907</v>
       </c>
       <c r="AO19" s="108">
         <v>100</v>
@@ -9596,80 +9806,102 @@
       </c>
       <c r="BC19" s="98">
         <f t="shared" si="18"/>
-        <v>54.392857142857139</v>
+        <v>71.147619047619045</v>
       </c>
       <c r="BD19" s="98">
         <f t="shared" si="19"/>
-        <v>54.39</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="BE19" s="108"/>
-      <c r="BF19" s="92">
+      <c r="BF19" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG19" s="108"/>
       <c r="BH19" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI19" s="108"/>
-      <c r="BJ19" s="92" t="str">
+      <c r="BI19" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ19" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK19" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL19" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL19" s="107">
+        <v>100</v>
+      </c>
       <c r="BM19" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN19" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN19" s="107">
+        <v>100</v>
+      </c>
       <c r="BO19" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP19" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP19" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ19" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR19" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR19" s="107">
+        <v>95</v>
+      </c>
       <c r="BS19" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT19" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BT19" s="107">
+        <v>91</v>
+      </c>
       <c r="BU19" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV19" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BV19" s="107">
+        <v>91</v>
+      </c>
       <c r="BW19" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX19" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BX19" s="107">
+        <v>91</v>
+      </c>
       <c r="BY19" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ19" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BZ19" s="107">
+        <v>95</v>
+      </c>
       <c r="CA19" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB19" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CB19" s="107">
+        <v>100</v>
+      </c>
       <c r="CC19" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD19" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CD19" s="107">
+        <v>100</v>
+      </c>
       <c r="CE19" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF19" s="107"/>
       <c r="CG19" s="92" t="str">
@@ -9698,27 +9930,27 @@
       </c>
       <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>48.15</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>90.65</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>90.65</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>21.756</v>
+        <v>82.850000000000009</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU19" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="20" spans="1:99">
@@ -9757,18 +9989,18 @@
         <v>12.375</v>
       </c>
       <c r="J20" s="108">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K20" s="92">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="L20" s="108">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M20" s="92">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N20" s="108">
         <v>10</v>
@@ -9814,7 +10046,7 @@
       <c r="AM20" s="94"/>
       <c r="AN20" s="95">
         <f t="shared" si="9"/>
-        <v>9.5952380952380949</v>
+        <v>13.345238095238095</v>
       </c>
       <c r="AO20" s="108">
         <v>100</v>
@@ -9860,80 +10092,102 @@
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>58.25595238095238</v>
+        <v>62.00595238095238</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>58.26</v>
+        <v>62.01</v>
       </c>
       <c r="BE20" s="108"/>
-      <c r="BF20" s="92">
+      <c r="BF20" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG20" s="108"/>
       <c r="BH20" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI20" s="108"/>
-      <c r="BJ20" s="92" t="str">
+      <c r="BI20" s="107">
+        <v>88</v>
+      </c>
+      <c r="BJ20" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>88</v>
       </c>
       <c r="BK20" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL20" s="108"/>
+        <v>44</v>
+      </c>
+      <c r="BL20" s="107">
+        <v>100</v>
+      </c>
       <c r="BM20" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN20" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN20" s="107">
+        <v>94</v>
+      </c>
       <c r="BO20" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP20" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BP20" s="107">
+        <v>91</v>
+      </c>
       <c r="BQ20" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR20" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BR20" s="107">
+        <v>95</v>
+      </c>
       <c r="BS20" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT20" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BT20" s="107">
+        <v>95</v>
+      </c>
       <c r="BU20" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV20" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BV20" s="107">
+        <v>93</v>
+      </c>
       <c r="BW20" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX20" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BX20" s="107">
+        <v>100</v>
+      </c>
       <c r="BY20" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ20" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BZ20" s="107">
+        <v>85</v>
+      </c>
       <c r="CA20" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB20" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CB20" s="107">
+        <v>91</v>
+      </c>
       <c r="CC20" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD20" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CD20" s="107">
+        <v>91</v>
+      </c>
       <c r="CE20" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="CF20" s="107"/>
       <c r="CG20" s="92" t="str">
@@ -9962,27 +10216,27 @@
       </c>
       <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>46.75</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="CR20" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>23.304000000000002</v>
+        <v>79.253999999999991</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU20" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="21" spans="1:99">
@@ -10021,18 +10275,18 @@
         <v>14.25</v>
       </c>
       <c r="J21" s="108">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K21" s="92">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L21" s="108">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M21" s="92">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="N21" s="108">
         <v>35</v>
@@ -10078,7 +10332,7 @@
       <c r="AM21" s="94"/>
       <c r="AN21" s="95">
         <f t="shared" si="9"/>
-        <v>14.25</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="AO21" s="108">
         <v>100</v>
@@ -10124,80 +10378,102 @@
       </c>
       <c r="BC21" s="98">
         <f t="shared" si="18"/>
-        <v>65.214285714285722</v>
+        <v>68.814285714285717</v>
       </c>
       <c r="BD21" s="98">
         <f t="shared" si="19"/>
-        <v>65.209999999999994</v>
+        <v>68.81</v>
       </c>
       <c r="BE21" s="108"/>
-      <c r="BF21" s="92">
+      <c r="BF21" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG21" s="108"/>
       <c r="BH21" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI21" s="108"/>
-      <c r="BJ21" s="92" t="str">
+      <c r="BI21" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ21" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK21" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL21" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL21" s="107">
+        <v>100</v>
+      </c>
       <c r="BM21" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN21" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN21" s="107">
+        <v>100</v>
+      </c>
       <c r="BO21" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP21" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP21" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ21" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR21" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR21" s="107">
+        <v>95</v>
+      </c>
       <c r="BS21" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT21" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BT21" s="107">
+        <v>100</v>
+      </c>
       <c r="BU21" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV21" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV21" s="107">
+        <v>91</v>
+      </c>
       <c r="BW21" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX21" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BX21" s="107">
+        <v>91</v>
+      </c>
       <c r="BY21" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ21" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BZ21" s="107">
+        <v>91</v>
+      </c>
       <c r="CA21" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB21" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CB21" s="107">
+        <v>95</v>
+      </c>
       <c r="CC21" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD21" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CD21" s="107">
+        <v>95</v>
+      </c>
       <c r="CE21" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="CF21" s="107"/>
       <c r="CG21" s="92" t="str">
@@ -10226,27 +10502,27 @@
       </c>
       <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>90.4</v>
       </c>
       <c r="CR21" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>90.4</v>
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>26.084</v>
+        <v>81.76400000000001</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU21" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="22" spans="1:99">
@@ -10285,11 +10561,11 @@
         <v>15.75</v>
       </c>
       <c r="J22" s="108">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K22" s="92">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L22" s="108">
         <v>19</v>
@@ -10342,7 +10618,7 @@
       <c r="AM22" s="94"/>
       <c r="AN22" s="95">
         <f t="shared" si="9"/>
-        <v>12.633333333333333</v>
+        <v>13.383333333333335</v>
       </c>
       <c r="AO22" s="108">
         <v>100</v>
@@ -10388,80 +10664,102 @@
       </c>
       <c r="BC22" s="98">
         <f t="shared" si="18"/>
-        <v>64.669047619047618</v>
+        <v>65.419047619047618</v>
       </c>
       <c r="BD22" s="98">
         <f t="shared" si="19"/>
-        <v>64.67</v>
+        <v>65.42</v>
       </c>
       <c r="BE22" s="108"/>
-      <c r="BF22" s="92">
+      <c r="BF22" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG22" s="108"/>
       <c r="BH22" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI22" s="108"/>
-      <c r="BJ22" s="92" t="str">
+      <c r="BI22" s="107">
+        <v>90</v>
+      </c>
+      <c r="BJ22" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BK22" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL22" s="108"/>
+        <v>45</v>
+      </c>
+      <c r="BL22" s="107">
+        <v>100</v>
+      </c>
       <c r="BM22" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN22" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN22" s="107">
+        <v>91</v>
+      </c>
       <c r="BO22" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP22" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BP22" s="107">
+        <v>93</v>
+      </c>
       <c r="BQ22" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR22" s="108"/>
+        <v>93</v>
+      </c>
+      <c r="BR22" s="107">
+        <v>94</v>
+      </c>
       <c r="BS22" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT22" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BT22" s="107">
+        <v>91</v>
+      </c>
       <c r="BU22" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV22" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BV22" s="107">
+        <v>100</v>
+      </c>
       <c r="BW22" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX22" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX22" s="107">
+        <v>95</v>
+      </c>
       <c r="BY22" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ22" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BZ22" s="107">
+        <v>91</v>
+      </c>
       <c r="CA22" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB22" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CB22" s="107">
+        <v>91</v>
+      </c>
       <c r="CC22" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD22" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CD22" s="107">
+        <v>100</v>
+      </c>
       <c r="CE22" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF22" s="107"/>
       <c r="CG22" s="92" t="str">
@@ -10490,27 +10788,27 @@
       </c>
       <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>92.3</v>
       </c>
       <c r="CR22" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>92.3</v>
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>25.868000000000002</v>
+        <v>81.548000000000002</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU22" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="23" spans="1:99">
@@ -10538,29 +10836,29 @@
         <v>16.285714285714285</v>
       </c>
       <c r="G23" s="108">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H23" s="92">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="I23" s="95">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="J23" s="108">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K23" s="92">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L23" s="108">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M23" s="92">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="N23" s="108">
         <v>24</v>
@@ -10606,7 +10904,7 @@
       <c r="AM23" s="94"/>
       <c r="AN23" s="95">
         <f t="shared" si="9"/>
-        <v>11.611904761904761</v>
+        <v>14.211904761904762</v>
       </c>
       <c r="AO23" s="108">
         <v>100</v>
@@ -10652,80 +10950,102 @@
       </c>
       <c r="BC23" s="98">
         <f t="shared" si="18"/>
-        <v>62.897619047619045</v>
+        <v>69.247619047619054</v>
       </c>
       <c r="BD23" s="98">
         <f t="shared" si="19"/>
-        <v>62.9</v>
+        <v>69.25</v>
       </c>
       <c r="BE23" s="108"/>
-      <c r="BF23" s="92">
+      <c r="BF23" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG23" s="108"/>
       <c r="BH23" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI23" s="108"/>
-      <c r="BJ23" s="92" t="str">
+      <c r="BI23" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ23" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK23" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL23" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL23" s="107">
+        <v>100</v>
+      </c>
       <c r="BM23" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN23" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN23" s="107">
+        <v>93</v>
+      </c>
       <c r="BO23" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP23" s="108"/>
+        <v>93</v>
+      </c>
+      <c r="BP23" s="107">
+        <v>91</v>
+      </c>
       <c r="BQ23" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR23" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BR23" s="107">
+        <v>93</v>
+      </c>
       <c r="BS23" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT23" s="108"/>
+        <v>93</v>
+      </c>
+      <c r="BT23" s="107">
+        <v>100</v>
+      </c>
       <c r="BU23" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV23" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV23" s="107">
+        <v>91</v>
+      </c>
       <c r="BW23" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX23" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BX23" s="107">
+        <v>94</v>
+      </c>
       <c r="BY23" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ23" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BZ23" s="107">
+        <v>94</v>
+      </c>
       <c r="CA23" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB23" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="CB23" s="107">
+        <v>94</v>
+      </c>
       <c r="CC23" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD23" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="CD23" s="107">
+        <v>93</v>
+      </c>
       <c r="CE23" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="CF23" s="107"/>
       <c r="CG23" s="92" t="str">
@@ -10754,27 +11074,27 @@
       </c>
       <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.15</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>89.65</v>
       </c>
       <c r="CR23" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>89.65</v>
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>25.16</v>
+        <v>81.490000000000009</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU23" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="24" spans="1:99">
@@ -10791,15 +11111,15 @@
         <v>Cuison Jayson E</v>
       </c>
       <c r="D24" s="108">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24" s="92">
         <f t="shared" si="43"/>
-        <v>67.142857142857139</v>
+        <v>70</v>
       </c>
       <c r="F24" s="95">
         <f t="shared" si="0"/>
-        <v>20.142857142857142</v>
+        <v>21</v>
       </c>
       <c r="G24" s="108">
         <v>42</v>
@@ -10820,21 +11140,25 @@
         <v>75</v>
       </c>
       <c r="L24" s="108">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M24" s="92">
         <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="N24" s="108"/>
+        <v>84</v>
+      </c>
+      <c r="N24" s="108">
+        <v>30</v>
+      </c>
       <c r="O24" s="92">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="108"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="P24" s="108">
+        <v>15</v>
+      </c>
       <c r="Q24" s="92">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="108"/>
       <c r="S24" s="92" t="str">
@@ -10866,7 +11190,7 @@
       <c r="AM24" s="94"/>
       <c r="AN24" s="95">
         <f t="shared" si="9"/>
-        <v>6.3500000000000005</v>
+        <v>17.235714285714288</v>
       </c>
       <c r="AO24" s="108">
         <v>100</v>
@@ -10912,80 +11236,102 @@
       </c>
       <c r="BC24" s="98">
         <f t="shared" si="18"/>
-        <v>62.242857142857147</v>
+        <v>73.985714285714295</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" si="19"/>
-        <v>62.24</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="BE24" s="108"/>
-      <c r="BF24" s="92">
+      <c r="BF24" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG24" s="108"/>
       <c r="BH24" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI24" s="108"/>
-      <c r="BJ24" s="92" t="str">
+      <c r="BI24" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ24" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK24" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL24" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL24" s="107">
+        <v>100</v>
+      </c>
       <c r="BM24" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN24" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN24" s="107">
+        <v>95</v>
+      </c>
       <c r="BO24" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP24" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BP24" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ24" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR24" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR24" s="107">
+        <v>94</v>
+      </c>
       <c r="BS24" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT24" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BT24" s="107">
+        <v>93</v>
+      </c>
       <c r="BU24" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV24" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BV24" s="107">
+        <v>100</v>
+      </c>
       <c r="BW24" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX24" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX24" s="107">
+        <v>91</v>
+      </c>
       <c r="BY24" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ24" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BZ24" s="107">
+        <v>91</v>
+      </c>
       <c r="CA24" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB24" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CB24" s="107">
+        <v>91</v>
+      </c>
       <c r="CC24" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD24" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CD24" s="107">
+        <v>91</v>
+      </c>
       <c r="CE24" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="CF24" s="107"/>
       <c r="CG24" s="92" t="str">
@@ -11014,27 +11360,27 @@
       </c>
       <c r="CP24" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="CQ24" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="CR24" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>24.896000000000001</v>
+        <v>83.475999999999999</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU24" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="25" spans="1:99">
@@ -11183,73 +11529,95 @@
         <v>71.540000000000006</v>
       </c>
       <c r="BE25" s="108"/>
-      <c r="BF25" s="92">
+      <c r="BF25" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG25" s="108"/>
       <c r="BH25" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI25" s="108"/>
-      <c r="BJ25" s="92" t="str">
+      <c r="BI25" s="107">
+        <v>88</v>
+      </c>
+      <c r="BJ25" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>88</v>
       </c>
       <c r="BK25" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL25" s="108"/>
+        <v>44</v>
+      </c>
+      <c r="BL25" s="107">
+        <v>100</v>
+      </c>
       <c r="BM25" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN25" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN25" s="107">
+        <v>100</v>
+      </c>
       <c r="BO25" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP25" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP25" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ25" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR25" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR25" s="107">
+        <v>91</v>
+      </c>
       <c r="BS25" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT25" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BT25" s="107">
+        <v>91</v>
+      </c>
       <c r="BU25" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV25" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BV25" s="107">
+        <v>91</v>
+      </c>
       <c r="BW25" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX25" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BX25" s="107">
+        <v>93</v>
+      </c>
       <c r="BY25" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ25" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BZ25" s="107">
+        <v>94</v>
+      </c>
       <c r="CA25" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB25" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="CB25" s="107">
+        <v>91</v>
+      </c>
       <c r="CC25" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD25" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CD25" s="107">
+        <v>91</v>
+      </c>
       <c r="CE25" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="CF25" s="107"/>
       <c r="CG25" s="92" t="str">
@@ -11278,27 +11646,27 @@
       </c>
       <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>91.1</v>
       </c>
       <c r="CR25" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>91.1</v>
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>28.616000000000003</v>
+        <v>83.275999999999996</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU25" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:99">
@@ -11447,73 +11815,95 @@
         <v>30.5</v>
       </c>
       <c r="BE26" s="108"/>
-      <c r="BF26" s="92">
+      <c r="BF26" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG26" s="108"/>
       <c r="BH26" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI26" s="108"/>
-      <c r="BJ26" s="92" t="str">
+      <c r="BI26" s="107">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK26" s="103">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL26" s="108"/>
+      <c r="BL26" s="107">
+        <v>100</v>
+      </c>
       <c r="BM26" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN26" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN26" s="107">
+        <v>91</v>
+      </c>
       <c r="BO26" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP26" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BP26" s="107">
+        <v>95</v>
+      </c>
       <c r="BQ26" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR26" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BR26" s="107">
+        <v>94</v>
+      </c>
       <c r="BS26" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT26" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BT26" s="107">
+        <v>100</v>
+      </c>
       <c r="BU26" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV26" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV26" s="107">
+        <v>100</v>
+      </c>
       <c r="BW26" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX26" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX26" s="107">
+        <v>95</v>
+      </c>
       <c r="BY26" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ26" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BZ26" s="107">
+        <v>91</v>
+      </c>
       <c r="CA26" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB26" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CB26" s="107">
+        <v>91</v>
+      </c>
       <c r="CC26" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD26" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CD26" s="107">
+        <v>100</v>
+      </c>
       <c r="CE26" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF26" s="107"/>
       <c r="CG26" s="92" t="str">
@@ -11542,19 +11932,19 @@
       </c>
       <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.85</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>47.85</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>47.85</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>12.200000000000001</v>
+        <v>40.910000000000004</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11608,11 +11998,11 @@
         <v>75</v>
       </c>
       <c r="L27" s="108">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M27" s="92">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="N27" s="108">
         <v>32</v>
@@ -11658,7 +12048,7 @@
       <c r="AM27" s="94"/>
       <c r="AN27" s="95">
         <f t="shared" si="9"/>
-        <v>14.654761904761907</v>
+        <v>17.054761904761907</v>
       </c>
       <c r="AO27" s="108">
         <v>100</v>
@@ -11704,80 +12094,102 @@
       </c>
       <c r="BC27" s="98">
         <f t="shared" si="18"/>
-        <v>67.49404761904762</v>
+        <v>69.894047619047626</v>
       </c>
       <c r="BD27" s="98">
         <f t="shared" si="19"/>
-        <v>67.489999999999995</v>
+        <v>69.89</v>
       </c>
       <c r="BE27" s="108"/>
-      <c r="BF27" s="92">
+      <c r="BF27" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG27" s="108"/>
       <c r="BH27" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI27" s="108"/>
-      <c r="BJ27" s="92" t="str">
+      <c r="BI27" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ27" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK27" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL27" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL27" s="107">
+        <v>100</v>
+      </c>
       <c r="BM27" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN27" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN27" s="107">
+        <v>93</v>
+      </c>
       <c r="BO27" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP27" s="108"/>
+        <v>93</v>
+      </c>
+      <c r="BP27" s="107">
+        <v>91</v>
+      </c>
       <c r="BQ27" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR27" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BR27" s="107">
+        <v>93</v>
+      </c>
       <c r="BS27" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT27" s="108"/>
+        <v>93</v>
+      </c>
+      <c r="BT27" s="107">
+        <v>100</v>
+      </c>
       <c r="BU27" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV27" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV27" s="107">
+        <v>93</v>
+      </c>
       <c r="BW27" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX27" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BX27" s="107">
+        <v>91</v>
+      </c>
       <c r="BY27" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ27" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BZ27" s="107">
+        <v>91</v>
+      </c>
       <c r="CA27" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB27" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CB27" s="107">
+        <v>91</v>
+      </c>
       <c r="CC27" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD27" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CD27" s="107">
+        <v>91</v>
+      </c>
       <c r="CE27" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="CF27" s="107"/>
       <c r="CG27" s="92" t="str">
@@ -11806,27 +12218,27 @@
       </c>
       <c r="CP27" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="CQ27" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="CR27" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>26.995999999999999</v>
+        <v>81.475999999999999</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU27" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="28" spans="1:99">
@@ -11836,7 +12248,7 @@
       </c>
       <c r="B28" s="41" t="str">
         <f>REGISTRATION!B29</f>
-        <v>201601-069</v>
+        <v>201602-069</v>
       </c>
       <c r="C28" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C29," ",REGISTRATION!D29," ",REGISTRATION!E29)</f>
@@ -11865,18 +12277,18 @@
         <v>16.5</v>
       </c>
       <c r="J28" s="108">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K28" s="92">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L28" s="108">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M28" s="92">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="N28" s="108">
         <v>32</v>
@@ -11922,7 +12334,7 @@
       <c r="AM28" s="94"/>
       <c r="AN28" s="95">
         <f t="shared" si="9"/>
-        <v>13.354761904761908</v>
+        <v>15.354761904761908</v>
       </c>
       <c r="AO28" s="108">
         <v>100</v>
@@ -11968,80 +12380,102 @@
       </c>
       <c r="BC28" s="98">
         <f t="shared" si="18"/>
-        <v>66.140476190476193</v>
+        <v>68.140476190476193</v>
       </c>
       <c r="BD28" s="98">
         <f t="shared" si="19"/>
-        <v>66.14</v>
+        <v>68.14</v>
       </c>
       <c r="BE28" s="108"/>
-      <c r="BF28" s="92">
+      <c r="BF28" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG28" s="108"/>
       <c r="BH28" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI28" s="108"/>
-      <c r="BJ28" s="92" t="str">
+      <c r="BI28" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ28" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK28" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL28" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL28" s="107">
+        <v>100</v>
+      </c>
       <c r="BM28" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN28" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN28" s="107">
+        <v>100</v>
+      </c>
       <c r="BO28" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP28" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP28" s="107">
+        <v>94</v>
+      </c>
       <c r="BQ28" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR28" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BR28" s="107">
+        <v>91</v>
+      </c>
       <c r="BS28" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT28" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BT28" s="107">
+        <v>91</v>
+      </c>
       <c r="BU28" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV28" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BV28" s="107">
+        <v>100</v>
+      </c>
       <c r="BW28" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX28" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX28" s="107">
+        <v>91</v>
+      </c>
       <c r="BY28" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ28" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BZ28" s="107">
+        <v>100</v>
+      </c>
       <c r="CA28" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB28" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CB28" s="107">
+        <v>91</v>
+      </c>
       <c r="CC28" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD28" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="CD28" s="107">
+        <v>85</v>
+      </c>
       <c r="CE28" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="CF28" s="107"/>
       <c r="CG28" s="92" t="str">
@@ -12070,27 +12504,27 @@
       </c>
       <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.15</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>89.65</v>
       </c>
       <c r="CR28" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>89.65</v>
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>26.456000000000003</v>
+        <v>81.045999999999992</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU28" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="29" spans="1:99">
@@ -12136,11 +12570,11 @@
         <v>85</v>
       </c>
       <c r="L29" s="108">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M29" s="92">
         <f t="shared" si="4"/>
-        <v>28.000000000000004</v>
+        <v>84</v>
       </c>
       <c r="N29" s="108">
         <v>31</v>
@@ -12186,7 +12620,7 @@
       <c r="AM29" s="94"/>
       <c r="AN29" s="95">
         <f t="shared" si="9"/>
-        <v>14.411904761904763</v>
+        <v>17.211904761904762</v>
       </c>
       <c r="AO29" s="108">
         <v>90</v>
@@ -12232,80 +12666,102 @@
       </c>
       <c r="BC29" s="98">
         <f t="shared" si="18"/>
-        <v>61.804761904761904</v>
+        <v>64.604761904761901</v>
       </c>
       <c r="BD29" s="98">
         <f t="shared" si="19"/>
-        <v>61.8</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="BE29" s="108"/>
-      <c r="BF29" s="92">
+      <c r="BF29" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG29" s="108"/>
       <c r="BH29" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI29" s="108"/>
-      <c r="BJ29" s="92" t="str">
+      <c r="BI29" s="107">
+        <v>84</v>
+      </c>
+      <c r="BJ29" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>84</v>
       </c>
       <c r="BK29" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL29" s="108"/>
+        <v>42</v>
+      </c>
+      <c r="BL29" s="107">
+        <v>100</v>
+      </c>
       <c r="BM29" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN29" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN29" s="107">
+        <v>91</v>
+      </c>
       <c r="BO29" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP29" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BP29" s="107">
+        <v>93</v>
+      </c>
       <c r="BQ29" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR29" s="108"/>
+        <v>93</v>
+      </c>
+      <c r="BR29" s="107">
+        <v>100</v>
+      </c>
       <c r="BS29" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT29" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BT29" s="107">
+        <v>94</v>
+      </c>
       <c r="BU29" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV29" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BV29" s="107">
+        <v>100</v>
+      </c>
       <c r="BW29" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX29" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX29" s="107">
+        <v>100</v>
+      </c>
       <c r="BY29" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ29" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BZ29" s="107">
+        <v>93</v>
+      </c>
       <c r="CA29" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB29" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="CB29" s="107">
+        <v>94</v>
+      </c>
       <c r="CC29" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD29" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="CD29" s="107">
+        <v>91</v>
+      </c>
       <c r="CE29" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="CF29" s="107"/>
       <c r="CG29" s="92" t="str">
@@ -12334,27 +12790,27 @@
       </c>
       <c r="CP29" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="CQ29" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="CR29" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>24.72</v>
+        <v>79.72</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU29" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="30" spans="1:99">
@@ -12503,73 +12959,95 @@
         <v>46.56</v>
       </c>
       <c r="BE30" s="108"/>
-      <c r="BF30" s="92">
+      <c r="BF30" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG30" s="108"/>
       <c r="BH30" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI30" s="108"/>
-      <c r="BJ30" s="92" t="str">
+      <c r="BI30" s="107">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK30" s="103">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BL30" s="108"/>
+      <c r="BL30" s="107">
+        <v>100</v>
+      </c>
       <c r="BM30" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN30" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN30" s="107">
+        <v>94</v>
+      </c>
       <c r="BO30" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP30" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BP30" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ30" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR30" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR30" s="107">
+        <v>91</v>
+      </c>
       <c r="BS30" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT30" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BT30" s="107">
+        <v>91</v>
+      </c>
       <c r="BU30" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV30" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BV30" s="107">
+        <v>95</v>
+      </c>
       <c r="BW30" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX30" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BX30" s="107">
+        <v>95</v>
+      </c>
       <c r="BY30" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ30" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BZ30" s="107">
+        <v>100</v>
+      </c>
       <c r="CA30" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB30" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CB30" s="107">
+        <v>95</v>
+      </c>
       <c r="CC30" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD30" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CD30" s="107">
+        <v>85</v>
+      </c>
       <c r="CE30" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="CF30" s="107"/>
       <c r="CG30" s="92" t="str">
@@ -12598,19 +13076,19 @@
       </c>
       <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="CR30" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>18.624000000000002</v>
+        <v>47.004000000000005</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12646,15 +13124,15 @@
         <v>16.285714285714285</v>
       </c>
       <c r="G31" s="108">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" s="92">
         <f t="shared" si="2"/>
-        <v>31.25</v>
+        <v>32.5</v>
       </c>
       <c r="I31" s="95">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>9.75</v>
       </c>
       <c r="J31" s="108">
         <v>15</v>
@@ -12664,16 +13142,18 @@
         <v>75</v>
       </c>
       <c r="L31" s="108">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M31" s="92">
         <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="N31" s="108"/>
+        <v>80</v>
+      </c>
+      <c r="N31" s="108">
+        <v>28</v>
+      </c>
       <c r="O31" s="92">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P31" s="108">
         <v>6</v>
@@ -12712,7 +13192,7 @@
       <c r="AM31" s="94"/>
       <c r="AN31" s="95">
         <f t="shared" si="9"/>
-        <v>7.95</v>
+        <v>13.75</v>
       </c>
       <c r="AO31" s="108">
         <v>100</v>
@@ -12758,80 +13238,102 @@
       </c>
       <c r="BC31" s="98">
         <f t="shared" si="18"/>
-        <v>53.610714285714288</v>
+        <v>59.785714285714285</v>
       </c>
       <c r="BD31" s="98">
         <f t="shared" si="19"/>
-        <v>53.61</v>
+        <v>59.79</v>
       </c>
       <c r="BE31" s="108"/>
-      <c r="BF31" s="92">
+      <c r="BF31" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG31" s="108"/>
       <c r="BH31" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI31" s="108"/>
-      <c r="BJ31" s="92" t="str">
+      <c r="BI31" s="107">
+        <v>89</v>
+      </c>
+      <c r="BJ31" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>89</v>
       </c>
       <c r="BK31" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL31" s="108"/>
+        <v>44.5</v>
+      </c>
+      <c r="BL31" s="107">
+        <v>100</v>
+      </c>
       <c r="BM31" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN31" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN31" s="107">
+        <v>95</v>
+      </c>
       <c r="BO31" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP31" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BP31" s="107">
+        <v>95</v>
+      </c>
       <c r="BQ31" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR31" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BR31" s="107">
+        <v>91</v>
+      </c>
       <c r="BS31" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT31" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BT31" s="107">
+        <v>100</v>
+      </c>
       <c r="BU31" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV31" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV31" s="107">
+        <v>94</v>
+      </c>
       <c r="BW31" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX31" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BX31" s="107">
+        <v>94</v>
+      </c>
       <c r="BY31" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ31" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BZ31" s="107">
+        <v>93</v>
+      </c>
       <c r="CA31" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB31" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="CB31" s="107">
+        <v>100</v>
+      </c>
       <c r="CC31" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD31" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CD31" s="107">
+        <v>93</v>
+      </c>
       <c r="CE31" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="CF31" s="107"/>
       <c r="CG31" s="92" t="str">
@@ -12860,27 +13362,27 @@
       </c>
       <c r="CP31" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="CQ31" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="CR31" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>21.444000000000003</v>
+        <v>79.266000000000005</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU31" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="32" spans="1:99">
@@ -12919,18 +13421,18 @@
         <v>15.374999999999996</v>
       </c>
       <c r="J32" s="108">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K32" s="92">
         <f t="shared" si="3"/>
-        <v>55.000000000000007</v>
+        <v>85</v>
       </c>
       <c r="L32" s="108">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M32" s="92">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="N32" s="108">
         <v>7</v>
@@ -12976,7 +13478,7 @@
       <c r="AM32" s="94"/>
       <c r="AN32" s="95">
         <f t="shared" si="9"/>
-        <v>9.9500000000000011</v>
+        <v>13.450000000000001</v>
       </c>
       <c r="AO32" s="108">
         <v>100</v>
@@ -13022,80 +13524,102 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>62.896428571428572</v>
+        <v>66.396428571428572</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>62.9</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="BE32" s="108"/>
-      <c r="BF32" s="92">
+      <c r="BF32" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG32" s="108"/>
       <c r="BH32" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI32" s="108"/>
-      <c r="BJ32" s="92" t="str">
+      <c r="BI32" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ32" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK32" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL32" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL32" s="107">
+        <v>100</v>
+      </c>
       <c r="BM32" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN32" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN32" s="107">
+        <v>91</v>
+      </c>
       <c r="BO32" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP32" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BP32" s="107">
+        <v>93</v>
+      </c>
       <c r="BQ32" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR32" s="108"/>
+        <v>93</v>
+      </c>
+      <c r="BR32" s="107">
+        <v>100</v>
+      </c>
       <c r="BS32" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT32" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BT32" s="107">
+        <v>91</v>
+      </c>
       <c r="BU32" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV32" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BV32" s="107">
+        <v>95</v>
+      </c>
       <c r="BW32" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX32" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BX32" s="107">
+        <v>95</v>
+      </c>
       <c r="BY32" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ32" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BZ32" s="107">
+        <v>100</v>
+      </c>
       <c r="CA32" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB32" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CB32" s="107">
+        <v>95</v>
+      </c>
       <c r="CC32" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD32" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CD32" s="107">
+        <v>95</v>
+      </c>
       <c r="CE32" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="CF32" s="107"/>
       <c r="CG32" s="92" t="str">
@@ -13124,27 +13648,27 @@
       </c>
       <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>90.25</v>
       </c>
       <c r="CR32" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>90.25</v>
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>25.16</v>
+        <v>80.710000000000008</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU32" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="33" spans="1:99">
@@ -13293,73 +13817,95 @@
         <v>86.21</v>
       </c>
       <c r="BE33" s="108"/>
-      <c r="BF33" s="92">
+      <c r="BF33" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG33" s="108"/>
       <c r="BH33" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI33" s="108"/>
-      <c r="BJ33" s="92" t="str">
+      <c r="BI33" s="107">
+        <v>90</v>
+      </c>
+      <c r="BJ33" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BK33" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL33" s="108"/>
+        <v>45</v>
+      </c>
+      <c r="BL33" s="107">
+        <v>100</v>
+      </c>
       <c r="BM33" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN33" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN33" s="107">
+        <v>93</v>
+      </c>
       <c r="BO33" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP33" s="108"/>
+        <v>93</v>
+      </c>
+      <c r="BP33" s="107">
+        <v>95</v>
+      </c>
       <c r="BQ33" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR33" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BR33" s="107">
+        <v>91</v>
+      </c>
       <c r="BS33" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT33" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BT33" s="107">
+        <v>95</v>
+      </c>
       <c r="BU33" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV33" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BV33" s="107">
+        <v>100</v>
+      </c>
       <c r="BW33" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX33" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX33" s="107">
+        <v>100</v>
+      </c>
       <c r="BY33" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ33" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BZ33" s="107">
+        <v>93</v>
+      </c>
       <c r="CA33" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB33" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="CB33" s="107">
+        <v>93</v>
+      </c>
       <c r="CC33" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD33" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="CD33" s="107">
+        <v>100</v>
+      </c>
       <c r="CE33" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF33" s="107"/>
       <c r="CG33" s="92" t="str">
@@ -13388,27 +13934,27 @@
       </c>
       <c r="CP33" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="CQ33" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="CR33" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>34.484000000000002</v>
+        <v>90.283999999999992</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="CU33" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="34" spans="1:99">
@@ -13556,22 +14102,22 @@
         <f t="shared" si="19"/>
         <v>82.2</v>
       </c>
-      <c r="BE34" s="108">
-        <v>80</v>
-      </c>
-      <c r="BF34" s="92">
+      <c r="BE34" s="108"/>
+      <c r="BF34" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>80</v>
+        <v/>
       </c>
       <c r="BG34" s="108"/>
       <c r="BH34" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI34" s="108"/>
-      <c r="BJ34" s="92" t="str">
+      <c r="BI34" s="107">
+        <v>80</v>
+      </c>
+      <c r="BJ34" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BK34" s="103">
         <f t="shared" si="22"/>
@@ -13591,21 +14137,21 @@
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
-      <c r="BP34" s="108">
+      <c r="BP34" s="107">
         <v>100</v>
       </c>
       <c r="BQ34" s="92">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="BR34" s="108">
+      <c r="BR34" s="107">
         <v>100</v>
       </c>
       <c r="BS34" s="92">
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT34" s="108">
+      <c r="BT34" s="107">
         <v>100</v>
       </c>
       <c r="BU34" s="92">
@@ -13613,18 +14159,18 @@
         <v>100</v>
       </c>
       <c r="BV34" s="107">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BW34" s="92">
         <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="BX34" s="107">
         <v>90</v>
-      </c>
-      <c r="BX34" s="107">
-        <v>100</v>
       </c>
       <c r="BY34" s="92">
         <f t="shared" si="29"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BZ34" s="107">
         <v>100</v>
@@ -13740,11 +14286,11 @@
         <v>70</v>
       </c>
       <c r="L35" s="108">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M35" s="92">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="N35" s="108">
         <v>29</v>
@@ -13790,7 +14336,7 @@
       <c r="AM35" s="94"/>
       <c r="AN35" s="95">
         <f t="shared" si="9"/>
-        <v>14.042857142857144</v>
+        <v>16.242857142857144</v>
       </c>
       <c r="AO35" s="108">
         <v>100</v>
@@ -13836,80 +14382,102 @@
       </c>
       <c r="BC35" s="98">
         <f t="shared" si="18"/>
-        <v>61.417857142857144</v>
+        <v>63.617857142857147</v>
       </c>
       <c r="BD35" s="98">
         <f t="shared" si="19"/>
-        <v>61.42</v>
+        <v>63.62</v>
       </c>
       <c r="BE35" s="108"/>
-      <c r="BF35" s="92">
+      <c r="BF35" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG35" s="108"/>
       <c r="BH35" s="92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BI35" s="108"/>
-      <c r="BJ35" s="92" t="str">
+      <c r="BI35" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ35" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK35" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL35" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL35" s="107">
+        <v>100</v>
+      </c>
       <c r="BM35" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN35" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN35" s="108">
+        <v>100</v>
+      </c>
       <c r="BO35" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP35" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP35" s="108">
+        <v>94</v>
+      </c>
       <c r="BQ35" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR35" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BR35" s="108">
+        <v>91</v>
+      </c>
       <c r="BS35" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT35" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BT35" s="108">
+        <v>93</v>
+      </c>
       <c r="BU35" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV35" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BV35" s="107">
+        <v>94</v>
+      </c>
       <c r="BW35" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX35" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BX35" s="107">
+        <v>93</v>
+      </c>
       <c r="BY35" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ35" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BZ35" s="107">
+        <v>95</v>
+      </c>
       <c r="CA35" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB35" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CB35" s="107">
+        <v>95</v>
+      </c>
       <c r="CC35" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD35" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CD35" s="107">
+        <v>95</v>
+      </c>
       <c r="CE35" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="CF35" s="107"/>
       <c r="CG35" s="92" t="str">
@@ -13938,27 +14506,27 @@
       </c>
       <c r="CP35" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="CQ35" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="CR35" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="CS35" s="104">
         <f t="shared" si="45"/>
-        <v>24.568000000000001</v>
+        <v>79.448000000000008</v>
       </c>
       <c r="CT35" s="104">
         <f>IFERROR(VLOOKUP(CS35,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU35" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="36" spans="1:99">
@@ -14004,11 +14572,11 @@
         <v>75</v>
       </c>
       <c r="L36" s="108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M36" s="92">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="N36" s="108">
         <v>32</v>
@@ -14054,7 +14622,7 @@
       <c r="AM36" s="94"/>
       <c r="AN36" s="95">
         <f t="shared" si="9"/>
-        <v>16.521428571428572</v>
+        <v>17.321428571428573</v>
       </c>
       <c r="AO36" s="108">
         <v>100</v>
@@ -14100,80 +14668,99 @@
       </c>
       <c r="BC36" s="98">
         <f t="shared" si="18"/>
-        <v>72.253571428571433</v>
+        <v>73.053571428571416</v>
       </c>
       <c r="BD36" s="98">
         <f t="shared" si="19"/>
-        <v>72.25</v>
+        <v>73.05</v>
       </c>
       <c r="BE36" s="108"/>
-      <c r="BF36" s="92">
+      <c r="BF36" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG36" s="108"/>
-      <c r="BH36" s="92" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="BI36" s="108"/>
-      <c r="BJ36" s="92" t="str">
+      <c r="BH36" s="107"/>
+      <c r="BI36" s="107">
+        <v>87</v>
+      </c>
+      <c r="BJ36" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>87</v>
       </c>
       <c r="BK36" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL36" s="108"/>
+        <v>43.5</v>
+      </c>
+      <c r="BL36" s="107">
+        <v>100</v>
+      </c>
       <c r="BM36" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN36" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN36" s="107">
+        <v>100</v>
+      </c>
       <c r="BO36" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP36" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BP36" s="107">
+        <v>95</v>
+      </c>
       <c r="BQ36" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR36" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BR36" s="107">
+        <v>91</v>
+      </c>
       <c r="BS36" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT36" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BT36" s="107">
+        <v>94</v>
+      </c>
       <c r="BU36" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV36" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BV36" s="107">
+        <v>95</v>
+      </c>
       <c r="BW36" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX36" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BX36" s="107">
+        <v>100</v>
+      </c>
       <c r="BY36" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ36" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BZ36" s="107">
+        <v>100</v>
+      </c>
       <c r="CA36" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB36" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="CB36" s="107">
+        <v>85</v>
+      </c>
       <c r="CC36" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD36" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CD36" s="107">
+        <v>85</v>
+      </c>
       <c r="CE36" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="CF36" s="107"/>
       <c r="CG36" s="92" t="str">
@@ -14202,27 +14789,27 @@
       </c>
       <c r="CP36" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.25</v>
       </c>
       <c r="CQ36" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="CR36" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="CS36" s="104">
         <f t="shared" si="45"/>
-        <v>28.900000000000002</v>
+        <v>83.669999999999987</v>
       </c>
       <c r="CT36" s="104">
         <f>IFERROR(VLOOKUP(CS36,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CU36" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="37" spans="1:99">
@@ -14239,15 +14826,15 @@
         <v>Ramos Shaine Marie R</v>
       </c>
       <c r="D37" s="108">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="92">
         <f t="shared" si="43"/>
-        <v>68.571428571428569</v>
+        <v>70</v>
       </c>
       <c r="F37" s="95">
         <f t="shared" si="0"/>
-        <v>20.571428571428569</v>
+        <v>21</v>
       </c>
       <c r="G37" s="108">
         <v>41</v>
@@ -14261,18 +14848,18 @@
         <v>15.374999999999996</v>
       </c>
       <c r="J37" s="108">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K37" s="92">
         <f t="shared" si="3"/>
-        <v>55.000000000000007</v>
+        <v>90</v>
       </c>
       <c r="L37" s="108">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M37" s="92">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N37" s="108">
         <v>12</v>
@@ -14318,7 +14905,7 @@
       <c r="AM37" s="94"/>
       <c r="AN37" s="95">
         <f t="shared" si="9"/>
-        <v>9.4642857142857135</v>
+        <v>12.614285714285714</v>
       </c>
       <c r="AO37" s="108">
         <v>100</v>
@@ -14364,80 +14951,99 @@
       </c>
       <c r="BC37" s="98">
         <f t="shared" si="18"/>
-        <v>65.410714285714278</v>
+        <v>68.989285714285714</v>
       </c>
       <c r="BD37" s="98">
         <f t="shared" si="19"/>
-        <v>65.41</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="BE37" s="108"/>
-      <c r="BF37" s="92">
+      <c r="BF37" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG37" s="108"/>
-      <c r="BH37" s="92" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="BI37" s="108"/>
-      <c r="BJ37" s="92" t="str">
+      <c r="BH37" s="107"/>
+      <c r="BI37" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ37" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK37" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL37" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL37" s="107">
+        <v>100</v>
+      </c>
       <c r="BM37" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN37" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN37" s="107">
+        <v>95</v>
+      </c>
       <c r="BO37" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP37" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BP37" s="107">
+        <v>100</v>
+      </c>
       <c r="BQ37" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR37" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BR37" s="107">
+        <v>91</v>
+      </c>
       <c r="BS37" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT37" s="108"/>
+        <v>91</v>
+      </c>
+      <c r="BT37" s="107">
+        <v>93</v>
+      </c>
       <c r="BU37" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV37" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BV37" s="107">
+        <v>95</v>
+      </c>
       <c r="BW37" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX37" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BX37" s="107">
+        <v>95</v>
+      </c>
       <c r="BY37" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ37" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BZ37" s="107">
+        <v>95</v>
+      </c>
       <c r="CA37" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB37" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CB37" s="107">
+        <v>95</v>
+      </c>
       <c r="CC37" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD37" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CD37" s="107">
+        <v>95</v>
+      </c>
       <c r="CE37" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="CF37" s="107"/>
       <c r="CG37" s="92" t="str">
@@ -14466,27 +15072,27 @@
       </c>
       <c r="CP37" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.7</v>
       </c>
       <c r="CQ37" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="CR37" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="CS37" s="104">
         <f t="shared" si="45"/>
-        <v>26.164000000000001</v>
+        <v>81.715999999999994</v>
       </c>
       <c r="CT37" s="104">
         <f>IFERROR(VLOOKUP(CS37,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU37" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="38" spans="1:99">
@@ -14532,11 +15138,11 @@
         <v>80</v>
       </c>
       <c r="L38" s="108">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M38" s="92">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="N38" s="108">
         <v>23</v>
@@ -14545,10 +15151,12 @@
         <f t="shared" si="5"/>
         <v>65.714285714285708</v>
       </c>
-      <c r="P38" s="108"/>
+      <c r="P38" s="108">
+        <v>13</v>
+      </c>
       <c r="Q38" s="92">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="R38" s="108"/>
       <c r="S38" s="92" t="str">
@@ -14580,7 +15188,7 @@
       <c r="AM38" s="94"/>
       <c r="AN38" s="95">
         <f t="shared" si="9"/>
-        <v>9.6857142857142868</v>
+        <v>15.819047619047621</v>
       </c>
       <c r="AO38" s="108">
         <v>100</v>
@@ -14626,80 +15234,99 @@
       </c>
       <c r="BC38" s="98">
         <f t="shared" si="18"/>
-        <v>62.096428571428568</v>
+        <v>68.229761904761915</v>
       </c>
       <c r="BD38" s="98">
         <f t="shared" si="19"/>
-        <v>62.1</v>
+        <v>68.23</v>
       </c>
       <c r="BE38" s="108"/>
-      <c r="BF38" s="92">
+      <c r="BF38" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG38" s="108"/>
-      <c r="BH38" s="92" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="BI38" s="108"/>
-      <c r="BJ38" s="92" t="str">
+      <c r="BH38" s="107"/>
+      <c r="BI38" s="107">
+        <v>89</v>
+      </c>
+      <c r="BJ38" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>89</v>
       </c>
       <c r="BK38" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL38" s="108"/>
+        <v>44.5</v>
+      </c>
+      <c r="BL38" s="107">
+        <v>100</v>
+      </c>
       <c r="BM38" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN38" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN38" s="107">
+        <v>94</v>
+      </c>
       <c r="BO38" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP38" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BP38" s="107">
+        <v>95</v>
+      </c>
       <c r="BQ38" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR38" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BR38" s="107">
+        <v>100</v>
+      </c>
       <c r="BS38" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT38" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BT38" s="107">
+        <v>91</v>
+      </c>
       <c r="BU38" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV38" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BV38" s="107">
+        <v>95</v>
+      </c>
       <c r="BW38" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX38" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BX38" s="107">
+        <v>100</v>
+      </c>
       <c r="BY38" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ38" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BZ38" s="107">
+        <v>95</v>
+      </c>
       <c r="CA38" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB38" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CB38" s="107">
+        <v>85</v>
+      </c>
       <c r="CC38" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD38" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CD38" s="107">
+        <v>100</v>
+      </c>
       <c r="CE38" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CF38" s="107"/>
       <c r="CG38" s="92" t="str">
@@ -14728,27 +15355,27 @@
       </c>
       <c r="CP38" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="CQ38" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="CR38" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="CS38" s="104">
         <f t="shared" si="45"/>
-        <v>24.840000000000003</v>
+        <v>82.641999999999996</v>
       </c>
       <c r="CT38" s="104">
         <f>IFERROR(VLOOKUP(CS38,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU38" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="39" spans="1:99">
@@ -14776,15 +15403,15 @@
         <v>24.428571428571427</v>
       </c>
       <c r="G39" s="108">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H39" s="92">
         <f t="shared" si="2"/>
-        <v>63.749999999999993</v>
+        <v>66.25</v>
       </c>
       <c r="I39" s="95">
         <f t="shared" si="1"/>
-        <v>19.124999999999996</v>
+        <v>19.875</v>
       </c>
       <c r="J39" s="108">
         <v>15</v>
@@ -14794,11 +15421,11 @@
         <v>75</v>
       </c>
       <c r="L39" s="108">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M39" s="92">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="N39" s="108">
         <v>29</v>
@@ -14844,7 +15471,7 @@
       <c r="AM39" s="94"/>
       <c r="AN39" s="95">
         <f t="shared" si="9"/>
-        <v>15.55952380952381</v>
+        <v>17.159523809523812</v>
       </c>
       <c r="AO39" s="108">
         <v>100</v>
@@ -14890,80 +15517,99 @@
       </c>
       <c r="BC39" s="98">
         <f t="shared" si="18"/>
-        <v>79.113095238095241</v>
+        <v>81.463095238095235</v>
       </c>
       <c r="BD39" s="98">
         <f t="shared" si="19"/>
-        <v>79.11</v>
+        <v>81.459999999999994</v>
       </c>
       <c r="BE39" s="108"/>
-      <c r="BF39" s="92">
+      <c r="BF39" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG39" s="108"/>
-      <c r="BH39" s="92" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="BI39" s="108"/>
-      <c r="BJ39" s="92" t="str">
+      <c r="BH39" s="107"/>
+      <c r="BI39" s="107">
+        <v>90</v>
+      </c>
+      <c r="BJ39" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BK39" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL39" s="108"/>
+        <v>45</v>
+      </c>
+      <c r="BL39" s="107">
+        <v>100</v>
+      </c>
       <c r="BM39" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN39" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN39" s="107">
+        <v>95</v>
+      </c>
       <c r="BO39" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP39" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BP39" s="107">
+        <v>94</v>
+      </c>
       <c r="BQ39" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR39" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BR39" s="107">
+        <v>93</v>
+      </c>
       <c r="BS39" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT39" s="108"/>
+        <v>93</v>
+      </c>
+      <c r="BT39" s="107">
+        <v>91</v>
+      </c>
       <c r="BU39" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV39" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BV39" s="107">
+        <v>100</v>
+      </c>
       <c r="BW39" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX39" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BX39" s="107">
+        <v>94</v>
+      </c>
       <c r="BY39" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ39" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="BZ39" s="107">
+        <v>95</v>
+      </c>
       <c r="CA39" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB39" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="CB39" s="107">
+        <v>94</v>
+      </c>
       <c r="CC39" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD39" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="CD39" s="107">
+        <v>95</v>
+      </c>
       <c r="CE39" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="CF39" s="107"/>
       <c r="CG39" s="92" t="str">
@@ -14992,27 +15638,27 @@
       </c>
       <c r="CP39" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>47.55</v>
       </c>
       <c r="CQ39" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>92.55</v>
       </c>
       <c r="CR39" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>92.55</v>
       </c>
       <c r="CS39" s="104">
         <f t="shared" si="45"/>
-        <v>31.644000000000002</v>
+        <v>88.11399999999999</v>
       </c>
       <c r="CT39" s="104">
         <f>IFERROR(VLOOKUP(CS39,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="CU39" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="40" spans="1:99">
@@ -15058,11 +15704,11 @@
         <v>80</v>
       </c>
       <c r="L40" s="108">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M40" s="92">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="N40" s="108">
         <v>33</v>
@@ -15108,7 +15754,7 @@
       <c r="AM40" s="94"/>
       <c r="AN40" s="95">
         <f t="shared" si="9"/>
-        <v>15.914285714285715</v>
+        <v>17.914285714285715</v>
       </c>
       <c r="AO40" s="108">
         <v>100</v>
@@ -15154,80 +15800,99 @@
       </c>
       <c r="BC40" s="98">
         <f t="shared" si="18"/>
-        <v>66.289285714285711</v>
+        <v>68.289285714285711</v>
       </c>
       <c r="BD40" s="98">
         <f t="shared" si="19"/>
-        <v>66.290000000000006</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="BE40" s="108"/>
-      <c r="BF40" s="92">
+      <c r="BF40" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG40" s="108"/>
-      <c r="BH40" s="92" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="BI40" s="108"/>
-      <c r="BJ40" s="92" t="str">
+      <c r="BH40" s="107"/>
+      <c r="BI40" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ40" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK40" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL40" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL40" s="107">
+        <v>100</v>
+      </c>
       <c r="BM40" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN40" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN40" s="108">
+        <v>90</v>
+      </c>
       <c r="BO40" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP40" s="108"/>
+        <v>90</v>
+      </c>
+      <c r="BP40" s="108">
+        <v>94</v>
+      </c>
       <c r="BQ40" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR40" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BR40" s="108">
+        <v>90</v>
+      </c>
       <c r="BS40" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT40" s="108"/>
+        <v>90</v>
+      </c>
+      <c r="BT40" s="108">
+        <v>93</v>
+      </c>
       <c r="BU40" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV40" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="BV40" s="107">
+        <v>91</v>
+      </c>
       <c r="BW40" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX40" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="BX40" s="107">
+        <v>89</v>
+      </c>
       <c r="BY40" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ40" s="107"/>
+        <v>89</v>
+      </c>
+      <c r="BZ40" s="107">
+        <v>85</v>
+      </c>
       <c r="CA40" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB40" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CB40" s="107">
+        <v>90</v>
+      </c>
       <c r="CC40" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD40" s="107"/>
+        <v>90</v>
+      </c>
+      <c r="CD40" s="107">
+        <v>85</v>
+      </c>
       <c r="CE40" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="CF40" s="107"/>
       <c r="CG40" s="92" t="str">
@@ -15256,27 +15921,27 @@
       </c>
       <c r="CP40" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>45.35</v>
       </c>
       <c r="CQ40" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>87.85</v>
       </c>
       <c r="CR40" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>87.85</v>
       </c>
       <c r="CS40" s="104">
         <f t="shared" si="45"/>
-        <v>26.516000000000005</v>
+        <v>80.025999999999996</v>
       </c>
       <c r="CT40" s="104">
         <f>IFERROR(VLOOKUP(CS40,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU40" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="41" spans="1:99">
@@ -15315,11 +15980,11 @@
         <v>15.75</v>
       </c>
       <c r="J41" s="108">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K41" s="92">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="L41" s="108">
         <v>21</v>
@@ -15372,7 +16037,7 @@
       <c r="AM41" s="94"/>
       <c r="AN41" s="95">
         <f t="shared" si="9"/>
-        <v>12.092857142857143</v>
+        <v>14.842857142857145</v>
       </c>
       <c r="AO41" s="108">
         <v>100</v>
@@ -15418,80 +16083,99 @@
       </c>
       <c r="BC41" s="98">
         <f t="shared" si="18"/>
-        <v>63.271428571428572</v>
+        <v>66.021428571428572</v>
       </c>
       <c r="BD41" s="98">
         <f t="shared" si="19"/>
-        <v>63.27</v>
+        <v>66.02</v>
       </c>
       <c r="BE41" s="108"/>
-      <c r="BF41" s="92">
+      <c r="BF41" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG41" s="108"/>
-      <c r="BH41" s="92" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="BI41" s="108"/>
-      <c r="BJ41" s="92" t="str">
+      <c r="BH41" s="107"/>
+      <c r="BI41" s="107">
+        <v>85</v>
+      </c>
+      <c r="BJ41" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="BK41" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL41" s="108"/>
+        <v>42.5</v>
+      </c>
+      <c r="BL41" s="108">
+        <v>100</v>
+      </c>
       <c r="BM41" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN41" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN41" s="108">
+        <v>95</v>
+      </c>
       <c r="BO41" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP41" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BP41" s="108">
+        <v>94</v>
+      </c>
       <c r="BQ41" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR41" s="108"/>
+        <v>94</v>
+      </c>
+      <c r="BR41" s="108">
+        <v>90</v>
+      </c>
       <c r="BS41" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT41" s="108"/>
+        <v>90</v>
+      </c>
+      <c r="BT41" s="108">
+        <v>90</v>
+      </c>
       <c r="BU41" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV41" s="107"/>
+        <v>90</v>
+      </c>
+      <c r="BV41" s="107">
+        <v>95</v>
+      </c>
       <c r="BW41" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX41" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BX41" s="107">
+        <v>90</v>
+      </c>
       <c r="BY41" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ41" s="107"/>
+        <v>90</v>
+      </c>
+      <c r="BZ41" s="107">
+        <v>85</v>
+      </c>
       <c r="CA41" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB41" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CB41" s="107">
+        <v>90</v>
+      </c>
       <c r="CC41" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD41" s="107"/>
+        <v>90</v>
+      </c>
+      <c r="CD41" s="107">
+        <v>89</v>
+      </c>
       <c r="CE41" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="CF41" s="107"/>
       <c r="CG41" s="92" t="str">
@@ -15520,27 +16204,27 @@
       </c>
       <c r="CP41" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>45.9</v>
       </c>
       <c r="CQ41" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>88.4</v>
       </c>
       <c r="CR41" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>88.4</v>
       </c>
       <c r="CS41" s="104">
         <f t="shared" si="45"/>
-        <v>25.308000000000003</v>
+        <v>79.448000000000008</v>
       </c>
       <c r="CT41" s="104">
         <f>IFERROR(VLOOKUP(CS41,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU41" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="42" spans="1:99">
@@ -15579,16 +16263,18 @@
         <v>16.875</v>
       </c>
       <c r="J42" s="108">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K42" s="92">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="L42" s="108"/>
+        <v>90</v>
+      </c>
+      <c r="L42" s="108">
+        <v>21</v>
+      </c>
       <c r="M42" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N42" s="108">
         <v>33</v>
@@ -15634,7 +16320,7 @@
       <c r="AM42" s="94"/>
       <c r="AN42" s="95">
         <f t="shared" si="9"/>
-        <v>9.3809523809523814</v>
+        <v>16.080952380952379</v>
       </c>
       <c r="AO42" s="108">
         <v>100</v>
@@ -15680,80 +16366,99 @@
       </c>
       <c r="BC42" s="98">
         <f t="shared" si="18"/>
-        <v>62.970238095238095</v>
+        <v>69.670238095238091</v>
       </c>
       <c r="BD42" s="98">
         <f t="shared" si="19"/>
-        <v>62.97</v>
+        <v>69.67</v>
       </c>
       <c r="BE42" s="108"/>
-      <c r="BF42" s="92">
+      <c r="BF42" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG42" s="108"/>
-      <c r="BH42" s="92" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="BI42" s="108"/>
-      <c r="BJ42" s="92" t="str">
+      <c r="BH42" s="107"/>
+      <c r="BI42" s="107">
+        <v>90</v>
+      </c>
+      <c r="BJ42" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="BK42" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BL42" s="108"/>
+        <v>45</v>
+      </c>
+      <c r="BL42" s="108">
+        <v>100</v>
+      </c>
       <c r="BM42" s="92">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BN42" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BN42" s="108">
+        <v>95</v>
+      </c>
       <c r="BO42" s="92">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BP42" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BP42" s="108">
+        <v>95</v>
+      </c>
       <c r="BQ42" s="92">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BR42" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BR42" s="108">
+        <v>95</v>
+      </c>
       <c r="BS42" s="92">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BT42" s="108"/>
+        <v>95</v>
+      </c>
+      <c r="BT42" s="108">
+        <v>90</v>
+      </c>
       <c r="BU42" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV42" s="107"/>
+        <v>90</v>
+      </c>
+      <c r="BV42" s="107">
+        <v>90</v>
+      </c>
       <c r="BW42" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="BX42" s="107"/>
+        <v>90</v>
+      </c>
+      <c r="BX42" s="107">
+        <v>85</v>
+      </c>
       <c r="BY42" s="92">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="BZ42" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="BZ42" s="107">
+        <v>85</v>
+      </c>
       <c r="CA42" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="CB42" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="CB42" s="107">
+        <v>89</v>
+      </c>
       <c r="CC42" s="92">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="CD42" s="107"/>
+        <v>89</v>
+      </c>
+      <c r="CD42" s="107">
+        <v>90</v>
+      </c>
       <c r="CE42" s="92">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="CF42" s="107"/>
       <c r="CG42" s="92" t="str">
@@ -15782,27 +16487,27 @@
       </c>
       <c r="CP42" s="103">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="CQ42" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>90.7</v>
       </c>
       <c r="CR42" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>90.7</v>
       </c>
       <c r="CS42" s="104">
         <f t="shared" si="45"/>
-        <v>25.188000000000002</v>
+        <v>82.288000000000011</v>
       </c>
       <c r="CT42" s="104">
         <f>IFERROR(VLOOKUP(CS42,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="CU42" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="43" spans="1:99">
@@ -15935,9 +16640,9 @@
         <v>0</v>
       </c>
       <c r="BE43" s="108"/>
-      <c r="BF43" s="92">
+      <c r="BF43" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG43" s="108"/>
       <c r="BH43" s="92" t="str">
@@ -15945,9 +16650,9 @@
         <v/>
       </c>
       <c r="BI43" s="108"/>
-      <c r="BJ43" s="92" t="str">
+      <c r="BJ43" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK43" s="103">
         <f t="shared" si="22"/>
@@ -16183,9 +16888,9 @@
         <v>0</v>
       </c>
       <c r="BE44" s="108"/>
-      <c r="BF44" s="92">
+      <c r="BF44" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG44" s="108"/>
       <c r="BH44" s="92" t="str">
@@ -16193,9 +16898,9 @@
         <v/>
       </c>
       <c r="BI44" s="108"/>
-      <c r="BJ44" s="92" t="str">
+      <c r="BJ44" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK44" s="103">
         <f t="shared" si="22"/>
@@ -16431,9 +17136,9 @@
         <v>0</v>
       </c>
       <c r="BE45" s="108"/>
-      <c r="BF45" s="92">
+      <c r="BF45" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG45" s="108"/>
       <c r="BH45" s="92" t="str">
@@ -16441,9 +17146,9 @@
         <v/>
       </c>
       <c r="BI45" s="108"/>
-      <c r="BJ45" s="92" t="str">
+      <c r="BJ45" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK45" s="103">
         <f t="shared" si="22"/>
@@ -16679,9 +17384,9 @@
         <v>0</v>
       </c>
       <c r="BE46" s="108"/>
-      <c r="BF46" s="92">
+      <c r="BF46" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG46" s="108"/>
       <c r="BH46" s="92" t="str">
@@ -16689,9 +17394,9 @@
         <v/>
       </c>
       <c r="BI46" s="108"/>
-      <c r="BJ46" s="92" t="str">
+      <c r="BJ46" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK46" s="103">
         <f t="shared" si="22"/>
@@ -16927,9 +17632,9 @@
         <v>0</v>
       </c>
       <c r="BE47" s="108"/>
-      <c r="BF47" s="92">
+      <c r="BF47" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG47" s="108"/>
       <c r="BH47" s="92" t="str">
@@ -16937,9 +17642,9 @@
         <v/>
       </c>
       <c r="BI47" s="108"/>
-      <c r="BJ47" s="92" t="str">
+      <c r="BJ47" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK47" s="103">
         <f t="shared" si="22"/>
@@ -17175,9 +17880,9 @@
         <v>0</v>
       </c>
       <c r="BE48" s="108"/>
-      <c r="BF48" s="92">
+      <c r="BF48" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG48" s="108"/>
       <c r="BH48" s="92" t="str">
@@ -17185,9 +17890,9 @@
         <v/>
       </c>
       <c r="BI48" s="108"/>
-      <c r="BJ48" s="92" t="str">
+      <c r="BJ48" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK48" s="103">
         <f t="shared" si="22"/>
@@ -17423,9 +18128,9 @@
         <v>0</v>
       </c>
       <c r="BE49" s="108"/>
-      <c r="BF49" s="92">
+      <c r="BF49" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG49" s="108"/>
       <c r="BH49" s="92" t="str">
@@ -17433,9 +18138,9 @@
         <v/>
       </c>
       <c r="BI49" s="108"/>
-      <c r="BJ49" s="92" t="str">
+      <c r="BJ49" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK49" s="103">
         <f t="shared" si="22"/>
@@ -17671,9 +18376,9 @@
         <v>0</v>
       </c>
       <c r="BE50" s="108"/>
-      <c r="BF50" s="92">
+      <c r="BF50" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG50" s="108"/>
       <c r="BH50" s="92" t="str">
@@ -17681,9 +18386,9 @@
         <v/>
       </c>
       <c r="BI50" s="108"/>
-      <c r="BJ50" s="92" t="str">
+      <c r="BJ50" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK50" s="103">
         <f t="shared" si="22"/>
@@ -17919,9 +18624,9 @@
         <v>0</v>
       </c>
       <c r="BE51" s="108"/>
-      <c r="BF51" s="92">
+      <c r="BF51" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG51" s="108"/>
       <c r="BH51" s="92" t="str">
@@ -17929,9 +18634,9 @@
         <v/>
       </c>
       <c r="BI51" s="108"/>
-      <c r="BJ51" s="92" t="str">
+      <c r="BJ51" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK51" s="103">
         <f t="shared" si="22"/>
@@ -18167,9 +18872,9 @@
         <v>0</v>
       </c>
       <c r="BE52" s="108"/>
-      <c r="BF52" s="92">
+      <c r="BF52" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG52" s="108"/>
       <c r="BH52" s="92" t="str">
@@ -18177,9 +18882,9 @@
         <v/>
       </c>
       <c r="BI52" s="108"/>
-      <c r="BJ52" s="92" t="str">
+      <c r="BJ52" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK52" s="103">
         <f t="shared" si="22"/>
@@ -18415,9 +19120,9 @@
         <v>0</v>
       </c>
       <c r="BE53" s="108"/>
-      <c r="BF53" s="92">
+      <c r="BF53" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG53" s="108"/>
       <c r="BH53" s="92" t="str">
@@ -18425,9 +19130,9 @@
         <v/>
       </c>
       <c r="BI53" s="108"/>
-      <c r="BJ53" s="92" t="str">
+      <c r="BJ53" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK53" s="103">
         <f t="shared" si="22"/>
@@ -18663,9 +19368,9 @@
         <v>0</v>
       </c>
       <c r="BE54" s="108"/>
-      <c r="BF54" s="92">
+      <c r="BF54" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG54" s="108"/>
       <c r="BH54" s="92" t="str">
@@ -18673,9 +19378,9 @@
         <v/>
       </c>
       <c r="BI54" s="108"/>
-      <c r="BJ54" s="92" t="str">
+      <c r="BJ54" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK54" s="103">
         <f t="shared" si="22"/>
@@ -18911,9 +19616,9 @@
         <v>0</v>
       </c>
       <c r="BE55" s="108"/>
-      <c r="BF55" s="92">
+      <c r="BF55" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG55" s="108"/>
       <c r="BH55" s="92" t="str">
@@ -18921,9 +19626,9 @@
         <v/>
       </c>
       <c r="BI55" s="108"/>
-      <c r="BJ55" s="92" t="str">
+      <c r="BJ55" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK55" s="103">
         <f t="shared" si="22"/>
@@ -19159,9 +19864,9 @@
         <v>0</v>
       </c>
       <c r="BE56" s="108"/>
-      <c r="BF56" s="92">
+      <c r="BF56" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG56" s="108"/>
       <c r="BH56" s="92" t="str">
@@ -19169,9 +19874,9 @@
         <v/>
       </c>
       <c r="BI56" s="108"/>
-      <c r="BJ56" s="92" t="str">
+      <c r="BJ56" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK56" s="103">
         <f t="shared" si="22"/>
@@ -19407,9 +20112,9 @@
         <v>0</v>
       </c>
       <c r="BE57" s="108"/>
-      <c r="BF57" s="92">
+      <c r="BF57" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG57" s="108"/>
       <c r="BH57" s="92" t="str">
@@ -19417,9 +20122,9 @@
         <v/>
       </c>
       <c r="BI57" s="108"/>
-      <c r="BJ57" s="92" t="str">
+      <c r="BJ57" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK57" s="103">
         <f t="shared" si="22"/>
@@ -19655,9 +20360,9 @@
         <v>0</v>
       </c>
       <c r="BE58" s="108"/>
-      <c r="BF58" s="92">
+      <c r="BF58" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG58" s="108"/>
       <c r="BH58" s="92" t="str">
@@ -19665,9 +20370,9 @@
         <v/>
       </c>
       <c r="BI58" s="108"/>
-      <c r="BJ58" s="92" t="str">
+      <c r="BJ58" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK58" s="103">
         <f t="shared" si="22"/>
@@ -19903,9 +20608,9 @@
         <v>0</v>
       </c>
       <c r="BE59" s="108"/>
-      <c r="BF59" s="92">
+      <c r="BF59" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG59" s="108"/>
       <c r="BH59" s="92" t="str">
@@ -19913,9 +20618,9 @@
         <v/>
       </c>
       <c r="BI59" s="108"/>
-      <c r="BJ59" s="92" t="str">
+      <c r="BJ59" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK59" s="103">
         <f t="shared" si="22"/>
@@ -20151,9 +20856,9 @@
         <v>0</v>
       </c>
       <c r="BE60" s="108"/>
-      <c r="BF60" s="92">
+      <c r="BF60" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG60" s="108"/>
       <c r="BH60" s="92" t="str">
@@ -20161,9 +20866,9 @@
         <v/>
       </c>
       <c r="BI60" s="108"/>
-      <c r="BJ60" s="92" t="str">
+      <c r="BJ60" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK60" s="103">
         <f t="shared" si="22"/>
@@ -20399,9 +21104,9 @@
         <v>0</v>
       </c>
       <c r="BE61" s="108"/>
-      <c r="BF61" s="92">
+      <c r="BF61" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG61" s="108"/>
       <c r="BH61" s="92" t="str">
@@ -20409,9 +21114,9 @@
         <v/>
       </c>
       <c r="BI61" s="108"/>
-      <c r="BJ61" s="92" t="str">
+      <c r="BJ61" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK61" s="103">
         <f t="shared" si="22"/>
@@ -20647,9 +21352,9 @@
         <v>0</v>
       </c>
       <c r="BE62" s="108"/>
-      <c r="BF62" s="92">
+      <c r="BF62" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG62" s="108"/>
       <c r="BH62" s="92" t="str">
@@ -20657,9 +21362,9 @@
         <v/>
       </c>
       <c r="BI62" s="108"/>
-      <c r="BJ62" s="92" t="str">
+      <c r="BJ62" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK62" s="103">
         <f t="shared" si="22"/>
@@ -20895,9 +21600,9 @@
         <v>0</v>
       </c>
       <c r="BE63" s="108"/>
-      <c r="BF63" s="92">
+      <c r="BF63" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG63" s="108"/>
       <c r="BH63" s="92" t="str">
@@ -20905,9 +21610,9 @@
         <v/>
       </c>
       <c r="BI63" s="108"/>
-      <c r="BJ63" s="92" t="str">
+      <c r="BJ63" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK63" s="103">
         <f t="shared" si="22"/>
@@ -21143,9 +21848,9 @@
         <v>0</v>
       </c>
       <c r="BE64" s="108"/>
-      <c r="BF64" s="92">
+      <c r="BF64" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG64" s="108"/>
       <c r="BH64" s="92" t="str">
@@ -21153,9 +21858,9 @@
         <v/>
       </c>
       <c r="BI64" s="108"/>
-      <c r="BJ64" s="92" t="str">
+      <c r="BJ64" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK64" s="103">
         <f t="shared" si="22"/>
@@ -21391,9 +22096,9 @@
         <v>0</v>
       </c>
       <c r="BE65" s="108"/>
-      <c r="BF65" s="92">
+      <c r="BF65" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG65" s="108"/>
       <c r="BH65" s="92" t="str">
@@ -21401,9 +22106,9 @@
         <v/>
       </c>
       <c r="BI65" s="108"/>
-      <c r="BJ65" s="92" t="str">
+      <c r="BJ65" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK65" s="103">
         <f t="shared" si="22"/>
@@ -21639,9 +22344,9 @@
         <v>0</v>
       </c>
       <c r="BE66" s="108"/>
-      <c r="BF66" s="92">
+      <c r="BF66" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG66" s="108"/>
       <c r="BH66" s="92" t="str">
@@ -21649,9 +22354,9 @@
         <v/>
       </c>
       <c r="BI66" s="108"/>
-      <c r="BJ66" s="92" t="str">
+      <c r="BJ66" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK66" s="103">
         <f t="shared" si="22"/>
@@ -21887,9 +22592,9 @@
         <v>0</v>
       </c>
       <c r="BE67" s="108"/>
-      <c r="BF67" s="92">
+      <c r="BF67" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG67" s="108"/>
       <c r="BH67" s="92" t="str">
@@ -21897,9 +22602,9 @@
         <v/>
       </c>
       <c r="BI67" s="108"/>
-      <c r="BJ67" s="92" t="str">
+      <c r="BJ67" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK67" s="103">
         <f t="shared" si="22"/>
@@ -22135,9 +22840,9 @@
         <v>0</v>
       </c>
       <c r="BE68" s="108"/>
-      <c r="BF68" s="92">
+      <c r="BF68" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG68" s="108"/>
       <c r="BH68" s="92" t="str">
@@ -22145,9 +22850,9 @@
         <v/>
       </c>
       <c r="BI68" s="108"/>
-      <c r="BJ68" s="92" t="str">
+      <c r="BJ68" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK68" s="103">
         <f t="shared" si="22"/>
@@ -22383,9 +23088,9 @@
         <v>0</v>
       </c>
       <c r="BE69" s="108"/>
-      <c r="BF69" s="92">
+      <c r="BF69" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG69" s="108"/>
       <c r="BH69" s="92" t="str">
@@ -22393,9 +23098,9 @@
         <v/>
       </c>
       <c r="BI69" s="108"/>
-      <c r="BJ69" s="92" t="str">
+      <c r="BJ69" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK69" s="103">
         <f t="shared" si="22"/>
@@ -22631,9 +23336,9 @@
         <v>0</v>
       </c>
       <c r="BE70" s="108"/>
-      <c r="BF70" s="92">
+      <c r="BF70" s="92" t="str">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BG70" s="108"/>
       <c r="BH70" s="92" t="str">
@@ -22641,9 +23346,9 @@
         <v/>
       </c>
       <c r="BI70" s="108"/>
-      <c r="BJ70" s="92" t="str">
+      <c r="BJ70" s="92">
         <f t="shared" si="44"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BK70" s="103">
         <f t="shared" si="22"/>
@@ -22750,7 +23455,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
@@ -23061,7 +23765,7 @@
       </c>
       <c r="E8" s="52">
         <f>'RAW GRADES'!AN10</f>
-        <v>5.45</v>
+        <v>15.450000000000001</v>
       </c>
       <c r="F8" s="52">
         <f>'RAW GRADES'!AU10</f>
@@ -23073,11 +23777,11 @@
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>56.575000000000003</v>
+        <v>66.575000000000003</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>56.58</v>
+        <v>66.58</v>
       </c>
       <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
@@ -23085,19 +23789,19 @@
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v>0</v>
+        <v>48.05</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>0</v>
+        <v>48.05</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>0</v>
+        <v>48.05</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>22.632000000000001</v>
+        <v>55.462000000000003</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -23126,7 +23830,7 @@
       </c>
       <c r="E9" s="52">
         <f>'RAW GRADES'!AN11</f>
-        <v>15.392857142857146</v>
+        <v>18.192857142857147</v>
       </c>
       <c r="F9" s="52">
         <f>'RAW GRADES'!AU11</f>
@@ -23138,39 +23842,39 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>63.785714285714285</v>
+        <v>66.585714285714289</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>63.79</v>
+        <v>66.59</v>
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v>0</v>
+        <v>47.55</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>0</v>
+        <v>89.55</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>0</v>
+        <v>89.55</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>25.516000000000002</v>
+        <v>80.366</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P9" s="59" t="str">
         <f>IF(O9&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -23211,31 +23915,31 @@
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v>0</v>
+        <v>48.65</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>0</v>
+        <v>92.15</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>0</v>
+        <v>92.15</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>30.580000000000002</v>
+        <v>85.87</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P10" s="59" t="str">
         <f t="shared" ref="P10:P68" si="0">IF(O10&gt;3,"FAILED","PASSED")</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -23256,7 +23960,7 @@
       </c>
       <c r="E11" s="52">
         <f>'RAW GRADES'!AN13</f>
-        <v>12.195238095238095</v>
+        <v>15.345238095238095</v>
       </c>
       <c r="F11" s="52">
         <f>'RAW GRADES'!AU13</f>
@@ -23268,39 +23972,39 @@
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>67.177380952380958</v>
+        <v>70.327380952380949</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>67.180000000000007</v>
+        <v>70.33</v>
       </c>
       <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>0</v>
+        <v>92.8</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>0</v>
+        <v>92.8</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>26.872000000000003</v>
+        <v>83.811999999999998</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P11" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -23321,7 +24025,7 @@
       </c>
       <c r="E12" s="52">
         <f>'RAW GRADES'!AN14</f>
-        <v>9.25</v>
+        <v>12.5</v>
       </c>
       <c r="F12" s="52">
         <f>'RAW GRADES'!AU14</f>
@@ -23333,11 +24037,11 @@
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>54.964285714285715</v>
+        <v>58.214285714285715</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>54.96</v>
+        <v>58.21</v>
       </c>
       <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
@@ -23345,19 +24049,19 @@
       </c>
       <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="M12" s="54">
         <f>'RAW GRADES'!CR14</f>
-        <v>0</v>
+        <v>48.1</v>
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>21.984000000000002</v>
+        <v>52.144000000000005</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -23386,7 +24090,7 @@
       </c>
       <c r="E13" s="52">
         <f>'RAW GRADES'!AN15</f>
-        <v>12.873809523809525</v>
+        <v>14.473809523809525</v>
       </c>
       <c r="F13" s="52">
         <f>'RAW GRADES'!AU15</f>
@@ -23398,39 +24102,39 @@
       </c>
       <c r="H13" s="53">
         <f>'RAW GRADES'!BC15</f>
-        <v>67.855952380952374</v>
+        <v>69.455952380952368</v>
       </c>
       <c r="I13" s="53">
         <f>'RAW GRADES'!BD15</f>
-        <v>67.86</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="J13" s="52">
         <f>'RAW GRADES'!BK15</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>0</v>
+        <v>48.55</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>0</v>
+        <v>91.05</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>0</v>
+        <v>91.05</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>27.144000000000002</v>
+        <v>82.413999999999987</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P13" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -23475,19 +24179,19 @@
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>24.1</v>
+        <v>52.75</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23516,7 +24220,7 @@
       </c>
       <c r="E15" s="52">
         <f>'RAW GRADES'!AN17</f>
-        <v>8.5833333333333339</v>
+        <v>14.926190476190477</v>
       </c>
       <c r="F15" s="52">
         <f>'RAW GRADES'!AU17</f>
@@ -23528,39 +24232,39 @@
       </c>
       <c r="H15" s="53">
         <f>'RAW GRADES'!BC17</f>
-        <v>61.529761904761898</v>
+        <v>67.87261904761904</v>
       </c>
       <c r="I15" s="53">
         <f>'RAW GRADES'!BD17</f>
-        <v>61.53</v>
+        <v>67.87</v>
       </c>
       <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>0</v>
+        <v>92.1</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>0</v>
+        <v>92.1</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>24.612000000000002</v>
+        <v>82.408000000000001</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P15" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -23605,19 +24309,19 @@
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v>0</v>
+        <v>47.45</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>0</v>
+        <v>47.45</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>0</v>
+        <v>47.45</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>16.784000000000002</v>
+        <v>45.254000000000005</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23646,7 +24350,7 @@
       </c>
       <c r="E17" s="52">
         <f>'RAW GRADES'!AN19</f>
-        <v>0</v>
+        <v>16.754761904761907</v>
       </c>
       <c r="F17" s="52">
         <f>'RAW GRADES'!AU19</f>
@@ -23658,39 +24362,39 @@
       </c>
       <c r="H17" s="53">
         <f>'RAW GRADES'!BC19</f>
-        <v>54.392857142857139</v>
+        <v>71.147619047619045</v>
       </c>
       <c r="I17" s="53">
         <f>'RAW GRADES'!BD19</f>
-        <v>54.39</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v>0</v>
+        <v>48.15</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>0</v>
+        <v>90.65</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>0</v>
+        <v>90.65</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>21.756</v>
+        <v>82.850000000000009</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P17" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -23711,7 +24415,7 @@
       </c>
       <c r="E18" s="52">
         <f>'RAW GRADES'!AN20</f>
-        <v>9.5952380952380949</v>
+        <v>13.345238095238095</v>
       </c>
       <c r="F18" s="52">
         <f>'RAW GRADES'!AU20</f>
@@ -23723,39 +24427,39 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>58.25595238095238</v>
+        <v>62.00595238095238</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>58.26</v>
+        <v>62.01</v>
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v>0</v>
+        <v>46.75</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>23.304000000000002</v>
+        <v>79.253999999999991</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P18" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -23776,7 +24480,7 @@
       </c>
       <c r="E19" s="52">
         <f>'RAW GRADES'!AN21</f>
-        <v>14.25</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="F19" s="52">
         <f>'RAW GRADES'!AU21</f>
@@ -23788,39 +24492,39 @@
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>65.214285714285722</v>
+        <v>68.814285714285717</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>65.209999999999994</v>
+        <v>68.81</v>
       </c>
       <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>0</v>
+        <v>90.4</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>0</v>
+        <v>90.4</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>26.084</v>
+        <v>81.76400000000001</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P19" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -23841,7 +24545,7 @@
       </c>
       <c r="E20" s="52">
         <f>'RAW GRADES'!AN22</f>
-        <v>12.633333333333333</v>
+        <v>13.383333333333335</v>
       </c>
       <c r="F20" s="52">
         <f>'RAW GRADES'!AU22</f>
@@ -23853,39 +24557,39 @@
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>64.669047619047618</v>
+        <v>65.419047619047618</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>64.67</v>
+        <v>65.42</v>
       </c>
       <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>0</v>
+        <v>92.3</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>0</v>
+        <v>92.3</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>25.868000000000002</v>
+        <v>81.548000000000002</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P20" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -23902,11 +24606,11 @@
       </c>
       <c r="D21" s="89">
         <f>'RAW GRADES'!I23</f>
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
-        <v>11.611904761904761</v>
+        <v>14.211904761904762</v>
       </c>
       <c r="F21" s="52">
         <f>'RAW GRADES'!AU23</f>
@@ -23918,39 +24622,39 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>62.897619047619045</v>
+        <v>69.247619047619054</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>62.9</v>
+        <v>69.25</v>
       </c>
       <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v>0</v>
+        <v>47.15</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
-        <v>0</v>
+        <v>89.65</v>
       </c>
       <c r="M21" s="54">
         <f>'RAW GRADES'!CR23</f>
-        <v>0</v>
+        <v>89.65</v>
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>25.16</v>
+        <v>81.490000000000009</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P21" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -23963,7 +24667,7 @@
       </c>
       <c r="C22" s="57">
         <f>'RAW GRADES'!F24</f>
-        <v>20.142857142857142</v>
+        <v>21</v>
       </c>
       <c r="D22" s="89">
         <f>'RAW GRADES'!I24</f>
@@ -23971,7 +24675,7 @@
       </c>
       <c r="E22" s="52">
         <f>'RAW GRADES'!AN24</f>
-        <v>6.3500000000000005</v>
+        <v>17.235714285714288</v>
       </c>
       <c r="F22" s="52">
         <f>'RAW GRADES'!AU24</f>
@@ -23983,39 +24687,39 @@
       </c>
       <c r="H22" s="53">
         <f>'RAW GRADES'!BC24</f>
-        <v>62.242857142857147</v>
+        <v>73.985714285714295</v>
       </c>
       <c r="I22" s="53">
         <f>'RAW GRADES'!BD24</f>
-        <v>62.24</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="J22" s="52">
         <f>'RAW GRADES'!BK24</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="M22" s="54">
         <f>'RAW GRADES'!CR24</f>
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>24.896000000000001</v>
+        <v>83.475999999999999</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P22" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -24056,31 +24760,31 @@
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
-        <v>0</v>
+        <v>91.1</v>
       </c>
       <c r="M23" s="54">
         <f>'RAW GRADES'!CR25</f>
-        <v>0</v>
+        <v>91.1</v>
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>28.616000000000003</v>
+        <v>83.275999999999996</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P23" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -24125,19 +24829,19 @@
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v>0</v>
+        <v>47.85</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>0</v>
+        <v>47.85</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>0</v>
+        <v>47.85</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>12.200000000000001</v>
+        <v>40.910000000000004</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -24166,7 +24870,7 @@
       </c>
       <c r="E25" s="52">
         <f>'RAW GRADES'!AN27</f>
-        <v>14.654761904761907</v>
+        <v>17.054761904761907</v>
       </c>
       <c r="F25" s="52">
         <f>'RAW GRADES'!AU27</f>
@@ -24178,39 +24882,39 @@
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>67.49404761904762</v>
+        <v>69.894047619047626</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>67.489999999999995</v>
+        <v>69.89</v>
       </c>
       <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>26.995999999999999</v>
+        <v>81.475999999999999</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P25" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -24231,7 +24935,7 @@
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
-        <v>13.354761904761908</v>
+        <v>15.354761904761908</v>
       </c>
       <c r="F26" s="52">
         <f>'RAW GRADES'!AU28</f>
@@ -24243,39 +24947,39 @@
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>66.140476190476193</v>
+        <v>68.140476190476193</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>66.14</v>
+        <v>68.14</v>
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v>0</v>
+        <v>47.15</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>0</v>
+        <v>89.65</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>0</v>
+        <v>89.65</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>26.456000000000003</v>
+        <v>81.045999999999992</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P26" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -24296,7 +25000,7 @@
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
-        <v>14.411904761904763</v>
+        <v>17.211904761904762</v>
       </c>
       <c r="F27" s="52">
         <f>'RAW GRADES'!AU29</f>
@@ -24308,39 +25012,39 @@
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>61.804761904761904</v>
+        <v>64.604761904761901</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>61.8</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="M27" s="54">
         <f>'RAW GRADES'!CR29</f>
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>24.72</v>
+        <v>79.72</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P27" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -24385,19 +25089,19 @@
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>18.624000000000002</v>
+        <v>47.004000000000005</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -24422,11 +25126,11 @@
       </c>
       <c r="D29" s="89">
         <f>'RAW GRADES'!I31</f>
-        <v>9.375</v>
+        <v>9.75</v>
       </c>
       <c r="E29" s="52">
         <f>'RAW GRADES'!AN31</f>
-        <v>7.95</v>
+        <v>13.75</v>
       </c>
       <c r="F29" s="52">
         <f>'RAW GRADES'!AU31</f>
@@ -24438,39 +25142,39 @@
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>53.610714285714288</v>
+        <v>59.785714285714285</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>53.61</v>
+        <v>59.79</v>
       </c>
       <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="M29" s="54">
         <f>'RAW GRADES'!CR31</f>
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>21.444000000000003</v>
+        <v>79.266000000000005</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P29" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -24491,7 +25195,7 @@
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
-        <v>9.9500000000000011</v>
+        <v>13.450000000000001</v>
       </c>
       <c r="F30" s="52">
         <f>'RAW GRADES'!AU32</f>
@@ -24503,39 +25207,39 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>62.896428571428572</v>
+        <v>66.396428571428572</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>62.9</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>0</v>
+        <v>90.25</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>0</v>
+        <v>90.25</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>25.16</v>
+        <v>80.710000000000008</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P30" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -24576,31 +25280,31 @@
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L31" s="52">
         <f>'RAW GRADES'!CQ33</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M31" s="54">
         <f>'RAW GRADES'!CR33</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>34.484000000000002</v>
+        <v>90.283999999999992</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="P31" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -24686,7 +25390,7 @@
       </c>
       <c r="E33" s="52">
         <f>'RAW GRADES'!AN35</f>
-        <v>14.042857142857144</v>
+        <v>16.242857142857144</v>
       </c>
       <c r="F33" s="52">
         <f>'RAW GRADES'!AU35</f>
@@ -24698,39 +25402,39 @@
       </c>
       <c r="H33" s="53">
         <f>'RAW GRADES'!BC35</f>
-        <v>61.417857142857144</v>
+        <v>63.617857142857147</v>
       </c>
       <c r="I33" s="53">
         <f>'RAW GRADES'!BD35</f>
-        <v>61.42</v>
+        <v>63.62</v>
       </c>
       <c r="J33" s="52">
         <f>'RAW GRADES'!BK35</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K33" s="52">
         <f>'RAW GRADES'!CP35</f>
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="L33" s="52">
         <f>'RAW GRADES'!CQ35</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M33" s="54">
         <f>'RAW GRADES'!CR35</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N33" s="58">
         <f>'RAW GRADES'!CS35</f>
-        <v>24.568000000000001</v>
+        <v>79.448000000000008</v>
       </c>
       <c r="O33" s="56">
         <f>'RAW GRADES'!CT35</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P33" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -24751,7 +25455,7 @@
       </c>
       <c r="E34" s="52">
         <f>'RAW GRADES'!AN36</f>
-        <v>16.521428571428572</v>
+        <v>17.321428571428573</v>
       </c>
       <c r="F34" s="52">
         <f>'RAW GRADES'!AU36</f>
@@ -24763,39 +25467,39 @@
       </c>
       <c r="H34" s="53">
         <f>'RAW GRADES'!BC36</f>
-        <v>72.253571428571433</v>
+        <v>73.053571428571416</v>
       </c>
       <c r="I34" s="53">
         <f>'RAW GRADES'!BD36</f>
-        <v>72.25</v>
+        <v>73.05</v>
       </c>
       <c r="J34" s="52">
         <f>'RAW GRADES'!BK36</f>
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="K34" s="52">
         <f>'RAW GRADES'!CP36</f>
-        <v>0</v>
+        <v>47.25</v>
       </c>
       <c r="L34" s="52">
         <f>'RAW GRADES'!CQ36</f>
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="M34" s="54">
         <f>'RAW GRADES'!CR36</f>
-        <v>0</v>
+        <v>90.75</v>
       </c>
       <c r="N34" s="58">
         <f>'RAW GRADES'!CS36</f>
-        <v>28.900000000000002</v>
+        <v>83.669999999999987</v>
       </c>
       <c r="O34" s="56">
         <f>'RAW GRADES'!CT36</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P34" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -24808,7 +25512,7 @@
       </c>
       <c r="C35" s="57">
         <f>'RAW GRADES'!F37</f>
-        <v>20.571428571428569</v>
+        <v>21</v>
       </c>
       <c r="D35" s="89">
         <f>'RAW GRADES'!I37</f>
@@ -24816,7 +25520,7 @@
       </c>
       <c r="E35" s="52">
         <f>'RAW GRADES'!AN37</f>
-        <v>9.4642857142857135</v>
+        <v>12.614285714285714</v>
       </c>
       <c r="F35" s="52">
         <f>'RAW GRADES'!AU37</f>
@@ -24828,39 +25532,39 @@
       </c>
       <c r="H35" s="53">
         <f>'RAW GRADES'!BC37</f>
-        <v>65.410714285714278</v>
+        <v>68.989285714285714</v>
       </c>
       <c r="I35" s="53">
         <f>'RAW GRADES'!BD37</f>
-        <v>65.41</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="J35" s="52">
         <f>'RAW GRADES'!BK37</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K35" s="52">
         <f>'RAW GRADES'!CP37</f>
-        <v>0</v>
+        <v>47.7</v>
       </c>
       <c r="L35" s="52">
         <f>'RAW GRADES'!CQ37</f>
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="M35" s="54">
         <f>'RAW GRADES'!CR37</f>
-        <v>0</v>
+        <v>90.2</v>
       </c>
       <c r="N35" s="58">
         <f>'RAW GRADES'!CS37</f>
-        <v>26.164000000000001</v>
+        <v>81.715999999999994</v>
       </c>
       <c r="O35" s="56">
         <f>'RAW GRADES'!CT37</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P35" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -24881,7 +25585,7 @@
       </c>
       <c r="E36" s="52">
         <f>'RAW GRADES'!AN38</f>
-        <v>9.6857142857142868</v>
+        <v>15.819047619047621</v>
       </c>
       <c r="F36" s="52">
         <f>'RAW GRADES'!AU38</f>
@@ -24893,39 +25597,39 @@
       </c>
       <c r="H36" s="53">
         <f>'RAW GRADES'!BC38</f>
-        <v>62.096428571428568</v>
+        <v>68.229761904761915</v>
       </c>
       <c r="I36" s="53">
         <f>'RAW GRADES'!BD38</f>
-        <v>62.1</v>
+        <v>68.23</v>
       </c>
       <c r="J36" s="52">
         <f>'RAW GRADES'!BK38</f>
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="K36" s="52">
         <f>'RAW GRADES'!CP38</f>
-        <v>0</v>
+        <v>47.75</v>
       </c>
       <c r="L36" s="52">
         <f>'RAW GRADES'!CQ38</f>
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="M36" s="54">
         <f>'RAW GRADES'!CR38</f>
-        <v>0</v>
+        <v>92.25</v>
       </c>
       <c r="N36" s="58">
         <f>'RAW GRADES'!CS38</f>
-        <v>24.840000000000003</v>
+        <v>82.641999999999996</v>
       </c>
       <c r="O36" s="56">
         <f>'RAW GRADES'!CT38</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P36" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -24942,11 +25646,11 @@
       </c>
       <c r="D37" s="89">
         <f>'RAW GRADES'!I39</f>
-        <v>19.124999999999996</v>
+        <v>19.875</v>
       </c>
       <c r="E37" s="52">
         <f>'RAW GRADES'!AN39</f>
-        <v>15.55952380952381</v>
+        <v>17.159523809523812</v>
       </c>
       <c r="F37" s="52">
         <f>'RAW GRADES'!AU39</f>
@@ -24958,39 +25662,39 @@
       </c>
       <c r="H37" s="53">
         <f>'RAW GRADES'!BC39</f>
-        <v>79.113095238095241</v>
+        <v>81.463095238095235</v>
       </c>
       <c r="I37" s="53">
         <f>'RAW GRADES'!BD39</f>
-        <v>79.11</v>
+        <v>81.459999999999994</v>
       </c>
       <c r="J37" s="52">
         <f>'RAW GRADES'!BK39</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K37" s="52">
         <f>'RAW GRADES'!CP39</f>
-        <v>0</v>
+        <v>47.55</v>
       </c>
       <c r="L37" s="52">
         <f>'RAW GRADES'!CQ39</f>
-        <v>0</v>
+        <v>92.55</v>
       </c>
       <c r="M37" s="54">
         <f>'RAW GRADES'!CR39</f>
-        <v>0</v>
+        <v>92.55</v>
       </c>
       <c r="N37" s="58">
         <f>'RAW GRADES'!CS39</f>
-        <v>31.644000000000002</v>
+        <v>88.11399999999999</v>
       </c>
       <c r="O37" s="56">
         <f>'RAW GRADES'!CT39</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="P37" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -25011,7 +25715,7 @@
       </c>
       <c r="E38" s="52">
         <f>'RAW GRADES'!AN40</f>
-        <v>15.914285714285715</v>
+        <v>17.914285714285715</v>
       </c>
       <c r="F38" s="52">
         <f>'RAW GRADES'!AU40</f>
@@ -25023,39 +25727,39 @@
       </c>
       <c r="H38" s="53">
         <f>'RAW GRADES'!BC40</f>
-        <v>66.289285714285711</v>
+        <v>68.289285714285711</v>
       </c>
       <c r="I38" s="53">
         <f>'RAW GRADES'!BD40</f>
-        <v>66.290000000000006</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="J38" s="52">
         <f>'RAW GRADES'!BK40</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K38" s="52">
         <f>'RAW GRADES'!CP40</f>
-        <v>0</v>
+        <v>45.35</v>
       </c>
       <c r="L38" s="52">
         <f>'RAW GRADES'!CQ40</f>
-        <v>0</v>
+        <v>87.85</v>
       </c>
       <c r="M38" s="54">
         <f>'RAW GRADES'!CR40</f>
-        <v>0</v>
+        <v>87.85</v>
       </c>
       <c r="N38" s="58">
         <f>'RAW GRADES'!CS40</f>
-        <v>26.516000000000005</v>
+        <v>80.025999999999996</v>
       </c>
       <c r="O38" s="56">
         <f>'RAW GRADES'!CT40</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P38" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -25076,7 +25780,7 @@
       </c>
       <c r="E39" s="52">
         <f>'RAW GRADES'!AN41</f>
-        <v>12.092857142857143</v>
+        <v>14.842857142857145</v>
       </c>
       <c r="F39" s="52">
         <f>'RAW GRADES'!AU41</f>
@@ -25088,39 +25792,39 @@
       </c>
       <c r="H39" s="53">
         <f>'RAW GRADES'!BC41</f>
-        <v>63.271428571428572</v>
+        <v>66.021428571428572</v>
       </c>
       <c r="I39" s="53">
         <f>'RAW GRADES'!BD41</f>
-        <v>63.27</v>
+        <v>66.02</v>
       </c>
       <c r="J39" s="52">
         <f>'RAW GRADES'!BK41</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="K39" s="52">
         <f>'RAW GRADES'!CP41</f>
-        <v>0</v>
+        <v>45.9</v>
       </c>
       <c r="L39" s="52">
         <f>'RAW GRADES'!CQ41</f>
-        <v>0</v>
+        <v>88.4</v>
       </c>
       <c r="M39" s="54">
         <f>'RAW GRADES'!CR41</f>
-        <v>0</v>
+        <v>88.4</v>
       </c>
       <c r="N39" s="58">
         <f>'RAW GRADES'!CS41</f>
-        <v>25.308000000000003</v>
+        <v>79.448000000000008</v>
       </c>
       <c r="O39" s="56">
         <f>'RAW GRADES'!CT41</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P39" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -25141,7 +25845,7 @@
       </c>
       <c r="E40" s="52">
         <f>'RAW GRADES'!AN42</f>
-        <v>9.3809523809523814</v>
+        <v>16.080952380952379</v>
       </c>
       <c r="F40" s="52">
         <f>'RAW GRADES'!AU42</f>
@@ -25153,39 +25857,39 @@
       </c>
       <c r="H40" s="53">
         <f>'RAW GRADES'!BC42</f>
-        <v>62.970238095238095</v>
+        <v>69.670238095238091</v>
       </c>
       <c r="I40" s="53">
         <f>'RAW GRADES'!BD42</f>
-        <v>62.97</v>
+        <v>69.67</v>
       </c>
       <c r="J40" s="52">
         <f>'RAW GRADES'!BK42</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K40" s="52">
         <f>'RAW GRADES'!CP42</f>
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="L40" s="52">
         <f>'RAW GRADES'!CQ42</f>
-        <v>0</v>
+        <v>90.7</v>
       </c>
       <c r="M40" s="54">
         <f>'RAW GRADES'!CR42</f>
-        <v>0</v>
+        <v>90.7</v>
       </c>
       <c r="N40" s="58">
         <f>'RAW GRADES'!CS42</f>
-        <v>25.188000000000002</v>
+        <v>82.288000000000011</v>
       </c>
       <c r="O40" s="56">
         <f>'RAW GRADES'!CT42</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="P40" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -27035,8 +27739,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27303,15 +28007,15 @@
       </c>
       <c r="D23" s="68">
         <f>'DEPT CHAIR'!O9</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E23" s="69" t="str">
         <f t="shared" ref="E23:E81" si="0">IF(D23&lt;=3,"3","0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="70" t="str">
         <f>'DEPT CHAIR'!P9</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18">
@@ -27328,15 +28032,15 @@
       </c>
       <c r="D24" s="68">
         <f>'DEPT CHAIR'!O10</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="70" t="str">
         <f>'DEPT CHAIR'!P10</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
@@ -27353,15 +28057,15 @@
       </c>
       <c r="D25" s="68">
         <f>'DEPT CHAIR'!O11</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="70" t="str">
         <f>'DEPT CHAIR'!P11</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18">
@@ -27403,15 +28107,15 @@
       </c>
       <c r="D27" s="68">
         <f>'DEPT CHAIR'!O13</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E27" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="70" t="str">
         <f>'DEPT CHAIR'!P13</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18">
@@ -27453,15 +28157,15 @@
       </c>
       <c r="D29" s="68">
         <f>'DEPT CHAIR'!O15</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E29" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="70" t="str">
         <f>'DEPT CHAIR'!P15</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18">
@@ -27503,15 +28207,15 @@
       </c>
       <c r="D31" s="68">
         <f>'DEPT CHAIR'!O17</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E31" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="70" t="str">
         <f>'DEPT CHAIR'!P17</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18">
@@ -27528,15 +28232,15 @@
       </c>
       <c r="D32" s="68">
         <f>'DEPT CHAIR'!O18</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E32" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="70" t="str">
         <f>'DEPT CHAIR'!P18</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18">
@@ -27553,15 +28257,15 @@
       </c>
       <c r="D33" s="68">
         <f>'DEPT CHAIR'!O19</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E33" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="70" t="str">
         <f>'DEPT CHAIR'!P19</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18">
@@ -27578,15 +28282,15 @@
       </c>
       <c r="D34" s="68">
         <f>'DEPT CHAIR'!O20</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E34" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="70" t="str">
         <f>'DEPT CHAIR'!P20</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18">
@@ -27603,15 +28307,15 @@
       </c>
       <c r="D35" s="68">
         <f>'DEPT CHAIR'!O21</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E35" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="70" t="str">
         <f>'DEPT CHAIR'!P21</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18">
@@ -27628,15 +28332,15 @@
       </c>
       <c r="D36" s="68">
         <f>'DEPT CHAIR'!O22</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="70" t="str">
         <f>'DEPT CHAIR'!P22</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18">
@@ -27653,15 +28357,15 @@
       </c>
       <c r="D37" s="68">
         <f>'DEPT CHAIR'!O23</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E37" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="70" t="str">
         <f>'DEPT CHAIR'!P23</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18">
@@ -27703,15 +28407,15 @@
       </c>
       <c r="D39" s="68">
         <f>'DEPT CHAIR'!O25</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E39" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="70" t="str">
         <f>'DEPT CHAIR'!P25</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18">
@@ -27724,19 +28428,19 @@
       </c>
       <c r="C40" s="67" t="str">
         <f>REGISTRATION!B29</f>
-        <v>201601-069</v>
+        <v>201602-069</v>
       </c>
       <c r="D40" s="68">
         <f>'DEPT CHAIR'!O26</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E40" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" s="70" t="str">
         <f>'DEPT CHAIR'!P26</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18">
@@ -27753,15 +28457,15 @@
       </c>
       <c r="D41" s="68">
         <f>'DEPT CHAIR'!O27</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E41" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="70" t="str">
         <f>'DEPT CHAIR'!P27</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18">
@@ -27803,15 +28507,15 @@
       </c>
       <c r="D43" s="68">
         <f>'DEPT CHAIR'!O29</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E43" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43" s="70" t="str">
         <f>'DEPT CHAIR'!P29</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18">
@@ -27828,15 +28532,15 @@
       </c>
       <c r="D44" s="68">
         <f>'DEPT CHAIR'!O30</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E44" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="70" t="str">
         <f>'DEPT CHAIR'!P30</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18">
@@ -27853,15 +28557,15 @@
       </c>
       <c r="D45" s="68">
         <f>'DEPT CHAIR'!O31</f>
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E45" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="70" t="str">
         <f>'DEPT CHAIR'!P31</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18">
@@ -27903,15 +28607,15 @@
       </c>
       <c r="D47" s="68">
         <f>'DEPT CHAIR'!O33</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E47" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" s="70" t="str">
         <f>'DEPT CHAIR'!P33</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18">
@@ -27928,15 +28632,15 @@
       </c>
       <c r="D48" s="68">
         <f>'DEPT CHAIR'!O34</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48" s="70" t="str">
         <f>'DEPT CHAIR'!P34</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18">
@@ -27953,15 +28657,15 @@
       </c>
       <c r="D49" s="68">
         <f>'DEPT CHAIR'!O35</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E49" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" s="70" t="str">
         <f>'DEPT CHAIR'!P35</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18">
@@ -27978,15 +28682,15 @@
       </c>
       <c r="D50" s="68">
         <f>'DEPT CHAIR'!O36</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E50" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="70" t="str">
         <f>'DEPT CHAIR'!P36</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18">
@@ -28003,15 +28707,15 @@
       </c>
       <c r="D51" s="68">
         <f>'DEPT CHAIR'!O37</f>
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="E51" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51" s="70" t="str">
         <f>'DEPT CHAIR'!P37</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18">
@@ -28028,15 +28732,15 @@
       </c>
       <c r="D52" s="68">
         <f>'DEPT CHAIR'!O38</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E52" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="70" t="str">
         <f>'DEPT CHAIR'!P38</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18">
@@ -28053,15 +28757,15 @@
       </c>
       <c r="D53" s="68">
         <f>'DEPT CHAIR'!O39</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E53" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="70" t="str">
         <f>'DEPT CHAIR'!P39</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18">
@@ -28078,15 +28782,15 @@
       </c>
       <c r="D54" s="68">
         <f>'DEPT CHAIR'!O40</f>
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="E54" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54" s="70" t="str">
         <f>'DEPT CHAIR'!P40</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18">
@@ -28817,7 +29521,7 @@
       <c r="D87" s="60"/>
       <c r="E87" s="255">
         <f ca="1">NOW()</f>
-        <v>43081.658452430558</v>
+        <v>43082.695997337963</v>
       </c>
       <c r="F87" s="255"/>
     </row>
@@ -29004,12 +29708,12 @@
       </c>
       <c r="C108" s="237">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D108" s="238"/>
       <c r="E108" s="239">
         <f>(C108/$C$114)*100</f>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F108" s="240"/>
     </row>
@@ -29020,12 +29724,12 @@
       </c>
       <c r="C109" s="231">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D109" s="232"/>
       <c r="E109" s="233">
         <f>(C109/$C$114)*100</f>
-        <v>1.6666666666666667</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="F109" s="234"/>
     </row>
@@ -29052,12 +29756,12 @@
       </c>
       <c r="C111" s="231">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D111" s="232"/>
       <c r="E111" s="233">
         <f t="shared" si="1"/>
-        <v>98.333333333333329</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="F111" s="234"/>
     </row>
@@ -29103,7 +29807,7 @@
       <c r="D114" s="225"/>
       <c r="E114" s="226">
         <f>SUM(E108:F113)</f>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="F114" s="227"/>
     </row>
@@ -29958,7 +30662,7 @@
       </c>
       <c r="B22" s="111" t="str">
         <f>'SEMESTRAL GRADE'!C40</f>
-        <v>201601-069</v>
+        <v>201602-069</v>
       </c>
       <c r="C22" s="113" t="str">
         <f>'SEMESTRAL GRADE'!B40</f>
